--- a/Test Case/Poornima/Test Case- Out Patient.xlsx
+++ b/Test Case/Poornima/Test Case- Out Patient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mediware\CentralRepository-Mediware\Test Case\Poornima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4BEDAD-98C9-4B03-85B7-56EB4B5B5F33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F99648-F226-4E8B-82A7-A4D1CAE76504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="417">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -982,6 +982,509 @@
 Valid From:27/05/2019
 Valid To:27/05/2020
 MemberId:210</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_032</t>
+  </si>
+  <si>
+    <t>Test case to verify Redirecting to appoinment  while clicking  on Manage Appoinment</t>
+  </si>
+  <si>
+    <t>Precondition: Patient should be add an appoinment
+Launch the URL</t>
+  </si>
+  <si>
+    <t>Select Appoinment List from the header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to click on Appoinment List and List out patients appoinments </t>
+  </si>
+  <si>
+    <t>Select Manage Appoinment</t>
+  </si>
+  <si>
+    <t>User should be able to select Manage appoinment and  Its Navigate to appoinment page and added patient's appoinments should be display on the slots</t>
+  </si>
+  <si>
+    <t>Close the Appoinment Page</t>
+  </si>
+  <si>
+    <t>Navogate to default page(OP page)</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_033</t>
+  </si>
+  <si>
+    <t>Test case to verify selection of doctors from the list in OP</t>
+  </si>
+  <si>
+    <t>Select Doctors from the drop down Or select check box next to doctor dropdown</t>
+  </si>
+  <si>
+    <t>User should be able to select the doctors and List out the patient's appoinment coresponding the selected doctor</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_034</t>
+  </si>
+  <si>
+    <t>Test case to verify selecting the counter in OP</t>
+  </si>
+  <si>
+    <t>Launch the URL</t>
+  </si>
+  <si>
+    <t>User should be able to select Outpatient.A selector counter pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Counter:Marina</t>
+  </si>
+  <si>
+    <t>Select a counter from the dropdown and Click select</t>
+  </si>
+  <si>
+    <t>User should be able to select counter and selected counter should be displayed next to 'MENU' in OP page</t>
+  </si>
+  <si>
+    <t>Doctor:Rasha shehadi</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_035</t>
+  </si>
+  <si>
+    <t>Test case to verify Attaching document to Insurance Details</t>
+  </si>
+  <si>
+    <t>Select Choose file and click on Attach</t>
+  </si>
+  <si>
+    <t>User should be able to attach the Files</t>
+  </si>
+  <si>
+    <t>User should be able to add Insurance to patient's appoinment</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://mediwarecloud.com/mediwareqc/
+</t>
+  </si>
+  <si>
+    <t>Precondition:  Patient should be registered an appoinment.
+Launch the URL</t>
+  </si>
+  <si>
+    <t>Select Medical Record</t>
+  </si>
+  <si>
+    <t>User should be able to select Medical Record and Medical record page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_037</t>
+  </si>
+  <si>
+    <t>test case  to verifying the Lab Result while adding policy</t>
+  </si>
+  <si>
+    <t>test case  to verifying Medical Record while adding policy</t>
+  </si>
+  <si>
+    <t>User should be able to click search and list out the Patient's appoinment details</t>
+  </si>
+  <si>
+    <t>Select Lab result</t>
+  </si>
+  <si>
+    <t>User should be able to select Lab Result and Lab result page should be displayed</t>
+  </si>
+  <si>
+    <t>Select From and To Dates</t>
+  </si>
+  <si>
+    <t>User should be able to select the dates</t>
+  </si>
+  <si>
+    <t>User should be able to click on search option and should be List out the lab results</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_038</t>
+  </si>
+  <si>
+    <t>Select Radiology result</t>
+  </si>
+  <si>
+    <t>User should be able to select Radiology result and Radiology result page should be displayed</t>
+  </si>
+  <si>
+    <t>User should be able to click on search option and should be List out the Radiology result</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_039</t>
+  </si>
+  <si>
+    <t>Test case  to verifying the Radiology Result while adding policy</t>
+  </si>
+  <si>
+    <t>Test case  to verify viewing Previous Bills in add policy</t>
+  </si>
+  <si>
+    <t>Select Prev Bill View</t>
+  </si>
+  <si>
+    <t>User should be able to select Prev Bill View and Prev Bill View page should be displayed</t>
+  </si>
+  <si>
+    <t>User should be able to click on search option and should be List out the previous bill</t>
+  </si>
+  <si>
+    <t>Download a document file and user should be able to view the report in word format</t>
+  </si>
+  <si>
+    <t>Click on Export to Excel on the top right side of the page</t>
+  </si>
+  <si>
+    <t>Click on Export to Word on the top right side of the page</t>
+  </si>
+  <si>
+    <t>Download a Excel file and user should be able to view the report in word format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Close </t>
+  </si>
+  <si>
+    <t>Navigate to Add policy page</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_040</t>
+  </si>
+  <si>
+    <t>Test case  to verify view Policies from add policy</t>
+  </si>
+  <si>
+    <t>Select View Policies</t>
+  </si>
+  <si>
+    <t>User should be able to select View Policies and View Policies pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_041</t>
+  </si>
+  <si>
+    <t>Adding policy to current Ip in OP</t>
+  </si>
+  <si>
+    <t>Select Current IP Check box</t>
+  </si>
+  <si>
+    <t>User should be able to  select check box</t>
+  </si>
+  <si>
+    <t>Current IP:OMAN INSURANCE COMPANY</t>
+  </si>
+  <si>
+    <t>User should be able to click on search and list out the patient appoinment details</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_042</t>
+  </si>
+  <si>
+    <t>Patient  Barcode printing in OP</t>
+  </si>
+  <si>
+    <t>Hovering On Menu and click on Duplicate Barcode Print</t>
+  </si>
+  <si>
+    <t>User should be able to click on Duplicate Barcode Print and Duplicate Barcode Print page should be displayed</t>
+  </si>
+  <si>
+    <t>Choose From and To dates</t>
+  </si>
+  <si>
+    <t>User should be able to choose the dates</t>
+  </si>
+  <si>
+    <t>From:31/5/2019
+To:31/5/2019</t>
+  </si>
+  <si>
+    <t>Click on Show</t>
+  </si>
+  <si>
+    <t>List out patient list coresponding to  the selected dates</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_043</t>
+  </si>
+  <si>
+    <t>Click on Barcode Print</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Printing" message should be displayed </t>
+  </si>
+  <si>
+    <t>Patient  Card printing in OP</t>
+  </si>
+  <si>
+    <t>Click on Card Print</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to OP default page </t>
+  </si>
+  <si>
+    <t>Cancelling Appoinment from appoinment list in OP</t>
+  </si>
+  <si>
+    <t>Select Visit Cancel from the listed appoinment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to select Visit Cancel and a confirmation pop-up should be displayed </t>
+  </si>
+  <si>
+    <t>Click on yes</t>
+  </si>
+  <si>
+    <t>Reason pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Enter valid reason in Enter Reason and select Authority</t>
+  </si>
+  <si>
+    <t>User should be able to enter valid reason and should be able to select authority</t>
+  </si>
+  <si>
+    <t>Enter Reason:Testing
+Authority:IT</t>
+  </si>
+  <si>
+    <t>Click on OK</t>
+  </si>
+  <si>
+    <t>"Visit Cancel successfully" message pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_045</t>
+  </si>
+  <si>
+    <t>List out date wise patient's appoinment in Appoinment List</t>
+  </si>
+  <si>
+    <t>User should be able select  Appoinments list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose From and To dates </t>
+  </si>
+  <si>
+    <t>From:30/5/2019
+To:31/5/2019</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_046</t>
+  </si>
+  <si>
+    <t>User should be able to enter data in the fields</t>
+  </si>
+  <si>
+    <t>Select patient Type:
+GENERAL
+or
+WALK IN</t>
+  </si>
+  <si>
+    <t>User should be able to select Patient Type</t>
+  </si>
+  <si>
+    <t>Enter all the mandatory fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> select National ID and Email Id</t>
+  </si>
+  <si>
+    <t>User should be able to select National and Email Id</t>
+  </si>
+  <si>
+    <t>Click on Personal</t>
+  </si>
+  <si>
+    <t>navigate to personal page</t>
+  </si>
+  <si>
+    <t>Enter data for all fields:
+1.Occupation
+2.Work place
+3.Blood group
+4.Father's Name
+5.Patient Class
+6.Relative's Gender</t>
+  </si>
+  <si>
+    <t>Occupation:Computer engineer
+WorkPlace:tvm
+BloodGroup:b+
+Father's Name: ram
+Patient Class:VIP
+Relative's Gender: female</t>
+  </si>
+  <si>
+    <t>Verify Foreigner option is not selected in the Foreginer section of the New Registration  pop-up</t>
+  </si>
+  <si>
+    <t>User should be able to unselect foreginer option if it is selected by default</t>
+  </si>
+  <si>
+    <t>User should be able to save the registration and a confirmation pop-up should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Click on Yes</t>
+  </si>
+  <si>
+    <t>User should be able to save patient report ,barcode print,medical record</t>
+  </si>
+  <si>
+    <t>Navigate to Home(default) page</t>
+  </si>
+  <si>
+    <t>Hoverin on Menu and click onNew Registration</t>
+  </si>
+  <si>
+    <t>New registration pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_047</t>
+  </si>
+  <si>
+    <t>New Registration based on Consultaion Type in OP</t>
+  </si>
+  <si>
+    <t>New Registration based on patient Type in OP</t>
+  </si>
+  <si>
+    <t>Select Consultation Type:
+Initial
+or
+Followup</t>
+  </si>
+  <si>
+    <t>User should be able to select Consultation Type</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_048</t>
+  </si>
+  <si>
+    <t>New Registration based on Insurance in OP</t>
+  </si>
+  <si>
+    <t>select on Insurance</t>
+  </si>
+  <si>
+    <t>Navigate to Insurance page</t>
+  </si>
+  <si>
+    <t>Select on TPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to select TPA </t>
+  </si>
+  <si>
+    <t>IRIS HEALTH SERVICE</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in the fields and make sure that values for OP Co-Pay % and IP Co-Pay% should not be more than 100</t>
+  </si>
+  <si>
+    <t>Insrance:ORIENT INSURANCE P.J.S.C
+Policy:SILVER
+MemberId:45PI
+From:9/5/2019
+To:26/5/2020
+OpCo-Pay%:62
+IpCo-Pay%:2</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_049</t>
+  </si>
+  <si>
+    <t>New Registration based on Emergency case in OP</t>
+  </si>
+  <si>
+    <t>Enter data in all the mandatory field</t>
+  </si>
+  <si>
+    <t>Click on Emergency</t>
+  </si>
+  <si>
+    <t>A Confirmation pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Click on YES</t>
+  </si>
+  <si>
+    <t>Click on Close</t>
+  </si>
+  <si>
+    <t>Navigate to Home page</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_050</t>
+  </si>
+  <si>
+    <t>New Registration based on MLC patient in OP</t>
+  </si>
+  <si>
+    <t>Click on MLC patient</t>
+  </si>
+  <si>
+    <t>User should be able to select MLC patient</t>
+  </si>
+  <si>
+    <t>Enter a value In MLC</t>
+  </si>
+  <si>
+    <t>User should be able to enter value in MLC</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_051</t>
+  </si>
+  <si>
+    <t>New Registration based on  a Foreigner patient in OP</t>
+  </si>
+  <si>
+    <t>Click on Foreigner</t>
+  </si>
+  <si>
+    <t>Navigate to Foreginer page</t>
+  </si>
+  <si>
+    <t>Select Foreigner</t>
+  </si>
+  <si>
+    <t>User should be able to select foreigner and disabled fields become enabled</t>
+  </si>
+  <si>
+    <t>Passport No:984521
+Issuedate:9/5/2017
+expireddate:28/5/2019</t>
+  </si>
+  <si>
+    <t>click on save option</t>
+  </si>
+  <si>
+    <t>A confirmation pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Click on ok</t>
+  </si>
+  <si>
+    <t>Precondition:1.  Patient should be registered an appoinment.
+2.Set parameter as:
+Hover on MENU&gt;&gt;Utilities&gt;&gt;Parameter
+       a.Registration
+       b.Registration Renewal
+      c.Registration renewal period
+Launch the URL</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1193,12 +1696,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1207,6 +1704,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1217,8 +1717,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1535,11 +2065,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9C3D31-C5E0-4697-A93F-78D6BCE0E40D}">
-  <dimension ref="A1:S723"/>
+  <dimension ref="A1:S724"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D239" sqref="D239:D248"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G160" sqref="G160:H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,14 +2130,14 @@
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="R1" s="19" t="s">
+      <c r="P1" s="25"/>
+      <c r="R1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="19"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1640,7 +2170,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -2343,41 +2873,41 @@
       <c r="C59" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="22" t="s">
         <v>96</v>
       </c>
       <c r="E59" s="11">
         <v>1</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="21" t="s">
+      <c r="H59" s="19" t="s">
         <v>98</v>
       </c>
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D60" s="24"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="11">
         <v>2</v>
       </c>
-      <c r="F60" s="20" t="s">
+      <c r="F60" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H60" s="22" t="s">
+      <c r="H60" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D61" s="24"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="11">
         <v>3</v>
       </c>
@@ -2390,7 +2920,7 @@
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D62" s="24"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="11">
         <v>4</v>
       </c>
@@ -2403,7 +2933,7 @@
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D63" s="25"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="11">
         <v>5</v>
       </c>
@@ -2428,41 +2958,41 @@
       <c r="C65" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="22" t="s">
         <v>110</v>
       </c>
       <c r="E65" s="11">
         <v>1</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="H65" s="19" t="s">
         <v>98</v>
       </c>
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D66" s="24"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="11">
         <v>2</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H66" s="22" t="s">
+      <c r="H66" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D67" s="24"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="11">
         <v>3</v>
       </c>
@@ -2475,7 +3005,7 @@
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D68" s="24"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="11">
         <v>4</v>
       </c>
@@ -2488,7 +3018,7 @@
       <c r="L68" s="4"/>
     </row>
     <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D69" s="24"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="11">
         <v>5</v>
       </c>
@@ -2501,7 +3031,7 @@
       <c r="L69" s="4"/>
     </row>
     <row r="70" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D70" s="24"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="11">
         <v>6</v>
       </c>
@@ -2517,7 +3047,7 @@
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D71" s="25"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="11">
         <v>7</v>
       </c>
@@ -2542,41 +3072,41 @@
       <c r="C73" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="22" t="s">
         <v>120</v>
       </c>
       <c r="E73" s="11">
         <v>1</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G73" s="20" t="s">
+      <c r="G73" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H73" s="21" t="s">
+      <c r="H73" s="19" t="s">
         <v>98</v>
       </c>
       <c r="L73" s="4"/>
     </row>
     <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D74" s="24"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="11">
         <v>2</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G74" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H74" s="22" t="s">
+      <c r="H74" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D75" s="24"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="11">
         <v>3</v>
       </c>
@@ -2589,7 +3119,7 @@
       <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D76" s="24"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="11">
         <v>4</v>
       </c>
@@ -2602,7 +3132,7 @@
       <c r="L76" s="4"/>
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D77" s="24"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="11">
         <v>5</v>
       </c>
@@ -2615,7 +3145,7 @@
       <c r="L77" s="4"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D78" s="24"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="11">
         <v>6</v>
       </c>
@@ -2631,7 +3161,7 @@
       <c r="L78" s="4"/>
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D79" s="24"/>
+      <c r="D79" s="23"/>
       <c r="E79" s="11">
         <v>7</v>
       </c>
@@ -2644,7 +3174,7 @@
       <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D80" s="24"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="11">
         <v>8</v>
       </c>
@@ -2660,7 +3190,7 @@
       <c r="L80" s="4"/>
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D81" s="25"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="11">
         <v>9</v>
       </c>
@@ -2685,41 +3215,41 @@
       <c r="C83" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E83" s="11">
         <v>1</v>
       </c>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="G83" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H83" s="21" t="s">
+      <c r="H83" s="19" t="s">
         <v>98</v>
       </c>
       <c r="L83" s="4"/>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D84" s="24"/>
+      <c r="D84" s="23"/>
       <c r="E84" s="11">
         <v>2</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="G84" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H84" s="22" t="s">
+      <c r="H84" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L84" s="4"/>
     </row>
     <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D85" s="24"/>
+      <c r="D85" s="23"/>
       <c r="E85" s="11">
         <v>3</v>
       </c>
@@ -2732,7 +3262,7 @@
       <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D86" s="24"/>
+      <c r="D86" s="23"/>
       <c r="E86" s="11">
         <v>4</v>
       </c>
@@ -2745,7 +3275,7 @@
       <c r="L86" s="4"/>
     </row>
     <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D87" s="24"/>
+      <c r="D87" s="23"/>
       <c r="E87" s="11">
         <v>5</v>
       </c>
@@ -2758,7 +3288,7 @@
       <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D88" s="24"/>
+      <c r="D88" s="23"/>
       <c r="E88" s="11">
         <v>6</v>
       </c>
@@ -2774,7 +3304,7 @@
       <c r="L88" s="4"/>
     </row>
     <row r="89" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D89" s="24"/>
+      <c r="D89" s="23"/>
       <c r="E89" s="11">
         <v>7</v>
       </c>
@@ -2787,7 +3317,7 @@
       <c r="L89" s="4"/>
     </row>
     <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D90" s="24"/>
+      <c r="D90" s="23"/>
       <c r="E90" s="11">
         <v>8</v>
       </c>
@@ -2800,7 +3330,7 @@
       <c r="L90" s="4"/>
     </row>
     <row r="91" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D91" s="24"/>
+      <c r="D91" s="23"/>
       <c r="E91" s="11">
         <v>9</v>
       </c>
@@ -2813,7 +3343,7 @@
       <c r="L91" s="4"/>
     </row>
     <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D92" s="25"/>
+      <c r="D92" s="24"/>
       <c r="E92" s="11">
         <v>10</v>
       </c>
@@ -2838,41 +3368,41 @@
       <c r="C94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D94" s="23" t="s">
+      <c r="D94" s="22" t="s">
         <v>146</v>
       </c>
       <c r="E94" s="11">
         <v>1</v>
       </c>
-      <c r="F94" s="20" t="s">
+      <c r="F94" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G94" s="20" t="s">
+      <c r="G94" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H94" s="21" t="s">
+      <c r="H94" s="19" t="s">
         <v>98</v>
       </c>
       <c r="L94" s="4"/>
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D95" s="24"/>
+      <c r="D95" s="23"/>
       <c r="E95" s="11">
         <v>2</v>
       </c>
-      <c r="F95" s="20" t="s">
+      <c r="F95" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G95" s="20" t="s">
+      <c r="G95" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H95" s="22" t="s">
+      <c r="H95" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L95" s="4"/>
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D96" s="24"/>
+      <c r="D96" s="23"/>
       <c r="E96" s="11">
         <v>3</v>
       </c>
@@ -2885,7 +3415,7 @@
       <c r="L96" s="4"/>
     </row>
     <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D97" s="24"/>
+      <c r="D97" s="23"/>
       <c r="E97" s="11">
         <v>4</v>
       </c>
@@ -2898,7 +3428,7 @@
       <c r="L97" s="4"/>
     </row>
     <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D98" s="24"/>
+      <c r="D98" s="23"/>
       <c r="E98" s="11">
         <v>5</v>
       </c>
@@ -2911,7 +3441,7 @@
       <c r="L98" s="4"/>
     </row>
     <row r="99" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D99" s="24"/>
+      <c r="D99" s="23"/>
       <c r="E99" s="11">
         <v>6</v>
       </c>
@@ -2927,7 +3457,7 @@
       <c r="L99" s="4"/>
     </row>
     <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D100" s="24"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="11">
         <v>7</v>
       </c>
@@ -2940,7 +3470,7 @@
       <c r="L100" s="4"/>
     </row>
     <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D101" s="24"/>
+      <c r="D101" s="23"/>
       <c r="E101" s="11">
         <v>8</v>
       </c>
@@ -2953,11 +3483,11 @@
       <c r="L101" s="4"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D102" s="24"/>
+      <c r="D102" s="23"/>
       <c r="L102" s="4"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D103" s="25"/>
+      <c r="D103" s="24"/>
       <c r="L103" s="4"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -2973,41 +3503,41 @@
       <c r="C105" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D105" s="22" t="s">
         <v>152</v>
       </c>
       <c r="E105" s="11">
         <v>1</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="F105" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G105" s="20" t="s">
+      <c r="G105" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H105" s="21" t="s">
+      <c r="H105" s="19" t="s">
         <v>98</v>
       </c>
       <c r="L105" s="4"/>
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D106" s="24"/>
+      <c r="D106" s="23"/>
       <c r="E106" s="11">
         <v>2</v>
       </c>
-      <c r="F106" s="20" t="s">
+      <c r="F106" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G106" s="20" t="s">
+      <c r="G106" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H106" s="22" t="s">
+      <c r="H106" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L106" s="4"/>
     </row>
     <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D107" s="24"/>
+      <c r="D107" s="23"/>
       <c r="E107" s="11">
         <v>3</v>
       </c>
@@ -3020,7 +3550,7 @@
       <c r="L107" s="4"/>
     </row>
     <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D108" s="24"/>
+      <c r="D108" s="23"/>
       <c r="E108" s="11">
         <v>4</v>
       </c>
@@ -3033,7 +3563,7 @@
       <c r="L108" s="4"/>
     </row>
     <row r="109" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D109" s="24"/>
+      <c r="D109" s="23"/>
       <c r="E109" s="11">
         <v>5</v>
       </c>
@@ -3046,7 +3576,7 @@
       <c r="L109" s="4"/>
     </row>
     <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D110" s="24"/>
+      <c r="D110" s="23"/>
       <c r="E110" s="11">
         <v>6</v>
       </c>
@@ -3062,7 +3592,7 @@
       <c r="L110" s="4"/>
     </row>
     <row r="111" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D111" s="24"/>
+      <c r="D111" s="23"/>
       <c r="E111" s="11">
         <v>7</v>
       </c>
@@ -3075,7 +3605,7 @@
       <c r="L111" s="4"/>
     </row>
     <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D112" s="24"/>
+      <c r="D112" s="23"/>
       <c r="E112" s="11">
         <v>8</v>
       </c>
@@ -3088,7 +3618,7 @@
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D113" s="24"/>
+      <c r="D113" s="23"/>
       <c r="E113" s="11">
         <v>9</v>
       </c>
@@ -3101,7 +3631,7 @@
       <c r="L113" s="4"/>
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D114" s="25"/>
+      <c r="D114" s="24"/>
       <c r="E114" s="11">
         <v>10</v>
       </c>
@@ -3126,41 +3656,41 @@
       <c r="C116" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D116" s="23" t="s">
+      <c r="D116" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E116" s="11">
         <v>1</v>
       </c>
-      <c r="F116" s="20" t="s">
+      <c r="F116" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G116" s="20" t="s">
+      <c r="G116" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H116" s="21" t="s">
+      <c r="H116" s="19" t="s">
         <v>98</v>
       </c>
       <c r="L116" s="4"/>
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D117" s="24"/>
+      <c r="D117" s="23"/>
       <c r="E117" s="11">
         <v>2</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="F117" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G117" s="20" t="s">
+      <c r="G117" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H117" s="22" t="s">
+      <c r="H117" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L117" s="4"/>
     </row>
     <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D118" s="24"/>
+      <c r="D118" s="23"/>
       <c r="E118" s="11">
         <v>3</v>
       </c>
@@ -3173,7 +3703,7 @@
       <c r="L118" s="4"/>
     </row>
     <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D119" s="24"/>
+      <c r="D119" s="23"/>
       <c r="E119" s="11">
         <v>4</v>
       </c>
@@ -3186,7 +3716,7 @@
       <c r="L119" s="4"/>
     </row>
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D120" s="24"/>
+      <c r="D120" s="23"/>
       <c r="E120" s="11">
         <v>5</v>
       </c>
@@ -3199,7 +3729,7 @@
       <c r="L120" s="4"/>
     </row>
     <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D121" s="24"/>
+      <c r="D121" s="23"/>
       <c r="E121" s="11">
         <v>6</v>
       </c>
@@ -3215,7 +3745,7 @@
       <c r="L121" s="4"/>
     </row>
     <row r="122" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D122" s="24"/>
+      <c r="D122" s="23"/>
       <c r="E122" s="11">
         <v>7</v>
       </c>
@@ -3228,7 +3758,7 @@
       <c r="L122" s="4"/>
     </row>
     <row r="123" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D123" s="25"/>
+      <c r="D123" s="24"/>
       <c r="E123" s="11">
         <v>8</v>
       </c>
@@ -3253,41 +3783,41 @@
       <c r="C125" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="22" t="s">
         <v>171</v>
       </c>
       <c r="E125" s="11">
         <v>1</v>
       </c>
-      <c r="F125" s="20" t="s">
+      <c r="F125" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G125" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H125" s="21" t="s">
+      <c r="H125" s="19" t="s">
         <v>98</v>
       </c>
       <c r="L125" s="4"/>
     </row>
     <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D126" s="24"/>
+      <c r="D126" s="23"/>
       <c r="E126" s="11">
         <v>2</v>
       </c>
-      <c r="F126" s="20" t="s">
+      <c r="F126" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G126" s="20" t="s">
+      <c r="G126" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H126" s="22" t="s">
+      <c r="H126" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L126" s="4"/>
     </row>
     <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D127" s="24"/>
+      <c r="D127" s="23"/>
       <c r="E127" s="11">
         <v>3</v>
       </c>
@@ -3300,7 +3830,7 @@
       <c r="L127" s="4"/>
     </row>
     <row r="128" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D128" s="24"/>
+      <c r="D128" s="23"/>
       <c r="E128" s="11">
         <v>4</v>
       </c>
@@ -3313,7 +3843,7 @@
       <c r="L128" s="4"/>
     </row>
     <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D129" s="24"/>
+      <c r="D129" s="23"/>
       <c r="E129" s="11">
         <v>5</v>
       </c>
@@ -3326,7 +3856,7 @@
       <c r="L129" s="4"/>
     </row>
     <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D130" s="24"/>
+      <c r="D130" s="23"/>
       <c r="E130" s="11">
         <v>6</v>
       </c>
@@ -3342,7 +3872,7 @@
       <c r="L130" s="4"/>
     </row>
     <row r="131" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D131" s="24"/>
+      <c r="D131" s="23"/>
       <c r="E131" s="11">
         <v>7</v>
       </c>
@@ -3355,7 +3885,7 @@
       <c r="L131" s="4"/>
     </row>
     <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D132" s="24"/>
+      <c r="D132" s="23"/>
       <c r="E132" s="11">
         <v>8</v>
       </c>
@@ -3368,7 +3898,7 @@
       <c r="L132" s="4"/>
     </row>
     <row r="133" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D133" s="25"/>
+      <c r="D133" s="24"/>
       <c r="E133" s="11">
         <v>9</v>
       </c>
@@ -3393,41 +3923,41 @@
       <c r="C135" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D135" s="23" t="s">
+      <c r="D135" s="22" t="s">
         <v>180</v>
       </c>
       <c r="E135" s="11">
         <v>1</v>
       </c>
-      <c r="F135" s="20" t="s">
+      <c r="F135" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G135" s="20" t="s">
+      <c r="G135" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H135" s="21" t="s">
+      <c r="H135" s="19" t="s">
         <v>98</v>
       </c>
       <c r="L135" s="4"/>
     </row>
     <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D136" s="24"/>
+      <c r="D136" s="23"/>
       <c r="E136" s="11">
         <v>2</v>
       </c>
-      <c r="F136" s="20" t="s">
+      <c r="F136" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G136" s="20" t="s">
+      <c r="G136" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H136" s="22" t="s">
+      <c r="H136" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L136" s="4"/>
     </row>
     <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D137" s="24"/>
+      <c r="D137" s="23"/>
       <c r="E137" s="11">
         <v>3</v>
       </c>
@@ -3440,7 +3970,7 @@
       <c r="L137" s="4"/>
     </row>
     <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D138" s="24"/>
+      <c r="D138" s="23"/>
       <c r="E138" s="11">
         <v>4</v>
       </c>
@@ -3453,7 +3983,7 @@
       <c r="L138" s="4"/>
     </row>
     <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D139" s="24"/>
+      <c r="D139" s="23"/>
       <c r="E139" s="11">
         <v>5</v>
       </c>
@@ -3466,7 +3996,7 @@
       <c r="L139" s="4"/>
     </row>
     <row r="140" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D140" s="24"/>
+      <c r="D140" s="23"/>
       <c r="E140" s="11">
         <v>6</v>
       </c>
@@ -3482,7 +4012,7 @@
       <c r="L140" s="4"/>
     </row>
     <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D141" s="24"/>
+      <c r="D141" s="23"/>
       <c r="E141" s="11">
         <v>7</v>
       </c>
@@ -3495,7 +4025,7 @@
       <c r="L141" s="4"/>
     </row>
     <row r="142" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D142" s="24"/>
+      <c r="D142" s="23"/>
       <c r="E142" s="11">
         <v>8</v>
       </c>
@@ -3508,7 +4038,7 @@
       <c r="L142" s="4"/>
     </row>
     <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D143" s="25"/>
+      <c r="D143" s="24"/>
       <c r="E143" s="11">
         <v>9</v>
       </c>
@@ -3533,41 +4063,41 @@
       <c r="C145" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D145" s="23" t="s">
+      <c r="D145" s="22" t="s">
         <v>181</v>
       </c>
       <c r="E145" s="11">
         <v>1</v>
       </c>
-      <c r="F145" s="20" t="s">
+      <c r="F145" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G145" s="20" t="s">
+      <c r="G145" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H145" s="21" t="s">
+      <c r="H145" s="19" t="s">
         <v>98</v>
       </c>
       <c r="L145" s="4"/>
     </row>
     <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D146" s="24"/>
+      <c r="D146" s="23"/>
       <c r="E146" s="11">
         <v>2</v>
       </c>
-      <c r="F146" s="20" t="s">
+      <c r="F146" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G146" s="20" t="s">
+      <c r="G146" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H146" s="22" t="s">
+      <c r="H146" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L146" s="4"/>
     </row>
     <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D147" s="24"/>
+      <c r="D147" s="23"/>
       <c r="E147" s="11">
         <v>3</v>
       </c>
@@ -3580,7 +4110,7 @@
       <c r="L147" s="4"/>
     </row>
     <row r="148" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D148" s="24"/>
+      <c r="D148" s="23"/>
       <c r="E148" s="11">
         <v>4</v>
       </c>
@@ -3593,7 +4123,7 @@
       <c r="L148" s="4"/>
     </row>
     <row r="149" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D149" s="25"/>
+      <c r="D149" s="24"/>
       <c r="E149" s="11">
         <v>5</v>
       </c>
@@ -3618,41 +4148,41 @@
       <c r="C151" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D151" s="23" t="s">
+      <c r="D151" s="22" t="s">
         <v>186</v>
       </c>
       <c r="E151" s="11">
         <v>1</v>
       </c>
-      <c r="F151" s="20" t="s">
+      <c r="F151" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G151" s="20" t="s">
+      <c r="G151" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H151" s="21" t="s">
+      <c r="H151" s="19" t="s">
         <v>98</v>
       </c>
       <c r="L151" s="4"/>
     </row>
     <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D152" s="24"/>
+      <c r="D152" s="23"/>
       <c r="E152" s="11">
         <v>2</v>
       </c>
-      <c r="F152" s="20" t="s">
+      <c r="F152" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G152" s="20" t="s">
+      <c r="G152" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H152" s="22" t="s">
+      <c r="H152" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L152" s="4"/>
     </row>
     <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D153" s="24"/>
+      <c r="D153" s="23"/>
       <c r="E153" s="11">
         <v>3</v>
       </c>
@@ -3665,7 +4195,7 @@
       <c r="L153" s="4"/>
     </row>
     <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D154" s="24"/>
+      <c r="D154" s="23"/>
       <c r="E154" s="11">
         <v>4</v>
       </c>
@@ -3678,7 +4208,7 @@
       <c r="L154" s="4"/>
     </row>
     <row r="155" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D155" s="24"/>
+      <c r="D155" s="23"/>
       <c r="F155" s="11" t="s">
         <v>121</v>
       </c>
@@ -3688,7 +4218,7 @@
       <c r="L155" s="4"/>
     </row>
     <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D156" s="24"/>
+      <c r="D156" s="23"/>
       <c r="F156" s="11" t="s">
         <v>190</v>
       </c>
@@ -3701,7 +4231,7 @@
       <c r="L156" s="4"/>
     </row>
     <row r="157" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D157" s="24"/>
+      <c r="D157" s="23"/>
       <c r="F157" s="11" t="s">
         <v>191</v>
       </c>
@@ -3711,7 +4241,7 @@
       <c r="L157" s="4"/>
     </row>
     <row r="158" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D158" s="25"/>
+      <c r="D158" s="24"/>
       <c r="F158" s="11" t="s">
         <v>194</v>
       </c>
@@ -3723,7 +4253,7 @@
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
         <v>195</v>
       </c>
@@ -3733,41 +4263,41 @@
       <c r="C160" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D160" s="23" t="s">
+      <c r="D160" s="22" t="s">
         <v>196</v>
       </c>
       <c r="E160" s="11">
         <v>1</v>
       </c>
-      <c r="F160" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="G160" s="20" t="s">
+      <c r="F160" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="G160" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H160" s="21" t="s">
+      <c r="H160" s="14" t="s">
         <v>198</v>
       </c>
       <c r="L160" s="4"/>
     </row>
     <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D161" s="24"/>
+      <c r="D161" s="23"/>
       <c r="E161" s="11">
         <v>2</v>
       </c>
-      <c r="F161" s="20" t="s">
+      <c r="F161" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G161" s="20" t="s">
+      <c r="G161" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H161" s="22" t="s">
+      <c r="H161" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L161" s="4"/>
     </row>
     <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D162" s="24"/>
+      <c r="D162" s="23"/>
       <c r="E162" s="11">
         <v>3</v>
       </c>
@@ -3780,7 +4310,7 @@
       <c r="L162" s="4"/>
     </row>
     <row r="163" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D163" s="24"/>
+      <c r="D163" s="23"/>
       <c r="E163" s="11">
         <v>4</v>
       </c>
@@ -3793,7 +4323,7 @@
       <c r="L163" s="4"/>
     </row>
     <row r="164" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D164" s="24"/>
+      <c r="D164" s="23"/>
       <c r="E164" s="11">
         <v>5</v>
       </c>
@@ -3806,7 +4336,7 @@
       <c r="L164" s="4"/>
     </row>
     <row r="165" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D165" s="24"/>
+      <c r="D165" s="23"/>
       <c r="E165" s="11">
         <v>6</v>
       </c>
@@ -3819,7 +4349,7 @@
       <c r="L165" s="4"/>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D166" s="24"/>
+      <c r="D166" s="23"/>
       <c r="E166" s="11">
         <v>7</v>
       </c>
@@ -3832,7 +4362,7 @@
       <c r="L166" s="4"/>
     </row>
     <row r="167" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D167" s="25"/>
+      <c r="D167" s="24"/>
       <c r="E167" s="11">
         <v>8</v>
       </c>
@@ -3857,41 +4387,41 @@
       <c r="C169" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D169" s="23" t="s">
+      <c r="D169" s="22" t="s">
         <v>206</v>
       </c>
       <c r="E169" s="11">
         <v>1</v>
       </c>
-      <c r="F169" s="20" t="s">
+      <c r="F169" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G169" s="20" t="s">
+      <c r="G169" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H169" s="21" t="s">
+      <c r="H169" s="19" t="s">
         <v>198</v>
       </c>
       <c r="L169" s="4"/>
     </row>
     <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D170" s="24"/>
+      <c r="D170" s="23"/>
       <c r="E170" s="11">
         <v>2</v>
       </c>
-      <c r="F170" s="20" t="s">
+      <c r="F170" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G170" s="20" t="s">
+      <c r="G170" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H170" s="22" t="s">
+      <c r="H170" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L170" s="4"/>
     </row>
     <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D171" s="24"/>
+      <c r="D171" s="23"/>
       <c r="E171" s="11">
         <v>3</v>
       </c>
@@ -3904,7 +4434,7 @@
       <c r="L171" s="4"/>
     </row>
     <row r="172" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D172" s="24"/>
+      <c r="D172" s="23"/>
       <c r="E172" s="11">
         <v>4</v>
       </c>
@@ -3917,7 +4447,7 @@
       <c r="L172" s="4"/>
     </row>
     <row r="173" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D173" s="24"/>
+      <c r="D173" s="23"/>
       <c r="E173" s="11">
         <v>5</v>
       </c>
@@ -3930,7 +4460,7 @@
       <c r="L173" s="4"/>
     </row>
     <row r="174" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D174" s="24"/>
+      <c r="D174" s="23"/>
       <c r="E174" s="11">
         <v>6</v>
       </c>
@@ -3943,7 +4473,7 @@
       <c r="L174" s="4"/>
     </row>
     <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D175" s="24"/>
+      <c r="D175" s="23"/>
       <c r="E175" s="11">
         <v>7</v>
       </c>
@@ -3956,7 +4486,7 @@
       <c r="L175" s="4"/>
     </row>
     <row r="176" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D176" s="24"/>
+      <c r="D176" s="23"/>
       <c r="E176" s="11">
         <v>8</v>
       </c>
@@ -3969,7 +4499,7 @@
       <c r="L176" s="4"/>
     </row>
     <row r="177" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D177" s="25"/>
+      <c r="D177" s="24"/>
       <c r="E177" s="11">
         <v>9</v>
       </c>
@@ -3982,7 +4512,7 @@
       <c r="L177" s="4"/>
     </row>
     <row r="178" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D178" s="26"/>
+      <c r="D178" s="21"/>
       <c r="E178" s="11">
         <v>10</v>
       </c>
@@ -4007,41 +4537,41 @@
       <c r="C180" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D180" s="23" t="s">
+      <c r="D180" s="22" t="s">
         <v>216</v>
       </c>
       <c r="E180" s="11">
         <v>1</v>
       </c>
-      <c r="F180" s="20" t="s">
+      <c r="F180" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G180" s="20" t="s">
+      <c r="G180" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H180" s="21" t="s">
+      <c r="H180" s="19" t="s">
         <v>198</v>
       </c>
       <c r="L180" s="4"/>
     </row>
     <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D181" s="24"/>
+      <c r="D181" s="23"/>
       <c r="E181" s="11">
         <v>2</v>
       </c>
-      <c r="F181" s="20" t="s">
+      <c r="F181" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G181" s="20" t="s">
+      <c r="G181" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H181" s="22" t="s">
+      <c r="H181" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L181" s="4"/>
     </row>
     <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D182" s="24"/>
+      <c r="D182" s="23"/>
       <c r="E182" s="11">
         <v>3</v>
       </c>
@@ -4054,7 +4584,7 @@
       <c r="L182" s="4"/>
     </row>
     <row r="183" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D183" s="24"/>
+      <c r="D183" s="23"/>
       <c r="E183" s="11">
         <v>4</v>
       </c>
@@ -4067,7 +4597,7 @@
       <c r="L183" s="4"/>
     </row>
     <row r="184" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D184" s="24"/>
+      <c r="D184" s="23"/>
       <c r="E184" s="11">
         <v>5</v>
       </c>
@@ -4080,7 +4610,7 @@
       <c r="L184" s="4"/>
     </row>
     <row r="185" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D185" s="24"/>
+      <c r="D185" s="23"/>
       <c r="E185" s="11">
         <v>6</v>
       </c>
@@ -4093,7 +4623,7 @@
       <c r="L185" s="4"/>
     </row>
     <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D186" s="24"/>
+      <c r="D186" s="23"/>
       <c r="E186" s="11">
         <v>7</v>
       </c>
@@ -4106,7 +4636,7 @@
       <c r="L186" s="4"/>
     </row>
     <row r="187" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D187" s="24"/>
+      <c r="D187" s="23"/>
       <c r="E187" s="11">
         <v>8</v>
       </c>
@@ -4119,7 +4649,7 @@
       <c r="L187" s="4"/>
     </row>
     <row r="188" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D188" s="24"/>
+      <c r="D188" s="23"/>
       <c r="E188" s="11">
         <v>9</v>
       </c>
@@ -4132,7 +4662,7 @@
       <c r="L188" s="4"/>
     </row>
     <row r="189" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D189" s="24"/>
+      <c r="D189" s="23"/>
       <c r="E189" s="11">
         <v>10</v>
       </c>
@@ -4145,7 +4675,7 @@
       <c r="L189" s="4"/>
     </row>
     <row r="190" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D190" s="25"/>
+      <c r="D190" s="24"/>
       <c r="E190" s="11">
         <v>11</v>
       </c>
@@ -4170,41 +4700,41 @@
       <c r="C192" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D192" s="23" t="s">
+      <c r="D192" s="22" t="s">
         <v>217</v>
       </c>
       <c r="E192" s="11">
         <v>1</v>
       </c>
-      <c r="F192" s="20" t="s">
+      <c r="F192" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G192" s="20" t="s">
+      <c r="G192" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H192" s="21" t="s">
+      <c r="H192" s="19" t="s">
         <v>198</v>
       </c>
       <c r="L192" s="4"/>
     </row>
     <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D193" s="24"/>
+      <c r="D193" s="23"/>
       <c r="E193" s="11">
         <v>2</v>
       </c>
-      <c r="F193" s="20" t="s">
+      <c r="F193" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G193" s="20" t="s">
+      <c r="G193" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H193" s="22" t="s">
+      <c r="H193" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L193" s="4"/>
     </row>
     <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D194" s="24"/>
+      <c r="D194" s="23"/>
       <c r="E194" s="11">
         <v>3</v>
       </c>
@@ -4217,7 +4747,7 @@
       <c r="L194" s="4"/>
     </row>
     <row r="195" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D195" s="24"/>
+      <c r="D195" s="23"/>
       <c r="E195" s="11">
         <v>4</v>
       </c>
@@ -4230,7 +4760,7 @@
       <c r="L195" s="4"/>
     </row>
     <row r="196" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D196" s="24"/>
+      <c r="D196" s="23"/>
       <c r="E196" s="11">
         <v>5</v>
       </c>
@@ -4243,7 +4773,7 @@
       <c r="L196" s="4"/>
     </row>
     <row r="197" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D197" s="24"/>
+      <c r="D197" s="23"/>
       <c r="E197" s="11">
         <v>6</v>
       </c>
@@ -4256,7 +4786,7 @@
       <c r="L197" s="4"/>
     </row>
     <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D198" s="24"/>
+      <c r="D198" s="23"/>
       <c r="E198" s="11">
         <v>7</v>
       </c>
@@ -4269,7 +4799,7 @@
       <c r="L198" s="4"/>
     </row>
     <row r="199" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D199" s="24"/>
+      <c r="D199" s="23"/>
       <c r="E199" s="11">
         <v>8</v>
       </c>
@@ -4282,7 +4812,7 @@
       <c r="L199" s="4"/>
     </row>
     <row r="200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D200" s="25"/>
+      <c r="D200" s="24"/>
       <c r="E200" s="11">
         <v>9</v>
       </c>
@@ -4307,41 +4837,41 @@
       <c r="C202" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D202" s="23" t="s">
+      <c r="D202" s="22" t="s">
         <v>222</v>
       </c>
       <c r="E202" s="11">
         <v>1</v>
       </c>
-      <c r="F202" s="20" t="s">
+      <c r="F202" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G202" s="20" t="s">
+      <c r="G202" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H202" s="21" t="s">
+      <c r="H202" s="19" t="s">
         <v>198</v>
       </c>
       <c r="L202" s="4"/>
     </row>
     <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D203" s="24"/>
+      <c r="D203" s="23"/>
       <c r="E203" s="11">
         <v>2</v>
       </c>
-      <c r="F203" s="20" t="s">
+      <c r="F203" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G203" s="20" t="s">
+      <c r="G203" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H203" s="22" t="s">
+      <c r="H203" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L203" s="4"/>
     </row>
     <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D204" s="24"/>
+      <c r="D204" s="23"/>
       <c r="E204" s="11">
         <v>3</v>
       </c>
@@ -4354,7 +4884,7 @@
       <c r="L204" s="4"/>
     </row>
     <row r="205" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D205" s="24"/>
+      <c r="D205" s="23"/>
       <c r="E205" s="11">
         <v>4</v>
       </c>
@@ -4367,7 +4897,7 @@
       <c r="L205" s="4"/>
     </row>
     <row r="206" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D206" s="24"/>
+      <c r="D206" s="23"/>
       <c r="E206" s="11">
         <v>5</v>
       </c>
@@ -4380,7 +4910,7 @@
       <c r="L206" s="4"/>
     </row>
     <row r="207" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D207" s="24"/>
+      <c r="D207" s="23"/>
       <c r="E207" s="11">
         <v>6</v>
       </c>
@@ -4393,7 +4923,7 @@
       <c r="L207" s="4"/>
     </row>
     <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D208" s="24"/>
+      <c r="D208" s="23"/>
       <c r="E208" s="11">
         <v>7</v>
       </c>
@@ -4406,7 +4936,7 @@
       <c r="L208" s="4"/>
     </row>
     <row r="209" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="D209" s="24"/>
+      <c r="D209" s="23"/>
       <c r="E209" s="11">
         <v>8</v>
       </c>
@@ -4419,7 +4949,7 @@
       <c r="L209" s="4"/>
     </row>
     <row r="210" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D210" s="25"/>
+      <c r="D210" s="24"/>
       <c r="E210" s="11">
         <v>9</v>
       </c>
@@ -4444,41 +4974,41 @@
       <c r="C212" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D212" s="23" t="s">
+      <c r="D212" s="22" t="s">
         <v>227</v>
       </c>
       <c r="E212" s="11">
         <v>1</v>
       </c>
-      <c r="F212" s="20" t="s">
+      <c r="F212" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G212" s="20" t="s">
+      <c r="G212" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H212" s="21" t="s">
+      <c r="H212" s="19" t="s">
         <v>198</v>
       </c>
       <c r="L212" s="4"/>
     </row>
     <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D213" s="24"/>
+      <c r="D213" s="23"/>
       <c r="E213" s="11">
         <v>2</v>
       </c>
-      <c r="F213" s="20" t="s">
+      <c r="F213" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G213" s="20" t="s">
+      <c r="G213" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H213" s="22" t="s">
+      <c r="H213" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L213" s="4"/>
     </row>
     <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D214" s="24"/>
+      <c r="D214" s="23"/>
       <c r="E214" s="11">
         <v>3</v>
       </c>
@@ -4491,7 +5021,7 @@
       <c r="L214" s="4"/>
     </row>
     <row r="215" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D215" s="24"/>
+      <c r="D215" s="23"/>
       <c r="E215" s="11">
         <v>4</v>
       </c>
@@ -4504,7 +5034,7 @@
       <c r="L215" s="4"/>
     </row>
     <row r="216" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D216" s="24"/>
+      <c r="D216" s="23"/>
       <c r="E216" s="11">
         <v>5</v>
       </c>
@@ -4517,7 +5047,7 @@
       <c r="L216" s="4"/>
     </row>
     <row r="217" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D217" s="24"/>
+      <c r="D217" s="23"/>
       <c r="E217" s="11">
         <v>6</v>
       </c>
@@ -4530,7 +5060,7 @@
       <c r="L217" s="4"/>
     </row>
     <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D218" s="24"/>
+      <c r="D218" s="23"/>
       <c r="E218" s="11">
         <v>7</v>
       </c>
@@ -4543,7 +5073,7 @@
       <c r="L218" s="4"/>
     </row>
     <row r="219" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D219" s="24"/>
+      <c r="D219" s="23"/>
       <c r="E219" s="11">
         <v>8</v>
       </c>
@@ -4556,7 +5086,7 @@
       <c r="L219" s="4"/>
     </row>
     <row r="220" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D220" s="25"/>
+      <c r="D220" s="24"/>
       <c r="E220" s="11">
         <v>9</v>
       </c>
@@ -4581,41 +5111,41 @@
       <c r="C222" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D222" s="23" t="s">
+      <c r="D222" s="22" t="s">
         <v>231</v>
       </c>
       <c r="E222" s="11">
         <v>1</v>
       </c>
-      <c r="F222" s="20" t="s">
+      <c r="F222" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G222" s="20" t="s">
+      <c r="G222" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H222" s="21" t="s">
+      <c r="H222" s="19" t="s">
         <v>198</v>
       </c>
       <c r="L222" s="4"/>
     </row>
     <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D223" s="24"/>
+      <c r="D223" s="23"/>
       <c r="E223" s="11">
         <v>2</v>
       </c>
-      <c r="F223" s="20" t="s">
+      <c r="F223" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G223" s="20" t="s">
+      <c r="G223" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H223" s="22" t="s">
+      <c r="H223" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L223" s="4"/>
     </row>
     <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D224" s="24"/>
+      <c r="D224" s="23"/>
       <c r="E224" s="11">
         <v>3</v>
       </c>
@@ -4628,7 +5158,7 @@
       <c r="L224" s="4"/>
     </row>
     <row r="225" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D225" s="24"/>
+      <c r="D225" s="23"/>
       <c r="E225" s="11">
         <v>4</v>
       </c>
@@ -4641,7 +5171,7 @@
       <c r="L225" s="4"/>
     </row>
     <row r="226" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D226" s="24"/>
+      <c r="D226" s="23"/>
       <c r="E226" s="11">
         <v>5</v>
       </c>
@@ -4654,7 +5184,7 @@
       <c r="L226" s="4"/>
     </row>
     <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D227" s="24"/>
+      <c r="D227" s="23"/>
       <c r="E227" s="11">
         <v>6</v>
       </c>
@@ -4667,7 +5197,7 @@
       <c r="L227" s="4"/>
     </row>
     <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D228" s="25"/>
+      <c r="D228" s="24"/>
       <c r="E228" s="11">
         <v>7</v>
       </c>
@@ -4692,41 +5222,41 @@
       <c r="C230" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D230" s="23" t="s">
+      <c r="D230" s="22" t="s">
         <v>247</v>
       </c>
       <c r="E230" s="11">
         <v>1</v>
       </c>
-      <c r="F230" s="20" t="s">
+      <c r="F230" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G230" s="20" t="s">
+      <c r="G230" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H230" s="21" t="s">
+      <c r="H230" s="19" t="s">
         <v>198</v>
       </c>
       <c r="L230" s="4"/>
     </row>
     <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D231" s="24"/>
+      <c r="D231" s="23"/>
       <c r="E231" s="11">
         <v>2</v>
       </c>
-      <c r="F231" s="20" t="s">
+      <c r="F231" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G231" s="20" t="s">
+      <c r="G231" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H231" s="22" t="s">
+      <c r="H231" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L231" s="4"/>
     </row>
     <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D232" s="24"/>
+      <c r="D232" s="23"/>
       <c r="E232" s="11">
         <v>3</v>
       </c>
@@ -4739,7 +5269,7 @@
       <c r="L232" s="4"/>
     </row>
     <row r="233" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D233" s="24"/>
+      <c r="D233" s="23"/>
       <c r="E233" s="11">
         <v>4</v>
       </c>
@@ -4752,7 +5282,7 @@
       <c r="L233" s="4"/>
     </row>
     <row r="234" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D234" s="24"/>
+      <c r="D234" s="23"/>
       <c r="E234" s="11">
         <v>5</v>
       </c>
@@ -4765,7 +5295,7 @@
       <c r="L234" s="4"/>
     </row>
     <row r="235" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D235" s="24"/>
+      <c r="D235" s="23"/>
       <c r="E235" s="11">
         <v>6</v>
       </c>
@@ -4781,7 +5311,7 @@
       <c r="L235" s="4"/>
     </row>
     <row r="236" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D236" s="24"/>
+      <c r="D236" s="23"/>
       <c r="E236" s="11">
         <v>7</v>
       </c>
@@ -4794,7 +5324,7 @@
       <c r="L236" s="4"/>
     </row>
     <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D237" s="25"/>
+      <c r="D237" s="24"/>
       <c r="E237" s="11">
         <v>8</v>
       </c>
@@ -4819,41 +5349,41 @@
       <c r="C239" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D239" s="23" t="s">
+      <c r="D239" s="22" t="s">
         <v>248</v>
       </c>
       <c r="E239" s="11">
         <v>1</v>
       </c>
-      <c r="F239" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="G239" s="20" t="s">
+      <c r="F239" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="G239" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H239" s="21" t="s">
+      <c r="H239" s="19" t="s">
         <v>198</v>
       </c>
       <c r="L239" s="4"/>
     </row>
     <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D240" s="24"/>
+      <c r="D240" s="23"/>
       <c r="E240" s="11">
         <v>2</v>
       </c>
-      <c r="F240" s="20" t="s">
+      <c r="F240" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G240" s="20" t="s">
+      <c r="G240" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H240" s="22" t="s">
+      <c r="H240" s="20" t="s">
         <v>101</v>
       </c>
       <c r="L240" s="4"/>
     </row>
-    <row r="241" spans="4:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D241" s="24"/>
+    <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D241" s="23"/>
       <c r="E241" s="11">
         <v>3</v>
       </c>
@@ -4865,8 +5395,8 @@
       </c>
       <c r="L241" s="4"/>
     </row>
-    <row r="242" spans="4:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D242" s="24"/>
+    <row r="242" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D242" s="23"/>
       <c r="E242" s="11">
         <v>4</v>
       </c>
@@ -4878,8 +5408,8 @@
       </c>
       <c r="L242" s="4"/>
     </row>
-    <row r="243" spans="4:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D243" s="24"/>
+    <row r="243" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D243" s="23"/>
       <c r="E243" s="11">
         <v>5</v>
       </c>
@@ -4891,8 +5421,11 @@
       </c>
       <c r="L243" s="4"/>
     </row>
-    <row r="244" spans="4:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D244" s="24"/>
+    <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D244" s="23"/>
+      <c r="E244" s="11">
+        <v>6</v>
+      </c>
       <c r="F244" s="11" t="s">
         <v>251</v>
       </c>
@@ -4904,8 +5437,11 @@
       </c>
       <c r="L244" s="4"/>
     </row>
-    <row r="245" spans="4:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D245" s="24"/>
+    <row r="245" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D245" s="23"/>
+      <c r="E245" s="11">
+        <v>7</v>
+      </c>
       <c r="F245" s="11" t="s">
         <v>254</v>
       </c>
@@ -4914,8 +5450,11 @@
       </c>
       <c r="L245" s="4"/>
     </row>
-    <row r="246" spans="4:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D246" s="24"/>
+    <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D246" s="23"/>
+      <c r="E246" s="11">
+        <v>8</v>
+      </c>
       <c r="F246" s="11" t="s">
         <v>256</v>
       </c>
@@ -4924,8 +5463,11 @@
       </c>
       <c r="L246" s="4"/>
     </row>
-    <row r="247" spans="4:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="D247" s="24"/>
+    <row r="247" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="D247" s="23"/>
+      <c r="E247" s="11">
+        <v>9</v>
+      </c>
       <c r="F247" s="11" t="s">
         <v>258</v>
       </c>
@@ -4937,8 +5479,11 @@
       </c>
       <c r="L247" s="4"/>
     </row>
-    <row r="248" spans="4:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D248" s="25"/>
+    <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D248" s="24"/>
+      <c r="E248" s="11">
+        <v>10</v>
+      </c>
       <c r="F248" s="11" t="s">
         <v>259</v>
       </c>
@@ -4947,652 +5492,2920 @@
       </c>
       <c r="L248" s="4"/>
     </row>
-    <row r="249" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L249" s="4"/>
     </row>
-    <row r="250" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D250" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E250" s="11">
+        <v>1</v>
+      </c>
+      <c r="F250" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G250" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H250" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="L250" s="4"/>
     </row>
-    <row r="251" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D251" s="23"/>
+      <c r="E251" s="11">
+        <v>2</v>
+      </c>
+      <c r="F251" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G251" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H251" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="L251" s="4"/>
     </row>
-    <row r="252" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D252" s="23"/>
+      <c r="E252" s="11">
+        <v>3</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G252" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L252" s="4"/>
     </row>
-    <row r="253" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D253" s="23"/>
+      <c r="E253" s="11">
+        <v>4</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G253" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L253" s="4"/>
     </row>
-    <row r="254" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D254" s="23"/>
+      <c r="E254" s="11">
+        <v>5</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="L254" s="4"/>
     </row>
-    <row r="255" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="D255" s="23"/>
+      <c r="E255" s="11">
+        <v>6</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G255" s="11" t="s">
+        <v>268</v>
+      </c>
       <c r="L255" s="4"/>
     </row>
-    <row r="256" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D256" s="24"/>
+      <c r="E256" s="11">
+        <v>7</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G256" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="L256" s="4"/>
     </row>
-    <row r="257" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L257" s="4"/>
-    </row>
-    <row r="258" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="28"/>
+      <c r="B257" s="28"/>
+      <c r="D257" s="28"/>
+      <c r="E257" s="28"/>
+      <c r="F257" s="28"/>
+      <c r="G257" s="28"/>
+      <c r="H257" s="28"/>
+      <c r="I257" s="28"/>
+      <c r="L257" s="34"/>
+    </row>
+    <row r="258" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A258" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D258" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E258" s="11">
+        <v>1</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G258" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H258" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L258" s="4"/>
     </row>
-    <row r="259" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D259" s="27"/>
+      <c r="E259" s="11">
+        <v>2</v>
+      </c>
+      <c r="F259" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G259" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H259" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="L259" s="4"/>
     </row>
-    <row r="260" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L260" s="4"/>
-    </row>
-    <row r="261" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="29"/>
+      <c r="B260" s="29"/>
+      <c r="D260" s="23"/>
+      <c r="E260" s="29">
+        <v>3</v>
+      </c>
+      <c r="F260" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G260" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H260" s="29"/>
+      <c r="I260" s="29"/>
+      <c r="L260" s="31"/>
+    </row>
+    <row r="261" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D261" s="23"/>
+      <c r="E261" s="11">
+        <v>4</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G261" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L261" s="4"/>
     </row>
-    <row r="262" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D262" s="24"/>
+      <c r="E262" s="11">
+        <v>5</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="H262" s="11" t="s">
+        <v>282</v>
+      </c>
       <c r="L262" s="4"/>
     </row>
-    <row r="263" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L263" s="4"/>
     </row>
-    <row r="264" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D264" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E264" s="11">
+        <v>1</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G264" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H264" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="L264" s="4"/>
     </row>
-    <row r="265" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D265" s="23"/>
+      <c r="E265" s="11">
+        <v>2</v>
+      </c>
+      <c r="F265" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G265" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H265" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="L265" s="4"/>
     </row>
-    <row r="266" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D266" s="23"/>
+      <c r="E266" s="11">
+        <v>3</v>
+      </c>
+      <c r="F266" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G266" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L266" s="4"/>
     </row>
-    <row r="267" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D267" s="23"/>
+      <c r="E267" s="11">
+        <v>4</v>
+      </c>
+      <c r="F267" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G267" s="11" t="s">
+        <v>278</v>
+      </c>
       <c r="L267" s="4"/>
     </row>
-    <row r="268" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D268" s="24"/>
+      <c r="E268" s="11">
+        <v>5</v>
+      </c>
+      <c r="F268" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G268" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="H268" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="L268" s="4"/>
     </row>
-    <row r="269" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L269" s="4"/>
     </row>
-    <row r="270" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A270" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D270" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E270" s="11">
+        <v>1</v>
+      </c>
+      <c r="F270" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G270" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H270" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="L270" s="4"/>
     </row>
-    <row r="271" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D271" s="23"/>
+      <c r="E271" s="11">
+        <v>2</v>
+      </c>
+      <c r="F271" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G271" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H271" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="L271" s="4"/>
     </row>
-    <row r="272" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D272" s="23"/>
+      <c r="E272" s="11">
+        <v>3</v>
+      </c>
+      <c r="F272" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G272" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L272" s="4"/>
     </row>
-    <row r="273" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D273" s="23"/>
+      <c r="E273" s="11">
+        <v>4</v>
+      </c>
+      <c r="F273" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G273" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="L273" s="4"/>
     </row>
-    <row r="274" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D274" s="23"/>
+      <c r="E274" s="11">
+        <v>5</v>
+      </c>
+      <c r="F274" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G274" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="L274" s="4"/>
     </row>
-    <row r="275" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D275" s="23"/>
+      <c r="E275" s="11">
+        <v>6</v>
+      </c>
+      <c r="F275" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G275" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H275" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="L275" s="4"/>
     </row>
-    <row r="276" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D276" s="23"/>
+      <c r="E276" s="11">
+        <v>7</v>
+      </c>
+      <c r="F276" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G276" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="L276" s="4"/>
     </row>
-    <row r="277" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D277" s="23"/>
+      <c r="E277" s="11">
+        <v>8</v>
+      </c>
+      <c r="F277" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G277" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="L277" s="4"/>
     </row>
-    <row r="278" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D278" s="23"/>
+      <c r="E278" s="11">
+        <v>9</v>
+      </c>
+      <c r="F278" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G278" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="L278" s="4"/>
     </row>
-    <row r="279" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D279" s="23"/>
+      <c r="E279" s="11">
+        <v>10</v>
+      </c>
+      <c r="F279" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G279" s="11" t="s">
+        <v>286</v>
+      </c>
       <c r="L279" s="4"/>
     </row>
-    <row r="280" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D280" s="24"/>
+      <c r="E280" s="11">
+        <v>11</v>
+      </c>
+      <c r="F280" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G280" s="11" t="s">
+        <v>287</v>
+      </c>
       <c r="L280" s="4"/>
     </row>
-    <row r="281" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L281" s="4"/>
     </row>
-    <row r="282" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A282" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D282" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="E282" s="11">
+        <v>1</v>
+      </c>
+      <c r="F282" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G282" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H282" s="19" t="s">
+        <v>289</v>
+      </c>
       <c r="L282" s="4"/>
     </row>
-    <row r="283" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D283" s="23"/>
+      <c r="E283" s="11">
+        <v>2</v>
+      </c>
+      <c r="F283" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G283" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H283" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="L283" s="4"/>
     </row>
-    <row r="284" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D284" s="23"/>
+      <c r="E284" s="11">
+        <v>3</v>
+      </c>
+      <c r="F284" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G284" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L284" s="4"/>
     </row>
-    <row r="285" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D285" s="23"/>
+      <c r="E285" s="11">
+        <v>4</v>
+      </c>
+      <c r="F285" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G285" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L285" s="4"/>
     </row>
-    <row r="286" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D286" s="23"/>
+      <c r="E286" s="11">
+        <v>5</v>
+      </c>
+      <c r="F286" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G286" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="L286" s="4"/>
     </row>
-    <row r="287" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D287" s="23"/>
+      <c r="E287" s="11">
+        <v>6</v>
+      </c>
+      <c r="F287" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G287" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H287" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="L287" s="4"/>
     </row>
-    <row r="288" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D288" s="23"/>
+      <c r="E288" s="11">
+        <v>7</v>
+      </c>
+      <c r="F288" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G288" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="L288" s="4"/>
     </row>
-    <row r="289" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D289" s="24"/>
+      <c r="E289" s="11">
+        <v>8</v>
+      </c>
+      <c r="F289" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G289" s="11" t="s">
+        <v>292</v>
+      </c>
       <c r="L289" s="4"/>
     </row>
-    <row r="290" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L290" s="4"/>
-    </row>
-    <row r="291" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="28"/>
+      <c r="B290" s="28"/>
+      <c r="D290" s="28"/>
+      <c r="E290" s="28"/>
+      <c r="F290" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="G290" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="H290" s="28"/>
+      <c r="I290" s="28"/>
+      <c r="L290" s="34"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F291" s="28"/>
       <c r="L291" s="4"/>
     </row>
-    <row r="292" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A292" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D292" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E292" s="11">
+        <v>1</v>
+      </c>
+      <c r="F292" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G292" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H292" s="14" t="s">
+        <v>289</v>
+      </c>
       <c r="L292" s="4"/>
     </row>
-    <row r="293" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D293" s="27"/>
+      <c r="E293" s="11">
+        <v>2</v>
+      </c>
+      <c r="F293" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G293" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H293" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="L293" s="4"/>
     </row>
-    <row r="294" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L294" s="4"/>
-    </row>
-    <row r="295" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="29"/>
+      <c r="B294" s="29"/>
+      <c r="D294" s="23"/>
+      <c r="E294" s="29">
+        <v>3</v>
+      </c>
+      <c r="F294" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G294" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H294" s="29"/>
+      <c r="I294" s="29"/>
+      <c r="L294" s="31"/>
+    </row>
+    <row r="295" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D295" s="23"/>
+      <c r="E295" s="11">
+        <v>4</v>
+      </c>
+      <c r="F295" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G295" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L295" s="4"/>
     </row>
-    <row r="296" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D296" s="23"/>
+      <c r="E296" s="11">
+        <v>5</v>
+      </c>
+      <c r="F296" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G296" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="L296" s="4"/>
     </row>
-    <row r="297" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D297" s="23"/>
+      <c r="E297" s="11">
+        <v>6</v>
+      </c>
+      <c r="F297" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G297" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H297" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="L297" s="4"/>
     </row>
-    <row r="298" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D298" s="23"/>
+      <c r="E298" s="11">
+        <v>7</v>
+      </c>
+      <c r="F298" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G298" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D299" s="23"/>
+      <c r="E299" s="11">
+        <v>8</v>
+      </c>
+      <c r="F299" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="G299" s="11" t="s">
+        <v>298</v>
+      </c>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D300" s="23"/>
+      <c r="E300" s="11">
+        <v>9</v>
+      </c>
+      <c r="F300" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G300" s="11" t="s">
+        <v>300</v>
+      </c>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D301" s="24"/>
+      <c r="E301" s="11">
+        <v>10</v>
+      </c>
+      <c r="F301" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G301" s="11" t="s">
+        <v>301</v>
+      </c>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L302" s="4"/>
-    </row>
-    <row r="303" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="28"/>
+      <c r="B302" s="28"/>
+      <c r="D302" s="28"/>
+      <c r="E302" s="28">
+        <v>11</v>
+      </c>
+      <c r="F302" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="G302" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="H302" s="28"/>
+      <c r="I302" s="28"/>
+      <c r="L302" s="34"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D303" s="28"/>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A304" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D304" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E304" s="11">
+        <v>1</v>
+      </c>
+      <c r="F304" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G304" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H304" s="14" t="s">
+        <v>289</v>
+      </c>
       <c r="L304" s="4"/>
     </row>
-    <row r="305" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D305" s="27"/>
+      <c r="E305" s="11">
+        <v>2</v>
+      </c>
+      <c r="F305" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G305" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H305" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="L305" s="4"/>
     </row>
-    <row r="306" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L306" s="4"/>
-    </row>
-    <row r="307" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" s="29"/>
+      <c r="B306" s="29"/>
+      <c r="D306" s="27"/>
+      <c r="E306" s="29">
+        <v>3</v>
+      </c>
+      <c r="F306" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G306" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H306" s="29"/>
+      <c r="I306" s="29"/>
+      <c r="L306" s="31"/>
+    </row>
+    <row r="307" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D307" s="27"/>
+      <c r="E307" s="11">
+        <v>4</v>
+      </c>
+      <c r="F307" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G307" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L307" s="4"/>
     </row>
-    <row r="308" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D308" s="27"/>
+      <c r="E308" s="11">
+        <v>5</v>
+      </c>
+      <c r="F308" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G308" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="L308" s="4"/>
     </row>
-    <row r="309" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D309" s="27"/>
+      <c r="E309" s="11">
+        <v>6</v>
+      </c>
+      <c r="F309" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G309" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H309" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="L309" s="4"/>
     </row>
-    <row r="310" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D310" s="27"/>
+      <c r="E310" s="11">
+        <v>7</v>
+      </c>
+      <c r="F310" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G310" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="L310" s="4"/>
     </row>
-    <row r="311" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D311" s="27"/>
+      <c r="E311" s="11">
+        <v>8</v>
+      </c>
+      <c r="F311" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G311" s="11" t="s">
+        <v>304</v>
+      </c>
       <c r="L311" s="4"/>
     </row>
-    <row r="312" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D312" s="27"/>
+      <c r="E312" s="11">
+        <v>9</v>
+      </c>
+      <c r="F312" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G312" s="11" t="s">
+        <v>300</v>
+      </c>
       <c r="L312" s="4"/>
     </row>
-    <row r="313" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D313" s="27"/>
+      <c r="E313" s="11">
+        <v>10</v>
+      </c>
+      <c r="F313" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G313" s="11" t="s">
+        <v>305</v>
+      </c>
       <c r="L313" s="4"/>
     </row>
-    <row r="314" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D314" s="29"/>
+      <c r="E314" s="11">
+        <v>11</v>
+      </c>
+      <c r="F314" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G314" s="11" t="s">
+        <v>317</v>
+      </c>
       <c r="L314" s="4"/>
     </row>
-    <row r="315" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L315" s="4"/>
     </row>
-    <row r="316" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A316" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D316" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E316" s="11">
+        <v>1</v>
+      </c>
+      <c r="F316" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G316" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H316" s="14" t="s">
+        <v>289</v>
+      </c>
       <c r="L316" s="4"/>
     </row>
-    <row r="317" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D317" s="23"/>
+      <c r="E317" s="11">
+        <v>2</v>
+      </c>
+      <c r="F317" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G317" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H317" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="L317" s="4"/>
     </row>
-    <row r="318" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D318" s="23"/>
+      <c r="E318" s="11">
+        <v>3</v>
+      </c>
+      <c r="F318" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G318" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L318" s="4"/>
     </row>
-    <row r="319" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D319" s="23"/>
+      <c r="E319" s="11">
+        <v>4</v>
+      </c>
+      <c r="F319" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G319" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L319" s="4"/>
     </row>
-    <row r="320" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D320" s="23"/>
+      <c r="E320" s="11">
+        <v>5</v>
+      </c>
+      <c r="F320" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G320" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="L320" s="4"/>
     </row>
-    <row r="321" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D321" s="23"/>
+      <c r="E321" s="11">
+        <v>6</v>
+      </c>
+      <c r="F321" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G321" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H321" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="L321" s="4"/>
     </row>
-    <row r="322" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D322" s="23"/>
+      <c r="E322" s="11">
+        <v>7</v>
+      </c>
+      <c r="F322" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G322" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="L322" s="4"/>
     </row>
-    <row r="323" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D323" s="23"/>
+      <c r="E323" s="11">
+        <v>8</v>
+      </c>
+      <c r="F323" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G323" s="11" t="s">
+        <v>310</v>
+      </c>
       <c r="L323" s="4"/>
     </row>
-    <row r="324" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D324" s="23"/>
+      <c r="E324" s="11">
+        <v>9</v>
+      </c>
+      <c r="F324" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G324" s="11" t="s">
+        <v>300</v>
+      </c>
       <c r="L324" s="4"/>
     </row>
-    <row r="325" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D325" s="23"/>
+      <c r="E325" s="11">
+        <v>10</v>
+      </c>
+      <c r="F325" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G325" s="11" t="s">
+        <v>311</v>
+      </c>
       <c r="L325" s="4"/>
     </row>
-    <row r="326" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D326" s="23"/>
+      <c r="E326" s="11">
+        <v>11</v>
+      </c>
+      <c r="F326" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G326" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="L326" s="4"/>
     </row>
-    <row r="327" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L327" s="4"/>
-    </row>
-    <row r="328" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A327" s="29"/>
+      <c r="B327" s="29"/>
+      <c r="D327" s="23"/>
+      <c r="E327" s="29">
+        <v>12</v>
+      </c>
+      <c r="F327" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G327" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H327" s="29"/>
+      <c r="I327" s="29"/>
+      <c r="L327" s="31"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D328" s="24"/>
+      <c r="E328" s="11">
+        <v>13</v>
+      </c>
+      <c r="F328" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G328" s="11" t="s">
+        <v>317</v>
+      </c>
       <c r="L328" s="4"/>
     </row>
-    <row r="329" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L329" s="4"/>
     </row>
-    <row r="330" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L330" s="4"/>
-    </row>
-    <row r="331" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A330" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B330" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C330" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D330" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="E330" s="28">
+        <v>1</v>
+      </c>
+      <c r="F330" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G330" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H330" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="I330" s="28"/>
+      <c r="L330" s="34"/>
+    </row>
+    <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D331" s="23"/>
+      <c r="E331" s="11">
+        <v>2</v>
+      </c>
+      <c r="F331" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G331" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H331" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="L331" s="4"/>
     </row>
-    <row r="332" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L332" s="4"/>
-    </row>
-    <row r="333" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332" s="29"/>
+      <c r="B332" s="29"/>
+      <c r="D332" s="23"/>
+      <c r="E332" s="29">
+        <v>3</v>
+      </c>
+      <c r="F332" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G332" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H332" s="29"/>
+      <c r="I332" s="29"/>
+      <c r="L332" s="31"/>
+    </row>
+    <row r="333" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D333" s="23"/>
+      <c r="E333" s="11">
+        <v>4</v>
+      </c>
+      <c r="F333" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G333" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L333" s="4"/>
     </row>
-    <row r="334" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D334" s="23"/>
+      <c r="E334" s="11">
+        <v>5</v>
+      </c>
+      <c r="F334" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G334" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="L334" s="4"/>
     </row>
-    <row r="335" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D335" s="23"/>
+      <c r="E335" s="11">
+        <v>6</v>
+      </c>
+      <c r="F335" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G335" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H335" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="L335" s="4"/>
     </row>
-    <row r="336" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D336" s="23"/>
+      <c r="E336" s="11">
+        <v>7</v>
+      </c>
+      <c r="F336" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G336" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="L336" s="4"/>
     </row>
-    <row r="337" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D337" s="23"/>
+      <c r="E337" s="11">
+        <v>8</v>
+      </c>
+      <c r="F337" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G337" s="11" t="s">
+        <v>321</v>
+      </c>
       <c r="L337" s="4"/>
     </row>
-    <row r="338" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L338" s="4"/>
     </row>
-    <row r="339" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A339" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B339" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D339" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E339" s="28">
+        <v>1</v>
+      </c>
+      <c r="F339" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G339" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H339" s="33" t="s">
+        <v>289</v>
+      </c>
       <c r="L339" s="4"/>
     </row>
-    <row r="340" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D340" s="23"/>
+      <c r="E340" s="11">
+        <v>2</v>
+      </c>
+      <c r="F340" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G340" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H340" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="L340" s="4"/>
     </row>
-    <row r="341" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D341" s="23"/>
+      <c r="E341" s="29">
+        <v>3</v>
+      </c>
+      <c r="F341" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G341" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H341" s="29"/>
       <c r="L341" s="4"/>
     </row>
-    <row r="342" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D342" s="23"/>
+      <c r="E342" s="11">
+        <v>4</v>
+      </c>
+      <c r="F342" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G342" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L342" s="4"/>
     </row>
-    <row r="343" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D343" s="23"/>
+      <c r="E343" s="11">
+        <v>5</v>
+      </c>
+      <c r="F343" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G343" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="L343" s="4"/>
     </row>
-    <row r="344" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D344" s="23"/>
+      <c r="E344" s="11">
+        <v>6</v>
+      </c>
+      <c r="F344" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G344" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H344" s="11" t="s">
+        <v>326</v>
+      </c>
       <c r="L344" s="4"/>
     </row>
-    <row r="345" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D345" s="24"/>
+      <c r="E345" s="11">
+        <v>7</v>
+      </c>
+      <c r="F345" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G345" s="11" t="s">
+        <v>327</v>
+      </c>
       <c r="L345" s="4"/>
     </row>
-    <row r="346" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L346" s="4"/>
     </row>
-    <row r="347" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A347" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B347" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D347" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="E347" s="28">
+        <v>1</v>
+      </c>
+      <c r="F347" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G347" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H347" s="33" t="s">
+        <v>289</v>
+      </c>
       <c r="L347" s="4"/>
     </row>
-    <row r="348" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D348" s="23"/>
+      <c r="E348" s="11">
+        <v>2</v>
+      </c>
+      <c r="F348" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G348" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H348" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="L348" s="4"/>
     </row>
-    <row r="349" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D349" s="23"/>
+      <c r="E349" s="29">
+        <v>3</v>
+      </c>
+      <c r="F349" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G349" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H349" s="29"/>
       <c r="L349" s="4"/>
     </row>
-    <row r="350" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D350" s="23"/>
+      <c r="E350" s="11">
+        <v>4</v>
+      </c>
+      <c r="F350" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G350" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L350" s="4"/>
     </row>
-    <row r="351" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D351" s="23"/>
+      <c r="E351" s="11">
+        <v>5</v>
+      </c>
+      <c r="F351" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G351" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="L351" s="4"/>
     </row>
-    <row r="352" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D352" s="23"/>
+      <c r="E352" s="11">
+        <v>6</v>
+      </c>
+      <c r="F352" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G352" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H352" s="11" t="s">
+        <v>334</v>
+      </c>
       <c r="L352" s="4"/>
     </row>
-    <row r="353" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D353" s="24"/>
+      <c r="E353" s="11">
+        <v>7</v>
+      </c>
+      <c r="F353" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G353" s="11" t="s">
+        <v>336</v>
+      </c>
       <c r="L353" s="4"/>
     </row>
-    <row r="354" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E354" s="11">
+        <v>8</v>
+      </c>
+      <c r="F354" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G354" s="17" t="s">
+        <v>339</v>
+      </c>
       <c r="L354" s="4"/>
     </row>
-    <row r="355" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A355" s="28"/>
+      <c r="B355" s="28"/>
+      <c r="D355" s="28"/>
+      <c r="G355" s="17"/>
       <c r="L355" s="4"/>
     </row>
-    <row r="356" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A356" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="B356" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D356" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E356" s="28">
+        <v>1</v>
+      </c>
+      <c r="F356" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G356" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H356" s="33" t="s">
+        <v>289</v>
+      </c>
       <c r="L356" s="4"/>
     </row>
-    <row r="357" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D357" s="23"/>
+      <c r="E357" s="11">
+        <v>2</v>
+      </c>
+      <c r="F357" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G357" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H357" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="L357" s="4"/>
     </row>
-    <row r="358" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D358" s="23"/>
+      <c r="E358" s="29">
+        <v>3</v>
+      </c>
+      <c r="F358" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G358" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H358" s="29"/>
       <c r="L358" s="4"/>
     </row>
-    <row r="359" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D359" s="23"/>
+      <c r="E359" s="11">
+        <v>4</v>
+      </c>
+      <c r="F359" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G359" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L359" s="4"/>
     </row>
-    <row r="360" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D360" s="23"/>
+      <c r="E360" s="11">
+        <v>5</v>
+      </c>
+      <c r="F360" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G360" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="L360" s="4"/>
     </row>
-    <row r="361" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D361" s="23"/>
+      <c r="E361" s="11">
+        <v>6</v>
+      </c>
+      <c r="F361" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G361" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H361" s="11" t="s">
+        <v>334</v>
+      </c>
       <c r="L361" s="4"/>
     </row>
-    <row r="362" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D362" s="23"/>
+      <c r="E362" s="11">
+        <v>7</v>
+      </c>
+      <c r="F362" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G362" s="11" t="s">
+        <v>336</v>
+      </c>
       <c r="L362" s="4"/>
     </row>
-    <row r="363" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D363" s="23"/>
+      <c r="E363" s="11">
+        <v>8</v>
+      </c>
+      <c r="F363" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G363" s="17" t="s">
+        <v>339</v>
+      </c>
       <c r="L363" s="4"/>
     </row>
-    <row r="364" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D364" s="24"/>
+      <c r="E364" s="11">
+        <v>9</v>
+      </c>
+      <c r="F364" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G364" s="11" t="s">
+        <v>343</v>
+      </c>
       <c r="L364" s="4"/>
     </row>
-    <row r="365" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A365" s="28"/>
+      <c r="B365" s="28"/>
       <c r="L365" s="4"/>
     </row>
-    <row r="366" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A366" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="B366" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D366" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E366" s="11">
+        <v>1</v>
+      </c>
+      <c r="F366" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G366" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H366" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="L366" s="4"/>
     </row>
-    <row r="367" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D367" s="23"/>
+      <c r="E367" s="11">
+        <v>2</v>
+      </c>
+      <c r="F367" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G367" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H367" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="L367" s="4"/>
     </row>
-    <row r="368" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D368" s="23"/>
+      <c r="E368" s="11">
+        <v>3</v>
+      </c>
+      <c r="F368" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G368" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L368" s="4"/>
     </row>
-    <row r="369" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D369" s="23"/>
+      <c r="E369" s="11">
+        <v>4</v>
+      </c>
+      <c r="F369" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G369" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L369" s="4"/>
     </row>
-    <row r="370" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="D370" s="23"/>
+      <c r="E370" s="11">
+        <v>5</v>
+      </c>
+      <c r="F370" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G370" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="L370" s="4"/>
     </row>
-    <row r="371" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D371" s="23"/>
+      <c r="E371" s="11">
+        <v>6</v>
+      </c>
+      <c r="F371" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="G371" s="11" t="s">
+        <v>346</v>
+      </c>
       <c r="L371" s="4"/>
     </row>
-    <row r="372" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D372" s="23"/>
+      <c r="E372" s="11">
+        <v>7</v>
+      </c>
+      <c r="F372" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="G372" s="11" t="s">
+        <v>348</v>
+      </c>
       <c r="L372" s="4"/>
     </row>
-    <row r="373" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D373" s="23"/>
+      <c r="E373" s="11">
+        <v>8</v>
+      </c>
+      <c r="F373" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="G373" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H373" s="11" t="s">
+        <v>351</v>
+      </c>
       <c r="L373" s="4"/>
     </row>
-    <row r="374" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D374" s="24"/>
+      <c r="E374" s="11">
+        <v>9</v>
+      </c>
+      <c r="F374" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G374" s="11" t="s">
+        <v>353</v>
+      </c>
       <c r="L374" s="4"/>
     </row>
-    <row r="375" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L375" s="4"/>
     </row>
-    <row r="376" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A376" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B376" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D376" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="E376" s="11">
+        <v>1</v>
+      </c>
+      <c r="F376" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G376" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H376" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="L376" s="4"/>
     </row>
-    <row r="377" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D377" s="23"/>
+      <c r="E377" s="11">
+        <v>2</v>
+      </c>
+      <c r="F377" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G377" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H377" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="L377" s="4"/>
     </row>
-    <row r="378" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D378" s="23"/>
+      <c r="E378" s="11">
+        <v>3</v>
+      </c>
+      <c r="F378" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G378" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L378" s="4"/>
     </row>
-    <row r="379" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D379" s="23"/>
+      <c r="E379" s="11">
+        <v>4</v>
+      </c>
+      <c r="F379" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G379" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L379" s="4"/>
     </row>
-    <row r="380" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D380" s="23"/>
+      <c r="E380" s="11">
+        <v>5</v>
+      </c>
+      <c r="F380" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G380" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="L380" s="4"/>
     </row>
-    <row r="381" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D381" s="24"/>
+      <c r="E381" s="11">
+        <v>6</v>
+      </c>
+      <c r="F381" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="G381" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H381" s="11" t="s">
+        <v>358</v>
+      </c>
       <c r="L381" s="4"/>
     </row>
-    <row r="382" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L382" s="4"/>
     </row>
-    <row r="383" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A383" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="B383" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D383" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E383" s="5">
+        <v>1</v>
+      </c>
+      <c r="F383" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G383" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H383" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L383" s="4"/>
     </row>
-    <row r="384" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D384" s="23"/>
+      <c r="E384" s="5">
+        <v>2</v>
+      </c>
+      <c r="F384" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G384" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L384" s="4"/>
     </row>
-    <row r="385" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D385" s="23"/>
+      <c r="E385" s="5">
+        <v>3</v>
+      </c>
+      <c r="F385" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G385" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L385" s="4"/>
     </row>
-    <row r="386" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D386" s="23"/>
+      <c r="E386" s="5">
+        <v>4</v>
+      </c>
+      <c r="F386" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G386" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="L386" s="4"/>
     </row>
-    <row r="387" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D387" s="23"/>
+      <c r="E387" s="5">
+        <v>5</v>
+      </c>
+      <c r="F387" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G387" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="L387" s="4"/>
     </row>
-    <row r="388" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D388" s="23"/>
+      <c r="E388" s="5">
+        <v>6</v>
+      </c>
+      <c r="F388" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G388" s="18" t="s">
+        <v>362</v>
+      </c>
       <c r="L388" s="4"/>
     </row>
-    <row r="389" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D389" s="23"/>
+      <c r="E389" s="5">
+        <v>7</v>
+      </c>
+      <c r="F389" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="G389" s="11" t="s">
+        <v>365</v>
+      </c>
       <c r="L389" s="4"/>
     </row>
-    <row r="390" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D390" s="23"/>
+      <c r="E390" s="5">
+        <v>8</v>
+      </c>
+      <c r="F390" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="G390" s="11" t="s">
+        <v>367</v>
+      </c>
       <c r="L390" s="4"/>
     </row>
-    <row r="391" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D391" s="23"/>
+      <c r="E391" s="5">
+        <v>9</v>
+      </c>
+      <c r="F391" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G391" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="H391" s="11" t="s">
+        <v>369</v>
+      </c>
       <c r="L391" s="4"/>
     </row>
-    <row r="392" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D392" s="23"/>
+      <c r="E392" s="5">
+        <v>10</v>
+      </c>
+      <c r="F392" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G392" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="L392" s="4"/>
     </row>
-    <row r="393" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D393" s="23"/>
+      <c r="E393" s="5">
+        <v>11</v>
+      </c>
+      <c r="F393" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G393" s="11" t="s">
+        <v>372</v>
+      </c>
       <c r="L393" s="4"/>
     </row>
-    <row r="394" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D394" s="23"/>
+      <c r="E394" s="5">
+        <v>12</v>
+      </c>
+      <c r="F394" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G394" s="11" t="s">
+        <v>374</v>
+      </c>
       <c r="L394" s="4"/>
     </row>
-    <row r="395" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D395" s="24"/>
+      <c r="E395" s="5">
+        <v>13</v>
+      </c>
+      <c r="F395" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G395" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="L395" s="4"/>
     </row>
-    <row r="396" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L396" s="4"/>
     </row>
-    <row r="397" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A397" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B397" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D397" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E397" s="5">
+        <v>1</v>
+      </c>
+      <c r="F397" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G397" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H397" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L397" s="4"/>
     </row>
-    <row r="398" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D398" s="23"/>
+      <c r="E398" s="5">
+        <v>2</v>
+      </c>
+      <c r="F398" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G398" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L398" s="4"/>
     </row>
-    <row r="399" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D399" s="23"/>
+      <c r="E399" s="5">
+        <v>3</v>
+      </c>
+      <c r="F399" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G399" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L399" s="4"/>
     </row>
-    <row r="400" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D400" s="23"/>
+      <c r="E400" s="5">
+        <v>4</v>
+      </c>
+      <c r="F400" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G400" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="L400" s="4"/>
     </row>
-    <row r="401" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D401" s="23"/>
+      <c r="E401" s="5">
+        <v>5</v>
+      </c>
+      <c r="F401" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G401" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="L401" s="4"/>
     </row>
-    <row r="402" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D402" s="23"/>
+      <c r="E402" s="5">
+        <v>6</v>
+      </c>
+      <c r="F402" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="G402" s="11" t="s">
+        <v>382</v>
+      </c>
       <c r="L402" s="4"/>
     </row>
-    <row r="403" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D403" s="23"/>
+      <c r="E403" s="5">
+        <v>7</v>
+      </c>
+      <c r="F403" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="G403" s="11" t="s">
+        <v>365</v>
+      </c>
       <c r="L403" s="4"/>
     </row>
-    <row r="404" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D404" s="23"/>
+      <c r="E404" s="5">
+        <v>8</v>
+      </c>
+      <c r="F404" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G404" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="L404" s="4"/>
     </row>
-    <row r="405" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D405" s="23"/>
+      <c r="E405" s="5">
+        <v>9</v>
+      </c>
+      <c r="F405" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G405" s="11" t="s">
+        <v>372</v>
+      </c>
       <c r="L405" s="4"/>
     </row>
-    <row r="406" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D406" s="23"/>
+      <c r="E406" s="5">
+        <v>10</v>
+      </c>
+      <c r="F406" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G406" s="11" t="s">
+        <v>374</v>
+      </c>
       <c r="L406" s="4"/>
     </row>
-    <row r="407" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D407" s="24"/>
+      <c r="E407" s="5">
+        <v>11</v>
+      </c>
+      <c r="F407" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G407" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="L407" s="4"/>
     </row>
-    <row r="408" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L408" s="4"/>
     </row>
-    <row r="409" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A409" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B409" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D409" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="E409" s="5">
+        <v>1</v>
+      </c>
+      <c r="F409" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G409" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H409" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L409" s="4"/>
     </row>
-    <row r="410" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D410" s="23"/>
+      <c r="E410" s="5">
+        <v>2</v>
+      </c>
+      <c r="F410" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G410" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L410" s="4"/>
     </row>
-    <row r="411" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D411" s="23"/>
+      <c r="E411" s="5">
+        <v>3</v>
+      </c>
+      <c r="F411" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G411" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L411" s="4"/>
     </row>
-    <row r="412" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D412" s="23"/>
+      <c r="E412" s="5">
+        <v>4</v>
+      </c>
+      <c r="F412" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G412" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="L412" s="4"/>
     </row>
-    <row r="413" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D413" s="23"/>
+      <c r="E413" s="5">
+        <v>5</v>
+      </c>
+      <c r="F413" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G413" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="L413" s="4"/>
     </row>
-    <row r="414" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D414" s="23"/>
+      <c r="E414" s="5">
+        <v>6</v>
+      </c>
+      <c r="F414" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G414" s="11" t="s">
+        <v>386</v>
+      </c>
       <c r="L414" s="4"/>
     </row>
-    <row r="415" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D415" s="23"/>
+      <c r="E415" s="5">
+        <v>7</v>
+      </c>
+      <c r="F415" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G415" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="H415" s="11" t="s">
+        <v>389</v>
+      </c>
       <c r="L415" s="4"/>
     </row>
-    <row r="416" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="D416" s="23"/>
+      <c r="E416" s="5">
+        <v>8</v>
+      </c>
+      <c r="F416" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G416" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H416" s="11" t="s">
+        <v>391</v>
+      </c>
       <c r="L416" s="4"/>
     </row>
-    <row r="417" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D417" s="23"/>
+      <c r="E417" s="5">
+        <v>9</v>
+      </c>
+      <c r="F417" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G417" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="L417" s="4"/>
     </row>
-    <row r="418" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D418" s="23"/>
+      <c r="E418" s="5">
+        <v>10</v>
+      </c>
+      <c r="F418" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G418" s="11" t="s">
+        <v>372</v>
+      </c>
       <c r="L418" s="4"/>
     </row>
-    <row r="419" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D419" s="23"/>
+      <c r="E419" s="5">
+        <v>11</v>
+      </c>
+      <c r="F419" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G419" s="11" t="s">
+        <v>374</v>
+      </c>
       <c r="L419" s="4"/>
     </row>
-    <row r="420" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D420" s="24"/>
+      <c r="E420" s="5">
+        <v>12</v>
+      </c>
+      <c r="F420" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G420" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="L420" s="4"/>
     </row>
-    <row r="421" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L421" s="4"/>
     </row>
-    <row r="422" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A422" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="B422" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D422" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E422" s="5">
+        <v>1</v>
+      </c>
+      <c r="F422" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G422" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H422" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L422" s="4"/>
     </row>
-    <row r="423" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D423" s="23"/>
+      <c r="E423" s="5">
+        <v>2</v>
+      </c>
+      <c r="F423" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G423" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L423" s="4"/>
     </row>
-    <row r="424" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D424" s="23"/>
+      <c r="E424" s="5">
+        <v>3</v>
+      </c>
+      <c r="F424" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G424" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L424" s="4"/>
     </row>
-    <row r="425" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D425" s="23"/>
+      <c r="E425" s="5">
+        <v>4</v>
+      </c>
+      <c r="F425" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G425" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="L425" s="4"/>
     </row>
-    <row r="426" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D426" s="23"/>
+      <c r="E426" s="5">
+        <v>5</v>
+      </c>
+      <c r="F426" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="G426" s="18" t="s">
+        <v>360</v>
+      </c>
       <c r="L426" s="4"/>
     </row>
-    <row r="427" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D427" s="23"/>
+      <c r="E427" s="5">
+        <v>6</v>
+      </c>
+      <c r="F427" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="G427" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="L427" s="4"/>
     </row>
-    <row r="428" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D428" s="23"/>
+      <c r="E428" s="5">
+        <v>7</v>
+      </c>
+      <c r="F428" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G428" s="18" t="s">
+        <v>396</v>
+      </c>
       <c r="L428" s="4"/>
     </row>
-    <row r="429" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D429" s="23"/>
+      <c r="E429" s="5">
+        <v>8</v>
+      </c>
+      <c r="F429" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="G429" s="18" t="s">
+        <v>374</v>
+      </c>
       <c r="L429" s="4"/>
     </row>
-    <row r="430" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D430" s="23"/>
+      <c r="E430" s="5">
+        <v>9</v>
+      </c>
+      <c r="F430" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G430" s="18" t="s">
+        <v>399</v>
+      </c>
       <c r="L430" s="4"/>
     </row>
-    <row r="431" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L431" s="4"/>
     </row>
-    <row r="432" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A432" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="B432" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D432" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="E432" s="5">
+        <v>1</v>
+      </c>
+      <c r="F432" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G432" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H432" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L432" s="4"/>
     </row>
-    <row r="433" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D433" s="23"/>
+      <c r="E433" s="5">
+        <v>2</v>
+      </c>
+      <c r="F433" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G433" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L433" s="4"/>
     </row>
-    <row r="434" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D434" s="23"/>
+      <c r="E434" s="5">
+        <v>3</v>
+      </c>
+      <c r="F434" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G434" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L434" s="4"/>
     </row>
-    <row r="435" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D435" s="23"/>
+      <c r="E435" s="5">
+        <v>4</v>
+      </c>
+      <c r="F435" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G435" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="L435" s="4"/>
     </row>
-    <row r="436" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D436" s="23"/>
+      <c r="E436" s="5">
+        <v>5</v>
+      </c>
+      <c r="F436" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G436" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="L436" s="4"/>
     </row>
-    <row r="437" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D437" s="23"/>
+      <c r="E437" s="5">
+        <v>6</v>
+      </c>
+      <c r="F437" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G437" s="11" t="s">
+        <v>403</v>
+      </c>
       <c r="L437" s="4"/>
     </row>
-    <row r="438" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D438" s="23"/>
+      <c r="E438" s="5">
+        <v>7</v>
+      </c>
+      <c r="F438" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="G438" s="11" t="s">
+        <v>405</v>
+      </c>
       <c r="L438" s="4"/>
     </row>
-    <row r="439" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D439" s="23"/>
+      <c r="E439" s="5">
+        <v>8</v>
+      </c>
+      <c r="F439" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G439" s="11" t="s">
+        <v>396</v>
+      </c>
       <c r="L439" s="4"/>
     </row>
-    <row r="440" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D440" s="23"/>
+      <c r="E440" s="5">
+        <v>9</v>
+      </c>
+      <c r="F440" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G440" s="11" t="s">
+        <v>374</v>
+      </c>
       <c r="L440" s="4"/>
     </row>
-    <row r="441" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D441" s="24"/>
+      <c r="E441" s="5">
+        <v>10</v>
+      </c>
+      <c r="F441" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G441" s="11" t="s">
+        <v>399</v>
+      </c>
       <c r="L441" s="4"/>
     </row>
-    <row r="442" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L442" s="4"/>
     </row>
-    <row r="443" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A443" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="B443" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D443" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="E443" s="5">
+        <v>1</v>
+      </c>
+      <c r="F443" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G443" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H443" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L443" s="4"/>
     </row>
-    <row r="444" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D444" s="23"/>
+      <c r="E444" s="5">
+        <v>2</v>
+      </c>
+      <c r="F444" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G444" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L444" s="4"/>
     </row>
-    <row r="445" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D445" s="23"/>
+      <c r="E445" s="5">
+        <v>3</v>
+      </c>
+      <c r="F445" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G445" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L445" s="4"/>
     </row>
-    <row r="446" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D446" s="23"/>
+      <c r="E446" s="5">
+        <v>4</v>
+      </c>
+      <c r="F446" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G446" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="L446" s="4"/>
     </row>
-    <row r="447" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D447" s="23"/>
+      <c r="E447" s="5">
+        <v>5</v>
+      </c>
+      <c r="F447" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G447" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="L447" s="4"/>
     </row>
-    <row r="448" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D448" s="23"/>
+      <c r="E448" s="5">
+        <v>6</v>
+      </c>
+      <c r="F448" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="G448" s="11" t="s">
+        <v>409</v>
+      </c>
       <c r="L448" s="4"/>
     </row>
-    <row r="449" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D449" s="23"/>
+      <c r="E449" s="5">
+        <v>7</v>
+      </c>
+      <c r="F449" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="G449" s="11" t="s">
+        <v>411</v>
+      </c>
       <c r="L449" s="4"/>
     </row>
-    <row r="450" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D450" s="23"/>
+      <c r="E450" s="5">
+        <v>8</v>
+      </c>
+      <c r="F450" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G450" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="H450" s="11" t="s">
+        <v>412</v>
+      </c>
       <c r="L450" s="4"/>
     </row>
-    <row r="451" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D451" s="23"/>
+      <c r="E451" s="5">
+        <v>9</v>
+      </c>
+      <c r="F451" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="G451" s="11" t="s">
+        <v>414</v>
+      </c>
       <c r="L451" s="4"/>
     </row>
-    <row r="452" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D452" s="23"/>
+      <c r="E452" s="5">
+        <v>10</v>
+      </c>
+      <c r="F452" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G452" s="11" t="s">
+        <v>374</v>
+      </c>
       <c r="L452" s="4"/>
     </row>
-    <row r="453" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D453" s="24"/>
+      <c r="E453" s="5">
+        <v>11</v>
+      </c>
+      <c r="F453" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G453" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="L453" s="4"/>
     </row>
-    <row r="454" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L454" s="4"/>
     </row>
-    <row r="455" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L455" s="4"/>
     </row>
-    <row r="456" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L456" s="4"/>
     </row>
-    <row r="457" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L457" s="4"/>
     </row>
-    <row r="458" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L458" s="4"/>
     </row>
-    <row r="459" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L459" s="4"/>
     </row>
-    <row r="460" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L460" s="4"/>
     </row>
-    <row r="461" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L461" s="4"/>
     </row>
-    <row r="462" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L462" s="4"/>
     </row>
-    <row r="463" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L463" s="4"/>
     </row>
-    <row r="464" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L464" s="4"/>
     </row>
     <row r="465" spans="11:12" x14ac:dyDescent="0.25">
@@ -5629,7 +8442,6 @@
       <c r="L475" s="4"/>
     </row>
     <row r="476" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K476" s="4"/>
       <c r="L476" s="4"/>
     </row>
     <row r="477" spans="11:12" x14ac:dyDescent="0.25">
@@ -6441,6 +9253,7 @@
       <c r="L678" s="4"/>
     </row>
     <row r="679" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K679" s="4"/>
       <c r="L679" s="4"/>
     </row>
     <row r="680" spans="11:12" x14ac:dyDescent="0.25">
@@ -6575,8 +9388,46 @@
     <row r="723" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L723" s="4"/>
     </row>
+    <row r="724" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L724" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="42">
+    <mergeCell ref="D422:D430"/>
+    <mergeCell ref="D432:D441"/>
+    <mergeCell ref="D443:D453"/>
+    <mergeCell ref="D366:D374"/>
+    <mergeCell ref="D376:D381"/>
+    <mergeCell ref="D383:D395"/>
+    <mergeCell ref="D397:D407"/>
+    <mergeCell ref="D409:D420"/>
+    <mergeCell ref="D330:D337"/>
+    <mergeCell ref="D339:D345"/>
+    <mergeCell ref="D347:D353"/>
+    <mergeCell ref="D356:D364"/>
+    <mergeCell ref="D292:D301"/>
+    <mergeCell ref="D304:D313"/>
+    <mergeCell ref="D316:D328"/>
+    <mergeCell ref="D250:D256"/>
+    <mergeCell ref="D258:D262"/>
+    <mergeCell ref="D264:D268"/>
+    <mergeCell ref="D270:D280"/>
+    <mergeCell ref="D282:D289"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="D65:D71"/>
+    <mergeCell ref="D73:D81"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="D94:D103"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="D116:D123"/>
+    <mergeCell ref="D125:D133"/>
+    <mergeCell ref="D135:D143"/>
+    <mergeCell ref="D145:D149"/>
+    <mergeCell ref="D151:D158"/>
+    <mergeCell ref="D160:D167"/>
+    <mergeCell ref="D169:D177"/>
     <mergeCell ref="D230:D237"/>
     <mergeCell ref="D239:D248"/>
     <mergeCell ref="D180:D190"/>
@@ -6584,36 +9435,21 @@
     <mergeCell ref="D202:D210"/>
     <mergeCell ref="D212:D220"/>
     <mergeCell ref="D222:D228"/>
-    <mergeCell ref="D135:D143"/>
-    <mergeCell ref="D145:D149"/>
-    <mergeCell ref="D151:D158"/>
-    <mergeCell ref="D160:D167"/>
-    <mergeCell ref="D169:D177"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="D94:D103"/>
-    <mergeCell ref="D105:D114"/>
-    <mergeCell ref="D116:D123"/>
-    <mergeCell ref="D125:D133"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="D65:D71"/>
-    <mergeCell ref="D73:D81"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C650:C719" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C651:C720" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B7 B14 B21 B28 B35 B40 B45 B48 B51 B55 B58:B59 B65 B73 B83 B94 B105 B116 B125 B135 B145 B151 B160 B169 B180 B192 B202 B212 B222 B230 B239" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B7 B14 B21 B28 B35 B40 B45 B48 B51 B55 B58:B59 B65 B73 B83 B94 B105 B116 B125 B135 B145 B151 B160 B169 B180 B192 B202 B212 B222 B230 B239 B250 B258 B264 B270 B282 B292 B304 B316 B330 B339 B347 B356 B366 B376 B383 B397 B409 B422 B432 B443" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K476:K678" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K477:K679" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C649 K2:K475" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K476 C2:C650" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L723" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L724" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6640,8 +9476,28 @@
     <hyperlink ref="H222" r:id="rId20" display="http://mediwarecloud.com/mediwareqc/" xr:uid="{5D861840-3876-4F9E-ABD2-1177BCADBF7D}"/>
     <hyperlink ref="H230" r:id="rId21" display="http://mediwarecloud.com/mediwareqc/" xr:uid="{95DF9FD4-E86B-45EC-97B2-DE088DCC41AD}"/>
     <hyperlink ref="H239" r:id="rId22" display="http://mediwarecloud.com/mediwareqc/" xr:uid="{A6A61E60-0496-47E5-85BA-B110E6DB26FB}"/>
+    <hyperlink ref="H250" r:id="rId23" xr:uid="{31179B0C-5451-48DC-BFE6-9F7F3043E2A7}"/>
+    <hyperlink ref="H258" r:id="rId24" xr:uid="{D67FA72A-2561-43A6-9B0C-150CF2AAB39C}"/>
+    <hyperlink ref="H264" r:id="rId25" xr:uid="{CE9B38DD-0397-4C26-8CF9-87D772DF6D73}"/>
+    <hyperlink ref="H270" r:id="rId26" xr:uid="{7EF33CDB-67F8-45EF-84D4-44F79D169F51}"/>
+    <hyperlink ref="H282" r:id="rId27" display="http://mediwarecloud.com/mediwareqc/" xr:uid="{182D24ED-7F19-4AAF-81AB-3588D42134AE}"/>
+    <hyperlink ref="H292" r:id="rId28" display="http://mediwarecloud.com/mediwareqc/" xr:uid="{C6298B93-70D6-4473-9269-A4A9A430CAAE}"/>
+    <hyperlink ref="H304" r:id="rId29" display="http://mediwarecloud.com/mediwareqc/" xr:uid="{7BF063AC-AE1B-45C0-8CE4-4E8C3A4B9D50}"/>
+    <hyperlink ref="H316" r:id="rId30" display="http://mediwarecloud.com/mediwareqc/" xr:uid="{F8EA607A-16E3-4456-A0B1-3BB852CF2127}"/>
+    <hyperlink ref="H330" r:id="rId31" display="http://mediwarecloud.com/mediwareqc/" xr:uid="{7EFDAAE9-C879-4B5B-9B04-40F344D50308}"/>
+    <hyperlink ref="H339" r:id="rId32" display="http://mediwarecloud.com/mediwareqc/" xr:uid="{69531D8F-B906-4BC8-A48D-5BF28042FC42}"/>
+    <hyperlink ref="H347" r:id="rId33" display="http://mediwarecloud.com/mediwareqc/" xr:uid="{EF84FEA0-E777-4144-B6F5-E13544148A5A}"/>
+    <hyperlink ref="H356" r:id="rId34" display="http://mediwarecloud.com/mediwareqc/" xr:uid="{75D89078-6552-4F48-B66A-FD096F372B6A}"/>
+    <hyperlink ref="H366" r:id="rId35" xr:uid="{541AC054-0059-41F1-B63C-0FEC5C241162}"/>
+    <hyperlink ref="H376" r:id="rId36" xr:uid="{B0DCBA29-3351-49FF-9A33-1F23812FF99F}"/>
+    <hyperlink ref="H383" r:id="rId37" xr:uid="{F51645F3-2336-4773-BD7C-E01B401FF6BE}"/>
+    <hyperlink ref="H397" r:id="rId38" xr:uid="{6FE8FF66-31C5-4C24-9E70-891EB61E0AB6}"/>
+    <hyperlink ref="H409" r:id="rId39" xr:uid="{1E4678C8-8109-48FF-B98D-191CA9461613}"/>
+    <hyperlink ref="H422" r:id="rId40" xr:uid="{3F9B08C8-EA6C-40DA-A456-A62A2DB4979D}"/>
+    <hyperlink ref="H432" r:id="rId41" xr:uid="{7550E805-520B-4CC8-94E7-911D16E5C0AE}"/>
+    <hyperlink ref="H443" r:id="rId42" xr:uid="{6AEF447D-4809-4987-A1C9-9F64105C916B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
--- a/Test Case/Poornima/Test Case- Out Patient.xlsx
+++ b/Test Case/Poornima/Test Case- Out Patient.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mediware\CentralRepository-Mediware\Test Case\Poornima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F99648-F226-4E8B-82A7-A4D1CAE76504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ACB721-7FCA-4670-8283-1D3425B0EA34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="596">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1485,6 +1485,602 @@
        b.Registration Renewal
       c.Registration renewal period
 Launch the URL</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_052</t>
+  </si>
+  <si>
+    <t>Hovering on Menu and click onNew Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Launch the URL</t>
+  </si>
+  <si>
+    <t>Click on Documents</t>
+  </si>
+  <si>
+    <t>User should be able to select Document in Registration page.Navigate to Document page</t>
+  </si>
+  <si>
+    <t>Enter Card ID</t>
+  </si>
+  <si>
+    <t>User should be able to enter Card No in CardID fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on  Choose File and upload file </t>
+  </si>
+  <si>
+    <t>User should be able to Upload file to Choose file field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Add item </t>
+  </si>
+  <si>
+    <t>User should be able to select add item .Item should be added</t>
+  </si>
+  <si>
+    <t>Test case to verify whether  Upload document to a new registered patient</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_053</t>
+  </si>
+  <si>
+    <t>Test case to verify whether  Delete a Uploaded document from a registered patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Save </t>
+  </si>
+  <si>
+    <t>"Data save successfully " meassage should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select delete row </t>
+  </si>
+  <si>
+    <t>User should be able to select delete row and added item should be deleted</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_054</t>
+  </si>
+  <si>
+    <t>Test case to verify Assigning consultation room  to the patient</t>
+  </si>
+  <si>
+    <t>Select Consultation room from the header</t>
+  </si>
+  <si>
+    <t>Usre should be able to select on consultation room and consultation room page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_055</t>
+  </si>
+  <si>
+    <t>Verify whether Advance transfer  to hospital with an amount greater than  balance amount in OP</t>
+  </si>
+  <si>
+    <t>Hovering on MENU &gt;&gt;click on billing &gt;&gt;select on Advance Transfer</t>
+  </si>
+  <si>
+    <t>User should be able to click Advance transfer and Advance transfer pop-up should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid Patient Id </t>
+  </si>
+  <si>
+    <t>User should be able to enter a valid patient Id . The name should be filled out in name field cooresponding to entered patient ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advance amount,advance  refund, balance amount should be listed </t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Transfer amount which greater than balance amount </t>
+  </si>
+  <si>
+    <t>User should be able to enter transfer amount.</t>
+  </si>
+  <si>
+    <t>Transfer amount:250</t>
+  </si>
+  <si>
+    <t>Click on Transfer button</t>
+  </si>
+  <si>
+    <t>User should be able to click on transfer button and 'Transfer amount greater than balance amount' message pop-up should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on close button </t>
+  </si>
+  <si>
+    <t>Navigate to default page OP</t>
+  </si>
+  <si>
+    <t>Verify whether Advance transfer  to hospital with an amount less than  balance amount in OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Transfer amount which less than balance amount </t>
+  </si>
+  <si>
+    <t>Transfer amount:42</t>
+  </si>
+  <si>
+    <t>Patient Id:NH00000109
+Facility:Testing Surgical Hospital</t>
+  </si>
+  <si>
+    <t>Select Transfer To</t>
+  </si>
+  <si>
+    <t>User should be able to select Transfer To</t>
+  </si>
+  <si>
+    <t>Transfer To :Testing Al bateena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Transfer button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to click Transfer </t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_057</t>
+  </si>
+  <si>
+    <t>Hovering on MENU &gt;&gt;click on billing &gt;&gt;select on Advance Entry</t>
+  </si>
+  <si>
+    <t>User should be able to click Advance Entry and Advance  pop-up should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter a valid Patient Id </t>
+  </si>
+  <si>
+    <t>User should be able to enter patient Id</t>
+  </si>
+  <si>
+    <t>Patient ID:NH00000109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter amount in cash field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter amount in cash field </t>
+  </si>
+  <si>
+    <t>Cash:750</t>
+  </si>
+  <si>
+    <t>Click on save option</t>
+  </si>
+  <si>
+    <t>Data saved successfully' message should be displayed and confirmation pop-up for print should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on YES </t>
+  </si>
+  <si>
+    <t>Deposit  Recipit should be dsiplayed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on close </t>
+  </si>
+  <si>
+    <t>Navigate to Advance page</t>
+  </si>
+  <si>
+    <t>Test case to verify whether Advance entry with cash in OP</t>
+  </si>
+  <si>
+    <t>Test case to verify whether Advance entry with Cheque/Bank Transfer in OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter amount in cheque/DD/Bank Transfer field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter amount in cheque/DD/Bank  field </t>
+  </si>
+  <si>
+    <t>cheque/DD/Bank :750</t>
+  </si>
+  <si>
+    <t>select payment type as
+BANK TANSFER
+OR
+CHEQUE
+OR
+GIFT VOUCHER</t>
+  </si>
+  <si>
+    <t>User should be able to select the payment type</t>
+  </si>
+  <si>
+    <t>Payment type:Bank transfer</t>
+  </si>
+  <si>
+    <t>Enter valid Ref #/Instrument #</t>
+  </si>
+  <si>
+    <t>User should be able to enter the Ref#</t>
+  </si>
+  <si>
+    <t>Ref #:52163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the BANK as 
+BANK TRANSFER -NSH
+OR
+CREDIT CARD SALES ADIB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to select the Bank </t>
+  </si>
+  <si>
+    <t>Bank:Bank transfer-NSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the date </t>
+  </si>
+  <si>
+    <t>User should be able to select the Date</t>
+  </si>
+  <si>
+    <t>Date:5/8/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on save option </t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_059</t>
+  </si>
+  <si>
+    <t>Test case to verify whether Advance entry with Credit/debit card  in OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter amount in credit/debit card field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter amount in credit/debitcard field </t>
+  </si>
+  <si>
+    <t>Credit/debit card:950</t>
+  </si>
+  <si>
+    <t>Enter the number in  card#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter the number in card # field </t>
+  </si>
+  <si>
+    <t>Card #:125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Card Expiry date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to select the date </t>
+  </si>
+  <si>
+    <t>Card Expiry Date:30/6/2019</t>
+  </si>
+  <si>
+    <t>Select swiping machine as:
+ADIB BANK MACHINE-NSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should be able to select the swiping machine </t>
+  </si>
+  <si>
+    <t>Swiping machine:
+ADIB bank mavhine-nsh</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select payment type as
+BANK TANSFER
+</t>
+  </si>
+  <si>
+    <t>Cash:2000</t>
+  </si>
+  <si>
+    <t>cheque/DD/Bank :1000</t>
+  </si>
+  <si>
+    <t>Test case to verify whether Partial  Advance entry by cash and  Cheque/Bank Transfer with payment type Bank transfer in OP</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_061</t>
+  </si>
+  <si>
+    <t>Test case to verify whether Partial  Advance entry by cash and  Cheque/Bank Transfer with payment type Gift voucher/cheque  in OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select payment type as
+GIFT VOUCHER
+OR
+CHEQUE
+</t>
+  </si>
+  <si>
+    <t>Payment type:Cheque</t>
+  </si>
+  <si>
+    <t>Ref #:12</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_062</t>
+  </si>
+  <si>
+    <t>Test case to verify whether Partial  Advance entry by cash and  credit/debit card  in OP</t>
+  </si>
+  <si>
+    <t>Cash:3500</t>
+  </si>
+  <si>
+    <t>Credit/debit card:3500</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_063</t>
+  </si>
+  <si>
+    <t>Verify whether use is able to verify credit/debit card with valid cvv</t>
+  </si>
+  <si>
+    <t>Verify that following fields are displayed:
+1.Cheque/DD/Bank Transfer
+2.Payment Types
+3.Ref #/Instrument #
+4.Bank
+5.Date
+6.Reference</t>
+  </si>
+  <si>
+    <t>The following fields should be displayed
+1.Cheque/DD/Bank Transfer
+2.Payment Types
+3.Ref #/Instrument #
+4.Bank
+5.Date
+6.Reference</t>
+  </si>
+  <si>
+    <t>Verify that following fields are displayed:
+1.Credit/Debit Card
+2.Card #
+3.Name on Card
+4.Receipt #
+5.Card Expiry Date
+6.Swiping Machine</t>
+  </si>
+  <si>
+    <t>The following fields should be displayed
+1.Credit/Debit Card
+2.Card #
+3.Name on Card
+4.Receipt #
+5.Card Expiry Date
+6.Swiping Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid cvv and other mandatory details&gt;&gt;Click on save </t>
+  </si>
+  <si>
+    <t>CONFIRMATION pop up with message "Do you want to save ?" should be displayed.</t>
+  </si>
+  <si>
+    <t>Click on Yes</t>
+  </si>
+  <si>
+    <t>CONFIRMATION pop up with message "Data Saved Successfully.Do You want to Print ?" should be displayed.</t>
+  </si>
+  <si>
+    <t>Verify whether use is not able to verify credit/debit card with invalid cvv</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter invalid cvv and other mandatory details&gt;&gt;Click on save </t>
+  </si>
+  <si>
+    <t>A message "Enter Valid CVV" should be displayed</t>
+  </si>
+  <si>
+    <t>Verify whether use is able to verify credit/debit card based on expiry date</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_065</t>
+  </si>
+  <si>
+    <t>Enter Card Expiry Date and other mandatory details&gt;&gt;Click on Save</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_066</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for OP,Billing,Pharmacy and IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that follwing fields with checkbox are displayed:
+1.OP
+2.Billing
+3.Pharmacy
+4.IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The follwing fields with checkbox should be displayed:
+1.OP
+2.Billing
+3.Pharmacy
+4.IP</t>
+  </si>
+  <si>
+    <t>Verify that follwing check boxes are checked except Pharamcy which is checked by default
+1.OP
+2.Billing
+3.Pharmacy
+4.IP</t>
+  </si>
+  <si>
+    <t>Follwing check boxes should be  checked except Pharamcy which is checked by default
+1.OP
+2.Billing
+3.Pharmacy
+4.IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter amount in Cash field  and click on Save&gt;&gt;Yes </t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for OP and Pharmacy</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter amount in Cash field  and check the OP checkbox(Pharmacy is checked by defualt) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on Save&gt;&gt;Yes </t>
+  </si>
+  <si>
+    <t>Cash:5000</t>
+  </si>
+  <si>
+    <t>Checkbox "OP" should be checked.Billing,IP should be unchecked</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_068</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for OP and Billing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter amount in Cash field  and check the OP checkbox(Billingy is checked by defualt) </t>
+  </si>
+  <si>
+    <t>Checkbox "OP" should be checked. Pharmacy,IP should be unchecked</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for OP and IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter amount in Cash field  and check the OP checkbox(IP is checked by defualt) </t>
+  </si>
+  <si>
+    <t>Checkbox "OP" should be checked. Pharmacy,Billing should be unchecked</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able to save an advance entry for OP </t>
+  </si>
+  <si>
+    <t>Enter amount in Cash field  and check the OP checkbox</t>
+  </si>
+  <si>
+    <t>Checkbox "OP" should be checked. Pharmacy,Billing ,IP should be unchecked</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_070</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for IP</t>
+  </si>
+  <si>
+    <t>Checkbox "OP" should be checked. Pharmacy,Billing , should be unchecked</t>
+  </si>
+  <si>
+    <t>Enter amount in Cash field  and check the IP checkbox(OP checked by default)</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_071</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for Billing</t>
+  </si>
+  <si>
+    <t>CONFIRMATION pop up with message "Data Saved Successfully" should be displayed.Deposit receipt report should be displayed</t>
+  </si>
+  <si>
+    <t>Enter amount in Cash field  and check the Billing checkbox(OP checked by default)</t>
+  </si>
+  <si>
+    <t>Checkbox "OP" should be checked. Pharmacy,IP , should be unchecked</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_072</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for pharmacy</t>
+  </si>
+  <si>
+    <t>Enter amount in Cash field  and check the pharmacy checkbox(OP checked by default)</t>
+  </si>
+  <si>
+    <t>Checkbox "OP" should be checked. Billing,IP , should be unchecked</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_073</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for Billing and Pharmacy</t>
+  </si>
+  <si>
+    <t>Enter amount in Cash field  and check the pharmacy and Billing checkbox(OP checked by default)</t>
+  </si>
+  <si>
+    <t>Checkbox "OP" should be checked. IP , should be unchecked</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_074</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for Billing and IP</t>
+  </si>
+  <si>
+    <t>Enter amount in Cash field  and check the IP and Billing checkbox(OP checked by default)</t>
+  </si>
+  <si>
+    <t>Checkbox "OP" should be checked.  Billing should be unchecked</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_075</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for Pharmacy and IP</t>
+  </si>
+  <si>
+    <t>Enter amount in Cash field  and check the IP and Pharmacy checkbox(OP checked by default)</t>
+  </si>
+  <si>
+    <t>Checkbox "OP" should be checked.  Pharmacy should be unchecked</t>
+  </si>
+  <si>
+    <t>Precondition:The Patient should be consulted 
+Launch the URL</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_076</t>
+  </si>
+  <si>
+    <t>Test case to verify that  Displaying  the highlighted message  "Advance  Collected" in Advance Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Advance Collected from the bottom </t>
+  </si>
+  <si>
+    <t>Advance Information window should be displayed with all amount and balance entries</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +2239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1709,24 +2305,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1749,6 +2327,39 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2065,11 +2676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9C3D31-C5E0-4697-A93F-78D6BCE0E40D}">
-  <dimension ref="A1:S724"/>
+  <dimension ref="A1:S729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G160" sqref="G160:H160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F721" sqref="F721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,14 +2741,14 @@
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="R1" s="26" t="s">
+      <c r="P1" s="34"/>
+      <c r="R1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="26"/>
+      <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -2170,7 +2781,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -2873,7 +3484,7 @@
       <c r="C59" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="30" t="s">
         <v>96</v>
       </c>
       <c r="E59" s="11">
@@ -2891,7 +3502,7 @@
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D60" s="23"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="11">
         <v>2</v>
       </c>
@@ -2907,7 +3518,7 @@
       <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D61" s="23"/>
+      <c r="D61" s="31"/>
       <c r="E61" s="11">
         <v>3</v>
       </c>
@@ -2920,7 +3531,7 @@
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D62" s="23"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="11">
         <v>4</v>
       </c>
@@ -2933,7 +3544,7 @@
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D63" s="24"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="11">
         <v>5</v>
       </c>
@@ -2958,7 +3569,7 @@
       <c r="C65" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="30" t="s">
         <v>110</v>
       </c>
       <c r="E65" s="11">
@@ -2976,7 +3587,7 @@
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D66" s="23"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="11">
         <v>2</v>
       </c>
@@ -2992,7 +3603,7 @@
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D67" s="23"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="11">
         <v>3</v>
       </c>
@@ -3005,7 +3616,7 @@
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D68" s="23"/>
+      <c r="D68" s="31"/>
       <c r="E68" s="11">
         <v>4</v>
       </c>
@@ -3018,7 +3629,7 @@
       <c r="L68" s="4"/>
     </row>
     <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D69" s="23"/>
+      <c r="D69" s="31"/>
       <c r="E69" s="11">
         <v>5</v>
       </c>
@@ -3031,7 +3642,7 @@
       <c r="L69" s="4"/>
     </row>
     <row r="70" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D70" s="23"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="11">
         <v>6</v>
       </c>
@@ -3047,7 +3658,7 @@
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D71" s="24"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="11">
         <v>7</v>
       </c>
@@ -3072,7 +3683,7 @@
       <c r="C73" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E73" s="11">
@@ -3090,7 +3701,7 @@
       <c r="L73" s="4"/>
     </row>
     <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D74" s="23"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="11">
         <v>2</v>
       </c>
@@ -3106,7 +3717,7 @@
       <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D75" s="23"/>
+      <c r="D75" s="31"/>
       <c r="E75" s="11">
         <v>3</v>
       </c>
@@ -3119,7 +3730,7 @@
       <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D76" s="23"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="11">
         <v>4</v>
       </c>
@@ -3132,7 +3743,7 @@
       <c r="L76" s="4"/>
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D77" s="23"/>
+      <c r="D77" s="31"/>
       <c r="E77" s="11">
         <v>5</v>
       </c>
@@ -3145,7 +3756,7 @@
       <c r="L77" s="4"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D78" s="23"/>
+      <c r="D78" s="31"/>
       <c r="E78" s="11">
         <v>6</v>
       </c>
@@ -3161,7 +3772,7 @@
       <c r="L78" s="4"/>
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D79" s="23"/>
+      <c r="D79" s="31"/>
       <c r="E79" s="11">
         <v>7</v>
       </c>
@@ -3174,7 +3785,7 @@
       <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D80" s="23"/>
+      <c r="D80" s="31"/>
       <c r="E80" s="11">
         <v>8</v>
       </c>
@@ -3190,7 +3801,7 @@
       <c r="L80" s="4"/>
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D81" s="24"/>
+      <c r="D81" s="32"/>
       <c r="E81" s="11">
         <v>9</v>
       </c>
@@ -3215,7 +3826,7 @@
       <c r="C83" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="30" t="s">
         <v>134</v>
       </c>
       <c r="E83" s="11">
@@ -3233,7 +3844,7 @@
       <c r="L83" s="4"/>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D84" s="23"/>
+      <c r="D84" s="31"/>
       <c r="E84" s="11">
         <v>2</v>
       </c>
@@ -3249,7 +3860,7 @@
       <c r="L84" s="4"/>
     </row>
     <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D85" s="23"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="11">
         <v>3</v>
       </c>
@@ -3262,7 +3873,7 @@
       <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D86" s="23"/>
+      <c r="D86" s="31"/>
       <c r="E86" s="11">
         <v>4</v>
       </c>
@@ -3275,7 +3886,7 @@
       <c r="L86" s="4"/>
     </row>
     <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D87" s="23"/>
+      <c r="D87" s="31"/>
       <c r="E87" s="11">
         <v>5</v>
       </c>
@@ -3288,7 +3899,7 @@
       <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D88" s="23"/>
+      <c r="D88" s="31"/>
       <c r="E88" s="11">
         <v>6</v>
       </c>
@@ -3304,7 +3915,7 @@
       <c r="L88" s="4"/>
     </row>
     <row r="89" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D89" s="23"/>
+      <c r="D89" s="31"/>
       <c r="E89" s="11">
         <v>7</v>
       </c>
@@ -3317,7 +3928,7 @@
       <c r="L89" s="4"/>
     </row>
     <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D90" s="23"/>
+      <c r="D90" s="31"/>
       <c r="E90" s="11">
         <v>8</v>
       </c>
@@ -3330,7 +3941,7 @@
       <c r="L90" s="4"/>
     </row>
     <row r="91" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D91" s="23"/>
+      <c r="D91" s="31"/>
       <c r="E91" s="11">
         <v>9</v>
       </c>
@@ -3343,7 +3954,7 @@
       <c r="L91" s="4"/>
     </row>
     <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D92" s="24"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="11">
         <v>10</v>
       </c>
@@ -3368,7 +3979,7 @@
       <c r="C94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="D94" s="30" t="s">
         <v>146</v>
       </c>
       <c r="E94" s="11">
@@ -3386,7 +3997,7 @@
       <c r="L94" s="4"/>
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D95" s="23"/>
+      <c r="D95" s="31"/>
       <c r="E95" s="11">
         <v>2</v>
       </c>
@@ -3402,7 +4013,7 @@
       <c r="L95" s="4"/>
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D96" s="23"/>
+      <c r="D96" s="31"/>
       <c r="E96" s="11">
         <v>3</v>
       </c>
@@ -3415,7 +4026,7 @@
       <c r="L96" s="4"/>
     </row>
     <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D97" s="23"/>
+      <c r="D97" s="31"/>
       <c r="E97" s="11">
         <v>4</v>
       </c>
@@ -3428,7 +4039,7 @@
       <c r="L97" s="4"/>
     </row>
     <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D98" s="23"/>
+      <c r="D98" s="31"/>
       <c r="E98" s="11">
         <v>5</v>
       </c>
@@ -3441,7 +4052,7 @@
       <c r="L98" s="4"/>
     </row>
     <row r="99" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D99" s="23"/>
+      <c r="D99" s="31"/>
       <c r="E99" s="11">
         <v>6</v>
       </c>
@@ -3457,7 +4068,7 @@
       <c r="L99" s="4"/>
     </row>
     <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D100" s="23"/>
+      <c r="D100" s="31"/>
       <c r="E100" s="11">
         <v>7</v>
       </c>
@@ -3470,7 +4081,7 @@
       <c r="L100" s="4"/>
     </row>
     <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D101" s="23"/>
+      <c r="D101" s="31"/>
       <c r="E101" s="11">
         <v>8</v>
       </c>
@@ -3483,11 +4094,11 @@
       <c r="L101" s="4"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D102" s="23"/>
+      <c r="D102" s="31"/>
       <c r="L102" s="4"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D103" s="24"/>
+      <c r="D103" s="32"/>
       <c r="L103" s="4"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -3503,7 +4114,7 @@
       <c r="C105" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D105" s="22" t="s">
+      <c r="D105" s="30" t="s">
         <v>152</v>
       </c>
       <c r="E105" s="11">
@@ -3521,7 +4132,7 @@
       <c r="L105" s="4"/>
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D106" s="23"/>
+      <c r="D106" s="31"/>
       <c r="E106" s="11">
         <v>2</v>
       </c>
@@ -3537,7 +4148,7 @@
       <c r="L106" s="4"/>
     </row>
     <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D107" s="23"/>
+      <c r="D107" s="31"/>
       <c r="E107" s="11">
         <v>3</v>
       </c>
@@ -3550,7 +4161,7 @@
       <c r="L107" s="4"/>
     </row>
     <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D108" s="23"/>
+      <c r="D108" s="31"/>
       <c r="E108" s="11">
         <v>4</v>
       </c>
@@ -3563,7 +4174,7 @@
       <c r="L108" s="4"/>
     </row>
     <row r="109" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D109" s="23"/>
+      <c r="D109" s="31"/>
       <c r="E109" s="11">
         <v>5</v>
       </c>
@@ -3576,7 +4187,7 @@
       <c r="L109" s="4"/>
     </row>
     <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D110" s="23"/>
+      <c r="D110" s="31"/>
       <c r="E110" s="11">
         <v>6</v>
       </c>
@@ -3592,7 +4203,7 @@
       <c r="L110" s="4"/>
     </row>
     <row r="111" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D111" s="23"/>
+      <c r="D111" s="31"/>
       <c r="E111" s="11">
         <v>7</v>
       </c>
@@ -3605,7 +4216,7 @@
       <c r="L111" s="4"/>
     </row>
     <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D112" s="23"/>
+      <c r="D112" s="31"/>
       <c r="E112" s="11">
         <v>8</v>
       </c>
@@ -3618,7 +4229,7 @@
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D113" s="23"/>
+      <c r="D113" s="31"/>
       <c r="E113" s="11">
         <v>9</v>
       </c>
@@ -3631,7 +4242,7 @@
       <c r="L113" s="4"/>
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D114" s="24"/>
+      <c r="D114" s="32"/>
       <c r="E114" s="11">
         <v>10</v>
       </c>
@@ -3656,7 +4267,7 @@
       <c r="C116" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D116" s="22" t="s">
+      <c r="D116" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E116" s="11">
@@ -3674,7 +4285,7 @@
       <c r="L116" s="4"/>
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D117" s="23"/>
+      <c r="D117" s="31"/>
       <c r="E117" s="11">
         <v>2</v>
       </c>
@@ -3690,7 +4301,7 @@
       <c r="L117" s="4"/>
     </row>
     <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D118" s="23"/>
+      <c r="D118" s="31"/>
       <c r="E118" s="11">
         <v>3</v>
       </c>
@@ -3703,7 +4314,7 @@
       <c r="L118" s="4"/>
     </row>
     <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D119" s="23"/>
+      <c r="D119" s="31"/>
       <c r="E119" s="11">
         <v>4</v>
       </c>
@@ -3716,7 +4327,7 @@
       <c r="L119" s="4"/>
     </row>
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D120" s="23"/>
+      <c r="D120" s="31"/>
       <c r="E120" s="11">
         <v>5</v>
       </c>
@@ -3729,7 +4340,7 @@
       <c r="L120" s="4"/>
     </row>
     <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D121" s="23"/>
+      <c r="D121" s="31"/>
       <c r="E121" s="11">
         <v>6</v>
       </c>
@@ -3745,7 +4356,7 @@
       <c r="L121" s="4"/>
     </row>
     <row r="122" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D122" s="23"/>
+      <c r="D122" s="31"/>
       <c r="E122" s="11">
         <v>7</v>
       </c>
@@ -3758,7 +4369,7 @@
       <c r="L122" s="4"/>
     </row>
     <row r="123" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D123" s="24"/>
+      <c r="D123" s="32"/>
       <c r="E123" s="11">
         <v>8</v>
       </c>
@@ -3783,7 +4394,7 @@
       <c r="C125" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="30" t="s">
         <v>171</v>
       </c>
       <c r="E125" s="11">
@@ -3801,7 +4412,7 @@
       <c r="L125" s="4"/>
     </row>
     <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D126" s="23"/>
+      <c r="D126" s="31"/>
       <c r="E126" s="11">
         <v>2</v>
       </c>
@@ -3817,7 +4428,7 @@
       <c r="L126" s="4"/>
     </row>
     <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D127" s="23"/>
+      <c r="D127" s="31"/>
       <c r="E127" s="11">
         <v>3</v>
       </c>
@@ -3830,7 +4441,7 @@
       <c r="L127" s="4"/>
     </row>
     <row r="128" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D128" s="23"/>
+      <c r="D128" s="31"/>
       <c r="E128" s="11">
         <v>4</v>
       </c>
@@ -3843,7 +4454,7 @@
       <c r="L128" s="4"/>
     </row>
     <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D129" s="23"/>
+      <c r="D129" s="31"/>
       <c r="E129" s="11">
         <v>5</v>
       </c>
@@ -3856,7 +4467,7 @@
       <c r="L129" s="4"/>
     </row>
     <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D130" s="23"/>
+      <c r="D130" s="31"/>
       <c r="E130" s="11">
         <v>6</v>
       </c>
@@ -3872,7 +4483,7 @@
       <c r="L130" s="4"/>
     </row>
     <row r="131" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D131" s="23"/>
+      <c r="D131" s="31"/>
       <c r="E131" s="11">
         <v>7</v>
       </c>
@@ -3885,7 +4496,7 @@
       <c r="L131" s="4"/>
     </row>
     <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D132" s="23"/>
+      <c r="D132" s="31"/>
       <c r="E132" s="11">
         <v>8</v>
       </c>
@@ -3898,7 +4509,7 @@
       <c r="L132" s="4"/>
     </row>
     <row r="133" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D133" s="24"/>
+      <c r="D133" s="32"/>
       <c r="E133" s="11">
         <v>9</v>
       </c>
@@ -3923,7 +4534,7 @@
       <c r="C135" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="D135" s="30" t="s">
         <v>180</v>
       </c>
       <c r="E135" s="11">
@@ -3941,7 +4552,7 @@
       <c r="L135" s="4"/>
     </row>
     <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D136" s="23"/>
+      <c r="D136" s="31"/>
       <c r="E136" s="11">
         <v>2</v>
       </c>
@@ -3957,7 +4568,7 @@
       <c r="L136" s="4"/>
     </row>
     <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D137" s="23"/>
+      <c r="D137" s="31"/>
       <c r="E137" s="11">
         <v>3</v>
       </c>
@@ -3970,7 +4581,7 @@
       <c r="L137" s="4"/>
     </row>
     <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D138" s="23"/>
+      <c r="D138" s="31"/>
       <c r="E138" s="11">
         <v>4</v>
       </c>
@@ -3983,7 +4594,7 @@
       <c r="L138" s="4"/>
     </row>
     <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D139" s="23"/>
+      <c r="D139" s="31"/>
       <c r="E139" s="11">
         <v>5</v>
       </c>
@@ -3996,7 +4607,7 @@
       <c r="L139" s="4"/>
     </row>
     <row r="140" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D140" s="23"/>
+      <c r="D140" s="31"/>
       <c r="E140" s="11">
         <v>6</v>
       </c>
@@ -4012,7 +4623,7 @@
       <c r="L140" s="4"/>
     </row>
     <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D141" s="23"/>
+      <c r="D141" s="31"/>
       <c r="E141" s="11">
         <v>7</v>
       </c>
@@ -4025,7 +4636,7 @@
       <c r="L141" s="4"/>
     </row>
     <row r="142" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D142" s="23"/>
+      <c r="D142" s="31"/>
       <c r="E142" s="11">
         <v>8</v>
       </c>
@@ -4038,7 +4649,7 @@
       <c r="L142" s="4"/>
     </row>
     <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D143" s="24"/>
+      <c r="D143" s="32"/>
       <c r="E143" s="11">
         <v>9</v>
       </c>
@@ -4063,7 +4674,7 @@
       <c r="C145" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D145" s="22" t="s">
+      <c r="D145" s="30" t="s">
         <v>181</v>
       </c>
       <c r="E145" s="11">
@@ -4081,7 +4692,7 @@
       <c r="L145" s="4"/>
     </row>
     <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D146" s="23"/>
+      <c r="D146" s="31"/>
       <c r="E146" s="11">
         <v>2</v>
       </c>
@@ -4097,7 +4708,7 @@
       <c r="L146" s="4"/>
     </row>
     <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D147" s="23"/>
+      <c r="D147" s="31"/>
       <c r="E147" s="11">
         <v>3</v>
       </c>
@@ -4110,7 +4721,7 @@
       <c r="L147" s="4"/>
     </row>
     <row r="148" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D148" s="23"/>
+      <c r="D148" s="31"/>
       <c r="E148" s="11">
         <v>4</v>
       </c>
@@ -4123,7 +4734,7 @@
       <c r="L148" s="4"/>
     </row>
     <row r="149" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D149" s="24"/>
+      <c r="D149" s="32"/>
       <c r="E149" s="11">
         <v>5</v>
       </c>
@@ -4148,7 +4759,7 @@
       <c r="C151" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="D151" s="30" t="s">
         <v>186</v>
       </c>
       <c r="E151" s="11">
@@ -4166,7 +4777,7 @@
       <c r="L151" s="4"/>
     </row>
     <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D152" s="23"/>
+      <c r="D152" s="31"/>
       <c r="E152" s="11">
         <v>2</v>
       </c>
@@ -4182,7 +4793,7 @@
       <c r="L152" s="4"/>
     </row>
     <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D153" s="23"/>
+      <c r="D153" s="31"/>
       <c r="E153" s="11">
         <v>3</v>
       </c>
@@ -4195,7 +4806,7 @@
       <c r="L153" s="4"/>
     </row>
     <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D154" s="23"/>
+      <c r="D154" s="31"/>
       <c r="E154" s="11">
         <v>4</v>
       </c>
@@ -4208,7 +4819,7 @@
       <c r="L154" s="4"/>
     </row>
     <row r="155" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D155" s="23"/>
+      <c r="D155" s="31"/>
       <c r="F155" s="11" t="s">
         <v>121</v>
       </c>
@@ -4218,7 +4829,7 @@
       <c r="L155" s="4"/>
     </row>
     <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D156" s="23"/>
+      <c r="D156" s="31"/>
       <c r="F156" s="11" t="s">
         <v>190</v>
       </c>
@@ -4231,7 +4842,7 @@
       <c r="L156" s="4"/>
     </row>
     <row r="157" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D157" s="23"/>
+      <c r="D157" s="31"/>
       <c r="F157" s="11" t="s">
         <v>191</v>
       </c>
@@ -4241,7 +4852,7 @@
       <c r="L157" s="4"/>
     </row>
     <row r="158" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D158" s="24"/>
+      <c r="D158" s="32"/>
       <c r="F158" s="11" t="s">
         <v>194</v>
       </c>
@@ -4263,7 +4874,7 @@
       <c r="C160" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D160" s="22" t="s">
+      <c r="D160" s="30" t="s">
         <v>196</v>
       </c>
       <c r="E160" s="11">
@@ -4281,7 +4892,7 @@
       <c r="L160" s="4"/>
     </row>
     <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D161" s="23"/>
+      <c r="D161" s="31"/>
       <c r="E161" s="11">
         <v>2</v>
       </c>
@@ -4297,7 +4908,7 @@
       <c r="L161" s="4"/>
     </row>
     <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D162" s="23"/>
+      <c r="D162" s="31"/>
       <c r="E162" s="11">
         <v>3</v>
       </c>
@@ -4310,7 +4921,7 @@
       <c r="L162" s="4"/>
     </row>
     <row r="163" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D163" s="23"/>
+      <c r="D163" s="31"/>
       <c r="E163" s="11">
         <v>4</v>
       </c>
@@ -4323,7 +4934,7 @@
       <c r="L163" s="4"/>
     </row>
     <row r="164" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D164" s="23"/>
+      <c r="D164" s="31"/>
       <c r="E164" s="11">
         <v>5</v>
       </c>
@@ -4336,7 +4947,7 @@
       <c r="L164" s="4"/>
     </row>
     <row r="165" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D165" s="23"/>
+      <c r="D165" s="31"/>
       <c r="E165" s="11">
         <v>6</v>
       </c>
@@ -4349,7 +4960,7 @@
       <c r="L165" s="4"/>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D166" s="23"/>
+      <c r="D166" s="31"/>
       <c r="E166" s="11">
         <v>7</v>
       </c>
@@ -4362,7 +4973,7 @@
       <c r="L166" s="4"/>
     </row>
     <row r="167" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D167" s="24"/>
+      <c r="D167" s="32"/>
       <c r="E167" s="11">
         <v>8</v>
       </c>
@@ -4387,7 +4998,7 @@
       <c r="C169" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="D169" s="30" t="s">
         <v>206</v>
       </c>
       <c r="E169" s="11">
@@ -4405,7 +5016,7 @@
       <c r="L169" s="4"/>
     </row>
     <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D170" s="23"/>
+      <c r="D170" s="31"/>
       <c r="E170" s="11">
         <v>2</v>
       </c>
@@ -4421,7 +5032,7 @@
       <c r="L170" s="4"/>
     </row>
     <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D171" s="23"/>
+      <c r="D171" s="31"/>
       <c r="E171" s="11">
         <v>3</v>
       </c>
@@ -4434,7 +5045,7 @@
       <c r="L171" s="4"/>
     </row>
     <row r="172" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D172" s="23"/>
+      <c r="D172" s="31"/>
       <c r="E172" s="11">
         <v>4</v>
       </c>
@@ -4447,7 +5058,7 @@
       <c r="L172" s="4"/>
     </row>
     <row r="173" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D173" s="23"/>
+      <c r="D173" s="31"/>
       <c r="E173" s="11">
         <v>5</v>
       </c>
@@ -4460,7 +5071,7 @@
       <c r="L173" s="4"/>
     </row>
     <row r="174" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D174" s="23"/>
+      <c r="D174" s="31"/>
       <c r="E174" s="11">
         <v>6</v>
       </c>
@@ -4473,7 +5084,7 @@
       <c r="L174" s="4"/>
     </row>
     <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D175" s="23"/>
+      <c r="D175" s="31"/>
       <c r="E175" s="11">
         <v>7</v>
       </c>
@@ -4486,7 +5097,7 @@
       <c r="L175" s="4"/>
     </row>
     <row r="176" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D176" s="23"/>
+      <c r="D176" s="31"/>
       <c r="E176" s="11">
         <v>8</v>
       </c>
@@ -4499,7 +5110,7 @@
       <c r="L176" s="4"/>
     </row>
     <row r="177" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D177" s="24"/>
+      <c r="D177" s="32"/>
       <c r="E177" s="11">
         <v>9</v>
       </c>
@@ -4537,7 +5148,7 @@
       <c r="C180" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D180" s="22" t="s">
+      <c r="D180" s="30" t="s">
         <v>216</v>
       </c>
       <c r="E180" s="11">
@@ -4555,7 +5166,7 @@
       <c r="L180" s="4"/>
     </row>
     <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D181" s="23"/>
+      <c r="D181" s="31"/>
       <c r="E181" s="11">
         <v>2</v>
       </c>
@@ -4571,7 +5182,7 @@
       <c r="L181" s="4"/>
     </row>
     <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D182" s="23"/>
+      <c r="D182" s="31"/>
       <c r="E182" s="11">
         <v>3</v>
       </c>
@@ -4584,7 +5195,7 @@
       <c r="L182" s="4"/>
     </row>
     <row r="183" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D183" s="23"/>
+      <c r="D183" s="31"/>
       <c r="E183" s="11">
         <v>4</v>
       </c>
@@ -4597,7 +5208,7 @@
       <c r="L183" s="4"/>
     </row>
     <row r="184" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D184" s="23"/>
+      <c r="D184" s="31"/>
       <c r="E184" s="11">
         <v>5</v>
       </c>
@@ -4610,7 +5221,7 @@
       <c r="L184" s="4"/>
     </row>
     <row r="185" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D185" s="23"/>
+      <c r="D185" s="31"/>
       <c r="E185" s="11">
         <v>6</v>
       </c>
@@ -4623,7 +5234,7 @@
       <c r="L185" s="4"/>
     </row>
     <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D186" s="23"/>
+      <c r="D186" s="31"/>
       <c r="E186" s="11">
         <v>7</v>
       </c>
@@ -4636,7 +5247,7 @@
       <c r="L186" s="4"/>
     </row>
     <row r="187" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D187" s="23"/>
+      <c r="D187" s="31"/>
       <c r="E187" s="11">
         <v>8</v>
       </c>
@@ -4649,7 +5260,7 @@
       <c r="L187" s="4"/>
     </row>
     <row r="188" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D188" s="23"/>
+      <c r="D188" s="31"/>
       <c r="E188" s="11">
         <v>9</v>
       </c>
@@ -4662,7 +5273,7 @@
       <c r="L188" s="4"/>
     </row>
     <row r="189" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D189" s="23"/>
+      <c r="D189" s="31"/>
       <c r="E189" s="11">
         <v>10</v>
       </c>
@@ -4675,7 +5286,7 @@
       <c r="L189" s="4"/>
     </row>
     <row r="190" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D190" s="24"/>
+      <c r="D190" s="32"/>
       <c r="E190" s="11">
         <v>11</v>
       </c>
@@ -4700,7 +5311,7 @@
       <c r="C192" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D192" s="22" t="s">
+      <c r="D192" s="30" t="s">
         <v>217</v>
       </c>
       <c r="E192" s="11">
@@ -4718,7 +5329,7 @@
       <c r="L192" s="4"/>
     </row>
     <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D193" s="23"/>
+      <c r="D193" s="31"/>
       <c r="E193" s="11">
         <v>2</v>
       </c>
@@ -4734,7 +5345,7 @@
       <c r="L193" s="4"/>
     </row>
     <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D194" s="23"/>
+      <c r="D194" s="31"/>
       <c r="E194" s="11">
         <v>3</v>
       </c>
@@ -4747,7 +5358,7 @@
       <c r="L194" s="4"/>
     </row>
     <row r="195" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D195" s="23"/>
+      <c r="D195" s="31"/>
       <c r="E195" s="11">
         <v>4</v>
       </c>
@@ -4760,7 +5371,7 @@
       <c r="L195" s="4"/>
     </row>
     <row r="196" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D196" s="23"/>
+      <c r="D196" s="31"/>
       <c r="E196" s="11">
         <v>5</v>
       </c>
@@ -4773,7 +5384,7 @@
       <c r="L196" s="4"/>
     </row>
     <row r="197" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D197" s="23"/>
+      <c r="D197" s="31"/>
       <c r="E197" s="11">
         <v>6</v>
       </c>
@@ -4786,7 +5397,7 @@
       <c r="L197" s="4"/>
     </row>
     <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D198" s="23"/>
+      <c r="D198" s="31"/>
       <c r="E198" s="11">
         <v>7</v>
       </c>
@@ -4799,7 +5410,7 @@
       <c r="L198" s="4"/>
     </row>
     <row r="199" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D199" s="23"/>
+      <c r="D199" s="31"/>
       <c r="E199" s="11">
         <v>8</v>
       </c>
@@ -4812,7 +5423,7 @@
       <c r="L199" s="4"/>
     </row>
     <row r="200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D200" s="24"/>
+      <c r="D200" s="32"/>
       <c r="E200" s="11">
         <v>9</v>
       </c>
@@ -4837,7 +5448,7 @@
       <c r="C202" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D202" s="22" t="s">
+      <c r="D202" s="30" t="s">
         <v>222</v>
       </c>
       <c r="E202" s="11">
@@ -4855,7 +5466,7 @@
       <c r="L202" s="4"/>
     </row>
     <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D203" s="23"/>
+      <c r="D203" s="31"/>
       <c r="E203" s="11">
         <v>2</v>
       </c>
@@ -4871,7 +5482,7 @@
       <c r="L203" s="4"/>
     </row>
     <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D204" s="23"/>
+      <c r="D204" s="31"/>
       <c r="E204" s="11">
         <v>3</v>
       </c>
@@ -4884,7 +5495,7 @@
       <c r="L204" s="4"/>
     </row>
     <row r="205" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D205" s="23"/>
+      <c r="D205" s="31"/>
       <c r="E205" s="11">
         <v>4</v>
       </c>
@@ -4897,7 +5508,7 @@
       <c r="L205" s="4"/>
     </row>
     <row r="206" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D206" s="23"/>
+      <c r="D206" s="31"/>
       <c r="E206" s="11">
         <v>5</v>
       </c>
@@ -4910,7 +5521,7 @@
       <c r="L206" s="4"/>
     </row>
     <row r="207" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D207" s="23"/>
+      <c r="D207" s="31"/>
       <c r="E207" s="11">
         <v>6</v>
       </c>
@@ -4923,7 +5534,7 @@
       <c r="L207" s="4"/>
     </row>
     <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D208" s="23"/>
+      <c r="D208" s="31"/>
       <c r="E208" s="11">
         <v>7</v>
       </c>
@@ -4936,7 +5547,7 @@
       <c r="L208" s="4"/>
     </row>
     <row r="209" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="D209" s="23"/>
+      <c r="D209" s="31"/>
       <c r="E209" s="11">
         <v>8</v>
       </c>
@@ -4949,7 +5560,7 @@
       <c r="L209" s="4"/>
     </row>
     <row r="210" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D210" s="24"/>
+      <c r="D210" s="32"/>
       <c r="E210" s="11">
         <v>9</v>
       </c>
@@ -4974,7 +5585,7 @@
       <c r="C212" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D212" s="22" t="s">
+      <c r="D212" s="30" t="s">
         <v>227</v>
       </c>
       <c r="E212" s="11">
@@ -4992,7 +5603,7 @@
       <c r="L212" s="4"/>
     </row>
     <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D213" s="23"/>
+      <c r="D213" s="31"/>
       <c r="E213" s="11">
         <v>2</v>
       </c>
@@ -5008,7 +5619,7 @@
       <c r="L213" s="4"/>
     </row>
     <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D214" s="23"/>
+      <c r="D214" s="31"/>
       <c r="E214" s="11">
         <v>3</v>
       </c>
@@ -5021,7 +5632,7 @@
       <c r="L214" s="4"/>
     </row>
     <row r="215" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D215" s="23"/>
+      <c r="D215" s="31"/>
       <c r="E215" s="11">
         <v>4</v>
       </c>
@@ -5034,7 +5645,7 @@
       <c r="L215" s="4"/>
     </row>
     <row r="216" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D216" s="23"/>
+      <c r="D216" s="31"/>
       <c r="E216" s="11">
         <v>5</v>
       </c>
@@ -5047,7 +5658,7 @@
       <c r="L216" s="4"/>
     </row>
     <row r="217" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D217" s="23"/>
+      <c r="D217" s="31"/>
       <c r="E217" s="11">
         <v>6</v>
       </c>
@@ -5060,7 +5671,7 @@
       <c r="L217" s="4"/>
     </row>
     <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D218" s="23"/>
+      <c r="D218" s="31"/>
       <c r="E218" s="11">
         <v>7</v>
       </c>
@@ -5073,7 +5684,7 @@
       <c r="L218" s="4"/>
     </row>
     <row r="219" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D219" s="23"/>
+      <c r="D219" s="31"/>
       <c r="E219" s="11">
         <v>8</v>
       </c>
@@ -5086,7 +5697,7 @@
       <c r="L219" s="4"/>
     </row>
     <row r="220" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D220" s="24"/>
+      <c r="D220" s="32"/>
       <c r="E220" s="11">
         <v>9</v>
       </c>
@@ -5111,7 +5722,7 @@
       <c r="C222" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D222" s="22" t="s">
+      <c r="D222" s="30" t="s">
         <v>231</v>
       </c>
       <c r="E222" s="11">
@@ -5129,7 +5740,7 @@
       <c r="L222" s="4"/>
     </row>
     <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D223" s="23"/>
+      <c r="D223" s="31"/>
       <c r="E223" s="11">
         <v>2</v>
       </c>
@@ -5145,7 +5756,7 @@
       <c r="L223" s="4"/>
     </row>
     <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D224" s="23"/>
+      <c r="D224" s="31"/>
       <c r="E224" s="11">
         <v>3</v>
       </c>
@@ -5158,7 +5769,7 @@
       <c r="L224" s="4"/>
     </row>
     <row r="225" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D225" s="23"/>
+      <c r="D225" s="31"/>
       <c r="E225" s="11">
         <v>4</v>
       </c>
@@ -5171,7 +5782,7 @@
       <c r="L225" s="4"/>
     </row>
     <row r="226" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D226" s="23"/>
+      <c r="D226" s="31"/>
       <c r="E226" s="11">
         <v>5</v>
       </c>
@@ -5184,7 +5795,7 @@
       <c r="L226" s="4"/>
     </row>
     <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D227" s="23"/>
+      <c r="D227" s="31"/>
       <c r="E227" s="11">
         <v>6</v>
       </c>
@@ -5197,7 +5808,7 @@
       <c r="L227" s="4"/>
     </row>
     <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D228" s="24"/>
+      <c r="D228" s="32"/>
       <c r="E228" s="11">
         <v>7</v>
       </c>
@@ -5222,7 +5833,7 @@
       <c r="C230" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D230" s="22" t="s">
+      <c r="D230" s="30" t="s">
         <v>247</v>
       </c>
       <c r="E230" s="11">
@@ -5240,7 +5851,7 @@
       <c r="L230" s="4"/>
     </row>
     <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D231" s="23"/>
+      <c r="D231" s="31"/>
       <c r="E231" s="11">
         <v>2</v>
       </c>
@@ -5256,7 +5867,7 @@
       <c r="L231" s="4"/>
     </row>
     <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D232" s="23"/>
+      <c r="D232" s="31"/>
       <c r="E232" s="11">
         <v>3</v>
       </c>
@@ -5269,7 +5880,7 @@
       <c r="L232" s="4"/>
     </row>
     <row r="233" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D233" s="23"/>
+      <c r="D233" s="31"/>
       <c r="E233" s="11">
         <v>4</v>
       </c>
@@ -5282,7 +5893,7 @@
       <c r="L233" s="4"/>
     </row>
     <row r="234" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D234" s="23"/>
+      <c r="D234" s="31"/>
       <c r="E234" s="11">
         <v>5</v>
       </c>
@@ -5295,7 +5906,7 @@
       <c r="L234" s="4"/>
     </row>
     <row r="235" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D235" s="23"/>
+      <c r="D235" s="31"/>
       <c r="E235" s="11">
         <v>6</v>
       </c>
@@ -5311,7 +5922,7 @@
       <c r="L235" s="4"/>
     </row>
     <row r="236" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D236" s="23"/>
+      <c r="D236" s="31"/>
       <c r="E236" s="11">
         <v>7</v>
       </c>
@@ -5324,7 +5935,7 @@
       <c r="L236" s="4"/>
     </row>
     <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D237" s="24"/>
+      <c r="D237" s="32"/>
       <c r="E237" s="11">
         <v>8</v>
       </c>
@@ -5349,7 +5960,7 @@
       <c r="C239" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D239" s="22" t="s">
+      <c r="D239" s="30" t="s">
         <v>248</v>
       </c>
       <c r="E239" s="11">
@@ -5367,7 +5978,7 @@
       <c r="L239" s="4"/>
     </row>
     <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D240" s="23"/>
+      <c r="D240" s="31"/>
       <c r="E240" s="11">
         <v>2</v>
       </c>
@@ -5383,7 +5994,7 @@
       <c r="L240" s="4"/>
     </row>
     <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D241" s="23"/>
+      <c r="D241" s="31"/>
       <c r="E241" s="11">
         <v>3</v>
       </c>
@@ -5396,7 +6007,7 @@
       <c r="L241" s="4"/>
     </row>
     <row r="242" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D242" s="23"/>
+      <c r="D242" s="31"/>
       <c r="E242" s="11">
         <v>4</v>
       </c>
@@ -5409,7 +6020,7 @@
       <c r="L242" s="4"/>
     </row>
     <row r="243" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D243" s="23"/>
+      <c r="D243" s="31"/>
       <c r="E243" s="11">
         <v>5</v>
       </c>
@@ -5422,7 +6033,7 @@
       <c r="L243" s="4"/>
     </row>
     <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D244" s="23"/>
+      <c r="D244" s="31"/>
       <c r="E244" s="11">
         <v>6</v>
       </c>
@@ -5438,7 +6049,7 @@
       <c r="L244" s="4"/>
     </row>
     <row r="245" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D245" s="23"/>
+      <c r="D245" s="31"/>
       <c r="E245" s="11">
         <v>7</v>
       </c>
@@ -5451,7 +6062,7 @@
       <c r="L245" s="4"/>
     </row>
     <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D246" s="23"/>
+      <c r="D246" s="31"/>
       <c r="E246" s="11">
         <v>8</v>
       </c>
@@ -5464,7 +6075,7 @@
       <c r="L246" s="4"/>
     </row>
     <row r="247" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="D247" s="23"/>
+      <c r="D247" s="31"/>
       <c r="E247" s="11">
         <v>9</v>
       </c>
@@ -5480,7 +6091,7 @@
       <c r="L247" s="4"/>
     </row>
     <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D248" s="24"/>
+      <c r="D248" s="32"/>
       <c r="E248" s="11">
         <v>10</v>
       </c>
@@ -5505,7 +6116,7 @@
       <c r="C250" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D250" s="22" t="s">
+      <c r="D250" s="30" t="s">
         <v>263</v>
       </c>
       <c r="E250" s="11">
@@ -5523,7 +6134,7 @@
       <c r="L250" s="4"/>
     </row>
     <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D251" s="23"/>
+      <c r="D251" s="31"/>
       <c r="E251" s="11">
         <v>2</v>
       </c>
@@ -5539,7 +6150,7 @@
       <c r="L251" s="4"/>
     </row>
     <row r="252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D252" s="23"/>
+      <c r="D252" s="31"/>
       <c r="E252" s="11">
         <v>3</v>
       </c>
@@ -5552,7 +6163,7 @@
       <c r="L252" s="4"/>
     </row>
     <row r="253" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D253" s="23"/>
+      <c r="D253" s="31"/>
       <c r="E253" s="11">
         <v>4</v>
       </c>
@@ -5565,7 +6176,7 @@
       <c r="L253" s="4"/>
     </row>
     <row r="254" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D254" s="23"/>
+      <c r="D254" s="31"/>
       <c r="E254" s="11">
         <v>5</v>
       </c>
@@ -5578,7 +6189,7 @@
       <c r="L254" s="4"/>
     </row>
     <row r="255" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D255" s="23"/>
+      <c r="D255" s="31"/>
       <c r="E255" s="11">
         <v>6</v>
       </c>
@@ -5591,7 +6202,7 @@
       <c r="L255" s="4"/>
     </row>
     <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D256" s="24"/>
+      <c r="D256" s="32"/>
       <c r="E256" s="11">
         <v>7</v>
       </c>
@@ -5603,16 +6214,16 @@
       </c>
       <c r="L256" s="4"/>
     </row>
-    <row r="257" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="28"/>
-      <c r="B257" s="28"/>
-      <c r="D257" s="28"/>
-      <c r="E257" s="28"/>
-      <c r="F257" s="28"/>
-      <c r="G257" s="28"/>
-      <c r="H257" s="28"/>
-      <c r="I257" s="28"/>
-      <c r="L257" s="34"/>
+    <row r="257" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="22"/>
+      <c r="B257" s="22"/>
+      <c r="D257" s="22"/>
+      <c r="E257" s="22"/>
+      <c r="F257" s="22"/>
+      <c r="G257" s="22"/>
+      <c r="H257" s="22"/>
+      <c r="I257" s="22"/>
+      <c r="L257" s="28"/>
     </row>
     <row r="258" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="11" t="s">
@@ -5624,7 +6235,7 @@
       <c r="C258" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D258" s="27" t="s">
+      <c r="D258" s="33" t="s">
         <v>272</v>
       </c>
       <c r="E258" s="11">
@@ -5642,7 +6253,7 @@
       <c r="L258" s="4"/>
     </row>
     <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D259" s="27"/>
+      <c r="D259" s="33"/>
       <c r="E259" s="11">
         <v>2</v>
       </c>
@@ -5652,30 +6263,30 @@
       <c r="G259" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H259" s="35" t="s">
+      <c r="H259" s="29" t="s">
         <v>101</v>
       </c>
       <c r="L259" s="4"/>
     </row>
-    <row r="260" spans="1:12" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="29"/>
-      <c r="B260" s="29"/>
-      <c r="D260" s="23"/>
-      <c r="E260" s="29">
+    <row r="260" spans="1:12" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="23"/>
+      <c r="B260" s="23"/>
+      <c r="D260" s="31"/>
+      <c r="E260" s="23">
         <v>3</v>
       </c>
-      <c r="F260" s="29" t="s">
+      <c r="F260" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G260" s="29" t="s">
+      <c r="G260" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H260" s="29"/>
-      <c r="I260" s="29"/>
-      <c r="L260" s="31"/>
+      <c r="H260" s="23"/>
+      <c r="I260" s="23"/>
+      <c r="L260" s="25"/>
     </row>
     <row r="261" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D261" s="23"/>
+      <c r="D261" s="31"/>
       <c r="E261" s="11">
         <v>4</v>
       </c>
@@ -5688,7 +6299,7 @@
       <c r="L261" s="4"/>
     </row>
     <row r="262" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D262" s="24"/>
+      <c r="D262" s="32"/>
       <c r="E262" s="11">
         <v>5</v>
       </c>
@@ -5716,7 +6327,7 @@
       <c r="C264" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D264" s="22" t="s">
+      <c r="D264" s="30" t="s">
         <v>276</v>
       </c>
       <c r="E264" s="11">
@@ -5734,7 +6345,7 @@
       <c r="L264" s="4"/>
     </row>
     <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D265" s="23"/>
+      <c r="D265" s="31"/>
       <c r="E265" s="11">
         <v>2</v>
       </c>
@@ -5750,7 +6361,7 @@
       <c r="L265" s="4"/>
     </row>
     <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D266" s="23"/>
+      <c r="D266" s="31"/>
       <c r="E266" s="11">
         <v>3</v>
       </c>
@@ -5763,7 +6374,7 @@
       <c r="L266" s="4"/>
     </row>
     <row r="267" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D267" s="23"/>
+      <c r="D267" s="31"/>
       <c r="E267" s="11">
         <v>4</v>
       </c>
@@ -5776,7 +6387,7 @@
       <c r="L267" s="4"/>
     </row>
     <row r="268" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D268" s="24"/>
+      <c r="D268" s="32"/>
       <c r="E268" s="11">
         <v>5</v>
       </c>
@@ -5804,7 +6415,7 @@
       <c r="C270" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D270" s="22" t="s">
+      <c r="D270" s="30" t="s">
         <v>284</v>
       </c>
       <c r="E270" s="11">
@@ -5822,7 +6433,7 @@
       <c r="L270" s="4"/>
     </row>
     <row r="271" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D271" s="23"/>
+      <c r="D271" s="31"/>
       <c r="E271" s="11">
         <v>2</v>
       </c>
@@ -5838,7 +6449,7 @@
       <c r="L271" s="4"/>
     </row>
     <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D272" s="23"/>
+      <c r="D272" s="31"/>
       <c r="E272" s="11">
         <v>3</v>
       </c>
@@ -5851,7 +6462,7 @@
       <c r="L272" s="4"/>
     </row>
     <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D273" s="23"/>
+      <c r="D273" s="31"/>
       <c r="E273" s="11">
         <v>4</v>
       </c>
@@ -5864,7 +6475,7 @@
       <c r="L273" s="4"/>
     </row>
     <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D274" s="23"/>
+      <c r="D274" s="31"/>
       <c r="E274" s="11">
         <v>5</v>
       </c>
@@ -5877,7 +6488,7 @@
       <c r="L274" s="4"/>
     </row>
     <row r="275" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D275" s="23"/>
+      <c r="D275" s="31"/>
       <c r="E275" s="11">
         <v>6</v>
       </c>
@@ -5893,7 +6504,7 @@
       <c r="L275" s="4"/>
     </row>
     <row r="276" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D276" s="23"/>
+      <c r="D276" s="31"/>
       <c r="E276" s="11">
         <v>7</v>
       </c>
@@ -5906,7 +6517,7 @@
       <c r="L276" s="4"/>
     </row>
     <row r="277" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D277" s="23"/>
+      <c r="D277" s="31"/>
       <c r="E277" s="11">
         <v>8</v>
       </c>
@@ -5919,7 +6530,7 @@
       <c r="L277" s="4"/>
     </row>
     <row r="278" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D278" s="23"/>
+      <c r="D278" s="31"/>
       <c r="E278" s="11">
         <v>9</v>
       </c>
@@ -5932,7 +6543,7 @@
       <c r="L278" s="4"/>
     </row>
     <row r="279" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D279" s="23"/>
+      <c r="D279" s="31"/>
       <c r="E279" s="11">
         <v>10</v>
       </c>
@@ -5945,7 +6556,7 @@
       <c r="L279" s="4"/>
     </row>
     <row r="280" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D280" s="24"/>
+      <c r="D280" s="32"/>
       <c r="E280" s="11">
         <v>11</v>
       </c>
@@ -5970,7 +6581,7 @@
       <c r="C282" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D282" s="22" t="s">
+      <c r="D282" s="30" t="s">
         <v>295</v>
       </c>
       <c r="E282" s="11">
@@ -5988,7 +6599,7 @@
       <c r="L282" s="4"/>
     </row>
     <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D283" s="23"/>
+      <c r="D283" s="31"/>
       <c r="E283" s="11">
         <v>2</v>
       </c>
@@ -6004,7 +6615,7 @@
       <c r="L283" s="4"/>
     </row>
     <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D284" s="23"/>
+      <c r="D284" s="31"/>
       <c r="E284" s="11">
         <v>3</v>
       </c>
@@ -6017,7 +6628,7 @@
       <c r="L284" s="4"/>
     </row>
     <row r="285" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D285" s="23"/>
+      <c r="D285" s="31"/>
       <c r="E285" s="11">
         <v>4</v>
       </c>
@@ -6030,7 +6641,7 @@
       <c r="L285" s="4"/>
     </row>
     <row r="286" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D286" s="23"/>
+      <c r="D286" s="31"/>
       <c r="E286" s="11">
         <v>5</v>
       </c>
@@ -6043,7 +6654,7 @@
       <c r="L286" s="4"/>
     </row>
     <row r="287" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D287" s="23"/>
+      <c r="D287" s="31"/>
       <c r="E287" s="11">
         <v>6</v>
       </c>
@@ -6059,7 +6670,7 @@
       <c r="L287" s="4"/>
     </row>
     <row r="288" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D288" s="23"/>
+      <c r="D288" s="31"/>
       <c r="E288" s="11">
         <v>7</v>
       </c>
@@ -6072,7 +6683,7 @@
       <c r="L288" s="4"/>
     </row>
     <row r="289" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D289" s="24"/>
+      <c r="D289" s="32"/>
       <c r="E289" s="11">
         <v>8</v>
       </c>
@@ -6084,23 +6695,23 @@
       </c>
       <c r="L289" s="4"/>
     </row>
-    <row r="290" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="28"/>
-      <c r="B290" s="28"/>
-      <c r="D290" s="28"/>
-      <c r="E290" s="28"/>
-      <c r="F290" s="28" t="s">
+    <row r="290" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="22"/>
+      <c r="B290" s="22"/>
+      <c r="D290" s="22"/>
+      <c r="E290" s="22"/>
+      <c r="F290" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="G290" s="28" t="s">
+      <c r="G290" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="H290" s="28"/>
-      <c r="I290" s="28"/>
-      <c r="L290" s="34"/>
+      <c r="H290" s="22"/>
+      <c r="I290" s="22"/>
+      <c r="L290" s="28"/>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F291" s="28"/>
+      <c r="F291" s="22"/>
       <c r="L291" s="4"/>
     </row>
     <row r="292" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -6113,7 +6724,7 @@
       <c r="C292" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D292" s="27" t="s">
+      <c r="D292" s="33" t="s">
         <v>294</v>
       </c>
       <c r="E292" s="11">
@@ -6131,40 +6742,40 @@
       <c r="L292" s="4"/>
     </row>
     <row r="293" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D293" s="27"/>
+      <c r="D293" s="33"/>
       <c r="E293" s="11">
         <v>2</v>
       </c>
-      <c r="F293" s="29" t="s">
+      <c r="F293" s="23" t="s">
         <v>99</v>
       </c>
       <c r="G293" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H293" s="35" t="s">
+      <c r="H293" s="29" t="s">
         <v>101</v>
       </c>
       <c r="L293" s="4"/>
     </row>
-    <row r="294" spans="1:12" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A294" s="29"/>
-      <c r="B294" s="29"/>
-      <c r="D294" s="23"/>
-      <c r="E294" s="29">
+    <row r="294" spans="1:12" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="23"/>
+      <c r="B294" s="23"/>
+      <c r="D294" s="31"/>
+      <c r="E294" s="23">
         <v>3</v>
       </c>
-      <c r="F294" s="29" t="s">
+      <c r="F294" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G294" s="29" t="s">
+      <c r="G294" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H294" s="29"/>
-      <c r="I294" s="29"/>
-      <c r="L294" s="31"/>
+      <c r="H294" s="23"/>
+      <c r="I294" s="23"/>
+      <c r="L294" s="25"/>
     </row>
     <row r="295" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D295" s="23"/>
+      <c r="D295" s="31"/>
       <c r="E295" s="11">
         <v>4</v>
       </c>
@@ -6177,7 +6788,7 @@
       <c r="L295" s="4"/>
     </row>
     <row r="296" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D296" s="23"/>
+      <c r="D296" s="31"/>
       <c r="E296" s="11">
         <v>5</v>
       </c>
@@ -6190,7 +6801,7 @@
       <c r="L296" s="4"/>
     </row>
     <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D297" s="23"/>
+      <c r="D297" s="31"/>
       <c r="E297" s="11">
         <v>6</v>
       </c>
@@ -6206,7 +6817,7 @@
       <c r="L297" s="4"/>
     </row>
     <row r="298" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D298" s="23"/>
+      <c r="D298" s="31"/>
       <c r="E298" s="11">
         <v>7</v>
       </c>
@@ -6219,7 +6830,7 @@
       <c r="L298" s="4"/>
     </row>
     <row r="299" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D299" s="23"/>
+      <c r="D299" s="31"/>
       <c r="E299" s="11">
         <v>8</v>
       </c>
@@ -6232,7 +6843,7 @@
       <c r="L299" s="4"/>
     </row>
     <row r="300" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D300" s="23"/>
+      <c r="D300" s="31"/>
       <c r="E300" s="11">
         <v>9</v>
       </c>
@@ -6245,7 +6856,7 @@
       <c r="L300" s="4"/>
     </row>
     <row r="301" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D301" s="24"/>
+      <c r="D301" s="32"/>
       <c r="E301" s="11">
         <v>10</v>
       </c>
@@ -6257,25 +6868,25 @@
       </c>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="28"/>
-      <c r="B302" s="28"/>
-      <c r="D302" s="28"/>
-      <c r="E302" s="28">
+    <row r="302" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="22"/>
+      <c r="B302" s="22"/>
+      <c r="D302" s="22"/>
+      <c r="E302" s="22">
         <v>11</v>
       </c>
-      <c r="F302" s="28" t="s">
+      <c r="F302" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="G302" s="28" t="s">
+      <c r="G302" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="H302" s="28"/>
-      <c r="I302" s="28"/>
-      <c r="L302" s="34"/>
+      <c r="H302" s="22"/>
+      <c r="I302" s="22"/>
+      <c r="L302" s="28"/>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D303" s="28"/>
+      <c r="D303" s="22"/>
       <c r="L303" s="4"/>
     </row>
     <row r="304" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -6288,7 +6899,7 @@
       <c r="C304" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D304" s="27" t="s">
+      <c r="D304" s="33" t="s">
         <v>307</v>
       </c>
       <c r="E304" s="11">
@@ -6306,7 +6917,7 @@
       <c r="L304" s="4"/>
     </row>
     <row r="305" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D305" s="27"/>
+      <c r="D305" s="33"/>
       <c r="E305" s="11">
         <v>2</v>
       </c>
@@ -6316,30 +6927,30 @@
       <c r="G305" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H305" s="35" t="s">
+      <c r="H305" s="29" t="s">
         <v>101</v>
       </c>
       <c r="L305" s="4"/>
     </row>
-    <row r="306" spans="1:12" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A306" s="29"/>
-      <c r="B306" s="29"/>
-      <c r="D306" s="27"/>
-      <c r="E306" s="29">
+    <row r="306" spans="1:12" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" s="23"/>
+      <c r="B306" s="23"/>
+      <c r="D306" s="33"/>
+      <c r="E306" s="23">
         <v>3</v>
       </c>
-      <c r="F306" s="29" t="s">
+      <c r="F306" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G306" s="29" t="s">
+      <c r="G306" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H306" s="29"/>
-      <c r="I306" s="29"/>
-      <c r="L306" s="31"/>
+      <c r="H306" s="23"/>
+      <c r="I306" s="23"/>
+      <c r="L306" s="25"/>
     </row>
     <row r="307" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D307" s="27"/>
+      <c r="D307" s="33"/>
       <c r="E307" s="11">
         <v>4</v>
       </c>
@@ -6352,7 +6963,7 @@
       <c r="L307" s="4"/>
     </row>
     <row r="308" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D308" s="27"/>
+      <c r="D308" s="33"/>
       <c r="E308" s="11">
         <v>5</v>
       </c>
@@ -6365,7 +6976,7 @@
       <c r="L308" s="4"/>
     </row>
     <row r="309" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D309" s="27"/>
+      <c r="D309" s="33"/>
       <c r="E309" s="11">
         <v>6</v>
       </c>
@@ -6381,7 +6992,7 @@
       <c r="L309" s="4"/>
     </row>
     <row r="310" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D310" s="27"/>
+      <c r="D310" s="33"/>
       <c r="E310" s="11">
         <v>7</v>
       </c>
@@ -6394,7 +7005,7 @@
       <c r="L310" s="4"/>
     </row>
     <row r="311" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D311" s="27"/>
+      <c r="D311" s="33"/>
       <c r="E311" s="11">
         <v>8</v>
       </c>
@@ -6407,7 +7018,7 @@
       <c r="L311" s="4"/>
     </row>
     <row r="312" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D312" s="27"/>
+      <c r="D312" s="33"/>
       <c r="E312" s="11">
         <v>9</v>
       </c>
@@ -6420,7 +7031,7 @@
       <c r="L312" s="4"/>
     </row>
     <row r="313" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D313" s="27"/>
+      <c r="D313" s="33"/>
       <c r="E313" s="11">
         <v>10</v>
       </c>
@@ -6433,7 +7044,7 @@
       <c r="L313" s="4"/>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D314" s="29"/>
+      <c r="D314" s="23"/>
       <c r="E314" s="11">
         <v>11</v>
       </c>
@@ -6458,7 +7069,7 @@
       <c r="C316" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D316" s="22" t="s">
+      <c r="D316" s="30" t="s">
         <v>308</v>
       </c>
       <c r="E316" s="11">
@@ -6476,7 +7087,7 @@
       <c r="L316" s="4"/>
     </row>
     <row r="317" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D317" s="23"/>
+      <c r="D317" s="31"/>
       <c r="E317" s="11">
         <v>2</v>
       </c>
@@ -6486,13 +7097,13 @@
       <c r="G317" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H317" s="35" t="s">
+      <c r="H317" s="29" t="s">
         <v>101</v>
       </c>
       <c r="L317" s="4"/>
     </row>
     <row r="318" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D318" s="23"/>
+      <c r="D318" s="31"/>
       <c r="E318" s="11">
         <v>3</v>
       </c>
@@ -6505,7 +7116,7 @@
       <c r="L318" s="4"/>
     </row>
     <row r="319" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D319" s="23"/>
+      <c r="D319" s="31"/>
       <c r="E319" s="11">
         <v>4</v>
       </c>
@@ -6518,7 +7129,7 @@
       <c r="L319" s="4"/>
     </row>
     <row r="320" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D320" s="23"/>
+      <c r="D320" s="31"/>
       <c r="E320" s="11">
         <v>5</v>
       </c>
@@ -6531,7 +7142,7 @@
       <c r="L320" s="4"/>
     </row>
     <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D321" s="23"/>
+      <c r="D321" s="31"/>
       <c r="E321" s="11">
         <v>6</v>
       </c>
@@ -6547,7 +7158,7 @@
       <c r="L321" s="4"/>
     </row>
     <row r="322" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D322" s="23"/>
+      <c r="D322" s="31"/>
       <c r="E322" s="11">
         <v>7</v>
       </c>
@@ -6560,7 +7171,7 @@
       <c r="L322" s="4"/>
     </row>
     <row r="323" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D323" s="23"/>
+      <c r="D323" s="31"/>
       <c r="E323" s="11">
         <v>8</v>
       </c>
@@ -6573,7 +7184,7 @@
       <c r="L323" s="4"/>
     </row>
     <row r="324" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D324" s="23"/>
+      <c r="D324" s="31"/>
       <c r="E324" s="11">
         <v>9</v>
       </c>
@@ -6586,7 +7197,7 @@
       <c r="L324" s="4"/>
     </row>
     <row r="325" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D325" s="23"/>
+      <c r="D325" s="31"/>
       <c r="E325" s="11">
         <v>10</v>
       </c>
@@ -6599,7 +7210,7 @@
       <c r="L325" s="4"/>
     </row>
     <row r="326" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D326" s="23"/>
+      <c r="D326" s="31"/>
       <c r="E326" s="11">
         <v>11</v>
       </c>
@@ -6611,11 +7222,11 @@
       </c>
       <c r="L326" s="4"/>
     </row>
-    <row r="327" spans="1:12" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A327" s="29"/>
-      <c r="B327" s="29"/>
-      <c r="D327" s="23"/>
-      <c r="E327" s="29">
+    <row r="327" spans="1:12" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A327" s="23"/>
+      <c r="B327" s="23"/>
+      <c r="D327" s="31"/>
+      <c r="E327" s="23">
         <v>12</v>
       </c>
       <c r="F327" s="18" t="s">
@@ -6624,12 +7235,12 @@
       <c r="G327" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="H327" s="29"/>
-      <c r="I327" s="29"/>
-      <c r="L327" s="31"/>
+      <c r="H327" s="23"/>
+      <c r="I327" s="23"/>
+      <c r="L327" s="25"/>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D328" s="24"/>
+      <c r="D328" s="32"/>
       <c r="E328" s="11">
         <v>13</v>
       </c>
@@ -6644,36 +7255,36 @@
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L329" s="4"/>
     </row>
-    <row r="330" spans="1:12" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A330" s="28" t="s">
+    <row r="330" spans="1:12" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A330" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="B330" s="28" t="s">
+      <c r="B330" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C330" s="32" t="s">
+      <c r="C330" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D330" s="22" t="s">
+      <c r="D330" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="E330" s="28">
+      <c r="E330" s="22">
         <v>1</v>
       </c>
-      <c r="F330" s="28" t="s">
+      <c r="F330" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G330" s="28" t="s">
+      <c r="G330" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H330" s="33" t="s">
+      <c r="H330" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="I330" s="28"/>
-      <c r="L330" s="34"/>
+      <c r="I330" s="22"/>
+      <c r="L330" s="28"/>
     </row>
     <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D331" s="23"/>
+      <c r="D331" s="31"/>
       <c r="E331" s="11">
         <v>2</v>
       </c>
@@ -6683,30 +7294,30 @@
       <c r="G331" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H331" s="35" t="s">
+      <c r="H331" s="29" t="s">
         <v>101</v>
       </c>
       <c r="L331" s="4"/>
     </row>
-    <row r="332" spans="1:12" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A332" s="29"/>
-      <c r="B332" s="29"/>
-      <c r="D332" s="23"/>
-      <c r="E332" s="29">
+    <row r="332" spans="1:12" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332" s="23"/>
+      <c r="B332" s="23"/>
+      <c r="D332" s="31"/>
+      <c r="E332" s="23">
         <v>3</v>
       </c>
-      <c r="F332" s="29" t="s">
+      <c r="F332" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G332" s="29" t="s">
+      <c r="G332" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H332" s="29"/>
-      <c r="I332" s="29"/>
-      <c r="L332" s="31"/>
+      <c r="H332" s="23"/>
+      <c r="I332" s="23"/>
+      <c r="L332" s="25"/>
     </row>
     <row r="333" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D333" s="23"/>
+      <c r="D333" s="31"/>
       <c r="E333" s="11">
         <v>4</v>
       </c>
@@ -6719,7 +7330,7 @@
       <c r="L333" s="4"/>
     </row>
     <row r="334" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D334" s="23"/>
+      <c r="D334" s="31"/>
       <c r="E334" s="11">
         <v>5</v>
       </c>
@@ -6732,7 +7343,7 @@
       <c r="L334" s="4"/>
     </row>
     <row r="335" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D335" s="23"/>
+      <c r="D335" s="31"/>
       <c r="E335" s="11">
         <v>6</v>
       </c>
@@ -6748,7 +7359,7 @@
       <c r="L335" s="4"/>
     </row>
     <row r="336" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D336" s="23"/>
+      <c r="D336" s="31"/>
       <c r="E336" s="11">
         <v>7</v>
       </c>
@@ -6761,7 +7372,7 @@
       <c r="L336" s="4"/>
     </row>
     <row r="337" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D337" s="23"/>
+      <c r="D337" s="31"/>
       <c r="E337" s="11">
         <v>8</v>
       </c>
@@ -6777,34 +7388,34 @@
       <c r="L338" s="4"/>
     </row>
     <row r="339" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A339" s="28" t="s">
+      <c r="A339" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="B339" s="28" t="s">
+      <c r="B339" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D339" s="22" t="s">
+      <c r="D339" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E339" s="28">
+      <c r="E339" s="22">
         <v>1</v>
       </c>
-      <c r="F339" s="28" t="s">
+      <c r="F339" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G339" s="28" t="s">
+      <c r="G339" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H339" s="33" t="s">
+      <c r="H339" s="27" t="s">
         <v>289</v>
       </c>
       <c r="L339" s="4"/>
     </row>
     <row r="340" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D340" s="23"/>
+      <c r="D340" s="31"/>
       <c r="E340" s="11">
         <v>2</v>
       </c>
@@ -6814,27 +7425,27 @@
       <c r="G340" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H340" s="35" t="s">
+      <c r="H340" s="29" t="s">
         <v>101</v>
       </c>
       <c r="L340" s="4"/>
     </row>
     <row r="341" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D341" s="23"/>
-      <c r="E341" s="29">
+      <c r="D341" s="31"/>
+      <c r="E341" s="23">
         <v>3</v>
       </c>
-      <c r="F341" s="29" t="s">
+      <c r="F341" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G341" s="29" t="s">
+      <c r="G341" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H341" s="29"/>
+      <c r="H341" s="23"/>
       <c r="L341" s="4"/>
     </row>
     <row r="342" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D342" s="23"/>
+      <c r="D342" s="31"/>
       <c r="E342" s="11">
         <v>4</v>
       </c>
@@ -6847,7 +7458,7 @@
       <c r="L342" s="4"/>
     </row>
     <row r="343" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D343" s="23"/>
+      <c r="D343" s="31"/>
       <c r="E343" s="11">
         <v>5</v>
       </c>
@@ -6860,7 +7471,7 @@
       <c r="L343" s="4"/>
     </row>
     <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D344" s="23"/>
+      <c r="D344" s="31"/>
       <c r="E344" s="11">
         <v>6</v>
       </c>
@@ -6876,7 +7487,7 @@
       <c r="L344" s="4"/>
     </row>
     <row r="345" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D345" s="24"/>
+      <c r="D345" s="32"/>
       <c r="E345" s="11">
         <v>7</v>
       </c>
@@ -6892,34 +7503,34 @@
       <c r="L346" s="4"/>
     </row>
     <row r="347" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A347" s="28" t="s">
+      <c r="A347" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="B347" s="28" t="s">
+      <c r="B347" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D347" s="22" t="s">
+      <c r="D347" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="E347" s="28">
+      <c r="E347" s="22">
         <v>1</v>
       </c>
-      <c r="F347" s="28" t="s">
+      <c r="F347" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G347" s="28" t="s">
+      <c r="G347" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H347" s="33" t="s">
+      <c r="H347" s="27" t="s">
         <v>289</v>
       </c>
       <c r="L347" s="4"/>
     </row>
     <row r="348" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D348" s="23"/>
+      <c r="D348" s="31"/>
       <c r="E348" s="11">
         <v>2</v>
       </c>
@@ -6929,27 +7540,27 @@
       <c r="G348" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H348" s="35" t="s">
+      <c r="H348" s="29" t="s">
         <v>101</v>
       </c>
       <c r="L348" s="4"/>
     </row>
     <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D349" s="23"/>
-      <c r="E349" s="29">
+      <c r="D349" s="31"/>
+      <c r="E349" s="23">
         <v>3</v>
       </c>
-      <c r="F349" s="29" t="s">
+      <c r="F349" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G349" s="29" t="s">
+      <c r="G349" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H349" s="29"/>
+      <c r="H349" s="23"/>
       <c r="L349" s="4"/>
     </row>
     <row r="350" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D350" s="23"/>
+      <c r="D350" s="31"/>
       <c r="E350" s="11">
         <v>4</v>
       </c>
@@ -6962,7 +7573,7 @@
       <c r="L350" s="4"/>
     </row>
     <row r="351" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D351" s="23"/>
+      <c r="D351" s="31"/>
       <c r="E351" s="11">
         <v>5</v>
       </c>
@@ -6975,7 +7586,7 @@
       <c r="L351" s="4"/>
     </row>
     <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D352" s="23"/>
+      <c r="D352" s="31"/>
       <c r="E352" s="11">
         <v>6</v>
       </c>
@@ -6991,7 +7602,7 @@
       <c r="L352" s="4"/>
     </row>
     <row r="353" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D353" s="24"/>
+      <c r="D353" s="32"/>
       <c r="E353" s="11">
         <v>7</v>
       </c>
@@ -7016,41 +7627,41 @@
       <c r="L354" s="4"/>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A355" s="28"/>
-      <c r="B355" s="28"/>
-      <c r="D355" s="28"/>
+      <c r="A355" s="22"/>
+      <c r="B355" s="22"/>
+      <c r="D355" s="22"/>
       <c r="G355" s="17"/>
       <c r="L355" s="4"/>
     </row>
     <row r="356" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A356" s="28" t="s">
+      <c r="A356" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="B356" s="28" t="s">
+      <c r="B356" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D356" s="22" t="s">
+      <c r="D356" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="E356" s="28">
+      <c r="E356" s="22">
         <v>1</v>
       </c>
-      <c r="F356" s="28" t="s">
+      <c r="F356" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G356" s="28" t="s">
+      <c r="G356" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H356" s="33" t="s">
+      <c r="H356" s="27" t="s">
         <v>289</v>
       </c>
       <c r="L356" s="4"/>
     </row>
     <row r="357" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D357" s="23"/>
+      <c r="D357" s="31"/>
       <c r="E357" s="11">
         <v>2</v>
       </c>
@@ -7060,27 +7671,27 @@
       <c r="G357" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H357" s="35" t="s">
+      <c r="H357" s="29" t="s">
         <v>101</v>
       </c>
       <c r="L357" s="4"/>
     </row>
     <row r="358" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D358" s="23"/>
-      <c r="E358" s="29">
+      <c r="D358" s="31"/>
+      <c r="E358" s="23">
         <v>3</v>
       </c>
-      <c r="F358" s="29" t="s">
+      <c r="F358" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G358" s="29" t="s">
+      <c r="G358" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H358" s="29"/>
+      <c r="H358" s="23"/>
       <c r="L358" s="4"/>
     </row>
     <row r="359" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D359" s="23"/>
+      <c r="D359" s="31"/>
       <c r="E359" s="11">
         <v>4</v>
       </c>
@@ -7093,7 +7704,7 @@
       <c r="L359" s="4"/>
     </row>
     <row r="360" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D360" s="23"/>
+      <c r="D360" s="31"/>
       <c r="E360" s="11">
         <v>5</v>
       </c>
@@ -7106,7 +7717,7 @@
       <c r="L360" s="4"/>
     </row>
     <row r="361" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D361" s="23"/>
+      <c r="D361" s="31"/>
       <c r="E361" s="11">
         <v>6</v>
       </c>
@@ -7122,7 +7733,7 @@
       <c r="L361" s="4"/>
     </row>
     <row r="362" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D362" s="23"/>
+      <c r="D362" s="31"/>
       <c r="E362" s="11">
         <v>7</v>
       </c>
@@ -7135,7 +7746,7 @@
       <c r="L362" s="4"/>
     </row>
     <row r="363" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D363" s="23"/>
+      <c r="D363" s="31"/>
       <c r="E363" s="11">
         <v>8</v>
       </c>
@@ -7148,7 +7759,7 @@
       <c r="L363" s="4"/>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D364" s="24"/>
+      <c r="D364" s="32"/>
       <c r="E364" s="11">
         <v>9</v>
       </c>
@@ -7161,21 +7772,21 @@
       <c r="L364" s="4"/>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A365" s="28"/>
-      <c r="B365" s="28"/>
+      <c r="A365" s="22"/>
+      <c r="B365" s="22"/>
       <c r="L365" s="4"/>
     </row>
     <row r="366" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A366" s="28" t="s">
+      <c r="A366" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B366" s="28" t="s">
+      <c r="B366" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D366" s="22" t="s">
+      <c r="D366" s="30" t="s">
         <v>344</v>
       </c>
       <c r="E366" s="11">
@@ -7193,7 +7804,7 @@
       <c r="L366" s="4"/>
     </row>
     <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D367" s="23"/>
+      <c r="D367" s="31"/>
       <c r="E367" s="11">
         <v>2</v>
       </c>
@@ -7209,7 +7820,7 @@
       <c r="L367" s="4"/>
     </row>
     <row r="368" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D368" s="23"/>
+      <c r="D368" s="31"/>
       <c r="E368" s="11">
         <v>3</v>
       </c>
@@ -7222,7 +7833,7 @@
       <c r="L368" s="4"/>
     </row>
     <row r="369" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D369" s="23"/>
+      <c r="D369" s="31"/>
       <c r="E369" s="11">
         <v>4</v>
       </c>
@@ -7235,7 +7846,7 @@
       <c r="L369" s="4"/>
     </row>
     <row r="370" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D370" s="23"/>
+      <c r="D370" s="31"/>
       <c r="E370" s="11">
         <v>5</v>
       </c>
@@ -7248,7 +7859,7 @@
       <c r="L370" s="4"/>
     </row>
     <row r="371" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D371" s="23"/>
+      <c r="D371" s="31"/>
       <c r="E371" s="11">
         <v>6</v>
       </c>
@@ -7261,7 +7872,7 @@
       <c r="L371" s="4"/>
     </row>
     <row r="372" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D372" s="23"/>
+      <c r="D372" s="31"/>
       <c r="E372" s="11">
         <v>7</v>
       </c>
@@ -7274,7 +7885,7 @@
       <c r="L372" s="4"/>
     </row>
     <row r="373" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D373" s="23"/>
+      <c r="D373" s="31"/>
       <c r="E373" s="11">
         <v>8</v>
       </c>
@@ -7290,7 +7901,7 @@
       <c r="L373" s="4"/>
     </row>
     <row r="374" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D374" s="24"/>
+      <c r="D374" s="32"/>
       <c r="E374" s="11">
         <v>9</v>
       </c>
@@ -7306,16 +7917,16 @@
       <c r="L375" s="4"/>
     </row>
     <row r="376" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A376" s="28" t="s">
+      <c r="A376" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="B376" s="28" t="s">
+      <c r="B376" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D376" s="22" t="s">
+      <c r="D376" s="30" t="s">
         <v>355</v>
       </c>
       <c r="E376" s="11">
@@ -7333,7 +7944,7 @@
       <c r="L376" s="4"/>
     </row>
     <row r="377" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D377" s="23"/>
+      <c r="D377" s="31"/>
       <c r="E377" s="11">
         <v>2</v>
       </c>
@@ -7349,7 +7960,7 @@
       <c r="L377" s="4"/>
     </row>
     <row r="378" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D378" s="23"/>
+      <c r="D378" s="31"/>
       <c r="E378" s="11">
         <v>3</v>
       </c>
@@ -7362,7 +7973,7 @@
       <c r="L378" s="4"/>
     </row>
     <row r="379" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D379" s="23"/>
+      <c r="D379" s="31"/>
       <c r="E379" s="11">
         <v>4</v>
       </c>
@@ -7375,7 +7986,7 @@
       <c r="L379" s="4"/>
     </row>
     <row r="380" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D380" s="23"/>
+      <c r="D380" s="31"/>
       <c r="E380" s="11">
         <v>5</v>
       </c>
@@ -7388,7 +7999,7 @@
       <c r="L380" s="4"/>
     </row>
     <row r="381" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D381" s="24"/>
+      <c r="D381" s="32"/>
       <c r="E381" s="11">
         <v>6</v>
       </c>
@@ -7407,16 +8018,16 @@
       <c r="L382" s="4"/>
     </row>
     <row r="383" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A383" s="28" t="s">
+      <c r="A383" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="B383" s="28" t="s">
+      <c r="B383" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D383" s="22" t="s">
+      <c r="D383" s="30" t="s">
         <v>380</v>
       </c>
       <c r="E383" s="5">
@@ -7434,7 +8045,7 @@
       <c r="L383" s="4"/>
     </row>
     <row r="384" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D384" s="23"/>
+      <c r="D384" s="31"/>
       <c r="E384" s="5">
         <v>2</v>
       </c>
@@ -7447,7 +8058,7 @@
       <c r="L384" s="4"/>
     </row>
     <row r="385" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D385" s="23"/>
+      <c r="D385" s="31"/>
       <c r="E385" s="5">
         <v>3</v>
       </c>
@@ -7460,7 +8071,7 @@
       <c r="L385" s="4"/>
     </row>
     <row r="386" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D386" s="23"/>
+      <c r="D386" s="31"/>
       <c r="E386" s="5">
         <v>4</v>
       </c>
@@ -7473,7 +8084,7 @@
       <c r="L386" s="4"/>
     </row>
     <row r="387" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D387" s="23"/>
+      <c r="D387" s="31"/>
       <c r="E387" s="5">
         <v>5</v>
       </c>
@@ -7486,7 +8097,7 @@
       <c r="L387" s="4"/>
     </row>
     <row r="388" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D388" s="23"/>
+      <c r="D388" s="31"/>
       <c r="E388" s="5">
         <v>6</v>
       </c>
@@ -7499,7 +8110,7 @@
       <c r="L388" s="4"/>
     </row>
     <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D389" s="23"/>
+      <c r="D389" s="31"/>
       <c r="E389" s="5">
         <v>7</v>
       </c>
@@ -7512,7 +8123,7 @@
       <c r="L389" s="4"/>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D390" s="23"/>
+      <c r="D390" s="31"/>
       <c r="E390" s="5">
         <v>8</v>
       </c>
@@ -7525,7 +8136,7 @@
       <c r="L390" s="4"/>
     </row>
     <row r="391" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D391" s="23"/>
+      <c r="D391" s="31"/>
       <c r="E391" s="5">
         <v>9</v>
       </c>
@@ -7541,7 +8152,7 @@
       <c r="L391" s="4"/>
     </row>
     <row r="392" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D392" s="23"/>
+      <c r="D392" s="31"/>
       <c r="E392" s="5">
         <v>10</v>
       </c>
@@ -7554,7 +8165,7 @@
       <c r="L392" s="4"/>
     </row>
     <row r="393" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D393" s="23"/>
+      <c r="D393" s="31"/>
       <c r="E393" s="5">
         <v>11</v>
       </c>
@@ -7567,7 +8178,7 @@
       <c r="L393" s="4"/>
     </row>
     <row r="394" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D394" s="23"/>
+      <c r="D394" s="31"/>
       <c r="E394" s="5">
         <v>12</v>
       </c>
@@ -7580,7 +8191,7 @@
       <c r="L394" s="4"/>
     </row>
     <row r="395" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D395" s="24"/>
+      <c r="D395" s="32"/>
       <c r="E395" s="5">
         <v>13</v>
       </c>
@@ -7596,16 +8207,16 @@
       <c r="L396" s="4"/>
     </row>
     <row r="397" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A397" s="28" t="s">
+      <c r="A397" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="B397" s="28" t="s">
+      <c r="B397" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D397" s="22" t="s">
+      <c r="D397" s="30" t="s">
         <v>379</v>
       </c>
       <c r="E397" s="5">
@@ -7623,7 +8234,7 @@
       <c r="L397" s="4"/>
     </row>
     <row r="398" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D398" s="23"/>
+      <c r="D398" s="31"/>
       <c r="E398" s="5">
         <v>2</v>
       </c>
@@ -7636,7 +8247,7 @@
       <c r="L398" s="4"/>
     </row>
     <row r="399" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D399" s="23"/>
+      <c r="D399" s="31"/>
       <c r="E399" s="5">
         <v>3</v>
       </c>
@@ -7649,7 +8260,7 @@
       <c r="L399" s="4"/>
     </row>
     <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D400" s="23"/>
+      <c r="D400" s="31"/>
       <c r="E400" s="5">
         <v>4</v>
       </c>
@@ -7662,7 +8273,7 @@
       <c r="L400" s="4"/>
     </row>
     <row r="401" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D401" s="23"/>
+      <c r="D401" s="31"/>
       <c r="E401" s="5">
         <v>5</v>
       </c>
@@ -7675,7 +8286,7 @@
       <c r="L401" s="4"/>
     </row>
     <row r="402" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D402" s="23"/>
+      <c r="D402" s="31"/>
       <c r="E402" s="5">
         <v>6</v>
       </c>
@@ -7688,7 +8299,7 @@
       <c r="L402" s="4"/>
     </row>
     <row r="403" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D403" s="23"/>
+      <c r="D403" s="31"/>
       <c r="E403" s="5">
         <v>7</v>
       </c>
@@ -7701,7 +8312,7 @@
       <c r="L403" s="4"/>
     </row>
     <row r="404" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D404" s="23"/>
+      <c r="D404" s="31"/>
       <c r="E404" s="5">
         <v>8</v>
       </c>
@@ -7714,7 +8325,7 @@
       <c r="L404" s="4"/>
     </row>
     <row r="405" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D405" s="23"/>
+      <c r="D405" s="31"/>
       <c r="E405" s="5">
         <v>9</v>
       </c>
@@ -7727,7 +8338,7 @@
       <c r="L405" s="4"/>
     </row>
     <row r="406" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D406" s="23"/>
+      <c r="D406" s="31"/>
       <c r="E406" s="5">
         <v>10</v>
       </c>
@@ -7740,7 +8351,7 @@
       <c r="L406" s="4"/>
     </row>
     <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D407" s="24"/>
+      <c r="D407" s="32"/>
       <c r="E407" s="5">
         <v>11</v>
       </c>
@@ -7756,16 +8367,16 @@
       <c r="L408" s="4"/>
     </row>
     <row r="409" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A409" s="28" t="s">
+      <c r="A409" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="B409" s="28" t="s">
+      <c r="B409" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D409" s="22" t="s">
+      <c r="D409" s="30" t="s">
         <v>384</v>
       </c>
       <c r="E409" s="5">
@@ -7783,7 +8394,7 @@
       <c r="L409" s="4"/>
     </row>
     <row r="410" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D410" s="23"/>
+      <c r="D410" s="31"/>
       <c r="E410" s="5">
         <v>2</v>
       </c>
@@ -7796,7 +8407,7 @@
       <c r="L410" s="4"/>
     </row>
     <row r="411" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D411" s="23"/>
+      <c r="D411" s="31"/>
       <c r="E411" s="5">
         <v>3</v>
       </c>
@@ -7809,7 +8420,7 @@
       <c r="L411" s="4"/>
     </row>
     <row r="412" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D412" s="23"/>
+      <c r="D412" s="31"/>
       <c r="E412" s="5">
         <v>4</v>
       </c>
@@ -7822,7 +8433,7 @@
       <c r="L412" s="4"/>
     </row>
     <row r="413" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D413" s="23"/>
+      <c r="D413" s="31"/>
       <c r="E413" s="5">
         <v>5</v>
       </c>
@@ -7835,7 +8446,7 @@
       <c r="L413" s="4"/>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D414" s="23"/>
+      <c r="D414" s="31"/>
       <c r="E414" s="5">
         <v>6</v>
       </c>
@@ -7848,7 +8459,7 @@
       <c r="L414" s="4"/>
     </row>
     <row r="415" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D415" s="23"/>
+      <c r="D415" s="31"/>
       <c r="E415" s="5">
         <v>7</v>
       </c>
@@ -7864,7 +8475,7 @@
       <c r="L415" s="4"/>
     </row>
     <row r="416" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="D416" s="23"/>
+      <c r="D416" s="31"/>
       <c r="E416" s="5">
         <v>8</v>
       </c>
@@ -7880,7 +8491,7 @@
       <c r="L416" s="4"/>
     </row>
     <row r="417" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D417" s="23"/>
+      <c r="D417" s="31"/>
       <c r="E417" s="5">
         <v>9</v>
       </c>
@@ -7893,7 +8504,7 @@
       <c r="L417" s="4"/>
     </row>
     <row r="418" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D418" s="23"/>
+      <c r="D418" s="31"/>
       <c r="E418" s="5">
         <v>10</v>
       </c>
@@ -7906,7 +8517,7 @@
       <c r="L418" s="4"/>
     </row>
     <row r="419" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D419" s="23"/>
+      <c r="D419" s="31"/>
       <c r="E419" s="5">
         <v>11</v>
       </c>
@@ -7919,7 +8530,7 @@
       <c r="L419" s="4"/>
     </row>
     <row r="420" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D420" s="24"/>
+      <c r="D420" s="32"/>
       <c r="E420" s="5">
         <v>12</v>
       </c>
@@ -7935,16 +8546,16 @@
       <c r="L421" s="4"/>
     </row>
     <row r="422" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A422" s="28" t="s">
+      <c r="A422" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B422" s="28" t="s">
+      <c r="B422" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D422" s="22" t="s">
+      <c r="D422" s="30" t="s">
         <v>393</v>
       </c>
       <c r="E422" s="5">
@@ -7962,7 +8573,7 @@
       <c r="L422" s="4"/>
     </row>
     <row r="423" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D423" s="23"/>
+      <c r="D423" s="31"/>
       <c r="E423" s="5">
         <v>2</v>
       </c>
@@ -7975,7 +8586,7 @@
       <c r="L423" s="4"/>
     </row>
     <row r="424" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D424" s="23"/>
+      <c r="D424" s="31"/>
       <c r="E424" s="5">
         <v>3</v>
       </c>
@@ -7988,7 +8599,7 @@
       <c r="L424" s="4"/>
     </row>
     <row r="425" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D425" s="23"/>
+      <c r="D425" s="31"/>
       <c r="E425" s="5">
         <v>4</v>
       </c>
@@ -8001,7 +8612,7 @@
       <c r="L425" s="4"/>
     </row>
     <row r="426" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D426" s="23"/>
+      <c r="D426" s="31"/>
       <c r="E426" s="5">
         <v>5</v>
       </c>
@@ -8014,7 +8625,7 @@
       <c r="L426" s="4"/>
     </row>
     <row r="427" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D427" s="23"/>
+      <c r="D427" s="31"/>
       <c r="E427" s="5">
         <v>6</v>
       </c>
@@ -8027,7 +8638,7 @@
       <c r="L427" s="4"/>
     </row>
     <row r="428" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D428" s="23"/>
+      <c r="D428" s="31"/>
       <c r="E428" s="5">
         <v>7</v>
       </c>
@@ -8040,7 +8651,7 @@
       <c r="L428" s="4"/>
     </row>
     <row r="429" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D429" s="23"/>
+      <c r="D429" s="31"/>
       <c r="E429" s="5">
         <v>8</v>
       </c>
@@ -8053,7 +8664,7 @@
       <c r="L429" s="4"/>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D430" s="23"/>
+      <c r="D430" s="31"/>
       <c r="E430" s="5">
         <v>9</v>
       </c>
@@ -8069,16 +8680,16 @@
       <c r="L431" s="4"/>
     </row>
     <row r="432" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A432" s="28" t="s">
+      <c r="A432" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="B432" s="28" t="s">
+      <c r="B432" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D432" s="22" t="s">
+      <c r="D432" s="30" t="s">
         <v>401</v>
       </c>
       <c r="E432" s="5">
@@ -8096,7 +8707,7 @@
       <c r="L432" s="4"/>
     </row>
     <row r="433" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D433" s="23"/>
+      <c r="D433" s="31"/>
       <c r="E433" s="5">
         <v>2</v>
       </c>
@@ -8109,7 +8720,7 @@
       <c r="L433" s="4"/>
     </row>
     <row r="434" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D434" s="23"/>
+      <c r="D434" s="31"/>
       <c r="E434" s="5">
         <v>3</v>
       </c>
@@ -8122,7 +8733,7 @@
       <c r="L434" s="4"/>
     </row>
     <row r="435" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D435" s="23"/>
+      <c r="D435" s="31"/>
       <c r="E435" s="5">
         <v>4</v>
       </c>
@@ -8135,7 +8746,7 @@
       <c r="L435" s="4"/>
     </row>
     <row r="436" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D436" s="23"/>
+      <c r="D436" s="31"/>
       <c r="E436" s="5">
         <v>5</v>
       </c>
@@ -8148,7 +8759,7 @@
       <c r="L436" s="4"/>
     </row>
     <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D437" s="23"/>
+      <c r="D437" s="31"/>
       <c r="E437" s="5">
         <v>6</v>
       </c>
@@ -8161,7 +8772,7 @@
       <c r="L437" s="4"/>
     </row>
     <row r="438" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D438" s="23"/>
+      <c r="D438" s="31"/>
       <c r="E438" s="5">
         <v>7</v>
       </c>
@@ -8174,7 +8785,7 @@
       <c r="L438" s="4"/>
     </row>
     <row r="439" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D439" s="23"/>
+      <c r="D439" s="31"/>
       <c r="E439" s="5">
         <v>8</v>
       </c>
@@ -8187,7 +8798,7 @@
       <c r="L439" s="4"/>
     </row>
     <row r="440" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D440" s="23"/>
+      <c r="D440" s="31"/>
       <c r="E440" s="5">
         <v>9</v>
       </c>
@@ -8200,7 +8811,7 @@
       <c r="L440" s="4"/>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D441" s="24"/>
+      <c r="D441" s="32"/>
       <c r="E441" s="5">
         <v>10</v>
       </c>
@@ -8216,16 +8827,16 @@
       <c r="L442" s="4"/>
     </row>
     <row r="443" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A443" s="28" t="s">
+      <c r="A443" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="B443" s="28" t="s">
+      <c r="B443" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D443" s="22" t="s">
+      <c r="D443" s="30" t="s">
         <v>407</v>
       </c>
       <c r="E443" s="5">
@@ -8243,7 +8854,7 @@
       <c r="L443" s="4"/>
     </row>
     <row r="444" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D444" s="23"/>
+      <c r="D444" s="31"/>
       <c r="E444" s="5">
         <v>2</v>
       </c>
@@ -8256,7 +8867,7 @@
       <c r="L444" s="4"/>
     </row>
     <row r="445" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D445" s="23"/>
+      <c r="D445" s="31"/>
       <c r="E445" s="5">
         <v>3</v>
       </c>
@@ -8269,12 +8880,12 @@
       <c r="L445" s="4"/>
     </row>
     <row r="446" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D446" s="23"/>
+      <c r="D446" s="31"/>
       <c r="E446" s="5">
         <v>4</v>
       </c>
       <c r="F446" s="11" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="G446" s="11" t="s">
         <v>377</v>
@@ -8282,7 +8893,7 @@
       <c r="L446" s="4"/>
     </row>
     <row r="447" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D447" s="23"/>
+      <c r="D447" s="31"/>
       <c r="E447" s="5">
         <v>5</v>
       </c>
@@ -8295,7 +8906,7 @@
       <c r="L447" s="4"/>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D448" s="23"/>
+      <c r="D448" s="31"/>
       <c r="E448" s="5">
         <v>6</v>
       </c>
@@ -8307,8 +8918,8 @@
       </c>
       <c r="L448" s="4"/>
     </row>
-    <row r="449" spans="4:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D449" s="23"/>
+    <row r="449" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D449" s="31"/>
       <c r="E449" s="5">
         <v>7</v>
       </c>
@@ -8320,8 +8931,8 @@
       </c>
       <c r="L449" s="4"/>
     </row>
-    <row r="450" spans="4:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D450" s="23"/>
+    <row r="450" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D450" s="31"/>
       <c r="E450" s="5">
         <v>8</v>
       </c>
@@ -8336,8 +8947,8 @@
       </c>
       <c r="L450" s="4"/>
     </row>
-    <row r="451" spans="4:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D451" s="23"/>
+    <row r="451" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D451" s="31"/>
       <c r="E451" s="5">
         <v>9</v>
       </c>
@@ -8349,8 +8960,8 @@
       </c>
       <c r="L451" s="4"/>
     </row>
-    <row r="452" spans="4:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D452" s="23"/>
+    <row r="452" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D452" s="31"/>
       <c r="E452" s="5">
         <v>10</v>
       </c>
@@ -8362,8 +8973,8 @@
       </c>
       <c r="L452" s="4"/>
     </row>
-    <row r="453" spans="4:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D453" s="24"/>
+    <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D453" s="32"/>
       <c r="E453" s="5">
         <v>11</v>
       </c>
@@ -8375,1008 +8986,3907 @@
       </c>
       <c r="L453" s="4"/>
     </row>
-    <row r="454" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L454" s="4"/>
     </row>
-    <row r="455" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="B455" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D455" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="E455" s="11">
+        <v>1</v>
+      </c>
+      <c r="F455" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G455" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H455" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L455" s="4"/>
     </row>
-    <row r="456" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D456" s="31"/>
+      <c r="E456" s="11">
+        <v>2</v>
+      </c>
+      <c r="F456" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G456" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L456" s="4"/>
     </row>
-    <row r="457" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D457" s="31"/>
+      <c r="E457" s="11">
+        <v>3</v>
+      </c>
+      <c r="F457" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G457" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L457" s="4"/>
     </row>
-    <row r="458" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D458" s="31"/>
+      <c r="E458" s="11">
+        <v>4</v>
+      </c>
+      <c r="F458" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G458" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="L458" s="4"/>
     </row>
-    <row r="459" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D459" s="31"/>
+      <c r="E459" s="11">
+        <v>5</v>
+      </c>
+      <c r="F459" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G459" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="L459" s="4"/>
     </row>
-    <row r="460" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D460" s="31"/>
+      <c r="E460" s="11">
+        <v>6</v>
+      </c>
+      <c r="F460" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G460" s="11" t="s">
+        <v>421</v>
+      </c>
       <c r="L460" s="4"/>
     </row>
-    <row r="461" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D461" s="31"/>
+      <c r="E461" s="11">
+        <v>7</v>
+      </c>
+      <c r="F461" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G461" s="11" t="s">
+        <v>423</v>
+      </c>
       <c r="L461" s="4"/>
     </row>
-    <row r="462" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D462" s="31"/>
+      <c r="E462" s="11">
+        <v>8</v>
+      </c>
+      <c r="F462" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="G462" s="11" t="s">
+        <v>425</v>
+      </c>
       <c r="L462" s="4"/>
     </row>
-    <row r="463" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D463" s="31"/>
+      <c r="E463" s="11">
+        <v>9</v>
+      </c>
+      <c r="F463" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="G463" s="11" t="s">
+        <v>427</v>
+      </c>
       <c r="L463" s="4"/>
     </row>
-    <row r="464" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D464" s="32"/>
+      <c r="E464" s="11">
+        <v>10</v>
+      </c>
+      <c r="F464" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G464" s="11" t="s">
+        <v>432</v>
+      </c>
       <c r="L464" s="4"/>
     </row>
-    <row r="465" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D465" s="23"/>
       <c r="L465" s="4"/>
     </row>
-    <row r="466" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L466" s="4"/>
     </row>
-    <row r="467" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B467" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D467" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="E467" s="11">
+        <v>1</v>
+      </c>
+      <c r="F467" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G467" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H467" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L467" s="4"/>
     </row>
-    <row r="468" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D468" s="31"/>
+      <c r="E468" s="11">
+        <v>2</v>
+      </c>
+      <c r="F468" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G468" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L468" s="4"/>
     </row>
-    <row r="469" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D469" s="31"/>
+      <c r="E469" s="11">
+        <v>3</v>
+      </c>
+      <c r="F469" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G469" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L469" s="4"/>
     </row>
-    <row r="470" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D470" s="31"/>
+      <c r="E470" s="11">
+        <v>4</v>
+      </c>
+      <c r="F470" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G470" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="L470" s="4"/>
     </row>
-    <row r="471" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D471" s="31"/>
+      <c r="E471" s="11">
+        <v>5</v>
+      </c>
+      <c r="F471" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G471" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="L471" s="4"/>
     </row>
-    <row r="472" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D472" s="31"/>
+      <c r="E472" s="11">
+        <v>6</v>
+      </c>
+      <c r="F472" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G472" s="11" t="s">
+        <v>421</v>
+      </c>
       <c r="L472" s="4"/>
     </row>
-    <row r="473" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D473" s="31"/>
+      <c r="E473" s="11">
+        <v>7</v>
+      </c>
+      <c r="F473" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G473" s="11" t="s">
+        <v>423</v>
+      </c>
       <c r="L473" s="4"/>
     </row>
-    <row r="474" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D474" s="31"/>
+      <c r="E474" s="11">
+        <v>8</v>
+      </c>
+      <c r="F474" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="G474" s="11" t="s">
+        <v>425</v>
+      </c>
       <c r="L474" s="4"/>
     </row>
-    <row r="475" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D475" s="31"/>
+      <c r="E475" s="11">
+        <v>9</v>
+      </c>
+      <c r="F475" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="G475" s="11" t="s">
+        <v>427</v>
+      </c>
       <c r="L475" s="4"/>
     </row>
-    <row r="476" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D476" s="32"/>
+      <c r="E476" s="11">
+        <v>10</v>
+      </c>
+      <c r="F476" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="G476" s="11" t="s">
+        <v>434</v>
+      </c>
       <c r="L476" s="4"/>
     </row>
-    <row r="477" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K477" s="4"/>
+    <row r="477" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E477" s="11">
+        <v>11</v>
+      </c>
+      <c r="F477" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G477" s="11" t="s">
+        <v>432</v>
+      </c>
       <c r="L477" s="4"/>
     </row>
-    <row r="478" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K478" s="4"/>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A478" s="22"/>
+      <c r="B478" s="22"/>
       <c r="L478" s="4"/>
     </row>
-    <row r="479" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="B479" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D479" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="E479" s="11">
+        <v>1</v>
+      </c>
+      <c r="F479" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G479" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H479" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K479" s="4"/>
       <c r="L479" s="4"/>
     </row>
-    <row r="480" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D480" s="31"/>
+      <c r="E480" s="11">
+        <v>2</v>
+      </c>
+      <c r="F480" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G480" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K480" s="4"/>
       <c r="L480" s="4"/>
     </row>
-    <row r="481" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D481" s="31"/>
+      <c r="E481" s="11">
+        <v>3</v>
+      </c>
+      <c r="F481" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G481" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K481" s="4"/>
       <c r="L481" s="4"/>
     </row>
-    <row r="482" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D482" s="32"/>
+      <c r="E482" s="11">
+        <v>4</v>
+      </c>
+      <c r="F482" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="G482" s="11" t="s">
+        <v>438</v>
+      </c>
       <c r="K482" s="4"/>
       <c r="L482" s="4"/>
     </row>
-    <row r="483" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K483" s="4"/>
       <c r="L483" s="4"/>
     </row>
-    <row r="484" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B484" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D484" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="E484" s="11">
+        <v>1</v>
+      </c>
+      <c r="F484" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G484" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H484" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K484" s="4"/>
       <c r="L484" s="4"/>
     </row>
-    <row r="485" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D485" s="31"/>
+      <c r="E485" s="11">
+        <v>2</v>
+      </c>
+      <c r="F485" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G485" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K485" s="4"/>
       <c r="L485" s="4"/>
     </row>
-    <row r="486" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D486" s="31"/>
+      <c r="E486" s="11">
+        <v>3</v>
+      </c>
+      <c r="F486" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G486" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K486" s="4"/>
       <c r="L486" s="4"/>
     </row>
-    <row r="487" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D487" s="31"/>
+      <c r="E487" s="11">
+        <v>4</v>
+      </c>
+      <c r="F487" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G487" s="11" t="s">
+        <v>442</v>
+      </c>
       <c r="K487" s="4"/>
       <c r="L487" s="4"/>
     </row>
-    <row r="488" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D488" s="31"/>
+      <c r="E488" s="11">
+        <v>5</v>
+      </c>
+      <c r="F488" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="G488" s="11" t="s">
+        <v>444</v>
+      </c>
       <c r="K488" s="4"/>
       <c r="L488" s="4"/>
     </row>
-    <row r="489" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D489" s="31"/>
+      <c r="E489" s="11">
+        <v>6</v>
+      </c>
+      <c r="F489" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G489" s="11" t="s">
+        <v>445</v>
+      </c>
       <c r="K489" s="4"/>
       <c r="L489" s="4"/>
     </row>
-    <row r="490" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D490" s="31"/>
+      <c r="E490" s="11">
+        <v>7</v>
+      </c>
+      <c r="F490" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G490" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H490" s="11" t="s">
+        <v>449</v>
+      </c>
       <c r="K490" s="4"/>
       <c r="L490" s="4"/>
     </row>
-    <row r="491" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A491" s="22"/>
+      <c r="B491" s="22"/>
+      <c r="D491" s="32"/>
+      <c r="E491" s="11">
+        <v>8</v>
+      </c>
+      <c r="F491" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="G491" s="11" t="s">
+        <v>451</v>
+      </c>
       <c r="K491" s="4"/>
       <c r="L491" s="4"/>
     </row>
-    <row r="492" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A492" s="22"/>
+      <c r="B492" s="22"/>
+      <c r="E492" s="11">
+        <v>9</v>
+      </c>
+      <c r="F492" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G492" s="11" t="s">
+        <v>453</v>
+      </c>
       <c r="K492" s="4"/>
       <c r="L492" s="4"/>
     </row>
-    <row r="493" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A493" s="22"/>
+      <c r="B493" s="22"/>
       <c r="K493" s="4"/>
       <c r="L493" s="4"/>
     </row>
-    <row r="494" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="B494" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D494" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="E494" s="11">
+        <v>1</v>
+      </c>
+      <c r="F494" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G494" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H494" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K494" s="4"/>
       <c r="L494" s="4"/>
     </row>
-    <row r="495" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D495" s="31"/>
+      <c r="E495" s="11">
+        <v>2</v>
+      </c>
+      <c r="F495" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G495" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K495" s="4"/>
       <c r="L495" s="4"/>
     </row>
-    <row r="496" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D496" s="31"/>
+      <c r="E496" s="11">
+        <v>3</v>
+      </c>
+      <c r="F496" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G496" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K496" s="4"/>
       <c r="L496" s="4"/>
     </row>
-    <row r="497" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D497" s="31"/>
+      <c r="E497" s="11">
+        <v>4</v>
+      </c>
+      <c r="F497" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G497" s="11" t="s">
+        <v>442</v>
+      </c>
       <c r="K497" s="4"/>
       <c r="L497" s="4"/>
     </row>
-    <row r="498" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D498" s="31"/>
+      <c r="E498" s="11">
+        <v>5</v>
+      </c>
+      <c r="F498" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="G498" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="H498" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="K498" s="4"/>
       <c r="L498" s="4"/>
     </row>
-    <row r="499" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D499" s="31"/>
+      <c r="E499" s="11">
+        <v>6</v>
+      </c>
+      <c r="F499" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G499" s="11" t="s">
+        <v>445</v>
+      </c>
       <c r="K499" s="4"/>
       <c r="L499" s="4"/>
     </row>
-    <row r="500" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D500" s="31"/>
+      <c r="E500" s="11">
+        <v>7</v>
+      </c>
+      <c r="F500" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G500" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H500" s="11" t="s">
+        <v>456</v>
+      </c>
       <c r="K500" s="4"/>
       <c r="L500" s="4"/>
     </row>
-    <row r="501" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D501" s="31"/>
+      <c r="E501" s="11">
+        <v>8</v>
+      </c>
+      <c r="F501" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G501" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H501" s="11" t="s">
+        <v>460</v>
+      </c>
       <c r="K501" s="4"/>
       <c r="L501" s="4"/>
     </row>
-    <row r="502" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D502" s="32"/>
+      <c r="E502" s="11">
+        <v>9</v>
+      </c>
+      <c r="F502" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="G502" s="11" t="s">
+        <v>462</v>
+      </c>
       <c r="K502" s="4"/>
       <c r="L502" s="4"/>
     </row>
-    <row r="503" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E503" s="11">
+        <v>10</v>
+      </c>
+      <c r="F503" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G503" s="11" t="s">
+        <v>453</v>
+      </c>
       <c r="K503" s="4"/>
       <c r="L503" s="4"/>
     </row>
-    <row r="504" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A504" s="22"/>
+      <c r="B504" s="22"/>
       <c r="K504" s="4"/>
       <c r="L504" s="4"/>
     </row>
-    <row r="505" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A505" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B505" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D505" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="E505" s="11">
+        <v>1</v>
+      </c>
+      <c r="F505" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G505" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H505" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K505" s="4"/>
       <c r="L505" s="4"/>
     </row>
-    <row r="506" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D506" s="31"/>
+      <c r="E506" s="11">
+        <v>2</v>
+      </c>
+      <c r="F506" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G506" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K506" s="4"/>
       <c r="L506" s="4"/>
     </row>
-    <row r="507" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D507" s="31"/>
+      <c r="E507" s="11">
+        <v>3</v>
+      </c>
+      <c r="F507" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G507" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K507" s="4"/>
       <c r="L507" s="4"/>
     </row>
-    <row r="508" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D508" s="31"/>
+      <c r="E508" s="11">
+        <v>4</v>
+      </c>
+      <c r="F508" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G508" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K508" s="4"/>
       <c r="L508" s="4"/>
     </row>
-    <row r="509" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D509" s="31"/>
+      <c r="E509" s="11">
+        <v>5</v>
+      </c>
+      <c r="F509" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G509" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H509" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K509" s="4"/>
       <c r="L509" s="4"/>
     </row>
-    <row r="510" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D510" s="31"/>
+      <c r="E510" s="11">
+        <v>6</v>
+      </c>
+      <c r="F510" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G510" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H510" s="11" t="s">
+        <v>471</v>
+      </c>
       <c r="K510" s="4"/>
       <c r="L510" s="4"/>
     </row>
-    <row r="511" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D511" s="31"/>
+      <c r="E511" s="11">
+        <v>7</v>
+      </c>
+      <c r="F511" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="G511" s="11" t="s">
+        <v>414</v>
+      </c>
       <c r="K511" s="4"/>
       <c r="L511" s="4"/>
     </row>
-    <row r="512" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D512" s="31"/>
+      <c r="E512" s="11">
+        <v>8</v>
+      </c>
+      <c r="F512" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G512" s="17" t="s">
+        <v>473</v>
+      </c>
       <c r="K512" s="4"/>
       <c r="L512" s="4"/>
     </row>
-    <row r="513" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D513" s="31"/>
+      <c r="E513" s="11">
+        <v>9</v>
+      </c>
+      <c r="F513" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G513" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="K513" s="4"/>
       <c r="L513" s="4"/>
     </row>
-    <row r="514" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D514" s="32"/>
+      <c r="E514" s="11">
+        <v>10</v>
+      </c>
+      <c r="F514" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G514" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="K514" s="4"/>
       <c r="L514" s="4"/>
     </row>
-    <row r="515" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A515" s="22"/>
+      <c r="B515" s="22"/>
       <c r="K515" s="4"/>
       <c r="L515" s="4"/>
     </row>
-    <row r="516" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="B516" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D516" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="E516" s="11">
+        <v>1</v>
+      </c>
+      <c r="F516" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G516" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H516" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K516" s="4"/>
       <c r="L516" s="4"/>
     </row>
-    <row r="517" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D517" s="31"/>
+      <c r="E517" s="11">
+        <v>2</v>
+      </c>
+      <c r="F517" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G517" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K517" s="4"/>
       <c r="L517" s="4"/>
     </row>
-    <row r="518" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D518" s="31"/>
+      <c r="E518" s="11">
+        <v>3</v>
+      </c>
+      <c r="F518" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G518" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K518" s="4"/>
       <c r="L518" s="4"/>
     </row>
-    <row r="519" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D519" s="31"/>
+      <c r="E519" s="11">
+        <v>4</v>
+      </c>
+      <c r="F519" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G519" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K519" s="4"/>
       <c r="L519" s="4"/>
     </row>
-    <row r="520" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D520" s="31"/>
+      <c r="E520" s="11">
+        <v>5</v>
+      </c>
+      <c r="F520" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G520" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H520" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K520" s="4"/>
       <c r="L520" s="4"/>
     </row>
-    <row r="521" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D521" s="31"/>
+      <c r="E521" s="11">
+        <v>6</v>
+      </c>
+      <c r="F521" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G521" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H521" s="11" t="s">
+        <v>471</v>
+      </c>
       <c r="K521" s="4"/>
       <c r="L521" s="4"/>
     </row>
-    <row r="522" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D522" s="31"/>
+      <c r="E522" s="11">
+        <v>7</v>
+      </c>
+      <c r="F522" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G522" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="H522" s="11" t="s">
+        <v>483</v>
+      </c>
       <c r="K522" s="4"/>
       <c r="L522" s="4"/>
     </row>
-    <row r="523" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="D523" s="31"/>
+      <c r="E523" s="11">
+        <v>8</v>
+      </c>
+      <c r="F523" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="G523" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="H523" s="11" t="s">
+        <v>486</v>
+      </c>
       <c r="K523" s="4"/>
       <c r="L523" s="4"/>
     </row>
-    <row r="524" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D524" s="31"/>
+      <c r="E524" s="11">
+        <v>9</v>
+      </c>
+      <c r="F524" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="G524" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="H524" s="11" t="s">
+        <v>489</v>
+      </c>
       <c r="K524" s="4"/>
       <c r="L524" s="4"/>
     </row>
-    <row r="525" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D525" s="31"/>
+      <c r="E525" s="11">
+        <v>10</v>
+      </c>
+      <c r="F525" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G525" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="H525" s="11" t="s">
+        <v>492</v>
+      </c>
       <c r="K525" s="4"/>
       <c r="L525" s="4"/>
     </row>
-    <row r="526" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D526" s="31"/>
+      <c r="E526" s="11">
+        <v>11</v>
+      </c>
+      <c r="F526" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G526" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="H526" s="11" t="s">
+        <v>495</v>
+      </c>
       <c r="K526" s="4"/>
       <c r="L526" s="4"/>
     </row>
-    <row r="527" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D527" s="31"/>
+      <c r="E527" s="11">
+        <v>12</v>
+      </c>
+      <c r="F527" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="G527" s="11" t="s">
+        <v>414</v>
+      </c>
       <c r="K527" s="4"/>
       <c r="L527" s="4"/>
     </row>
-    <row r="528" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D528" s="31"/>
+      <c r="E528" s="11">
+        <v>13</v>
+      </c>
+      <c r="F528" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G528" s="17" t="s">
+        <v>473</v>
+      </c>
       <c r="K528" s="4"/>
       <c r="L528" s="4"/>
     </row>
-    <row r="529" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D529" s="31"/>
+      <c r="E529" s="11">
+        <v>14</v>
+      </c>
+      <c r="F529" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G529" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="K529" s="4"/>
       <c r="L529" s="4"/>
     </row>
-    <row r="530" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D530" s="32"/>
+      <c r="E530" s="11">
+        <v>15</v>
+      </c>
+      <c r="F530" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G530" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="K530" s="4"/>
       <c r="L530" s="4"/>
     </row>
-    <row r="531" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K531" s="4"/>
       <c r="L531" s="4"/>
     </row>
-    <row r="532" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="B532" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C532" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D532" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="E532" s="11">
+        <v>1</v>
+      </c>
+      <c r="F532" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G532" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H532" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K532" s="4"/>
       <c r="L532" s="4"/>
     </row>
-    <row r="533" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D533" s="33"/>
+      <c r="E533" s="11">
+        <v>2</v>
+      </c>
+      <c r="F533" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G533" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K533" s="4"/>
       <c r="L533" s="4"/>
     </row>
-    <row r="534" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D534" s="33"/>
+      <c r="E534" s="11">
+        <v>3</v>
+      </c>
+      <c r="F534" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G534" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K534" s="4"/>
       <c r="L534" s="4"/>
     </row>
-    <row r="535" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D535" s="33"/>
+      <c r="E535" s="11">
+        <v>4</v>
+      </c>
+      <c r="F535" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G535" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K535" s="4"/>
       <c r="L535" s="4"/>
     </row>
-    <row r="536" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D536" s="33"/>
+      <c r="E536" s="11">
+        <v>5</v>
+      </c>
+      <c r="F536" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G536" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H536" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K536" s="4"/>
       <c r="L536" s="4"/>
     </row>
-    <row r="537" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D537" s="33"/>
+      <c r="E537" s="11">
+        <v>6</v>
+      </c>
+      <c r="F537" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G537" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="H537" s="11" t="s">
+        <v>501</v>
+      </c>
       <c r="K537" s="4"/>
       <c r="L537" s="4"/>
     </row>
-    <row r="538" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D538" s="33"/>
+      <c r="E538" s="11">
+        <v>7</v>
+      </c>
+      <c r="F538" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G538" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="H538" s="11" t="s">
+        <v>504</v>
+      </c>
       <c r="K538" s="4"/>
       <c r="L538" s="4"/>
     </row>
-    <row r="539" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D539" s="33"/>
+      <c r="E539" s="11">
+        <v>8</v>
+      </c>
+      <c r="F539" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="G539" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="H539" s="11" t="s">
+        <v>507</v>
+      </c>
       <c r="K539" s="4"/>
       <c r="L539" s="4"/>
     </row>
-    <row r="540" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D540" s="33"/>
+      <c r="E540" s="11">
+        <v>9</v>
+      </c>
+      <c r="F540" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="G540" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="H540" s="11" t="s">
+        <v>510</v>
+      </c>
       <c r="K540" s="4"/>
       <c r="L540" s="4"/>
     </row>
-    <row r="541" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D541" s="33"/>
+      <c r="E541" s="11">
+        <v>10</v>
+      </c>
+      <c r="F541" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="G541" s="11" t="s">
+        <v>414</v>
+      </c>
       <c r="K541" s="4"/>
       <c r="L541" s="4"/>
     </row>
-    <row r="542" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D542" s="33"/>
+      <c r="E542" s="11">
+        <v>11</v>
+      </c>
+      <c r="F542" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G542" s="17" t="s">
+        <v>473</v>
+      </c>
       <c r="K542" s="4"/>
       <c r="L542" s="4"/>
     </row>
-    <row r="543" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D543" s="33"/>
+      <c r="E543" s="11">
+        <v>12</v>
+      </c>
+      <c r="F543" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G543" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="K543" s="4"/>
       <c r="L543" s="4"/>
     </row>
-    <row r="544" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D544" s="33"/>
+      <c r="E544" s="11">
+        <v>13</v>
+      </c>
+      <c r="F544" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G544" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="K544" s="4"/>
       <c r="L544" s="4"/>
     </row>
-    <row r="545" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D545" s="23"/>
       <c r="K545" s="4"/>
       <c r="L545" s="4"/>
     </row>
-    <row r="546" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A546" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="B546" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D546" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="E546" s="11">
+        <v>1</v>
+      </c>
+      <c r="F546" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G546" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H546" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K546" s="4"/>
       <c r="L546" s="4"/>
     </row>
-    <row r="547" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D547" s="31"/>
+      <c r="E547" s="11">
+        <v>2</v>
+      </c>
+      <c r="F547" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G547" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K547" s="4"/>
       <c r="L547" s="4"/>
     </row>
-    <row r="548" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D548" s="31"/>
+      <c r="E548" s="11">
+        <v>3</v>
+      </c>
+      <c r="F548" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G548" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K548" s="4"/>
       <c r="L548" s="4"/>
     </row>
-    <row r="549" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D549" s="31"/>
+      <c r="E549" s="11">
+        <v>4</v>
+      </c>
+      <c r="F549" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G549" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K549" s="4"/>
       <c r="L549" s="4"/>
     </row>
-    <row r="550" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D550" s="31"/>
+      <c r="E550" s="11">
+        <v>5</v>
+      </c>
+      <c r="F550" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G550" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H550" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K550" s="4"/>
       <c r="L550" s="4"/>
     </row>
-    <row r="551" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D551" s="31"/>
+      <c r="E551" s="11">
+        <v>6</v>
+      </c>
+      <c r="F551" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G551" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H551" s="11" t="s">
+        <v>513</v>
+      </c>
       <c r="K551" s="4"/>
       <c r="L551" s="4"/>
     </row>
-    <row r="552" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D552" s="31"/>
+      <c r="E552" s="11">
+        <v>7</v>
+      </c>
+      <c r="F552" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G552" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="H552" s="11" t="s">
+        <v>514</v>
+      </c>
       <c r="K552" s="4"/>
       <c r="L552" s="4"/>
     </row>
-    <row r="553" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D553" s="31"/>
+      <c r="E553" s="11">
+        <v>8</v>
+      </c>
+      <c r="F553" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="G553" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="H553" s="11" t="s">
+        <v>486</v>
+      </c>
       <c r="K553" s="4"/>
       <c r="L553" s="4"/>
     </row>
-    <row r="554" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D554" s="31"/>
+      <c r="E554" s="11">
+        <v>9</v>
+      </c>
+      <c r="F554" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="G554" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="H554" s="11" t="s">
+        <v>489</v>
+      </c>
       <c r="K554" s="4"/>
       <c r="L554" s="4"/>
     </row>
-    <row r="555" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D555" s="31"/>
+      <c r="E555" s="11">
+        <v>10</v>
+      </c>
+      <c r="F555" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G555" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="H555" s="11" t="s">
+        <v>492</v>
+      </c>
       <c r="K555" s="4"/>
       <c r="L555" s="4"/>
     </row>
-    <row r="556" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D556" s="31"/>
+      <c r="E556" s="11">
+        <v>11</v>
+      </c>
+      <c r="F556" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G556" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="H556" s="11" t="s">
+        <v>495</v>
+      </c>
       <c r="K556" s="4"/>
       <c r="L556" s="4"/>
     </row>
-    <row r="557" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D557" s="31"/>
+      <c r="E557" s="11">
+        <v>12</v>
+      </c>
+      <c r="F557" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="G557" s="11" t="s">
+        <v>414</v>
+      </c>
       <c r="K557" s="4"/>
       <c r="L557" s="4"/>
     </row>
-    <row r="558" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D558" s="31"/>
+      <c r="E558" s="11">
+        <v>13</v>
+      </c>
+      <c r="F558" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G558" s="17" t="s">
+        <v>473</v>
+      </c>
       <c r="K558" s="4"/>
       <c r="L558" s="4"/>
     </row>
-    <row r="559" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D559" s="31"/>
+      <c r="E559" s="11">
+        <v>14</v>
+      </c>
+      <c r="F559" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G559" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="K559" s="4"/>
       <c r="L559" s="4"/>
     </row>
-    <row r="560" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D560" s="32"/>
+      <c r="E560" s="11">
+        <v>15</v>
+      </c>
+      <c r="F560" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G560" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="K560" s="4"/>
       <c r="L560" s="4"/>
     </row>
-    <row r="561" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K561" s="4"/>
       <c r="L561" s="4"/>
     </row>
-    <row r="562" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A562" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="B562" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D562" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E562" s="11">
+        <v>1</v>
+      </c>
+      <c r="F562" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G562" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H562" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K562" s="4"/>
       <c r="L562" s="4"/>
     </row>
-    <row r="563" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D563" s="31"/>
+      <c r="E563" s="11">
+        <v>2</v>
+      </c>
+      <c r="F563" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G563" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K563" s="4"/>
       <c r="L563" s="4"/>
     </row>
-    <row r="564" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D564" s="31"/>
+      <c r="E564" s="11">
+        <v>3</v>
+      </c>
+      <c r="F564" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G564" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K564" s="4"/>
       <c r="L564" s="4"/>
     </row>
-    <row r="565" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D565" s="31"/>
+      <c r="E565" s="11">
+        <v>4</v>
+      </c>
+      <c r="F565" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G565" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K565" s="4"/>
       <c r="L565" s="4"/>
     </row>
-    <row r="566" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D566" s="31"/>
+      <c r="E566" s="11">
+        <v>5</v>
+      </c>
+      <c r="F566" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G566" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H566" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K566" s="4"/>
       <c r="L566" s="4"/>
     </row>
-    <row r="567" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D567" s="31"/>
+      <c r="E567" s="11">
+        <v>6</v>
+      </c>
+      <c r="F567" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G567" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H567" s="11" t="s">
+        <v>513</v>
+      </c>
       <c r="K567" s="4"/>
       <c r="L567" s="4"/>
     </row>
-    <row r="568" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D568" s="31"/>
+      <c r="E568" s="11">
+        <v>7</v>
+      </c>
+      <c r="F568" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G568" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="H568" s="11" t="s">
+        <v>514</v>
+      </c>
       <c r="K568" s="4"/>
       <c r="L568" s="4"/>
     </row>
-    <row r="569" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D569" s="31"/>
+      <c r="E569" s="11">
+        <v>8</v>
+      </c>
+      <c r="F569" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G569" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="H569" s="11" t="s">
+        <v>519</v>
+      </c>
       <c r="K569" s="4"/>
       <c r="L569" s="4"/>
     </row>
-    <row r="570" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D570" s="31"/>
+      <c r="E570" s="11">
+        <v>9</v>
+      </c>
+      <c r="F570" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="G570" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="H570" s="11" t="s">
+        <v>520</v>
+      </c>
       <c r="K570" s="4"/>
       <c r="L570" s="4"/>
     </row>
-    <row r="571" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D571" s="31"/>
+      <c r="E571" s="11">
+        <v>10</v>
+      </c>
+      <c r="F571" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G571" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="H571" s="11" t="s">
+        <v>495</v>
+      </c>
       <c r="K571" s="4"/>
       <c r="L571" s="4"/>
     </row>
-    <row r="572" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D572" s="31"/>
+      <c r="E572" s="11">
+        <v>11</v>
+      </c>
+      <c r="F572" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="G572" s="11" t="s">
+        <v>414</v>
+      </c>
       <c r="K572" s="4"/>
       <c r="L572" s="4"/>
     </row>
-    <row r="573" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D573" s="31"/>
+      <c r="E573" s="11">
+        <v>12</v>
+      </c>
+      <c r="F573" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G573" s="17" t="s">
+        <v>473</v>
+      </c>
       <c r="K573" s="4"/>
       <c r="L573" s="4"/>
     </row>
-    <row r="574" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D574" s="31"/>
+      <c r="E574" s="11">
+        <v>13</v>
+      </c>
+      <c r="F574" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G574" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="K574" s="4"/>
       <c r="L574" s="4"/>
     </row>
-    <row r="575" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D575" s="32"/>
+      <c r="E575" s="11">
+        <v>14</v>
+      </c>
+      <c r="F575" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G575" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="K575" s="4"/>
       <c r="L575" s="4"/>
     </row>
-    <row r="576" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K576" s="4"/>
       <c r="L576" s="4"/>
     </row>
-    <row r="577" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A577" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="B577" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C577" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D577" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="E577" s="11">
+        <v>1</v>
+      </c>
+      <c r="F577" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G577" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H577" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K577" s="4"/>
       <c r="L577" s="4"/>
     </row>
-    <row r="578" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D578" s="31"/>
+      <c r="E578" s="11">
+        <v>2</v>
+      </c>
+      <c r="F578" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G578" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K578" s="4"/>
       <c r="L578" s="4"/>
     </row>
-    <row r="579" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D579" s="31"/>
+      <c r="E579" s="11">
+        <v>3</v>
+      </c>
+      <c r="F579" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G579" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K579" s="4"/>
       <c r="L579" s="4"/>
     </row>
-    <row r="580" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D580" s="31"/>
+      <c r="E580" s="11">
+        <v>4</v>
+      </c>
+      <c r="F580" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G580" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K580" s="4"/>
       <c r="L580" s="4"/>
     </row>
-    <row r="581" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D581" s="31"/>
+      <c r="E581" s="11">
+        <v>5</v>
+      </c>
+      <c r="F581" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G581" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H581" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K581" s="4"/>
       <c r="L581" s="4"/>
     </row>
-    <row r="582" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D582" s="31"/>
+      <c r="E582" s="11">
+        <v>6</v>
+      </c>
+      <c r="F582" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G582" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H582" s="11" t="s">
+        <v>523</v>
+      </c>
       <c r="K582" s="4"/>
       <c r="L582" s="4"/>
     </row>
-    <row r="583" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D583" s="31"/>
+      <c r="E583" s="11">
+        <v>7</v>
+      </c>
+      <c r="F583" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G583" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="H583" s="11" t="s">
+        <v>524</v>
+      </c>
       <c r="K583" s="4"/>
       <c r="L583" s="4"/>
     </row>
-    <row r="584" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D584" s="31"/>
+      <c r="E584" s="11">
+        <v>8</v>
+      </c>
+      <c r="F584" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G584" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="H584" s="11" t="s">
+        <v>504</v>
+      </c>
       <c r="K584" s="4"/>
       <c r="L584" s="4"/>
     </row>
-    <row r="585" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D585" s="31"/>
+      <c r="E585" s="11">
+        <v>9</v>
+      </c>
+      <c r="F585" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="G585" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="H585" s="11" t="s">
+        <v>507</v>
+      </c>
       <c r="K585" s="4"/>
       <c r="L585" s="4"/>
     </row>
-    <row r="586" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D586" s="31"/>
+      <c r="E586" s="11">
+        <v>10</v>
+      </c>
+      <c r="F586" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="G586" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="H586" s="11" t="s">
+        <v>510</v>
+      </c>
       <c r="K586" s="4"/>
       <c r="L586" s="4"/>
     </row>
-    <row r="587" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D587" s="31"/>
+      <c r="E587" s="11">
+        <v>11</v>
+      </c>
+      <c r="F587" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="G587" s="11" t="s">
+        <v>414</v>
+      </c>
       <c r="K587" s="4"/>
       <c r="L587" s="4"/>
     </row>
-    <row r="588" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D588" s="31"/>
+      <c r="E588" s="11">
+        <v>12</v>
+      </c>
+      <c r="F588" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G588" s="17" t="s">
+        <v>473</v>
+      </c>
       <c r="K588" s="4"/>
       <c r="L588" s="4"/>
     </row>
-    <row r="589" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D589" s="31"/>
+      <c r="E589" s="11">
+        <v>13</v>
+      </c>
+      <c r="F589" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G589" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="K589" s="4"/>
       <c r="L589" s="4"/>
     </row>
-    <row r="590" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D590" s="32"/>
+      <c r="E590" s="11">
+        <v>14</v>
+      </c>
+      <c r="F590" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G590" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="K590" s="4"/>
       <c r="L590" s="4"/>
     </row>
-    <row r="591" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K591" s="4"/>
       <c r="L591" s="4"/>
     </row>
-    <row r="592" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="B592" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C592" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D592" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="E592" s="11">
+        <v>1</v>
+      </c>
+      <c r="F592" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G592" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H592" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K592" s="4"/>
       <c r="L592" s="4"/>
     </row>
-    <row r="593" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D593" s="39"/>
+      <c r="E593" s="11">
+        <v>2</v>
+      </c>
+      <c r="F593" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G593" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K593" s="4"/>
       <c r="L593" s="4"/>
     </row>
-    <row r="594" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D594" s="39"/>
+      <c r="E594" s="11">
+        <v>3</v>
+      </c>
+      <c r="F594" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G594" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K594" s="4"/>
       <c r="L594" s="4"/>
     </row>
-    <row r="595" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D595" s="39"/>
+      <c r="E595" s="11">
+        <v>4</v>
+      </c>
+      <c r="F595" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G595" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K595" s="4"/>
       <c r="L595" s="4"/>
     </row>
-    <row r="596" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D596" s="39"/>
+      <c r="E596" s="11">
+        <v>5</v>
+      </c>
+      <c r="F596" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G596" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H596" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K596" s="4"/>
       <c r="L596" s="4"/>
     </row>
-    <row r="597" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="D597" s="39"/>
+      <c r="E597" s="11">
+        <v>6</v>
+      </c>
+      <c r="F597" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="G597" s="36" t="s">
+        <v>528</v>
+      </c>
       <c r="K597" s="4"/>
       <c r="L597" s="4"/>
     </row>
-    <row r="598" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="D598" s="39"/>
+      <c r="E598" s="11">
+        <v>7</v>
+      </c>
+      <c r="F598" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="G598" s="36" t="s">
+        <v>530</v>
+      </c>
       <c r="K598" s="4"/>
       <c r="L598" s="4"/>
     </row>
-    <row r="599" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D599" s="39"/>
+      <c r="E599" s="11">
+        <v>8</v>
+      </c>
+      <c r="F599" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="G599" s="36" t="s">
+        <v>532</v>
+      </c>
       <c r="K599" s="4"/>
       <c r="L599" s="4"/>
     </row>
-    <row r="600" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="D600" s="40"/>
+      <c r="E600" s="11">
+        <v>9</v>
+      </c>
+      <c r="F600" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="G600" s="36" t="s">
+        <v>534</v>
+      </c>
       <c r="K600" s="4"/>
       <c r="L600" s="4"/>
     </row>
-    <row r="601" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K601" s="4"/>
       <c r="L601" s="4"/>
     </row>
-    <row r="602" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="B602" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C602" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D602" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="E602" s="11">
+        <v>1</v>
+      </c>
+      <c r="F602" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G602" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H602" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K602" s="4"/>
       <c r="L602" s="4"/>
     </row>
-    <row r="603" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D603" s="39"/>
+      <c r="E603" s="11">
+        <v>2</v>
+      </c>
+      <c r="F603" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G603" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K603" s="4"/>
       <c r="L603" s="4"/>
     </row>
-    <row r="604" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D604" s="39"/>
+      <c r="E604" s="11">
+        <v>3</v>
+      </c>
+      <c r="F604" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G604" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K604" s="4"/>
       <c r="L604" s="4"/>
     </row>
-    <row r="605" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D605" s="39"/>
+      <c r="E605" s="11">
+        <v>4</v>
+      </c>
+      <c r="F605" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G605" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K605" s="4"/>
       <c r="L605" s="4"/>
     </row>
-    <row r="606" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D606" s="39"/>
+      <c r="E606" s="11">
+        <v>5</v>
+      </c>
+      <c r="F606" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G606" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H606" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K606" s="4"/>
       <c r="L606" s="4"/>
     </row>
-    <row r="607" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="D607" s="39"/>
+      <c r="E607" s="11">
+        <v>6</v>
+      </c>
+      <c r="F607" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="G607" s="36" t="s">
+        <v>528</v>
+      </c>
       <c r="K607" s="4"/>
       <c r="L607" s="4"/>
     </row>
-    <row r="608" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="D608" s="39"/>
+      <c r="E608" s="11">
+        <v>7</v>
+      </c>
+      <c r="F608" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="G608" s="36" t="s">
+        <v>530</v>
+      </c>
       <c r="K608" s="4"/>
       <c r="L608" s="4"/>
     </row>
-    <row r="609" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D609" s="40"/>
+      <c r="E609" s="11">
+        <v>8</v>
+      </c>
+      <c r="F609" s="36" t="s">
+        <v>537</v>
+      </c>
+      <c r="G609" s="36" t="s">
+        <v>538</v>
+      </c>
       <c r="K609" s="4"/>
       <c r="L609" s="4"/>
     </row>
-    <row r="610" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K610" s="4"/>
       <c r="L610" s="4"/>
     </row>
-    <row r="611" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="B611" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C611" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D611" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="E611" s="11">
+        <v>1</v>
+      </c>
+      <c r="F611" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G611" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H611" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K611" s="4"/>
       <c r="L611" s="4"/>
     </row>
-    <row r="612" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D612" s="39"/>
+      <c r="E612" s="11">
+        <v>2</v>
+      </c>
+      <c r="F612" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G612" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K612" s="4"/>
       <c r="L612" s="4"/>
     </row>
-    <row r="613" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D613" s="39"/>
+      <c r="E613" s="11">
+        <v>3</v>
+      </c>
+      <c r="F613" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G613" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K613" s="4"/>
       <c r="L613" s="4"/>
     </row>
-    <row r="614" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D614" s="39"/>
+      <c r="E614" s="11">
+        <v>4</v>
+      </c>
+      <c r="F614" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G614" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K614" s="4"/>
       <c r="L614" s="4"/>
     </row>
-    <row r="615" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D615" s="39"/>
+      <c r="E615" s="11">
+        <v>5</v>
+      </c>
+      <c r="F615" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G615" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H615" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K615" s="4"/>
       <c r="L615" s="4"/>
     </row>
-    <row r="616" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="D616" s="39"/>
+      <c r="E616" s="11">
+        <v>6</v>
+      </c>
+      <c r="F616" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="G616" s="36" t="s">
+        <v>530</v>
+      </c>
       <c r="K616" s="4"/>
       <c r="L616" s="4"/>
     </row>
-    <row r="617" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D617" s="39"/>
+      <c r="E617" s="11">
+        <v>7</v>
+      </c>
+      <c r="F617" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="G617" s="36" t="s">
+        <v>532</v>
+      </c>
       <c r="K617" s="4"/>
       <c r="L617" s="4"/>
     </row>
-    <row r="618" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D618" s="40"/>
+      <c r="E618" s="11">
+        <v>8</v>
+      </c>
+      <c r="F618" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="G618" s="36" t="s">
+        <v>572</v>
+      </c>
       <c r="K618" s="4"/>
       <c r="L618" s="4"/>
     </row>
-    <row r="619" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K619" s="4"/>
       <c r="L619" s="4"/>
     </row>
-    <row r="620" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="B620" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C620" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D620" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="E620" s="11">
+        <v>1</v>
+      </c>
+      <c r="F620" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G620" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H620" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K620" s="4"/>
       <c r="L620" s="4"/>
     </row>
-    <row r="621" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D621" s="39"/>
+      <c r="E621" s="11">
+        <v>2</v>
+      </c>
+      <c r="F621" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G621" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K621" s="4"/>
       <c r="L621" s="4"/>
     </row>
-    <row r="622" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D622" s="39"/>
+      <c r="E622" s="11">
+        <v>3</v>
+      </c>
+      <c r="F622" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G622" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K622" s="4"/>
       <c r="L622" s="4"/>
     </row>
-    <row r="623" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D623" s="39"/>
+      <c r="E623" s="11">
+        <v>4</v>
+      </c>
+      <c r="F623" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G623" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K623" s="4"/>
       <c r="L623" s="4"/>
     </row>
-    <row r="624" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D624" s="39"/>
+      <c r="E624" s="11">
+        <v>5</v>
+      </c>
+      <c r="F624" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G624" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H624" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K624" s="4"/>
       <c r="L624" s="4"/>
     </row>
-    <row r="625" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D625" s="39"/>
+      <c r="E625" s="11">
+        <v>6</v>
+      </c>
+      <c r="F625" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="G625" s="36" t="s">
+        <v>545</v>
+      </c>
       <c r="K625" s="4"/>
       <c r="L625" s="4"/>
     </row>
-    <row r="626" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="D626" s="39"/>
+      <c r="E626" s="11">
+        <v>7</v>
+      </c>
+      <c r="F626" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="G626" s="36" t="s">
+        <v>547</v>
+      </c>
       <c r="K626" s="4"/>
       <c r="L626" s="4"/>
     </row>
-    <row r="627" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D627" s="40"/>
+      <c r="E627" s="11">
+        <v>8</v>
+      </c>
+      <c r="F627" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="G627" s="36" t="s">
+        <v>572</v>
+      </c>
       <c r="K627" s="4"/>
       <c r="L627" s="4"/>
     </row>
-    <row r="628" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K628" s="4"/>
       <c r="L628" s="4"/>
     </row>
-    <row r="629" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B629" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C629" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D629" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="E629" s="11">
+        <v>1</v>
+      </c>
+      <c r="F629" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G629" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H629" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K629" s="4"/>
       <c r="L629" s="4"/>
     </row>
-    <row r="630" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D630" s="39"/>
+      <c r="E630" s="11">
+        <v>2</v>
+      </c>
+      <c r="F630" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G630" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K630" s="4"/>
       <c r="L630" s="4"/>
     </row>
-    <row r="631" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D631" s="39"/>
+      <c r="E631" s="11">
+        <v>3</v>
+      </c>
+      <c r="F631" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G631" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K631" s="4"/>
       <c r="L631" s="4"/>
     </row>
-    <row r="632" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D632" s="39"/>
+      <c r="E632" s="11">
+        <v>4</v>
+      </c>
+      <c r="F632" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G632" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K632" s="4"/>
       <c r="L632" s="4"/>
     </row>
-    <row r="633" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D633" s="39"/>
+      <c r="E633" s="11">
+        <v>5</v>
+      </c>
+      <c r="F633" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G633" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H633" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K633" s="4"/>
       <c r="L633" s="4"/>
     </row>
-    <row r="634" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D634" s="39"/>
+      <c r="E634" s="11">
+        <v>6</v>
+      </c>
+      <c r="F634" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="G634" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="H634" s="11" t="s">
+        <v>553</v>
+      </c>
       <c r="K634" s="4"/>
       <c r="L634" s="4"/>
     </row>
-    <row r="635" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D635" s="40"/>
+      <c r="E635" s="11">
+        <v>7</v>
+      </c>
+      <c r="F635" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G635" s="36" t="s">
+        <v>572</v>
+      </c>
       <c r="K635" s="4"/>
       <c r="L635" s="4"/>
     </row>
-    <row r="636" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K636" s="4"/>
       <c r="L636" s="4"/>
     </row>
-    <row r="637" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A637" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B637" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C637" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D637" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="E637" s="11">
+        <v>1</v>
+      </c>
+      <c r="F637" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G637" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H637" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K637" s="4"/>
       <c r="L637" s="4"/>
     </row>
-    <row r="638" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D638" s="39"/>
+      <c r="E638" s="11">
+        <v>2</v>
+      </c>
+      <c r="F638" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G638" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K638" s="4"/>
       <c r="L638" s="4"/>
     </row>
-    <row r="639" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D639" s="39"/>
+      <c r="E639" s="11">
+        <v>3</v>
+      </c>
+      <c r="F639" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G639" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K639" s="4"/>
       <c r="L639" s="4"/>
     </row>
-    <row r="640" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D640" s="39"/>
+      <c r="E640" s="11">
+        <v>4</v>
+      </c>
+      <c r="F640" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G640" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K640" s="4"/>
       <c r="L640" s="4"/>
     </row>
-    <row r="641" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D641" s="39"/>
+      <c r="E641" s="11">
+        <v>5</v>
+      </c>
+      <c r="F641" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G641" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H641" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K641" s="4"/>
       <c r="L641" s="4"/>
     </row>
-    <row r="642" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D642" s="39"/>
+      <c r="E642" s="11">
+        <v>6</v>
+      </c>
+      <c r="F642" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="G642" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="H642" s="11" t="s">
+        <v>553</v>
+      </c>
       <c r="K642" s="4"/>
       <c r="L642" s="4"/>
     </row>
-    <row r="643" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D643" s="40"/>
+      <c r="E643" s="11">
+        <v>7</v>
+      </c>
+      <c r="F643" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G643" s="36" t="s">
+        <v>572</v>
+      </c>
       <c r="K643" s="4"/>
       <c r="L643" s="4"/>
     </row>
-    <row r="644" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K644" s="4"/>
       <c r="L644" s="4"/>
     </row>
-    <row r="645" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A645" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B645" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C645" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D645" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="E645" s="11">
+        <v>1</v>
+      </c>
+      <c r="F645" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G645" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H645" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K645" s="4"/>
       <c r="L645" s="4"/>
     </row>
-    <row r="646" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D646" s="39"/>
+      <c r="E646" s="11">
+        <v>2</v>
+      </c>
+      <c r="F646" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G646" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K646" s="4"/>
       <c r="L646" s="4"/>
     </row>
-    <row r="647" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D647" s="39"/>
+      <c r="E647" s="11">
+        <v>3</v>
+      </c>
+      <c r="F647" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G647" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K647" s="4"/>
       <c r="L647" s="4"/>
     </row>
-    <row r="648" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D648" s="39"/>
+      <c r="E648" s="11">
+        <v>4</v>
+      </c>
+      <c r="F648" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G648" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K648" s="4"/>
       <c r="L648" s="4"/>
     </row>
-    <row r="649" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D649" s="39"/>
+      <c r="E649" s="11">
+        <v>5</v>
+      </c>
+      <c r="F649" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G649" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H649" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K649" s="4"/>
       <c r="L649" s="4"/>
     </row>
-    <row r="650" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D650" s="39"/>
+      <c r="E650" s="11">
+        <v>6</v>
+      </c>
+      <c r="F650" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="G650" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="H650" s="11" t="s">
+        <v>553</v>
+      </c>
       <c r="K650" s="4"/>
       <c r="L650" s="4"/>
     </row>
-    <row r="651" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D651" s="40"/>
+      <c r="E651" s="11">
+        <v>7</v>
+      </c>
+      <c r="F651" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G651" s="36" t="s">
+        <v>572</v>
+      </c>
       <c r="K651" s="4"/>
       <c r="L651" s="4"/>
     </row>
-    <row r="652" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K652" s="4"/>
       <c r="L652" s="4"/>
     </row>
-    <row r="653" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A653" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B653" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C653" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D653" s="38" t="s">
+        <v>563</v>
+      </c>
+      <c r="E653" s="11">
+        <v>1</v>
+      </c>
+      <c r="F653" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G653" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H653" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K653" s="4"/>
       <c r="L653" s="4"/>
     </row>
-    <row r="654" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D654" s="39"/>
+      <c r="E654" s="11">
+        <v>2</v>
+      </c>
+      <c r="F654" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G654" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K654" s="4"/>
       <c r="L654" s="4"/>
     </row>
-    <row r="655" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D655" s="39"/>
+      <c r="E655" s="11">
+        <v>3</v>
+      </c>
+      <c r="F655" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G655" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K655" s="4"/>
       <c r="L655" s="4"/>
     </row>
-    <row r="656" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D656" s="39"/>
+      <c r="E656" s="11">
+        <v>4</v>
+      </c>
+      <c r="F656" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G656" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K656" s="4"/>
       <c r="L656" s="4"/>
     </row>
-    <row r="657" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D657" s="39"/>
+      <c r="E657" s="11">
+        <v>5</v>
+      </c>
+      <c r="F657" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G657" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H657" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K657" s="4"/>
       <c r="L657" s="4"/>
     </row>
-    <row r="658" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D658" s="39"/>
+      <c r="E658" s="11">
+        <v>6</v>
+      </c>
+      <c r="F658" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="G658" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="H658" s="11" t="s">
+        <v>553</v>
+      </c>
       <c r="K658" s="4"/>
       <c r="L658" s="4"/>
     </row>
-    <row r="659" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D659" s="40"/>
+      <c r="E659" s="11">
+        <v>7</v>
+      </c>
+      <c r="F659" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G659" s="36" t="s">
+        <v>572</v>
+      </c>
       <c r="K659" s="4"/>
       <c r="L659" s="4"/>
     </row>
-    <row r="660" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K660" s="4"/>
       <c r="L660" s="4"/>
     </row>
-    <row r="661" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A661" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B661" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C661" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D661" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="E661" s="11">
+        <v>1</v>
+      </c>
+      <c r="F661" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G661" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H661" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K661" s="4"/>
       <c r="L661" s="4"/>
     </row>
-    <row r="662" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D662" s="39"/>
+      <c r="E662" s="11">
+        <v>2</v>
+      </c>
+      <c r="F662" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G662" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K662" s="4"/>
       <c r="L662" s="4"/>
     </row>
-    <row r="663" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D663" s="39"/>
+      <c r="E663" s="11">
+        <v>3</v>
+      </c>
+      <c r="F663" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G663" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K663" s="4"/>
       <c r="L663" s="4"/>
     </row>
-    <row r="664" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D664" s="39"/>
+      <c r="E664" s="11">
+        <v>4</v>
+      </c>
+      <c r="F664" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G664" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K664" s="4"/>
       <c r="L664" s="4"/>
     </row>
-    <row r="665" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D665" s="39"/>
+      <c r="E665" s="11">
+        <v>5</v>
+      </c>
+      <c r="F665" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G665" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H665" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K665" s="4"/>
       <c r="L665" s="4"/>
     </row>
-    <row r="666" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D666" s="39"/>
+      <c r="E666" s="11">
+        <v>6</v>
+      </c>
+      <c r="F666" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="G666" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="H666" s="11" t="s">
+        <v>553</v>
+      </c>
       <c r="K666" s="4"/>
       <c r="L666" s="4"/>
     </row>
-    <row r="667" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D667" s="40"/>
+      <c r="E667" s="11">
+        <v>7</v>
+      </c>
+      <c r="F667" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G667" s="36" t="s">
+        <v>572</v>
+      </c>
       <c r="K667" s="4"/>
       <c r="L667" s="4"/>
     </row>
-    <row r="668" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K668" s="4"/>
       <c r="L668" s="4"/>
     </row>
-    <row r="669" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A669" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B669" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C669" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D669" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="E669" s="11">
+        <v>1</v>
+      </c>
+      <c r="F669" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G669" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H669" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K669" s="4"/>
       <c r="L669" s="4"/>
     </row>
-    <row r="670" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D670" s="39"/>
+      <c r="E670" s="11">
+        <v>2</v>
+      </c>
+      <c r="F670" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G670" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K670" s="4"/>
       <c r="L670" s="4"/>
     </row>
-    <row r="671" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D671" s="39"/>
+      <c r="E671" s="11">
+        <v>3</v>
+      </c>
+      <c r="F671" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G671" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K671" s="4"/>
       <c r="L671" s="4"/>
     </row>
-    <row r="672" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D672" s="39"/>
+      <c r="E672" s="11">
+        <v>4</v>
+      </c>
+      <c r="F672" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G672" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="K672" s="4"/>
       <c r="L672" s="4"/>
     </row>
-    <row r="673" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D673" s="39"/>
+      <c r="E673" s="11">
+        <v>5</v>
+      </c>
+      <c r="F673" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G673" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H673" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="K673" s="4"/>
       <c r="L673" s="4"/>
     </row>
-    <row r="674" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D674" s="39"/>
+      <c r="E674" s="11">
+        <v>6</v>
+      </c>
+      <c r="F674" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="G674" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="H674" s="11" t="s">
+        <v>553</v>
+      </c>
       <c r="K674" s="4"/>
       <c r="L674" s="4"/>
     </row>
-    <row r="675" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D675" s="40"/>
+      <c r="E675" s="11">
+        <v>7</v>
+      </c>
+      <c r="F675" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G675" s="36" t="s">
+        <v>572</v>
+      </c>
       <c r="K675" s="4"/>
       <c r="L675" s="4"/>
     </row>
-    <row r="676" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K676" s="4"/>
       <c r="L676" s="4"/>
     </row>
-    <row r="677" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A677" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B677" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C677" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D677" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="E677" s="11">
+        <v>1</v>
+      </c>
+      <c r="F677" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G677" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H677" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K677" s="4"/>
       <c r="L677" s="4"/>
     </row>
-    <row r="678" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D678" s="39"/>
+      <c r="E678" s="11">
+        <v>2</v>
+      </c>
+      <c r="F678" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G678" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="K678" s="4"/>
       <c r="L678" s="4"/>
     </row>
-    <row r="679" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D679" s="39"/>
+      <c r="E679" s="11">
+        <v>3</v>
+      </c>
+      <c r="F679" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G679" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="K679" s="4"/>
       <c r="L679" s="4"/>
     </row>
-    <row r="680" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D680" s="39"/>
+      <c r="E680" s="11">
+        <v>4</v>
+      </c>
+      <c r="F680" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G680" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="K680" s="4"/>
       <c r="L680" s="4"/>
     </row>
-    <row r="681" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D681" s="39"/>
+      <c r="E681" s="11">
+        <v>5</v>
+      </c>
+      <c r="F681" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G681" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H681" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="K681" s="4"/>
       <c r="L681" s="4"/>
     </row>
-    <row r="682" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D682" s="39"/>
+      <c r="E682" s="11">
+        <v>6</v>
+      </c>
+      <c r="F682" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="G682" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="H682" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="K682" s="4"/>
       <c r="L682" s="4"/>
     </row>
-    <row r="683" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D683" s="40"/>
+      <c r="E683" s="11">
+        <v>7</v>
+      </c>
+      <c r="F683" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G683" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="K683" s="4"/>
       <c r="L683" s="4"/>
     </row>
-    <row r="684" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K684" s="4"/>
       <c r="L684" s="4"/>
     </row>
-    <row r="685" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A685" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B685" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C685" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D685" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="E685" s="11">
+        <v>1</v>
+      </c>
+      <c r="F685" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G685" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H685" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L685" s="4"/>
     </row>
-    <row r="686" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D686" s="39"/>
+      <c r="E686" s="11">
+        <v>2</v>
+      </c>
+      <c r="F686" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G686" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L686" s="4"/>
     </row>
-    <row r="687" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D687" s="39"/>
+      <c r="E687" s="11">
+        <v>3</v>
+      </c>
+      <c r="F687" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G687" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L687" s="4"/>
     </row>
-    <row r="688" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D688" s="39"/>
+      <c r="E688" s="11">
+        <v>4</v>
+      </c>
+      <c r="F688" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G688" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="L688" s="4"/>
     </row>
-    <row r="689" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D689" s="39"/>
+      <c r="E689" s="11">
+        <v>5</v>
+      </c>
+      <c r="F689" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G689" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H689" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="L689" s="4"/>
     </row>
-    <row r="690" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D690" s="39"/>
+      <c r="E690" s="11">
+        <v>6</v>
+      </c>
+      <c r="F690" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="G690" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="H690" s="11" t="s">
+        <v>553</v>
+      </c>
       <c r="L690" s="4"/>
     </row>
-    <row r="691" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D691" s="40"/>
+      <c r="E691" s="11">
+        <v>7</v>
+      </c>
+      <c r="F691" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G691" s="36" t="s">
+        <v>572</v>
+      </c>
       <c r="L691" s="4"/>
     </row>
-    <row r="692" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L692" s="4"/>
     </row>
-    <row r="693" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A693" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B693" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C693" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D693" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="E693" s="11">
+        <v>1</v>
+      </c>
+      <c r="F693" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G693" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H693" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L693" s="4"/>
     </row>
-    <row r="694" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D694" s="39"/>
+      <c r="E694" s="11">
+        <v>2</v>
+      </c>
+      <c r="F694" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G694" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L694" s="4"/>
     </row>
-    <row r="695" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D695" s="39"/>
+      <c r="E695" s="11">
+        <v>3</v>
+      </c>
+      <c r="F695" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G695" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L695" s="4"/>
     </row>
-    <row r="696" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D696" s="39"/>
+      <c r="E696" s="11">
+        <v>4</v>
+      </c>
+      <c r="F696" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G696" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="L696" s="4"/>
     </row>
-    <row r="697" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D697" s="39"/>
+      <c r="E697" s="11">
+        <v>5</v>
+      </c>
+      <c r="F697" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G697" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H697" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="L697" s="4"/>
     </row>
-    <row r="698" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D698" s="39"/>
+      <c r="E698" s="11">
+        <v>6</v>
+      </c>
+      <c r="F698" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="G698" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="H698" s="11" t="s">
+        <v>553</v>
+      </c>
       <c r="L698" s="4"/>
     </row>
-    <row r="699" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D699" s="40"/>
+      <c r="E699" s="11">
+        <v>7</v>
+      </c>
+      <c r="F699" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G699" s="36" t="s">
+        <v>572</v>
+      </c>
       <c r="L699" s="4"/>
     </row>
-    <row r="700" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L700" s="4"/>
     </row>
-    <row r="701" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A701" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B701" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C701" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D701" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="E701" s="11">
+        <v>1</v>
+      </c>
+      <c r="F701" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G701" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H701" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L701" s="4"/>
     </row>
-    <row r="702" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D702" s="39"/>
+      <c r="E702" s="11">
+        <v>2</v>
+      </c>
+      <c r="F702" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G702" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L702" s="4"/>
     </row>
-    <row r="703" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D703" s="39"/>
+      <c r="E703" s="11">
+        <v>3</v>
+      </c>
+      <c r="F703" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G703" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L703" s="4"/>
     </row>
-    <row r="704" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D704" s="39"/>
+      <c r="E704" s="11">
+        <v>4</v>
+      </c>
+      <c r="F704" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G704" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="L704" s="4"/>
     </row>
-    <row r="705" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D705" s="39"/>
+      <c r="E705" s="11">
+        <v>5</v>
+      </c>
+      <c r="F705" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G705" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H705" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="L705" s="4"/>
     </row>
-    <row r="706" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D706" s="39"/>
+      <c r="E706" s="11">
+        <v>6</v>
+      </c>
+      <c r="F706" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="G706" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="H706" s="11" t="s">
+        <v>553</v>
+      </c>
       <c r="L706" s="4"/>
     </row>
-    <row r="707" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D707" s="40"/>
+      <c r="E707" s="11">
+        <v>7</v>
+      </c>
+      <c r="F707" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G707" s="36" t="s">
+        <v>572</v>
+      </c>
       <c r="L707" s="4"/>
     </row>
-    <row r="708" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L708" s="4"/>
     </row>
-    <row r="709" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A709" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B709" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C709" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D709" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="E709" s="11">
+        <v>1</v>
+      </c>
+      <c r="F709" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G709" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H709" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="L709" s="4"/>
     </row>
-    <row r="710" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E710" s="11">
+        <v>2</v>
+      </c>
+      <c r="F710" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G710" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="L710" s="4"/>
     </row>
-    <row r="711" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E711" s="11">
+        <v>3</v>
+      </c>
+      <c r="F711" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G711" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L711" s="4"/>
     </row>
-    <row r="712" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E712" s="11">
+        <v>4</v>
+      </c>
+      <c r="F712" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G712" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="L712" s="4"/>
     </row>
-    <row r="713" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E713" s="11">
+        <v>5</v>
+      </c>
+      <c r="F713" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G713" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H713" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="L713" s="4"/>
     </row>
-    <row r="714" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E714" s="11">
+        <v>6</v>
+      </c>
+      <c r="F714" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="G714" s="11" t="s">
+        <v>595</v>
+      </c>
       <c r="L714" s="4"/>
     </row>
-    <row r="715" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L715" s="4"/>
     </row>
-    <row r="716" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L716" s="4"/>
     </row>
-    <row r="717" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L717" s="4"/>
     </row>
-    <row r="718" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L718" s="4"/>
     </row>
-    <row r="719" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L719" s="4"/>
     </row>
-    <row r="720" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L720" s="4"/>
     </row>
     <row r="721" spans="12:12" x14ac:dyDescent="0.25">
@@ -9391,8 +12901,82 @@
     <row r="724" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L724" s="4"/>
     </row>
+    <row r="725" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L725" s="4"/>
+    </row>
+    <row r="726" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L726" s="4"/>
+    </row>
+    <row r="727" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L727" s="4"/>
+    </row>
+    <row r="728" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L728" s="4"/>
+    </row>
+    <row r="729" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L729" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="67">
+    <mergeCell ref="D701:D707"/>
+    <mergeCell ref="D661:D667"/>
+    <mergeCell ref="D669:D675"/>
+    <mergeCell ref="D677:D683"/>
+    <mergeCell ref="D685:D691"/>
+    <mergeCell ref="D693:D699"/>
+    <mergeCell ref="D620:D627"/>
+    <mergeCell ref="D629:D635"/>
+    <mergeCell ref="D637:D643"/>
+    <mergeCell ref="D645:D651"/>
+    <mergeCell ref="D653:D659"/>
+    <mergeCell ref="D562:D575"/>
+    <mergeCell ref="D577:D590"/>
+    <mergeCell ref="D592:D600"/>
+    <mergeCell ref="D602:D609"/>
+    <mergeCell ref="D611:D618"/>
+    <mergeCell ref="D516:D530"/>
+    <mergeCell ref="D532:D544"/>
+    <mergeCell ref="D546:D560"/>
+    <mergeCell ref="D484:D491"/>
+    <mergeCell ref="D494:D502"/>
+    <mergeCell ref="D505:D514"/>
+    <mergeCell ref="D455:D464"/>
+    <mergeCell ref="D467:D476"/>
+    <mergeCell ref="D479:D482"/>
+    <mergeCell ref="D230:D237"/>
+    <mergeCell ref="D239:D248"/>
+    <mergeCell ref="D180:D190"/>
+    <mergeCell ref="D192:D200"/>
+    <mergeCell ref="D202:D210"/>
+    <mergeCell ref="D212:D220"/>
+    <mergeCell ref="D222:D228"/>
+    <mergeCell ref="D135:D143"/>
+    <mergeCell ref="D145:D149"/>
+    <mergeCell ref="D151:D158"/>
+    <mergeCell ref="D160:D167"/>
+    <mergeCell ref="D169:D177"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="D94:D103"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="D116:D123"/>
+    <mergeCell ref="D125:D133"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="D65:D71"/>
+    <mergeCell ref="D73:D81"/>
+    <mergeCell ref="D250:D256"/>
+    <mergeCell ref="D258:D262"/>
+    <mergeCell ref="D264:D268"/>
+    <mergeCell ref="D270:D280"/>
+    <mergeCell ref="D282:D289"/>
+    <mergeCell ref="D330:D337"/>
+    <mergeCell ref="D339:D345"/>
+    <mergeCell ref="D347:D353"/>
+    <mergeCell ref="D356:D364"/>
+    <mergeCell ref="D292:D301"/>
+    <mergeCell ref="D304:D313"/>
+    <mergeCell ref="D316:D328"/>
     <mergeCell ref="D422:D430"/>
     <mergeCell ref="D432:D441"/>
     <mergeCell ref="D443:D453"/>
@@ -9401,55 +12985,21 @@
     <mergeCell ref="D383:D395"/>
     <mergeCell ref="D397:D407"/>
     <mergeCell ref="D409:D420"/>
-    <mergeCell ref="D330:D337"/>
-    <mergeCell ref="D339:D345"/>
-    <mergeCell ref="D347:D353"/>
-    <mergeCell ref="D356:D364"/>
-    <mergeCell ref="D292:D301"/>
-    <mergeCell ref="D304:D313"/>
-    <mergeCell ref="D316:D328"/>
-    <mergeCell ref="D250:D256"/>
-    <mergeCell ref="D258:D262"/>
-    <mergeCell ref="D264:D268"/>
-    <mergeCell ref="D270:D280"/>
-    <mergeCell ref="D282:D289"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="D65:D71"/>
-    <mergeCell ref="D73:D81"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="D94:D103"/>
-    <mergeCell ref="D105:D114"/>
-    <mergeCell ref="D116:D123"/>
-    <mergeCell ref="D125:D133"/>
-    <mergeCell ref="D135:D143"/>
-    <mergeCell ref="D145:D149"/>
-    <mergeCell ref="D151:D158"/>
-    <mergeCell ref="D160:D167"/>
-    <mergeCell ref="D169:D177"/>
-    <mergeCell ref="D230:D237"/>
-    <mergeCell ref="D239:D248"/>
-    <mergeCell ref="D180:D190"/>
-    <mergeCell ref="D192:D200"/>
-    <mergeCell ref="D202:D210"/>
-    <mergeCell ref="D212:D220"/>
-    <mergeCell ref="D222:D228"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C651:C720" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C656:C660 C662:C668 C670:C676 C678:C684 C686:C692 C694:C700 C702:C708 C710:C725" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B7 B14 B21 B28 B35 B40 B45 B48 B51 B55 B58:B59 B65 B73 B83 B94 B105 B116 B125 B135 B145 B151 B160 B169 B180 B192 B202 B212 B222 B230 B239 B250 B258 B264 B270 B282 B292 B304 B316 B330 B339 B347 B356 B366 B376 B383 B397 B409 B422 B432 B443" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B7 B14 B21 B28 B35 B40 B45 B48 B51 B55 B58:B59 B65 B73 B83 B94 B105 B116 B125 B135 B145 B151 B160 B169 B180 B192 B202 B212 B222 B230 B239 B250 B258 B264 B270 B282 B292 B304 B316 B330 B339 B347 B356 B366 B376 B383 B397 B409 B422 B432 B443 B455 B467 B479 B484 B494 B505 B516 B532 B546 B562 B577 B592 B602 B611 B620 B629 B637 B645 B653 B661 B669 B677 B685 B693 B701 B709" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K477:K679" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K478 C2:C655 C661 C669 C677 C685 C693 C701 C709" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
+      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K479:K684" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K476 C2:C650" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
-      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L724" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L729" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9496,8 +13046,34 @@
     <hyperlink ref="H422" r:id="rId40" xr:uid="{3F9B08C8-EA6C-40DA-A456-A62A2DB4979D}"/>
     <hyperlink ref="H432" r:id="rId41" xr:uid="{7550E805-520B-4CC8-94E7-911D16E5C0AE}"/>
     <hyperlink ref="H443" r:id="rId42" xr:uid="{6AEF447D-4809-4987-A1C9-9F64105C916B}"/>
+    <hyperlink ref="H455" r:id="rId43" xr:uid="{A806F281-7FFE-4BEE-82E2-92E27393D8FF}"/>
+    <hyperlink ref="H467" r:id="rId44" xr:uid="{81EF144F-3A73-4FB3-BC5E-FCAF0BF8C7B5}"/>
+    <hyperlink ref="H479" r:id="rId45" xr:uid="{754C0880-18EC-47F1-8008-7755CC1074AB}"/>
+    <hyperlink ref="H484" r:id="rId46" xr:uid="{82252BB7-8C64-41A2-B8F8-691CAFD4AFE4}"/>
+    <hyperlink ref="H494" r:id="rId47" xr:uid="{56C35716-8263-4A5A-965A-6D5112F301AC}"/>
+    <hyperlink ref="H505" r:id="rId48" xr:uid="{2DCE1DD3-3F96-4D8F-A4E7-A39C032690EF}"/>
+    <hyperlink ref="H516" r:id="rId49" xr:uid="{596F92C9-5696-4F94-A375-5E315A797AFF}"/>
+    <hyperlink ref="H532" r:id="rId50" xr:uid="{297E312C-B491-43AA-8860-969FEEA241D0}"/>
+    <hyperlink ref="H546" r:id="rId51" xr:uid="{898DFF44-19F1-4059-A61F-ABBAE5DF4132}"/>
+    <hyperlink ref="H562" r:id="rId52" xr:uid="{7044B573-F91D-4D5D-9ACA-AA85FAD323E1}"/>
+    <hyperlink ref="H577" r:id="rId53" xr:uid="{AB697878-CD5D-4FD7-A79D-B1290AE491C0}"/>
+    <hyperlink ref="H592" r:id="rId54" xr:uid="{279D61F7-0DBD-4C49-B64A-0FF72B46C6D5}"/>
+    <hyperlink ref="H602" r:id="rId55" xr:uid="{DF8301C8-0B77-4332-8D83-565B99994267}"/>
+    <hyperlink ref="H611" r:id="rId56" xr:uid="{4DE2A643-FBD8-4DCB-80ED-AB83CDC3D2B8}"/>
+    <hyperlink ref="H620" r:id="rId57" xr:uid="{E0C9AAF8-403C-453F-97C7-D2D0049D3B15}"/>
+    <hyperlink ref="H629" r:id="rId58" xr:uid="{66BCEEAE-9DC1-4AD5-9310-733D5A60A4A1}"/>
+    <hyperlink ref="H637" r:id="rId59" xr:uid="{116F812C-B15B-4CFA-8E5B-00112EE6DD4D}"/>
+    <hyperlink ref="H645" r:id="rId60" xr:uid="{2C7B2CBF-3BB3-455D-A39D-8CFAA87BE5BF}"/>
+    <hyperlink ref="H653" r:id="rId61" xr:uid="{0E5061B1-10CE-4076-8A30-378D13E3E8E6}"/>
+    <hyperlink ref="H661" r:id="rId62" xr:uid="{222074F6-D28A-4454-A2DE-C9EA6632B14D}"/>
+    <hyperlink ref="H669" r:id="rId63" xr:uid="{35A1CE06-911A-4D26-B6BA-6C2C00A7BEA6}"/>
+    <hyperlink ref="H677" r:id="rId64" xr:uid="{5CB93365-279F-4111-8BE4-601E1A18D0EF}"/>
+    <hyperlink ref="H685" r:id="rId65" xr:uid="{F3FFDA79-3BAC-410C-AD80-7CFBE0A53AEB}"/>
+    <hyperlink ref="H693" r:id="rId66" xr:uid="{FB2B62FA-D55E-4952-A6E5-B3E00D021367}"/>
+    <hyperlink ref="H701" r:id="rId67" xr:uid="{CABEEF55-6A23-4F07-B3A4-96C2DF7B95C0}"/>
+    <hyperlink ref="H709" r:id="rId68" xr:uid="{8BB19EC2-1690-4D29-BEF7-01FD4609F94D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
--- a/Test Case/Poornima/Test Case- Out Patient.xlsx
+++ b/Test Case/Poornima/Test Case- Out Patient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mediware\CentralRepository-Mediware\Test Case\Poornima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5526F99B-FC20-4C1D-B798-85A206517A8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E0F684-48CC-4329-AD45-8F928E350654}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="968">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3064,6 +3064,330 @@
   </si>
   <si>
     <t>User should be able to delete the added Equipments from Equipments</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0121</t>
+  </si>
+  <si>
+    <t>Patient ID:NH00000545</t>
+  </si>
+  <si>
+    <t>Click on 'Generate BIll'</t>
+  </si>
+  <si>
+    <t>User should be able to click on Generate Bill. OP Consolidated Bills page should be displayed</t>
+  </si>
+  <si>
+    <t>Select the fields in Payment Type section:
+1.Type
+2.Customer
+3.Doctor</t>
+  </si>
+  <si>
+    <t>Type:Cash
+Customer:Amity
+Doctor:Allan Wayne</t>
+  </si>
+  <si>
+    <t>A confirmation pop-up should be displayed 'Visit date  and billing date is not matching do you want  to continue?'</t>
+  </si>
+  <si>
+    <t>User should be able to select the field
+1.Type
+2.Customer
+3.Doctor
+In split Bills View the type must be selected as cash and mark it as yellow in color</t>
+  </si>
+  <si>
+    <t>Verify Gross Amount and Net Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Net Amount , Gross Amount in 'Split Bills View' should be same as the Gross Amount and Net Amount in 'Bills Summary' at right pane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfiy Patient Payable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Payable amount should be displayed in Bills Summary </t>
+  </si>
+  <si>
+    <t>Payment Mode window should be dsiplayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Close </t>
+  </si>
+  <si>
+    <t>Navigated to OP Consolidated Bills</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0122</t>
+  </si>
+  <si>
+    <t>To verify that Generating bill based on payment type 'Cash'</t>
+  </si>
+  <si>
+    <t>To verify that Generating bill based on payment type 'Credit'</t>
+  </si>
+  <si>
+    <t>Type:Credit
+Customer:Amity
+Doctor:Allan Wayne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfiy Corporate Credit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate Credit amount should be displayed and Patient  Payable should be zero in Bills Summary </t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0123</t>
+  </si>
+  <si>
+    <t>To verify that Generating bill based on payment type 'Complimentory'</t>
+  </si>
+  <si>
+    <t>Select the fields in Payment Type section:
+1.Type
+2.Doctor</t>
+  </si>
+  <si>
+    <t>Type:Complimentory
+Doctor:Allan Wayne</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0124</t>
+  </si>
+  <si>
+    <t>To verify that Generating bill based on patient Mode cheque/DD/Bank Transfer</t>
+  </si>
+  <si>
+    <t>Precondition:Patient should be tahe an appoinment
+Launch the URL</t>
+  </si>
+  <si>
+    <t>Enter the amount to Cheque/DD/Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter the amount </t>
+  </si>
+  <si>
+    <t>Enter all the mandatory fields
+1.Payment Type
+2.Cheque/DD.No
+3.Date</t>
+  </si>
+  <si>
+    <t>User should be able to enter data in to mandatory fields
+1.Payment Type
+2.Cheque/DD.No
+3.Date</t>
+  </si>
+  <si>
+    <t>1.Payment Type:Bank Transfer/Gift Voucher/Cheque
+2.Cheque/DD.No:12548
+3.Date:7/6/19</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0125</t>
+  </si>
+  <si>
+    <t>To verify that Generating bill based on patient Mode Credit/Debit Card</t>
+  </si>
+  <si>
+    <t>Enter the amount to Credit/Debit Card</t>
+  </si>
+  <si>
+    <t>Enter all the mandatory fields
+1.Card No
+2.Auth.code
+3.Swiping Machine</t>
+  </si>
+  <si>
+    <t>User should be able to enter data in to mandatory fields
+1.Card No
+2.Auth.code
+3.Swiping Machine</t>
+  </si>
+  <si>
+    <t>1.Card No:542
+2.Auth.code:2356
+3.Swiping Machine:ADIB Bank Machine</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0126</t>
+  </si>
+  <si>
+    <t>Patient ID:NM00003716</t>
+  </si>
+  <si>
+    <t>To verify that Partial payment by Cash and Cheque/DD in Consolidated OP Bill</t>
+  </si>
+  <si>
+    <t>Verify Patient Payable 
+Eg:Patient payable :60.50
+Enter Cash amount:30.00
+Cash Settled:30.00
+Total settled:60.00
+pending Amount:0.50</t>
+  </si>
+  <si>
+    <t>User should be able to enter amount in cash</t>
+  </si>
+  <si>
+    <t>Cash:30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Cheque/DD/Bank Transfer
+</t>
+  </si>
+  <si>
+    <t>User should be able to enter amount in Cheque/DD/Bank Transfer</t>
+  </si>
+  <si>
+    <t>Cheque/DD:30..</t>
+  </si>
+  <si>
+    <t>Enter all the mandatory fields
+1.Payment type
+2.Cheque/DD.No
+3.Date
+4.Bank</t>
+  </si>
+  <si>
+    <t>User should be able to enter data in to all the mandatory fields
+1.Payment type
+2.Cheque/DD.No
+3.Date
+4.Bank</t>
+  </si>
+  <si>
+    <t>1.Payment type:Bank transfer
+2.Cheque/DD.No:125
+3.Date:7/6/19
+4.Bank:BANK TRANSFER-NSC</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0127</t>
+  </si>
+  <si>
+    <t>To verify that Partial payment by Cash and Cheque/DD with payment type in Consolidated OP Bill</t>
+  </si>
+  <si>
+    <t>User should be able to enter data in to all the mandatory fields
+1.Payment type:Gift voucher/Cheque
+2.Cheque/DD.No
+3.Date
+4.Bank</t>
+  </si>
+  <si>
+    <t>1.Payment type:Gift Voucher /Cheque
+2.Cheque/DD.No:125
+3.Date:7/6/19
+4.Bank:BANK TRANSFER-NSC</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0128</t>
+  </si>
+  <si>
+    <t>To verify that Partial payment by Cash and Credit/Debit Card</t>
+  </si>
+  <si>
+    <t>Enter value in Credit/Debit card field</t>
+  </si>
+  <si>
+    <t>User should be able to enter the value in Credit/Debit field</t>
+  </si>
+  <si>
+    <t>Credit/Debit :30.00</t>
+  </si>
+  <si>
+    <t>Enter data in all the mandatory fields
+1.Card No
+2.Auth.Code
+3.Swiping machine</t>
+  </si>
+  <si>
+    <t>User should be able to enter data in all the mandatory fields
+1.Card No
+2.Auth.Code
+3.Swiping machine</t>
+  </si>
+  <si>
+    <t>1.Card No:125
+2.Auth.Code:458
+3.Swiping machine:ADIB BANK MACHINE-NSC</t>
+  </si>
+  <si>
+    <t>Click on Partial Pay Only</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0129</t>
+  </si>
+  <si>
+    <t>To verify that Partial payment by Cheque/DD/ and Credit/Debit Card</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that Summary Print patial payment patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case MED_Out_Patient_TC_0130 same as step upto 14 </t>
+  </si>
+  <si>
+    <t>Click on Summary Print</t>
+  </si>
+  <si>
+    <t>User should be able to print and view Outpatient Invoice report</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that Detailed Print patial payment patient </t>
+  </si>
+  <si>
+    <t>Click on Detailed Print</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that receipt Print patial payment patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Consolidated Bill&amp; Receipt Print' pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Click on print icon in Summary print,detailed Print,Receipt print</t>
+  </si>
+  <si>
+    <t>Outpatient Invoice(cash),Receipt voucher reports should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigated to  'Consolidated Bill&amp; Receipt Print' pop-up </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Consolidated Bill&amp; receipt Print' pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Click on print icon in Summary print,detailed Print,receipt print</t>
+  </si>
+  <si>
+    <t>Outpatient Invoice(cash),receipt voucher reports should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigated to  'Consolidated Bill&amp; receipt Print' pop-up </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Consolidated Bill&amp; receipt Print' pop-up with printers should be displayed</t>
+  </si>
+  <si>
+    <t>Click on Receipt Print</t>
+  </si>
+  <si>
+    <t>User should be able to print and view Receipt Voucher report</t>
   </si>
 </sst>
 </file>
@@ -3278,13 +3602,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3621,11 +3945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9C3D31-C5E0-4697-A93F-78D6BCE0E40D}">
-  <dimension ref="A1:S1197"/>
+  <dimension ref="A1:S1357"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1202" sqref="D1202"/>
+      <pane ySplit="1" topLeftCell="A1354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1366" sqref="C1366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,7 +3961,7 @@
     <col min="5" max="5" width="11.42578125" style="10" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" style="10" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="19" customWidth="1"/>
     <col min="9" max="9" width="27.28515625" style="10" customWidth="1"/>
     <col min="10" max="10" width="15" style="5" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
@@ -3678,13 +4002,13 @@
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="26" t="s">
@@ -3726,7 +4050,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -3904,7 +4228,7 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="E12" s="10">
         <v>6</v>
       </c>
@@ -3918,7 +4242,7 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="H13" s="5"/>
       <c r="L13" s="4"/>
     </row>
@@ -6257,7 +6581,7 @@
       <c r="L177" s="4"/>
     </row>
     <row r="178" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D178" s="19"/>
+      <c r="D178" s="20"/>
       <c r="E178" s="10">
         <v>10</v>
       </c>
@@ -15474,7 +15798,7 @@
       </c>
     </row>
     <row r="786" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D786" s="19"/>
+      <c r="D786" s="20"/>
       <c r="E786" s="10">
         <v>15</v>
       </c>
@@ -16208,7 +16532,7 @@
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D841" s="19"/>
+      <c r="D841" s="20"/>
     </row>
     <row r="842" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="10" t="s">
@@ -20642,7 +20966,7 @@
       <c r="C1175" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D1175" s="22" t="s">
+      <c r="D1175" s="25" t="s">
         <v>860</v>
       </c>
       <c r="E1175" s="10">
@@ -20653,7 +20977,7 @@
       </c>
     </row>
     <row r="1176" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D1176" s="23"/>
+      <c r="D1176" s="25"/>
       <c r="E1176" s="10">
         <v>2</v>
       </c>
@@ -20665,7 +20989,7 @@
       </c>
     </row>
     <row r="1177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D1177" s="24"/>
+      <c r="D1177" s="25"/>
       <c r="E1177" s="10">
         <v>3</v>
       </c>
@@ -20900,7 +21224,7 @@
       <c r="C1195" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D1195" s="22" t="s">
+      <c r="D1195" s="25" t="s">
         <v>872</v>
       </c>
       <c r="E1195" s="10">
@@ -20911,7 +21235,7 @@
       </c>
     </row>
     <row r="1196" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="D1196" s="23"/>
+      <c r="D1196" s="25"/>
       <c r="E1196" s="10">
         <v>2</v>
       </c>
@@ -20923,7 +21247,7 @@
       </c>
     </row>
     <row r="1197" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D1197" s="24"/>
+      <c r="D1197" s="25"/>
       <c r="E1197" s="10">
         <v>3</v>
       </c>
@@ -20934,37 +21258,2099 @@
         <v>478</v>
       </c>
     </row>
+    <row r="1199" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1199" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="B1199" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1199" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1199" s="25" t="s">
+        <v>897</v>
+      </c>
+      <c r="E1199" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1199" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1199" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1199" s="5"/>
+      <c r="I1199" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1200" s="25"/>
+      <c r="E1200" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1200" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1200" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1200" s="5"/>
+    </row>
+    <row r="1201" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1201" s="25"/>
+      <c r="E1201" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1201" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1201" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1201" s="5"/>
+    </row>
+    <row r="1202" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1202" s="25"/>
+      <c r="E1202" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1202" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1202" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1202" s="5"/>
+    </row>
+    <row r="1203" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1203" s="25"/>
+      <c r="E1203" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1203" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1203" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1203" s="5"/>
+      <c r="I1203" s="10" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1204" s="25"/>
+      <c r="E1204" s="10">
+        <v>6</v>
+      </c>
+      <c r="F1204" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="G1204" s="10" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1205" s="25"/>
+      <c r="E1205" s="10">
+        <v>7</v>
+      </c>
+      <c r="F1205" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1205" s="10" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="D1206" s="25"/>
+      <c r="E1206" s="10">
+        <v>8</v>
+      </c>
+      <c r="F1206" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="G1206" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="I1206" s="10" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1207" s="25"/>
+      <c r="E1207" s="10">
+        <v>9</v>
+      </c>
+      <c r="F1207" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="G1207" s="10" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1208" s="25"/>
+      <c r="E1208" s="10">
+        <v>10</v>
+      </c>
+      <c r="F1208" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="G1208" s="10" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1209" s="25"/>
+      <c r="E1209" s="10">
+        <v>11</v>
+      </c>
+      <c r="F1209" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1209" s="10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1210" s="25"/>
+      <c r="E1210" s="10">
+        <v>12</v>
+      </c>
+      <c r="F1210" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1210" s="10" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1211" s="25"/>
+      <c r="E1211" s="10">
+        <v>13</v>
+      </c>
+      <c r="F1211" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="G1211" s="10" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1212" s="25"/>
+      <c r="E1212" s="10">
+        <v>14</v>
+      </c>
+      <c r="F1212" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1212" s="10" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1213" s="25"/>
+      <c r="E1213" s="10">
+        <v>15</v>
+      </c>
+      <c r="F1213" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1213" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1215" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="B1215" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1215" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1215" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="E1215" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1215" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1215" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1215" s="5"/>
+      <c r="I1215" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1216" s="25"/>
+      <c r="E1216" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1216" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1216" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1216" s="5"/>
+    </row>
+    <row r="1217" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1217" s="25"/>
+      <c r="E1217" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1217" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1217" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1217" s="5"/>
+    </row>
+    <row r="1218" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1218" s="25"/>
+      <c r="E1218" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1218" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1218" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1218" s="5"/>
+    </row>
+    <row r="1219" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1219" s="25"/>
+      <c r="E1219" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1219" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1219" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1219" s="5"/>
+      <c r="I1219" s="10" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1220" s="25"/>
+      <c r="E1220" s="10">
+        <v>6</v>
+      </c>
+      <c r="F1220" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="G1220" s="10" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1221" s="25"/>
+      <c r="E1221" s="10">
+        <v>7</v>
+      </c>
+      <c r="F1221" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1221" s="10" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="D1222" s="25"/>
+      <c r="E1222" s="10">
+        <v>8</v>
+      </c>
+      <c r="F1222" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="G1222" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="I1222" s="10" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1223" s="25"/>
+      <c r="E1223" s="10">
+        <v>9</v>
+      </c>
+      <c r="F1223" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="G1223" s="10" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1224" s="25"/>
+      <c r="E1224" s="10">
+        <v>10</v>
+      </c>
+      <c r="F1224" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="G1224" s="10" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1225" s="25"/>
+      <c r="E1225" s="10">
+        <v>11</v>
+      </c>
+      <c r="F1225" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1225" s="10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1226" s="25"/>
+      <c r="E1226" s="10">
+        <v>12</v>
+      </c>
+      <c r="F1226" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1226" s="10" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1227" s="25"/>
+      <c r="E1227" s="10">
+        <v>13</v>
+      </c>
+      <c r="F1227" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="G1227" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1228" s="25"/>
+      <c r="E1228" s="10">
+        <v>14</v>
+      </c>
+      <c r="F1228" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1228" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1229" s="25"/>
+      <c r="E1229" s="10">
+        <v>15</v>
+      </c>
+      <c r="F1229" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1229" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1231" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="B1231" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1231" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1231" s="25" t="s">
+        <v>903</v>
+      </c>
+      <c r="E1231" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1231" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1231" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1231" s="5"/>
+      <c r="I1231" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1232" s="25"/>
+      <c r="E1232" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1232" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1232" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1232" s="5"/>
+    </row>
+    <row r="1233" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1233" s="25"/>
+      <c r="E1233" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1233" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1233" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1233" s="5"/>
+    </row>
+    <row r="1234" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1234" s="25"/>
+      <c r="E1234" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1234" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1234" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1234" s="5"/>
+    </row>
+    <row r="1235" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1235" s="25"/>
+      <c r="E1235" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1235" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1235" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1235" s="5"/>
+      <c r="I1235" s="10" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1236" s="25"/>
+      <c r="E1236" s="10">
+        <v>6</v>
+      </c>
+      <c r="F1236" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="G1236" s="10" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1237" s="25"/>
+      <c r="E1237" s="10">
+        <v>7</v>
+      </c>
+      <c r="F1237" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1237" s="10" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="D1238" s="25"/>
+      <c r="E1238" s="10">
+        <v>8</v>
+      </c>
+      <c r="F1238" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="G1238" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="I1238" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1239" s="25"/>
+      <c r="E1239" s="10">
+        <v>9</v>
+      </c>
+      <c r="F1239" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="G1239" s="10" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1240" s="25"/>
+      <c r="E1240" s="10">
+        <v>10</v>
+      </c>
+      <c r="F1240" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1240" s="10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1241" s="25"/>
+      <c r="E1241" s="10">
+        <v>11</v>
+      </c>
+      <c r="F1241" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1241" s="10" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1242" s="25"/>
+      <c r="E1242" s="10">
+        <v>12</v>
+      </c>
+      <c r="F1242" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="G1242" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1243" s="25"/>
+      <c r="E1243" s="10">
+        <v>13</v>
+      </c>
+      <c r="F1243" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1243" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1244" s="25"/>
+      <c r="E1244" s="10">
+        <v>14</v>
+      </c>
+      <c r="F1244" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1244" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1246" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="B1246" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1246" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1246" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1246" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1246" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1246" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1246" s="5"/>
+      <c r="I1246" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1247" s="25"/>
+      <c r="E1247" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1247" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1247" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1247" s="5"/>
+    </row>
+    <row r="1248" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1248" s="25"/>
+      <c r="E1248" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1248" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1248" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1248" s="5"/>
+    </row>
+    <row r="1249" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1249" s="25"/>
+      <c r="E1249" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1249" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1249" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1249" s="5"/>
+    </row>
+    <row r="1250" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1250" s="25"/>
+      <c r="E1250" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1250" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1250" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1250" s="5"/>
+      <c r="I1250" s="10" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1251" s="25"/>
+      <c r="E1251" s="10">
+        <v>6</v>
+      </c>
+      <c r="F1251" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="G1251" s="10" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1252" s="25"/>
+      <c r="E1252" s="10">
+        <v>7</v>
+      </c>
+      <c r="F1252" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1252" s="10" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1253" s="25"/>
+      <c r="E1253" s="10">
+        <v>8</v>
+      </c>
+      <c r="F1253" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1253" s="10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1254" s="25"/>
+      <c r="E1254" s="10">
+        <v>9</v>
+      </c>
+      <c r="F1254" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="G1254" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1255" s="25"/>
+      <c r="E1255" s="10">
+        <v>10</v>
+      </c>
+      <c r="F1255" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="G1255" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="I1255" s="10" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1256" s="25"/>
+      <c r="E1256" s="10">
+        <v>11</v>
+      </c>
+      <c r="F1256" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1256" s="10" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1257" s="25"/>
+      <c r="E1257" s="10">
+        <v>12</v>
+      </c>
+      <c r="F1257" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="G1257" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1258" s="25"/>
+      <c r="E1258" s="10">
+        <v>13</v>
+      </c>
+      <c r="F1258" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1258" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1259" s="25"/>
+      <c r="E1259" s="10">
+        <v>14</v>
+      </c>
+      <c r="F1259" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1259" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1261" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="B1261" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1261" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1261" s="25" t="s">
+        <v>915</v>
+      </c>
+      <c r="E1261" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1261" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1261" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1261" s="5"/>
+      <c r="I1261" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1262" s="25"/>
+      <c r="E1262" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1262" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1262" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1262" s="5"/>
+    </row>
+    <row r="1263" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1263" s="25"/>
+      <c r="E1263" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1263" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1263" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1263" s="5"/>
+    </row>
+    <row r="1264" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1264" s="25"/>
+      <c r="E1264" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1264" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1264" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1264" s="5"/>
+    </row>
+    <row r="1265" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1265" s="25"/>
+      <c r="E1265" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1265" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1265" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1265" s="5"/>
+      <c r="I1265" s="10" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1266" s="25"/>
+      <c r="E1266" s="10">
+        <v>6</v>
+      </c>
+      <c r="F1266" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="G1266" s="10" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1267" s="25"/>
+      <c r="E1267" s="10">
+        <v>7</v>
+      </c>
+      <c r="F1267" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1267" s="10" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1268" s="25"/>
+      <c r="E1268" s="10">
+        <v>8</v>
+      </c>
+      <c r="F1268" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1268" s="10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1269" s="25"/>
+      <c r="E1269" s="10">
+        <v>9</v>
+      </c>
+      <c r="F1269" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="G1269" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1270" s="25"/>
+      <c r="E1270" s="10">
+        <v>10</v>
+      </c>
+      <c r="F1270" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="G1270" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="I1270" s="10" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1271" s="25"/>
+      <c r="E1271" s="10">
+        <v>11</v>
+      </c>
+      <c r="F1271" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1271" s="10" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1272" s="25"/>
+      <c r="E1272" s="10">
+        <v>12</v>
+      </c>
+      <c r="F1272" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="G1272" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1273" s="25"/>
+      <c r="E1273" s="10">
+        <v>13</v>
+      </c>
+      <c r="F1273" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1273" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1274" s="25"/>
+      <c r="E1274" s="10">
+        <v>14</v>
+      </c>
+      <c r="F1274" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1274" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1276" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="B1276" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1276" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1276" s="25" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1276" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1276" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1276" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1276" s="5"/>
+      <c r="I1276" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1277" s="25"/>
+      <c r="E1277" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1277" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1277" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1277" s="5"/>
+    </row>
+    <row r="1278" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1278" s="25"/>
+      <c r="E1278" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1278" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1278" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1278" s="5"/>
+    </row>
+    <row r="1279" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1279" s="25"/>
+      <c r="E1279" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1279" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1279" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1279" s="5"/>
+    </row>
+    <row r="1280" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1280" s="25"/>
+      <c r="E1280" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1280" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1280" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1280" s="5"/>
+      <c r="I1280" s="10" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1281" s="25"/>
+      <c r="E1281" s="10">
+        <v>6</v>
+      </c>
+      <c r="F1281" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="G1281" s="10" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1282" s="25"/>
+      <c r="E1282" s="10">
+        <v>7</v>
+      </c>
+      <c r="F1282" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1282" s="10" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1283" s="25"/>
+      <c r="E1283" s="10">
+        <v>8</v>
+      </c>
+      <c r="F1283" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1283" s="10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="D1284" s="25"/>
+      <c r="E1284" s="10">
+        <v>9</v>
+      </c>
+      <c r="F1284" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1284" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="I1284" s="10" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1285" s="25"/>
+      <c r="E1285" s="10">
+        <v>10</v>
+      </c>
+      <c r="F1285" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1285" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="I1285" s="10" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="D1286" s="25"/>
+      <c r="E1286" s="10">
+        <v>11</v>
+      </c>
+      <c r="F1286" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="G1286" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="I1286" s="10" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1287" s="25"/>
+      <c r="E1287" s="10">
+        <v>12</v>
+      </c>
+      <c r="F1287" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1287" s="10" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1288" s="25"/>
+      <c r="E1288" s="10">
+        <v>13</v>
+      </c>
+      <c r="F1288" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="G1288" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1289" s="25"/>
+      <c r="E1289" s="10">
+        <v>14</v>
+      </c>
+      <c r="F1289" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1289" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1290" s="25"/>
+      <c r="E1290" s="10">
+        <v>15</v>
+      </c>
+      <c r="F1290" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1290" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1292" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1292" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1292" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1292" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="E1292" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1292" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1292" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1292" s="5"/>
+      <c r="I1292" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1293" s="25"/>
+      <c r="E1293" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1293" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1293" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1293" s="5"/>
+    </row>
+    <row r="1294" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1294" s="25"/>
+      <c r="E1294" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1294" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1294" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1294" s="5"/>
+    </row>
+    <row r="1295" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1295" s="25"/>
+      <c r="E1295" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1295" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1295" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1295" s="5"/>
+    </row>
+    <row r="1296" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1296" s="25"/>
+      <c r="E1296" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1296" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1296" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1296" s="5"/>
+      <c r="I1296" s="10" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1297" s="25"/>
+      <c r="E1297" s="10">
+        <v>6</v>
+      </c>
+      <c r="F1297" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="G1297" s="10" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1298" s="25"/>
+      <c r="E1298" s="10">
+        <v>7</v>
+      </c>
+      <c r="F1298" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1298" s="10" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1299" s="25"/>
+      <c r="E1299" s="10">
+        <v>8</v>
+      </c>
+      <c r="F1299" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1299" s="10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="D1300" s="25"/>
+      <c r="E1300" s="10">
+        <v>9</v>
+      </c>
+      <c r="F1300" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1300" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="I1300" s="10" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1301" s="25"/>
+      <c r="E1301" s="10">
+        <v>10</v>
+      </c>
+      <c r="F1301" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1301" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="I1301" s="10" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="D1302" s="25"/>
+      <c r="E1302" s="10">
+        <v>11</v>
+      </c>
+      <c r="F1302" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="G1302" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="I1302" s="10" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1303" s="25"/>
+      <c r="E1303" s="10">
+        <v>12</v>
+      </c>
+      <c r="F1303" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="G1303" s="10" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1304" s="25"/>
+      <c r="E1304" s="10">
+        <v>13</v>
+      </c>
+      <c r="F1304" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1304" s="10" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1305" s="25"/>
+      <c r="E1305" s="10">
+        <v>14</v>
+      </c>
+      <c r="F1305" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="G1305" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1306" s="25"/>
+      <c r="E1306" s="10">
+        <v>15</v>
+      </c>
+      <c r="F1306" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1306" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1307" s="25"/>
+      <c r="E1307" s="10">
+        <v>16</v>
+      </c>
+      <c r="F1307" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1307" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1309" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1309" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1309" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1309" s="25" t="s">
+        <v>937</v>
+      </c>
+      <c r="E1309" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1309" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1309" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1309" s="5"/>
+      <c r="I1309" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1310" s="25"/>
+      <c r="E1310" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1310" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1310" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1310" s="5"/>
+    </row>
+    <row r="1311" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1311" s="25"/>
+      <c r="E1311" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1311" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1311" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1311" s="5"/>
+    </row>
+    <row r="1312" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1312" s="25"/>
+      <c r="E1312" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1312" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1312" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1312" s="5"/>
+    </row>
+    <row r="1313" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1313" s="25"/>
+      <c r="E1313" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1313" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1313" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1313" s="5"/>
+      <c r="I1313" s="10" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1314" s="25"/>
+      <c r="E1314" s="10">
+        <v>6</v>
+      </c>
+      <c r="F1314" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="G1314" s="10" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1315" s="25"/>
+      <c r="E1315" s="10">
+        <v>7</v>
+      </c>
+      <c r="F1315" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1315" s="10" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1316" s="25"/>
+      <c r="E1316" s="10">
+        <v>8</v>
+      </c>
+      <c r="F1316" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1316" s="10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="D1317" s="25"/>
+      <c r="E1317" s="10">
+        <v>9</v>
+      </c>
+      <c r="F1317" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1317" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="I1317" s="10" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1318" s="25"/>
+      <c r="E1318" s="10">
+        <v>10</v>
+      </c>
+      <c r="F1318" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="G1318" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="I1318" s="10" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="D1319" s="25"/>
+      <c r="E1319" s="10">
+        <v>11</v>
+      </c>
+      <c r="F1319" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="G1319" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="I1319" s="10" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1320" s="25"/>
+      <c r="E1320" s="10">
+        <v>12</v>
+      </c>
+      <c r="F1320" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="G1320" s="10" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1321" s="25"/>
+      <c r="E1321" s="10">
+        <v>13</v>
+      </c>
+      <c r="F1321" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1321" s="10" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1322" s="25"/>
+      <c r="E1322" s="10">
+        <v>14</v>
+      </c>
+      <c r="F1322" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="G1322" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1323" s="25"/>
+      <c r="E1323" s="10">
+        <v>15</v>
+      </c>
+      <c r="F1323" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1323" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1324" s="25"/>
+      <c r="E1324" s="10">
+        <v>16</v>
+      </c>
+      <c r="F1324" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1324" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1326" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="B1326" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1326" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1326" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="E1326" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1326" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1326" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1326" s="5"/>
+      <c r="I1326" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1327" s="25"/>
+      <c r="E1327" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1327" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1327" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1327" s="5"/>
+    </row>
+    <row r="1328" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1328" s="25"/>
+      <c r="E1328" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1328" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1328" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1328" s="5"/>
+    </row>
+    <row r="1329" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1329" s="25"/>
+      <c r="E1329" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1329" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1329" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1329" s="5"/>
+    </row>
+    <row r="1330" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1330" s="25"/>
+      <c r="E1330" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1330" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1330" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1330" s="5"/>
+      <c r="I1330" s="10" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1331" s="25"/>
+      <c r="E1331" s="10">
+        <v>6</v>
+      </c>
+      <c r="F1331" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="G1331" s="10" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D1332" s="25"/>
+      <c r="E1332" s="10">
+        <v>7</v>
+      </c>
+      <c r="F1332" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1332" s="10" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1333" s="25"/>
+      <c r="E1333" s="10">
+        <v>8</v>
+      </c>
+      <c r="F1333" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1333" s="10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1334" s="25"/>
+      <c r="E1334" s="10">
+        <v>9</v>
+      </c>
+      <c r="F1334" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1334" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="I1334" s="10" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="D1335" s="25"/>
+      <c r="E1335" s="10">
+        <v>10</v>
+      </c>
+      <c r="F1335" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="G1335" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="I1335" s="10" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1336" s="25"/>
+      <c r="E1336" s="10">
+        <v>11</v>
+      </c>
+      <c r="F1336" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="G1336" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="I1336" s="10" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="D1337" s="25"/>
+      <c r="E1337" s="10">
+        <v>12</v>
+      </c>
+      <c r="F1337" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="G1337" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="I1337" s="10" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1338" s="25"/>
+      <c r="E1338" s="10">
+        <v>13</v>
+      </c>
+      <c r="F1338" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="G1338" s="10" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1339" s="25"/>
+      <c r="E1339" s="10">
+        <v>14</v>
+      </c>
+      <c r="F1339" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1339" s="10" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1340" s="25"/>
+      <c r="E1340" s="10">
+        <v>15</v>
+      </c>
+      <c r="F1340" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="G1340" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1341" s="25"/>
+      <c r="E1341" s="10">
+        <v>16</v>
+      </c>
+      <c r="F1341" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1341" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1342" s="25"/>
+      <c r="E1342" s="10">
+        <v>17</v>
+      </c>
+      <c r="F1342" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1342" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1344" s="10" t="s">
+        <v>947</v>
+      </c>
+      <c r="B1344" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1344" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1344" s="22" t="s">
+        <v>948</v>
+      </c>
+      <c r="E1344" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1344" s="10" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1345" s="23"/>
+      <c r="E1345" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1345" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="G1345" s="10" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1346" s="23"/>
+      <c r="E1346" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1346" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1346" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1347" s="24"/>
+      <c r="E1347" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1347" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1347" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1349" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="B1349" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1349" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1349" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="E1349" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1349" s="10" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1350" s="23"/>
+      <c r="E1350" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1350" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="G1350" s="10" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1351" s="23"/>
+      <c r="E1351" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1351" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1351" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1352" s="24"/>
+      <c r="E1352" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1352" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1352" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1354" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="B1354" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1354" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1354" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="E1354" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1354" s="10" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1355" s="23"/>
+      <c r="E1355" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1355" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="G1355" s="10" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1356" s="23"/>
+      <c r="E1356" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1356" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1356" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1357" s="24"/>
+      <c r="E1357" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1357" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1357" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="112">
-    <mergeCell ref="D1175:D1177"/>
-    <mergeCell ref="D1179:D1193"/>
-    <mergeCell ref="D1195:D1197"/>
-    <mergeCell ref="D1125:D1137"/>
-    <mergeCell ref="D1139:D1141"/>
-    <mergeCell ref="D1143:D1155"/>
-    <mergeCell ref="D1157:D1159"/>
+  <mergeCells count="124">
     <mergeCell ref="D1161:D1173"/>
     <mergeCell ref="D1089:D1099"/>
     <mergeCell ref="D1101:D1111"/>
     <mergeCell ref="D1113:D1123"/>
+    <mergeCell ref="D1292:D1307"/>
+    <mergeCell ref="D1309:D1324"/>
+    <mergeCell ref="D1326:D1342"/>
+    <mergeCell ref="D1344:D1347"/>
+    <mergeCell ref="D1349:D1352"/>
+    <mergeCell ref="D1354:D1357"/>
+    <mergeCell ref="D842:D854"/>
+    <mergeCell ref="D857:D864"/>
+    <mergeCell ref="D866:D873"/>
+    <mergeCell ref="D875:D885"/>
+    <mergeCell ref="D812:D824"/>
+    <mergeCell ref="D826:D830"/>
+    <mergeCell ref="D832:D840"/>
     <mergeCell ref="D1062:D1071"/>
     <mergeCell ref="D1073:D1075"/>
-    <mergeCell ref="D1077:D1087"/>
     <mergeCell ref="D1030:D1037"/>
     <mergeCell ref="D1039:D1048"/>
     <mergeCell ref="D1050:D1060"/>
     <mergeCell ref="D992:D1004"/>
     <mergeCell ref="D1006:D1015"/>
     <mergeCell ref="D1017:D1028"/>
-    <mergeCell ref="D957:D966"/>
-    <mergeCell ref="D968:D976"/>
-    <mergeCell ref="D978:D990"/>
     <mergeCell ref="D701:D707"/>
     <mergeCell ref="D661:D667"/>
     <mergeCell ref="D669:D675"/>
     <mergeCell ref="D677:D683"/>
     <mergeCell ref="D685:D691"/>
     <mergeCell ref="D693:D699"/>
+    <mergeCell ref="D772:D785"/>
+    <mergeCell ref="D788:D806"/>
+    <mergeCell ref="D808:D810"/>
+    <mergeCell ref="D709:D714"/>
+    <mergeCell ref="D716:D728"/>
+    <mergeCell ref="D730:D742"/>
+    <mergeCell ref="D744:D756"/>
+    <mergeCell ref="D758:D770"/>
     <mergeCell ref="D620:D627"/>
     <mergeCell ref="D629:D635"/>
     <mergeCell ref="D637:D643"/>
@@ -20984,6 +23370,15 @@
     <mergeCell ref="D455:D464"/>
     <mergeCell ref="D467:D476"/>
     <mergeCell ref="D479:D482"/>
+    <mergeCell ref="D347:D353"/>
+    <mergeCell ref="D356:D364"/>
+    <mergeCell ref="D292:D301"/>
+    <mergeCell ref="D304:D313"/>
+    <mergeCell ref="D180:D190"/>
+    <mergeCell ref="D192:D200"/>
+    <mergeCell ref="D202:D210"/>
+    <mergeCell ref="D212:D220"/>
+    <mergeCell ref="D222:D228"/>
     <mergeCell ref="D230:D237"/>
     <mergeCell ref="D239:D248"/>
     <mergeCell ref="D250:D256"/>
@@ -20993,25 +23388,6 @@
     <mergeCell ref="D282:D289"/>
     <mergeCell ref="D330:D337"/>
     <mergeCell ref="D339:D345"/>
-    <mergeCell ref="D347:D353"/>
-    <mergeCell ref="D356:D364"/>
-    <mergeCell ref="D292:D301"/>
-    <mergeCell ref="D304:D313"/>
-    <mergeCell ref="D180:D190"/>
-    <mergeCell ref="D192:D200"/>
-    <mergeCell ref="D202:D210"/>
-    <mergeCell ref="D212:D220"/>
-    <mergeCell ref="D222:D228"/>
-    <mergeCell ref="D135:D143"/>
-    <mergeCell ref="D145:D149"/>
-    <mergeCell ref="D151:D158"/>
-    <mergeCell ref="D160:D167"/>
-    <mergeCell ref="D169:D177"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="D94:D103"/>
-    <mergeCell ref="D105:D114"/>
-    <mergeCell ref="D116:D123"/>
-    <mergeCell ref="D125:D133"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="D59:D63"/>
@@ -21026,21 +23402,20 @@
     <mergeCell ref="D383:D395"/>
     <mergeCell ref="D397:D407"/>
     <mergeCell ref="D409:D420"/>
-    <mergeCell ref="D772:D785"/>
-    <mergeCell ref="D788:D806"/>
-    <mergeCell ref="D808:D810"/>
-    <mergeCell ref="D709:D714"/>
-    <mergeCell ref="D716:D728"/>
-    <mergeCell ref="D730:D742"/>
-    <mergeCell ref="D744:D756"/>
-    <mergeCell ref="D758:D770"/>
-    <mergeCell ref="D842:D854"/>
-    <mergeCell ref="D857:D864"/>
-    <mergeCell ref="D866:D873"/>
-    <mergeCell ref="D875:D885"/>
-    <mergeCell ref="D812:D824"/>
-    <mergeCell ref="D826:D830"/>
-    <mergeCell ref="D832:D840"/>
+    <mergeCell ref="D135:D143"/>
+    <mergeCell ref="D145:D149"/>
+    <mergeCell ref="D151:D158"/>
+    <mergeCell ref="D160:D167"/>
+    <mergeCell ref="D169:D177"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="D94:D103"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="D116:D123"/>
+    <mergeCell ref="D125:D133"/>
+    <mergeCell ref="D1231:D1244"/>
+    <mergeCell ref="D1246:D1259"/>
+    <mergeCell ref="D1261:D1274"/>
+    <mergeCell ref="D1276:D1290"/>
     <mergeCell ref="D928:D936"/>
     <mergeCell ref="D938:D946"/>
     <mergeCell ref="D948:D955"/>
@@ -21048,15 +23423,28 @@
     <mergeCell ref="D896:D907"/>
     <mergeCell ref="D909:D917"/>
     <mergeCell ref="D919:D926"/>
+    <mergeCell ref="D1199:D1213"/>
+    <mergeCell ref="D1215:D1229"/>
+    <mergeCell ref="D957:D966"/>
+    <mergeCell ref="D968:D976"/>
+    <mergeCell ref="D978:D990"/>
+    <mergeCell ref="D1077:D1087"/>
+    <mergeCell ref="D1175:D1177"/>
+    <mergeCell ref="D1179:D1193"/>
+    <mergeCell ref="D1195:D1197"/>
+    <mergeCell ref="D1125:D1137"/>
+    <mergeCell ref="D1139:D1141"/>
+    <mergeCell ref="D1143:D1155"/>
+    <mergeCell ref="D1157:D1159"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C656:C660 C662:C668 C670:C676 C678:C684 C686:C692 C694:C700 C702:C708 C710:C715 C717:C725" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B7 B14 B21 B28 B35 B40 B45 B48 B51 B55 B58:B59 B65 B73 B83 B94 B105 B116 B125 B135 B145 B151 B160 B169 B180 B192 B202 B212 B222 B230 B239 B250 B258 B264 B270 B282 B292 B304 B316 B330 B339 B347 B356 B366 B376 B383 B397 B409 B422 B432 B443 B455 B467 B479 B484 B494 B505 B516 B532 B546 B562 B577 B592 B602 B611 B620 B629 B637 B645 B653 B661 B669 B677 B685 B693 B701 B709 B716 B730 B744 B758 B772 B788 B808 B812 B826 B832 B842 B857 B866 B875 B887 B896 B909 B919 B928 B938 B948 B957 B968 B978 B992 B1006 B1017 B1030 B1039 B1050 B1062 B1073 B1077 B1089 B1101 B1113 B1125 B1139 B1143 B1157 B1161 B1175 B1179 B1195" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B7 B14 B21 B28 B35 B40 B45 B48 B51 B55 B58:B59 B65 B73 B83 B94 B105 B116 B125 B135 B145 B151 B160 B169 B180 B192 B202 B212 B222 B230 B239 B250 B258 B264 B270 B282 B292 B304 B316 B330 B339 B347 B356 B366 B376 B383 B397 B409 B422 B432 B443 B455 B467 B479 B484 B494 B505 B516 B532 B546 B562 B577 B592 B602 B611 B620 B629 B637 B645 B653 B661 B669 B677 B685 B693 B701 B709 B716 B730 B744 B758 B772 B788 B808 B812 B826 B832 B842 B857 B866 B875 B887 B896 B909 B919 B928 B938 B948 B957 B968 B978 B992 B1006 B1017 B1030 B1039 B1050 B1062 B1073 B1077 B1089 B1101 B1113 B1125 B1139 B1143 B1157 B1161 B1175 B1179 B1195 B1199 B1215 B1231 B1246 B1261 B1276 B1292 B1309 B1326 B1344 B1349 B1354" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K478 C2:C655 C661 C669 C677 C685 C693 C701 C709 C716 C730 C744 C758 C772 C788 C808 C812 C826 C832 C842 C857 C866 C875 C887 C896 C909 C919 C928 C938 C948 C957 C968 C978 C992 C1006 C1017 C1030 C1039 C1050 C1062 C1073 C1077 C1089 C1101 C1113 C1125 C1139 C1143 C1157 C1161 C1175 C1179 C1195" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K478 C2:C655 C661 C669 C677 C685 C693 C701 C709 C716 C730 C744 C758 C772 C788 C808 C812 C826 C832 C842 C857 C866 C875 C887 C896 C909 C919 C928 C938 C948 C957 C968 C978 C992 C1006 C1017 C1030 C1039 C1050 C1062 C1073 C1077 C1089 C1101 C1113 C1125 C1139 C1143 C1157 C1161 C1175 C1179 C1195 C1199 C1215 C1231 C1246 C1261 C1276 C1292 C1309 C1326 C1344 C1349 C1354" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K479:K684" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
@@ -21171,8 +23559,17 @@
     <hyperlink ref="I1143" r:id="rId102" xr:uid="{CE7A863E-9B10-409E-97D9-CBB71C1E9875}"/>
     <hyperlink ref="I1161" r:id="rId103" xr:uid="{80F6C824-9F89-4D36-99A5-59D02160626A}"/>
     <hyperlink ref="I1179" r:id="rId104" xr:uid="{83688906-92C6-4B23-96BB-4799396B7297}"/>
+    <hyperlink ref="I1199" r:id="rId105" xr:uid="{76286E49-B982-43C5-854D-8A83B2773211}"/>
+    <hyperlink ref="I1215" r:id="rId106" xr:uid="{E4EF370E-BFD8-49F3-A5FA-CD7B0D7353FC}"/>
+    <hyperlink ref="I1231" r:id="rId107" xr:uid="{4EA9CFB5-CE3B-4ADF-BEE4-A6B1387CA079}"/>
+    <hyperlink ref="I1246" r:id="rId108" xr:uid="{06F72D5F-1E9A-4CDC-BC82-2842DBBA7411}"/>
+    <hyperlink ref="I1261" r:id="rId109" xr:uid="{3A4D8B8F-83F7-46C6-9A5A-09192ADD5316}"/>
+    <hyperlink ref="I1276" r:id="rId110" xr:uid="{C50C7220-58E1-4891-896E-81523525B3AF}"/>
+    <hyperlink ref="I1292" r:id="rId111" xr:uid="{D7827C28-E5B9-4932-AE74-4406D12299D3}"/>
+    <hyperlink ref="I1309" r:id="rId112" xr:uid="{980B50A8-D882-45AC-A691-9DB0761E96E6}"/>
+    <hyperlink ref="I1326" r:id="rId113" xr:uid="{DE7BF885-BF7A-4E49-BCEE-1B584CBF5DBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId105"/>
+  <pageSetup orientation="portrait" r:id="rId114"/>
 </worksheet>
 </file>
--- a/Test Case/Poornima/Test Case- Out Patient.xlsx
+++ b/Test Case/Poornima/Test Case- Out Patient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mediware\CentralRepository-Mediware\Test Case\Poornima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38A4196-0535-424A-A7AC-A5472F13D846}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2CA414-712E-41CA-B93B-0B68538551E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5040" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5643" uniqueCount="1575">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -4935,6 +4930,477 @@
   </si>
   <si>
     <t>User should be able to select the check box Cash</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0201</t>
+  </si>
+  <si>
+    <t>Processing pharmacy Billing with Payment Type 'Credit'  in patient Query</t>
+  </si>
+  <si>
+    <t>User should be able to select the check box Credit</t>
+  </si>
+  <si>
+    <t>Counter Billing summary report should be displayed.Verify payment type should be view as 'Credit' in report</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0202</t>
+  </si>
+  <si>
+    <t>Processing pharmacy Billing with Payment Type 'Complimentary'  in patient Query</t>
+  </si>
+  <si>
+    <t>Select Payment Type as Complimentary</t>
+  </si>
+  <si>
+    <t>User should be able to select the check box Complimentary</t>
+  </si>
+  <si>
+    <t>Counter Billing summary report should be displayed.Verify payment type should be view as 'Complimentary' in report</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0203</t>
+  </si>
+  <si>
+    <t>Processing pharmacy Billing with Payment Type 'Inpatient'  in patient Query</t>
+  </si>
+  <si>
+    <t>Select Payment Type as Inpatient</t>
+  </si>
+  <si>
+    <t>User should be able to select the check box Inpatient</t>
+  </si>
+  <si>
+    <t>Counter Billing summary report should be displayed.Verify payment type should be view as 'Inpatient' in report</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0204</t>
+  </si>
+  <si>
+    <t>Processing pharmacy Billing with Payment Type 'OP-Credit'  in patient Query</t>
+  </si>
+  <si>
+    <t>Select Payment Type as OP-Credit</t>
+  </si>
+  <si>
+    <t>User should be able to select the check box OP-Credit</t>
+  </si>
+  <si>
+    <t>Counter Billing summary report should be displayed.Verify payment type should be view as 'OP-Credit' in report</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0205</t>
+  </si>
+  <si>
+    <t>User can able to viewing Lab Result in Patient Query</t>
+  </si>
+  <si>
+    <t>Click on  Lab Result</t>
+  </si>
+  <si>
+    <t>A drop  down with Ok button should be displayed</t>
+  </si>
+  <si>
+    <t>Select lab result report viewing as:
+Date wise
+or
+Normal
+or
+Test group wise</t>
+  </si>
+  <si>
+    <t>User should be able to select as:
+Date wise
+or
+Normal
+or
+Test group wise</t>
+  </si>
+  <si>
+    <t>Lab results of summary report should be displayed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0206</t>
+  </si>
+  <si>
+    <t>User can able to viewing Consolidated billing in Patient Query</t>
+  </si>
+  <si>
+    <t>Click on  Consolidated Billing</t>
+  </si>
+  <si>
+    <t>Patient Consolidate Bill summary of patient should be displayed</t>
+  </si>
+  <si>
+    <t>User should be able to print Patient Consolidate Bill Summary Report</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0207</t>
+  </si>
+  <si>
+    <t>Navigate to Patient Query page</t>
+  </si>
+  <si>
+    <t>User can able to viewing Advance Payment Details in Patient Query</t>
+  </si>
+  <si>
+    <t>Click on  Advance</t>
+  </si>
+  <si>
+    <t>Patient Advance  Summary of 'patient' should be displayed</t>
+  </si>
+  <si>
+    <t>User should be able to print Patient Advance  Summary Report</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0208</t>
+  </si>
+  <si>
+    <t>To verify Searching patient wise  Visit</t>
+  </si>
+  <si>
+    <t>Hovering on MENU &gt;&gt;click on General &gt;&gt;Patient Wise Visit Search</t>
+  </si>
+  <si>
+    <t>Patient wise visit search window should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Form And To  date </t>
+  </si>
+  <si>
+    <t>User should be able to select the From and To dates</t>
+  </si>
+  <si>
+    <t>From:1/1/19
+To:13/6/19</t>
+  </si>
+  <si>
+    <t>Patient Id NH00000041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Show button </t>
+  </si>
+  <si>
+    <t>Patient wise visit search list should be displayed with columns:
+1.Doctor
+2.Date
+3.User
+4.Fees
+5.Type</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0209</t>
+  </si>
+  <si>
+    <t>To verify Searching functionality is working from listed patient  in  patient wise  Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter data in Search section </t>
+  </si>
+  <si>
+    <t>Search:Dsoft</t>
+  </si>
+  <si>
+    <t>User should be able to enter data in search field. Verify that searched detail should be listed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Searching patients for procedure order entry in insurance approval request</t>
+  </si>
+  <si>
+    <t>Hovering on MENU &gt;&gt;click on Insurance Approvals&gt;&gt;Click on Approval Request</t>
+  </si>
+  <si>
+    <t>Procedure Order Entry window should be displayed</t>
+  </si>
+  <si>
+    <t>patient Id:NH00000041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Show </t>
+  </si>
+  <si>
+    <t>Insurance detail of a patient should be displayed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Searching patients for procedure order entry based on  Selected date in insurance approval request</t>
+  </si>
+  <si>
+    <t>Click radio button 'Procedure Requests based on  Selected Date'</t>
+  </si>
+  <si>
+    <t>User should be able to click on 'Procedure Requeste based on Selected Date'</t>
+  </si>
+  <si>
+    <t>Select dates</t>
+  </si>
+  <si>
+    <t>user should be able to select from and to date</t>
+  </si>
+  <si>
+    <t>patient Id:NH00000041
+By default selected as Visit</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0212</t>
+  </si>
+  <si>
+    <t>Viewing Investigation  in Insured patient</t>
+  </si>
+  <si>
+    <t>Click Select check box</t>
+  </si>
+  <si>
+    <t>Select checkbox should be checked.Investigation page should be displayed</t>
+  </si>
+  <si>
+    <t>patient Id:NH00000055</t>
+  </si>
+  <si>
+    <t>Click on Investigation Template</t>
+  </si>
+  <si>
+    <t>A mini window should be shown with a check box 'Select All'</t>
+  </si>
+  <si>
+    <t>Click on Select All</t>
+  </si>
+  <si>
+    <t>A list should be displayed</t>
+  </si>
+  <si>
+    <t>Insurance detail of a patient should be displayed.Verify that by default radio button 'All' should be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Data saved' message pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0213</t>
+  </si>
+  <si>
+    <t>To verify Print investigations in Insurance Approval</t>
+  </si>
+  <si>
+    <t>Test Case MED_Out Patient_TC_0212 same as upto Step ID 9</t>
+  </si>
+  <si>
+    <t>Click on Print Investigation</t>
+  </si>
+  <si>
+    <t>A pop-up should be displayed with checkboxes:
+1.laboratory
+2.Radiology
+3.Treatment Procedures
+4.Investigative Procedure
+5.All</t>
+  </si>
+  <si>
+    <t>Report should be displayed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0214</t>
+  </si>
+  <si>
+    <t>To verify that Viewing CPT Description</t>
+  </si>
+  <si>
+    <t>Click on an Eye icon(View CPT description) from the description</t>
+  </si>
+  <si>
+    <t>Verify that description name same as View CPT description
+Eg:0031-Vitamin k assay</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0215</t>
+  </si>
+  <si>
+    <t>To verify Approving Advance in Insurance Approval</t>
+  </si>
+  <si>
+    <t>To verify Add Item to list in Insurance Approval</t>
+  </si>
+  <si>
+    <t>Click a down arrow(Add item to list)icon in description section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text area should be enabled by selected category </t>
+  </si>
+  <si>
+    <t>Text area :Testacealoobosia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Qty </t>
+  </si>
+  <si>
+    <t>User should be able to enter the Qty</t>
+  </si>
+  <si>
+    <t>Set Priority as:Low
+or
+High</t>
+  </si>
+  <si>
+    <t>Priority:High</t>
+  </si>
+  <si>
+    <t>User should be able to select the priority. And by default priority should be low</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Advance Approval </t>
+  </si>
+  <si>
+    <t>A pop-up window should be displayed</t>
+  </si>
+  <si>
+    <t>Click on add</t>
+  </si>
+  <si>
+    <t>Enter the fields and advance approval should be added</t>
+  </si>
+  <si>
+    <t>Navigate to Investigation</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0217</t>
+  </si>
+  <si>
+    <t>Viewing lab result in Investigation</t>
+  </si>
+  <si>
+    <t>Select:Infertlity</t>
+  </si>
+  <si>
+    <t>A list of description should be displayed</t>
+  </si>
+  <si>
+    <t>Click on radio button 'Laboratory'</t>
+  </si>
+  <si>
+    <t>User should be able to click on laboratory.Description should be listed by laboratory items</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0218</t>
+  </si>
+  <si>
+    <t>Viewing Radiology result in Investigation</t>
+  </si>
+  <si>
+    <t>Click on radio button 'Radiology'</t>
+  </si>
+  <si>
+    <t>User should be able to click on Radiology.Description should be listed by radiology items</t>
+  </si>
+  <si>
+    <t>Select laboratory</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0219</t>
+  </si>
+  <si>
+    <t>Print lab result in Insurance Approval</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0220</t>
+  </si>
+  <si>
+    <t>Hovering on MENU &gt;&gt;click on Utilities&gt;&gt;Parameter</t>
+  </si>
+  <si>
+    <t>Parameter page should be displayed</t>
+  </si>
+  <si>
+    <t>User should be able to enter the fields
+1.registration
+2. Registration  renewal
+3.registration renewal  period
+4.Advance Booking</t>
+  </si>
+  <si>
+    <t>1.registration:500
+2. Registration  renewal:250
+3.registration renewal  period:1 Month
+4.Advance Booking:750</t>
+  </si>
+  <si>
+    <t>Enter data in Clinical Wise settings
+ 1. registration 
+2. Registration  renewal
+3.registration renewal  period
+4.Advance Booking</t>
+  </si>
+  <si>
+    <t>User can able to set Clinical Wise settings in OP Parameter</t>
+  </si>
+  <si>
+    <t>Data should be saved.Navigate to Home page</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0221</t>
+  </si>
+  <si>
+    <t>User can able to set Other settings in OP Parameter</t>
+  </si>
+  <si>
+    <t>Click on Other Settings</t>
+  </si>
+  <si>
+    <t>Navigate to page Other settings</t>
+  </si>
+  <si>
+    <t>Check Special fee</t>
+  </si>
+  <si>
+    <t>User should be able to uncheck special fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Consultation  and Billing </t>
+  </si>
+  <si>
+    <t>Navigate to Consultation and Billing page</t>
+  </si>
+  <si>
+    <t>Select Operation Charge in OP Surgery Setting</t>
+  </si>
+  <si>
+    <t>user should be able to select the Operation Charge</t>
+  </si>
+  <si>
+    <t>Operation charge:OT</t>
+  </si>
+  <si>
+    <t>Select Chief Doctor in Doctor's Charge</t>
+  </si>
+  <si>
+    <t>User should be able to select the Chief doctor</t>
+  </si>
+  <si>
+    <t>Chief doctor:Operation Theatre</t>
+  </si>
+  <si>
+    <t>Select Anesthetist's Charge
+1st Assistant
+2nd Assistant</t>
+  </si>
+  <si>
+    <t>User should be able to select Anesthetist's Charge</t>
+  </si>
+  <si>
+    <t>1st Assistant:Operation Theatre
+2nd Assistant:OT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Consultation fee </t>
+  </si>
+  <si>
+    <t>User should be able to uncheck Consultation fee</t>
   </si>
 </sst>
 </file>
@@ -5492,11 +5958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9C3D31-C5E0-4697-A93F-78D6BCE0E40D}">
-  <dimension ref="A1:S2034"/>
+  <dimension ref="A1:S2275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2029" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2031" sqref="E2031:E2034"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2279" sqref="F2279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5597,7 +6063,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -7709,7 +8175,7 @@
       <c r="H148" s="5"/>
       <c r="L148" s="4"/>
     </row>
-    <row r="149" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="D149" s="25"/>
       <c r="E149" s="10">
         <v>5</v>
@@ -9772,7 +10238,7 @@
       </c>
       <c r="L287" s="4"/>
     </row>
-    <row r="288" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="D288" s="25"/>
       <c r="E288" s="10">
         <v>7</v>
@@ -9918,7 +10384,7 @@
       </c>
       <c r="L297" s="4"/>
     </row>
-    <row r="298" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="D298" s="25"/>
       <c r="E298" s="10">
         <v>7</v>
@@ -10095,7 +10561,7 @@
       </c>
       <c r="L309" s="4"/>
     </row>
-    <row r="310" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="D310" s="25"/>
       <c r="E310" s="10">
         <v>7</v>
@@ -10273,7 +10739,7 @@
       </c>
       <c r="L321" s="4"/>
     </row>
-    <row r="322" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="D322" s="25"/>
       <c r="E322" s="10">
         <v>7</v>
@@ -10479,7 +10945,7 @@
       </c>
       <c r="L335" s="4"/>
     </row>
-    <row r="336" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="D336" s="25"/>
       <c r="E336" s="10">
         <v>7</v>
@@ -10992,7 +11458,7 @@
       <c r="H369" s="5"/>
       <c r="L369" s="4"/>
     </row>
-    <row r="370" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="D370" s="25"/>
       <c r="E370" s="10">
         <v>5</v>
@@ -28197,7 +28663,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="1610" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="D1610" s="25"/>
       <c r="E1610" s="10">
         <v>7</v>
@@ -28387,7 +28853,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="1624" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="D1624" s="25"/>
       <c r="E1624" s="10">
         <v>7</v>
@@ -28604,7 +29070,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="1640" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1640" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="D1640" s="25"/>
       <c r="E1640" s="10">
         <v>7</v>
@@ -33729,7 +34195,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="2033" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2033" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D2033" s="23"/>
       <c r="E2033" s="10">
         <v>10</v>
@@ -33741,7 +34207,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="2034" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="2034" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2034" s="24"/>
       <c r="E2034" s="10">
         <v>11</v>
@@ -33753,8 +34219,3212 @@
         <v>329</v>
       </c>
     </row>
+    <row r="2036" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2036" s="10" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B2036" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2036" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2036" s="22" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E2036" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2036" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2036" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2036" s="5"/>
+      <c r="I2036" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2037" s="23"/>
+      <c r="E2037" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2037" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2037" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2037" s="5"/>
+      <c r="I2037" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2038" s="23"/>
+      <c r="E2038" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2038" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2038" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2038" s="5"/>
+    </row>
+    <row r="2039" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2039" s="23"/>
+      <c r="E2039" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2039" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2039" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2039" s="5"/>
+    </row>
+    <row r="2040" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2040" s="23"/>
+      <c r="E2040" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2040" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G2040" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H2040" s="5"/>
+    </row>
+    <row r="2041" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2041" s="23"/>
+      <c r="E2041" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2041" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G2041" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I2041" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2042" s="23"/>
+      <c r="E2042" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2042" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G2042" s="10" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I2042" s="10" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2043" s="23"/>
+      <c r="E2043" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2043" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G2043" s="10" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2044" s="23"/>
+      <c r="E2044" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2044" s="10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G2044" s="10" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2045" s="23"/>
+      <c r="E2045" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2045" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G2045" s="10" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2046" s="24"/>
+      <c r="E2046" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2046" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2046" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2048" s="10" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B2048" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2048" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2048" s="22" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E2048" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2048" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2048" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2048" s="5"/>
+      <c r="I2048" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2049" s="23"/>
+      <c r="E2049" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2049" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2049" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2049" s="5"/>
+      <c r="I2049" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2050" s="23"/>
+      <c r="E2050" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2050" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2050" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2050" s="5"/>
+    </row>
+    <row r="2051" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2051" s="23"/>
+      <c r="E2051" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2051" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2051" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2051" s="5"/>
+    </row>
+    <row r="2052" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2052" s="23"/>
+      <c r="E2052" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2052" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G2052" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H2052" s="5"/>
+    </row>
+    <row r="2053" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2053" s="23"/>
+      <c r="E2053" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2053" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G2053" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I2053" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2054" s="23"/>
+      <c r="E2054" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2054" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G2054" s="10" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I2054" s="10" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2055" s="23"/>
+      <c r="E2055" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2055" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G2055" s="10" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2056" s="23"/>
+      <c r="E2056" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2056" s="10" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G2056" s="10" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2057" s="23"/>
+      <c r="E2057" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2057" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G2057" s="10" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2058" s="24"/>
+      <c r="E2058" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2058" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2058" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2060" s="10" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B2060" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2060" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2060" s="22" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E2060" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2060" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2060" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2060" s="5"/>
+      <c r="I2060" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2061" s="23"/>
+      <c r="E2061" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2061" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2061" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2061" s="5"/>
+      <c r="I2061" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2062" s="23"/>
+      <c r="E2062" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2062" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2062" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2062" s="5"/>
+    </row>
+    <row r="2063" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2063" s="23"/>
+      <c r="E2063" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2063" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2063" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2063" s="5"/>
+    </row>
+    <row r="2064" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2064" s="23"/>
+      <c r="E2064" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2064" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G2064" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H2064" s="5"/>
+    </row>
+    <row r="2065" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2065" s="23"/>
+      <c r="E2065" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2065" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G2065" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I2065" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2066" s="23"/>
+      <c r="E2066" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2066" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G2066" s="10" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I2066" s="10" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2067" s="23"/>
+      <c r="E2067" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2067" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G2067" s="10" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2068" s="23"/>
+      <c r="E2068" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2068" s="10" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G2068" s="10" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2069" s="23"/>
+      <c r="E2069" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2069" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G2069" s="10" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2070" s="24"/>
+      <c r="E2070" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2070" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2070" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2072" s="10" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B2072" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2072" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2072" s="22" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E2072" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2072" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2072" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2072" s="5"/>
+      <c r="I2072" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2073" s="23"/>
+      <c r="E2073" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2073" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2073" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2073" s="5"/>
+      <c r="I2073" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2074" s="23"/>
+      <c r="E2074" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2074" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2074" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2074" s="5"/>
+    </row>
+    <row r="2075" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2075" s="23"/>
+      <c r="E2075" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2075" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2075" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2075" s="5"/>
+    </row>
+    <row r="2076" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2076" s="23"/>
+      <c r="E2076" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2076" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G2076" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H2076" s="5"/>
+    </row>
+    <row r="2077" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2077" s="23"/>
+      <c r="E2077" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2077" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G2077" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I2077" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2078" s="23"/>
+      <c r="E2078" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2078" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G2078" s="10" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I2078" s="10" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2079" s="23"/>
+      <c r="E2079" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2079" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G2079" s="10" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2080" s="23"/>
+      <c r="E2080" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2080" s="10" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G2080" s="10" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2081" s="23"/>
+      <c r="E2081" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2081" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G2081" s="10" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2082" s="24"/>
+      <c r="E2082" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2082" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2082" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2084" s="10" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B2084" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2084" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2084" s="22" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E2084" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2084" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2084" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2084" s="5"/>
+      <c r="I2084" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2085" s="23"/>
+      <c r="E2085" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2085" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2085" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2085" s="5"/>
+      <c r="I2085" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2086" s="23"/>
+      <c r="E2086" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2086" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2086" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2086" s="5"/>
+    </row>
+    <row r="2087" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2087" s="23"/>
+      <c r="E2087" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2087" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2087" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2087" s="5"/>
+    </row>
+    <row r="2088" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2088" s="23"/>
+      <c r="E2088" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2088" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G2088" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H2088" s="5"/>
+    </row>
+    <row r="2089" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2089" s="23"/>
+      <c r="E2089" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2089" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G2089" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I2089" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2090" s="23"/>
+      <c r="E2090" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2090" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G2090" s="10" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I2090" s="10" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2091" s="23"/>
+      <c r="E2091" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2091" s="10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G2091" s="10" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="D2092" s="23"/>
+      <c r="E2092" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2092" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G2092" s="10" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2093" s="23"/>
+      <c r="E2093" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2093" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2093" s="10" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2094" s="24"/>
+      <c r="E2094" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2094" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2094" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2096" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B2096" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2096" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2096" s="22" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E2096" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2096" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2096" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2096" s="5"/>
+      <c r="I2096" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2097" s="23"/>
+      <c r="E2097" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2097" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2097" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2097" s="5"/>
+      <c r="I2097" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2098" s="23"/>
+      <c r="E2098" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2098" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2098" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2098" s="5"/>
+    </row>
+    <row r="2099" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2099" s="23"/>
+      <c r="E2099" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2099" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2099" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2099" s="5"/>
+    </row>
+    <row r="2100" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2100" s="23"/>
+      <c r="E2100" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2100" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G2100" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H2100" s="5"/>
+    </row>
+    <row r="2101" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2101" s="23"/>
+      <c r="E2101" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2101" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G2101" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I2101" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2102" s="23"/>
+      <c r="E2102" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2102" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G2102" s="10" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I2102" s="10" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2103" s="23"/>
+      <c r="E2103" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2103" s="10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G2103" s="10" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2104" s="23"/>
+      <c r="E2104" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2104" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G2104" s="10" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2105" s="23"/>
+      <c r="E2105" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2105" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2105" s="10" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2106" s="24"/>
+      <c r="E2106" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2106" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2106" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2108" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B2108" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2108" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2108" s="22" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E2108" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2108" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2108" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2108" s="5"/>
+      <c r="I2108" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2109" s="23"/>
+      <c r="E2109" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2109" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2109" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2109" s="5"/>
+      <c r="I2109" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2110" s="23"/>
+      <c r="E2110" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2110" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2110" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2110" s="5"/>
+    </row>
+    <row r="2111" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2111" s="23"/>
+      <c r="E2111" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2111" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2111" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2111" s="5"/>
+    </row>
+    <row r="2112" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2112" s="23"/>
+      <c r="E2112" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2112" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G2112" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H2112" s="5"/>
+    </row>
+    <row r="2113" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2113" s="23"/>
+      <c r="E2113" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2113" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G2113" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I2113" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2114" s="23"/>
+      <c r="E2114" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2114" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G2114" s="10" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I2114" s="10" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2115" s="23"/>
+      <c r="E2115" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2115" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G2115" s="10" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2116" s="23"/>
+      <c r="F2116" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G2116" s="10" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2117" s="23"/>
+      <c r="F2117" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2117" s="10" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2118" s="24"/>
+      <c r="F2118" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2118" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2120" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B2120" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2120" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2120" s="22" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E2120" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2120" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2120" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2120" s="5"/>
+      <c r="I2120" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2121" s="23"/>
+      <c r="E2121" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2121" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2121" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2121" s="5"/>
+      <c r="I2121" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2122" s="23"/>
+      <c r="E2122" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2122" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2122" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2122" s="5"/>
+    </row>
+    <row r="2123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2123" s="23"/>
+      <c r="E2123" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2123" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2123" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2123" s="5"/>
+    </row>
+    <row r="2124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2124" s="23"/>
+      <c r="E2124" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2124" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G2124" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H2124" s="5"/>
+    </row>
+    <row r="2125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2125" s="23"/>
+      <c r="E2125" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2125" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G2125" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="I2125" s="10" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2126" s="23"/>
+      <c r="E2126" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2126" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G2126" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2126" s="10" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="D2127" s="23"/>
+      <c r="E2127" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2127" s="10" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G2127" s="10" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2128" s="24"/>
+      <c r="E2128" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2128" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2128" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2130" s="10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B2130" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2130" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2130" s="22" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E2130" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2130" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2130" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2130" s="5"/>
+      <c r="I2130" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2131" s="23"/>
+      <c r="E2131" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2131" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2131" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2131" s="5"/>
+      <c r="I2131" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2132" s="23"/>
+      <c r="E2132" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2132" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2132" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2132" s="5"/>
+    </row>
+    <row r="2133" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2133" s="23"/>
+      <c r="E2133" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2133" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2133" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2133" s="5"/>
+    </row>
+    <row r="2134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2134" s="23"/>
+      <c r="E2134" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2134" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G2134" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H2134" s="5"/>
+    </row>
+    <row r="2135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2135" s="23"/>
+      <c r="E2135" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2135" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G2135" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="I2135" s="10" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2136" s="23"/>
+      <c r="E2136" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2136" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G2136" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2136" s="10" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2137" s="23"/>
+      <c r="E2137" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2137" s="10" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G2137" s="10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I2137" s="10" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2138" s="24"/>
+      <c r="E2138" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2138" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2138" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2140" s="10" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B2140" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2140" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2140" s="22" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E2140" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2140" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2140" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2140" s="5"/>
+      <c r="I2140" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2141" s="23"/>
+      <c r="E2141" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2141" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2141" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2141" s="5"/>
+      <c r="I2141" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2142" s="23"/>
+      <c r="E2142" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2142" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2142" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2142" s="5"/>
+    </row>
+    <row r="2143" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2143" s="23"/>
+      <c r="E2143" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2143" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2143" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2143" s="5"/>
+    </row>
+    <row r="2144" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2144" s="23"/>
+      <c r="E2144" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2144" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G2144" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H2144" s="5"/>
+    </row>
+    <row r="2145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2145" s="23"/>
+      <c r="E2145" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2145" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2145" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2145" s="10" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2146" s="24"/>
+      <c r="E2146" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2146" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G2146" s="10" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2148" s="10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B2148" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2148" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2148" s="22" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E2148" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2148" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2148" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2148" s="5"/>
+      <c r="I2148" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2149" s="23"/>
+      <c r="E2149" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2149" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2149" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2149" s="5"/>
+      <c r="I2149" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2150" s="23"/>
+      <c r="E2150" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2150" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2150" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2150" s="5"/>
+    </row>
+    <row r="2151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2151" s="23"/>
+      <c r="E2151" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2151" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2151" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2151" s="5"/>
+    </row>
+    <row r="2152" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2152" s="23"/>
+      <c r="E2152" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2152" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G2152" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H2152" s="5"/>
+    </row>
+    <row r="2153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2153" s="23"/>
+      <c r="E2153" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2153" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2153" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2153" s="10" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2154" s="23"/>
+      <c r="E2154" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2154" s="10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G2154" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2155" s="23"/>
+      <c r="E2155" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2155" s="10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G2155" s="10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I2155" s="10" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2156" s="23"/>
+      <c r="E2156" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2156" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G2156" s="10" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2157" s="24"/>
+      <c r="E2157" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2157" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2157" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2159" s="10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B2159" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2159" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2159" s="22" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E2159" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2159" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2159" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2159" s="5"/>
+      <c r="I2159" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2160" s="23"/>
+      <c r="E2160" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2160" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2160" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2160" s="5"/>
+      <c r="I2160" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2161" s="23"/>
+      <c r="E2161" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2161" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2161" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2161" s="5"/>
+    </row>
+    <row r="2162" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2162" s="23"/>
+      <c r="E2162" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2162" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2162" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2162" s="5"/>
+    </row>
+    <row r="2163" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2163" s="23"/>
+      <c r="E2163" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2163" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G2163" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H2163" s="5"/>
+    </row>
+    <row r="2164" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2164" s="23"/>
+      <c r="E2164" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2164" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2164" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2164" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2165" s="23"/>
+      <c r="E2165" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2165" s="10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G2165" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2166" s="23"/>
+      <c r="E2166" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2166" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G2166" s="10" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2167" s="23"/>
+      <c r="E2167" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2167" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G2167" s="10" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2168" s="23"/>
+      <c r="E2168" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2168" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G2168" s="10" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2169" s="23"/>
+      <c r="E2169" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2169" s="10" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G2169" s="10" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I2169" s="10" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2170" s="24"/>
+      <c r="E2170" s="10">
+        <v>12</v>
+      </c>
+      <c r="F2170" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2170" s="10" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2172" s="10" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B2172" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2172" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2172" s="22" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E2172" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2172" s="10" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="D2173" s="23"/>
+      <c r="E2173" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2173" s="10" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G2173" s="10" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2174" s="24"/>
+      <c r="E2174" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2174" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G2174" s="10" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2176" s="10" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B2176" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2176" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2176" s="22" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E2176" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2176" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2176" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2176" s="5"/>
+      <c r="I2176" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2177" s="23"/>
+      <c r="E2177" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2177" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2177" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2177" s="5"/>
+      <c r="I2177" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2178" s="23"/>
+      <c r="E2178" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2178" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2178" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2178" s="5"/>
+    </row>
+    <row r="2179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2179" s="23"/>
+      <c r="E2179" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2179" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2179" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2179" s="5"/>
+    </row>
+    <row r="2180" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2180" s="23"/>
+      <c r="E2180" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2180" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G2180" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H2180" s="5"/>
+    </row>
+    <row r="2181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2181" s="23"/>
+      <c r="E2181" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2181" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2181" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2181" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2182" s="23"/>
+      <c r="E2182" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2182" s="10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G2182" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2183" s="23"/>
+      <c r="E2183" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2183" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G2183" s="10" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2184" s="23"/>
+      <c r="E2184" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2184" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G2184" s="10" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2185" s="23"/>
+      <c r="E2185" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2185" s="10" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G2185" s="10" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2186" s="24"/>
+      <c r="E2186" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2186" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2186" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2188" s="10" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B2188" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2188" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2188" s="22" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E2188" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2188" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2188" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2188" s="5"/>
+      <c r="I2188" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2189" s="23"/>
+      <c r="E2189" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2189" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2189" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2189" s="5"/>
+      <c r="I2189" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2190" s="23"/>
+      <c r="E2190" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2190" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2190" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2190" s="5"/>
+    </row>
+    <row r="2191" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2191" s="23"/>
+      <c r="E2191" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2191" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2191" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2191" s="5"/>
+    </row>
+    <row r="2192" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2192" s="23"/>
+      <c r="E2192" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2192" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G2192" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H2192" s="5"/>
+    </row>
+    <row r="2193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2193" s="23"/>
+      <c r="E2193" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2193" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2193" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2193" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2194" s="23"/>
+      <c r="E2194" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2194" s="10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G2194" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2195" s="23"/>
+      <c r="E2195" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2195" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G2195" s="10" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2196" s="23"/>
+      <c r="E2196" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2196" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G2196" s="10" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2197" s="23"/>
+      <c r="E2197" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2197" s="10" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G2197" s="10" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I2197" s="10" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2198" s="23"/>
+      <c r="E2198" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2198" s="10" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G2198" s="10" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I2198" s="10" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2199" s="23"/>
+      <c r="E2199" s="10">
+        <v>12</v>
+      </c>
+      <c r="F2199" s="10" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G2199" s="10" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I2199" s="10" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2200" s="24"/>
+      <c r="E2200" s="10">
+        <v>13</v>
+      </c>
+      <c r="F2200" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2200" s="10" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2202" s="10" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B2202" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2202" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2202" s="22" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E2202" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2202" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2202" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2202" s="5"/>
+      <c r="I2202" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2203" s="23"/>
+      <c r="E2203" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2203" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2203" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2203" s="5"/>
+      <c r="I2203" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2204" s="23"/>
+      <c r="E2204" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2204" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2204" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2204" s="5"/>
+    </row>
+    <row r="2205" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2205" s="23"/>
+      <c r="E2205" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2205" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2205" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2205" s="5"/>
+    </row>
+    <row r="2206" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2206" s="23"/>
+      <c r="E2206" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2206" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G2206" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H2206" s="5"/>
+    </row>
+    <row r="2207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2207" s="23"/>
+      <c r="E2207" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2207" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2207" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2207" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2208" s="23"/>
+      <c r="E2208" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2208" s="10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G2208" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2209" s="23"/>
+      <c r="E2209" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2209" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G2209" s="10" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2210" s="23"/>
+      <c r="E2210" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2210" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G2210" s="10" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2211" s="23"/>
+      <c r="E2211" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2211" s="10" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G2211" s="10" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2212" s="23"/>
+      <c r="E2212" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2212" s="10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G2212" s="10" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2213" s="24"/>
+      <c r="E2213" s="10">
+        <v>12</v>
+      </c>
+      <c r="F2213" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2213" s="10" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2215" s="10" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B2215" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2215" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2215" s="22" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E2215" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2215" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2215" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2215" s="5"/>
+      <c r="I2215" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2216" s="23"/>
+      <c r="E2216" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2216" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2216" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2216" s="5"/>
+      <c r="I2216" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2217" s="23"/>
+      <c r="E2217" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2217" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2217" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2217" s="5"/>
+    </row>
+    <row r="2218" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2218" s="23"/>
+      <c r="E2218" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2218" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2218" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2218" s="5"/>
+    </row>
+    <row r="2219" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2219" s="23"/>
+      <c r="E2219" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2219" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G2219" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H2219" s="5"/>
+    </row>
+    <row r="2220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2220" s="23"/>
+      <c r="E2220" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2220" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2220" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2220" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2221" s="23"/>
+      <c r="E2221" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2221" s="10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G2221" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2222" s="23"/>
+      <c r="E2222" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2222" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G2222" s="10" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2223" s="23"/>
+      <c r="E2223" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2223" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G2223" s="10" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2224" s="23"/>
+      <c r="E2224" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2224" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G2224" s="10" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2225" s="23"/>
+      <c r="E2225" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2225" s="10" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G2225" s="10" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I2225" s="10" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2226" s="23"/>
+      <c r="E2226" s="10">
+        <v>12</v>
+      </c>
+      <c r="F2226" s="10" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G2226" s="10" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2227" s="24"/>
+      <c r="E2227" s="10">
+        <v>13</v>
+      </c>
+      <c r="F2227" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2227" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2229" s="10" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B2229" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2229" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2229" s="22" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E2229" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2229" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2229" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2229" s="5"/>
+      <c r="I2229" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2230" s="23"/>
+      <c r="E2230" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2230" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2230" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2230" s="5"/>
+      <c r="I2230" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2231" s="23"/>
+      <c r="E2231" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2231" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2231" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2231" s="5"/>
+    </row>
+    <row r="2232" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2232" s="23"/>
+      <c r="E2232" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2232" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2232" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2232" s="5"/>
+    </row>
+    <row r="2233" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2233" s="23"/>
+      <c r="E2233" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2233" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G2233" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H2233" s="5"/>
+    </row>
+    <row r="2234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2234" s="23"/>
+      <c r="E2234" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2234" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2234" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2234" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2235" s="23"/>
+      <c r="E2235" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2235" s="10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G2235" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2236" s="23"/>
+      <c r="E2236" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2236" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G2236" s="10" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2237" s="23"/>
+      <c r="E2237" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2237" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G2237" s="10" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2238" s="23"/>
+      <c r="E2238" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2238" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G2238" s="10" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2239" s="23"/>
+      <c r="E2239" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2239" s="10" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G2239" s="10" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I2239" s="10" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2240" s="23"/>
+      <c r="E2240" s="10">
+        <v>12</v>
+      </c>
+      <c r="F2240" s="10" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G2240" s="10" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2241" s="24"/>
+      <c r="E2241" s="10">
+        <v>13</v>
+      </c>
+      <c r="F2241" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2241" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2243" s="10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B2243" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2243" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2243" s="22" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E2243" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2243" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2243" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2243" s="5"/>
+      <c r="I2243" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2244" s="23"/>
+      <c r="E2244" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2244" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2244" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2244" s="5"/>
+      <c r="I2244" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2245" s="23"/>
+      <c r="E2245" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2245" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2245" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2245" s="5"/>
+    </row>
+    <row r="2246" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2246" s="23"/>
+      <c r="E2246" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2246" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2246" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2246" s="5"/>
+    </row>
+    <row r="2247" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2247" s="23"/>
+      <c r="E2247" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2247" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G2247" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H2247" s="5"/>
+    </row>
+    <row r="2248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2248" s="23"/>
+      <c r="E2248" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2248" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2248" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2248" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2249" s="23"/>
+      <c r="E2249" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2249" s="10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G2249" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2250" s="23"/>
+      <c r="E2250" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2250" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G2250" s="10" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2251" s="23"/>
+      <c r="E2251" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2251" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G2251" s="10" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="D2252" s="23"/>
+      <c r="E2252" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2252" s="10" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G2252" s="10" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I2252" s="10" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2253" s="24"/>
+      <c r="E2253" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2253" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G2253" s="10" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2255" s="10" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B2255" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2255" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2255" s="22" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E2255" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2255" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2255" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2255" s="5"/>
+      <c r="I2255" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2256" s="23"/>
+      <c r="E2256" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2256" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2256" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2256" s="5"/>
+      <c r="I2256" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2257" s="23"/>
+      <c r="E2257" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2257" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2257" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2257" s="5"/>
+    </row>
+    <row r="2258" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2258" s="23"/>
+      <c r="E2258" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2258" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2258" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2258" s="5"/>
+    </row>
+    <row r="2259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2259" s="23"/>
+      <c r="E2259" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2259" s="10" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G2259" s="10" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H2259" s="5"/>
+    </row>
+    <row r="2260" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="D2260" s="23"/>
+      <c r="E2260" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2260" s="10" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G2260" s="10" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I2260" s="10" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2261" s="24"/>
+      <c r="E2261" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2261" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2261" s="10" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2263" s="10" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B2263" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2263" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2263" s="22" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E2263" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2263" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2263" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2263" s="5"/>
+      <c r="I2263" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2264" s="23"/>
+      <c r="E2264" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2264" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2264" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2264" s="5"/>
+      <c r="I2264" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2265" s="23"/>
+      <c r="E2265" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2265" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2265" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2265" s="5"/>
+    </row>
+    <row r="2266" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2266" s="23"/>
+      <c r="E2266" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2266" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2266" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2266" s="5"/>
+    </row>
+    <row r="2267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2267" s="23"/>
+      <c r="E2267" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2267" s="10" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G2267" s="10" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H2267" s="5"/>
+    </row>
+    <row r="2268" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2268" s="23"/>
+      <c r="E2268" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2268" s="10" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G2268" s="10" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2269" s="23"/>
+      <c r="E2269" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2269" s="10" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G2269" s="10" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2270" s="23"/>
+      <c r="E2270" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2270" s="10" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G2270" s="10" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2271" s="23"/>
+      <c r="E2271" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2271" s="10" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2271" s="10" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2272" s="23"/>
+      <c r="E2272" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2272" s="10" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G2272" s="10" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I2272" s="10" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="2273" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2273" s="23"/>
+      <c r="E2273" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2273" s="10" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G2273" s="10" t="s">
+        <v>1568</v>
+      </c>
+      <c r="I2273" s="10" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="2274" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2274" s="23"/>
+      <c r="E2274" s="10">
+        <v>12</v>
+      </c>
+      <c r="F2274" s="10" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G2274" s="10" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I2274" s="10" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2275" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2275" s="24"/>
+      <c r="E2275" s="10">
+        <v>13</v>
+      </c>
+      <c r="F2275" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2275" s="10" t="s">
+        <v>1555</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="213">
+    <mergeCell ref="D2215:D2227"/>
+    <mergeCell ref="D2229:D2241"/>
+    <mergeCell ref="D2243:D2253"/>
+    <mergeCell ref="D2255:D2261"/>
+    <mergeCell ref="D2263:D2275"/>
     <mergeCell ref="D1986:D1997"/>
     <mergeCell ref="D1999:D2010"/>
     <mergeCell ref="D2012:D2022"/>
@@ -33798,15 +37468,18 @@
     <mergeCell ref="D1499:D1509"/>
     <mergeCell ref="D1511:D1517"/>
     <mergeCell ref="D1519:D1526"/>
-    <mergeCell ref="D1157:D1159"/>
-    <mergeCell ref="D1161:D1173"/>
-    <mergeCell ref="D1089:D1099"/>
-    <mergeCell ref="D1101:D1111"/>
-    <mergeCell ref="D1113:D1123"/>
-    <mergeCell ref="D1423:D1435"/>
-    <mergeCell ref="D1437:D1443"/>
     <mergeCell ref="D1445:D1451"/>
     <mergeCell ref="D1453:D1463"/>
+    <mergeCell ref="D1231:D1244"/>
+    <mergeCell ref="D1246:D1259"/>
+    <mergeCell ref="D1261:D1274"/>
+    <mergeCell ref="D1276:D1290"/>
+    <mergeCell ref="D1215:D1229"/>
+    <mergeCell ref="D1292:D1307"/>
+    <mergeCell ref="D1309:D1324"/>
+    <mergeCell ref="D1326:D1342"/>
+    <mergeCell ref="D1344:D1347"/>
+    <mergeCell ref="D1349:D1352"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="D59:D63"/>
@@ -33848,6 +37521,7 @@
     <mergeCell ref="D282:D289"/>
     <mergeCell ref="D330:D337"/>
     <mergeCell ref="D339:D345"/>
+    <mergeCell ref="D304:D314"/>
     <mergeCell ref="D516:D530"/>
     <mergeCell ref="D532:D544"/>
     <mergeCell ref="D546:D560"/>
@@ -33880,20 +37554,11 @@
     <mergeCell ref="D730:D742"/>
     <mergeCell ref="D744:D756"/>
     <mergeCell ref="D758:D770"/>
-    <mergeCell ref="D1231:D1244"/>
-    <mergeCell ref="D1246:D1259"/>
-    <mergeCell ref="D1261:D1274"/>
-    <mergeCell ref="D1276:D1290"/>
-    <mergeCell ref="D928:D936"/>
-    <mergeCell ref="D938:D946"/>
-    <mergeCell ref="D948:D955"/>
-    <mergeCell ref="D887:D894"/>
     <mergeCell ref="D701:D707"/>
     <mergeCell ref="D896:D907"/>
     <mergeCell ref="D909:D917"/>
     <mergeCell ref="D919:D926"/>
     <mergeCell ref="D1199:D1213"/>
-    <mergeCell ref="D1215:D1229"/>
     <mergeCell ref="D957:D966"/>
     <mergeCell ref="D968:D976"/>
     <mergeCell ref="D978:D990"/>
@@ -33904,12 +37569,11 @@
     <mergeCell ref="D1125:D1137"/>
     <mergeCell ref="D1139:D1141"/>
     <mergeCell ref="D1143:D1155"/>
-    <mergeCell ref="D1292:D1307"/>
-    <mergeCell ref="D1309:D1324"/>
-    <mergeCell ref="D1326:D1342"/>
-    <mergeCell ref="D1344:D1347"/>
-    <mergeCell ref="D1349:D1352"/>
-    <mergeCell ref="D304:D314"/>
+    <mergeCell ref="D1157:D1159"/>
+    <mergeCell ref="D1161:D1173"/>
+    <mergeCell ref="D1089:D1099"/>
+    <mergeCell ref="D1101:D1111"/>
+    <mergeCell ref="D1113:D1123"/>
     <mergeCell ref="D1604:D1616"/>
     <mergeCell ref="D1618:D1632"/>
     <mergeCell ref="D1354:D1357"/>
@@ -33928,6 +37592,12 @@
     <mergeCell ref="D992:D1004"/>
     <mergeCell ref="D1006:D1015"/>
     <mergeCell ref="D1017:D1028"/>
+    <mergeCell ref="D928:D936"/>
+    <mergeCell ref="D938:D946"/>
+    <mergeCell ref="D948:D955"/>
+    <mergeCell ref="D887:D894"/>
+    <mergeCell ref="D1423:D1435"/>
+    <mergeCell ref="D1437:D1443"/>
     <mergeCell ref="D1680:D1687"/>
     <mergeCell ref="D1689:D1698"/>
     <mergeCell ref="D1700:D1706"/>
@@ -33947,15 +37617,31 @@
     <mergeCell ref="D1768:D1776"/>
     <mergeCell ref="D1779:D1785"/>
     <mergeCell ref="D1787:D1794"/>
+    <mergeCell ref="D2130:D2138"/>
+    <mergeCell ref="D2140:D2146"/>
+    <mergeCell ref="D2148:D2157"/>
+    <mergeCell ref="D2159:D2170"/>
+    <mergeCell ref="D2172:D2174"/>
+    <mergeCell ref="D2176:D2186"/>
+    <mergeCell ref="D2188:D2200"/>
+    <mergeCell ref="D2202:D2213"/>
+    <mergeCell ref="D2036:D2046"/>
+    <mergeCell ref="D2048:D2058"/>
+    <mergeCell ref="D2060:D2070"/>
+    <mergeCell ref="D2072:D2082"/>
+    <mergeCell ref="D2084:D2094"/>
+    <mergeCell ref="D2096:D2106"/>
+    <mergeCell ref="D2108:D2118"/>
+    <mergeCell ref="D2120:D2128"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C656:C660 C662:C668 C670:C676 C678:C684 C686:C692 C694:C700 C702:C708 C710:C715 C717:C725" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B7 B14 B21 B28 B35 B40 B45 B48 B51 B55 B58:B59 B65 B73 B83 B94 B105 B116 B125 B135 B145 B151 B160 B169 B180 B192 B202 B212 B222 B230 B239 B250 B258 B264 B270 B282 B292 B304 B316 B330 B339 B347 B356 B366 B376 B383 B397 B409 B422 B432 B443 B455 B467 B479 B484 B494 B505 B516 B532 B546 B562 B577 B592 B602 B611 B620 B629 B637 B645 B653 B661 B669 B677 B685 B693 B701 B709 B716 B730 B744 B758 B772 B788 B808 B812 B826 B832 B842 B857 B866 B875 B887 B896 B909 B919 B928 B938 B948 B957 B968 B978 B992 B1006 B1017 B1030 B1039 B1050 B1062 B1073 B1077 B1089 B1101 B1113 B1125 B1139 B1143 B1157 B1161 B1175 B1179 B1195 B1199 B1215 B1231 B1246 B1261 B1276 B1292 B1309 B1326 B1344 B1349 B1354 B1359 B1367 B1378 B1383 B1397 B1409 B1423 B1437 B1445 B1453 B1465 B1471 B1480 B1491 B1499 B1511 B1519 B1528 B1537 B1548 B1557 B1574 B1584 B1596 B1604 B1618 B1634 B1649 B1652 B1656 B1666 B1673 B1680 B1689 B1700 B1708 B1721 B1734 B1747 B1760 B1768 B1779 B1787 B1796 B1806 B1814:B1815 B1823 B1835 B1847 B1852 B1857 B1868 B1879 B1893 B1903 B1913 B1923 B1934 B1942 B1953 B1963 B1974 B1978 B1982 B1986 B1999 B2012 B2024" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B7 B14 B21 B28 B35 B40 B45 B48 B51 B55 B58:B59 B65 B73 B83 B94 B105 B116 B125 B135 B145 B151 B160 B169 B180 B192 B202 B212 B222 B230 B239 B250 B258 B264 B270 B282 B292 B304 B316 B330 B339 B347 B356 B366 B376 B383 B397 B409 B422 B432 B443 B455 B467 B479 B484 B494 B505 B516 B532 B546 B562 B577 B592 B602 B611 B620 B629 B637 B645 B653 B661 B669 B677 B685 B693 B701 B709 B716 B730 B744 B758 B772 B788 B808 B812 B826 B832 B842 B857 B866 B875 B887 B896 B909 B919 B928 B938 B948 B957 B968 B978 B992 B1006 B1017 B1030 B1039 B1050 B1062 B1073 B1077 B1089 B1101 B1113 B1125 B1139 B1143 B1157 B1161 B1175 B1179 B1195 B1199 B1215 B1231 B1246 B1261 B1276 B1292 B1309 B1326 B1344 B1349 B1354 B1359 B1367 B1378 B1383 B1397 B1409 B1423 B1437 B1445 B1453 B1465 B1471 B1480 B1491 B1499 B1511 B1519 B1528 B1537 B1548 B1557 B1574 B1584 B1596 B1604 B1618 B1634 B1649 B1652 B1656 B1666 B1673 B1680 B1689 B1700 B1708 B1721 B1734 B1747 B1760 B1768 B1779 B1787 B1796 B1806 B1814:B1815 B1823 B1835 B1847 B1852 B1857 B1868 B1879 B1893 B1903 B1913 B1923 B1934 B1942 B1953 B1963 B1974 B1978 B1982 B1986 B1999 B2012 B2024 B2036 B2048 B2060 B2072 B2084 B2096 B2108 B2120 B2130 B2140 B2148 B2159 B2172 B2176 B2188 B2202 B2215 B2229 B2243 B2255 B2263" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K478 C2:C655 C661 C669 C677 C685 C693 C701 C709 C716 C730 C744 C758 C772 C788 C808 C812 C826 C832 C842 C857 C866 C875 C887 C896 C909 C919 C928 C938 C948 C957 C968 C978 C992 C1006 C1017 C1030 C1039 C1050 C1062 C1073 C1077 C1089 C1101 C1113 C1125 C1139 C1143 C1157 C1161 C1175 C1179 C1195 C1199 C1215 C1231 C1246 C1261 C1276 C1292 C1309 C1326 C1344 C1349 C1354 C1359 C1367 C1378 C1383 C1397 C1409 C1423 C1437 C1445 C1453 C1465 C1471 C1480 C1491 C1499 C1511 C1519 C1528 C1537 C1548 C1557 C1574 C1584 C1596 C1604 C1618 C1634 C1649 C1652 C1656 C1666 C1673 C1680 C1689 C1700 C1708 C1721 C1734 C1747 C1760 C1768 C1779 C1787 C1796 C1806 C1814:C1815 C1823 C1835 C1847 C1852 C1857 C1868 C1879 C1893 C1903 C1913 C1923 C1934 C1942 C1953 C1963 C1974 C1978 C1982 C1986 C1999 C2012 C2024" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K478 C2:C655 C661 C669 C677 C685 C693 C701 C709 C716 C730 C744 C758 C772 C788 C808 C812 C826 C832 C842 C857 C866 C875 C887 C896 C909 C919 C928 C938 C948 C957 C968 C978 C992 C1006 C1017 C1030 C1039 C1050 C1062 C1073 C1077 C1089 C1101 C1113 C1125 C1139 C1143 C1157 C1161 C1175 C1179 C1195 C1199 C1215 C1231 C1246 C1261 C1276 C1292 C1309 C1326 C1344 C1349 C1354 C1359 C1367 C1378 C1383 C1397 C1409 C1423 C1437 C1445 C1453 C1465 C1471 C1480 C1491 C1499 C1511 C1519 C1528 C1537 C1548 C1557 C1574 C1584 C1596 C1604 C1618 C1634 C1649 C1652 C1656 C1666 C1673 C1680 C1689 C1700 C1708 C1721 C1734 C1747 C1760 C1768 C1779 C1787 C1796 C1806 C1814:C1815 C1823 C1835 C1847 C1852 C1857 C1868 C1879 C1893 C1903 C1913 C1923 C1934 C1942 C1953 C1963 C1974 C1978 C1982 C1986 C1999 C2012 C2024 C2036 C2048 C2060 C2072 C2084 C2096 C2108 C2120 C2130 C2140 C2148 C2159 C2172 C2176 C2188 C2202 C2215 C2229 C2243 C2255 C2263" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K479:K684" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
@@ -34138,8 +37824,28 @@
     <hyperlink ref="I1999" r:id="rId170" xr:uid="{930EBE09-5023-4140-84E0-2656BA49EA32}"/>
     <hyperlink ref="I2012" r:id="rId171" xr:uid="{18DD348A-8628-4223-9A1B-2DBCDC173C5B}"/>
     <hyperlink ref="I2024" r:id="rId172" xr:uid="{DC0DB6A7-CCA6-4109-B19E-07C57B43C4F9}"/>
+    <hyperlink ref="I2036" r:id="rId173" xr:uid="{2A33B0D6-FA8D-410C-89C8-4C81A1F0C34F}"/>
+    <hyperlink ref="I2048" r:id="rId174" xr:uid="{26B80060-79D0-41EE-99B9-BB5FBCD327FC}"/>
+    <hyperlink ref="I2060" r:id="rId175" xr:uid="{326C5F00-2F55-48D8-BB9B-475AC6568378}"/>
+    <hyperlink ref="I2072" r:id="rId176" xr:uid="{16BA33F7-0F01-4526-B48A-C0B7247CA426}"/>
+    <hyperlink ref="I2084" r:id="rId177" xr:uid="{D3E6C4A2-4431-4F22-BC9C-55BF180505A0}"/>
+    <hyperlink ref="I2096" r:id="rId178" xr:uid="{C65856DD-D2E6-457F-96B2-2E0F361F5399}"/>
+    <hyperlink ref="I2108" r:id="rId179" xr:uid="{64736506-CDDA-4C14-8914-65188DB8B093}"/>
+    <hyperlink ref="I2120" r:id="rId180" xr:uid="{F27E6D27-560D-4A0D-A5A1-C4D5625B89CD}"/>
+    <hyperlink ref="I2130" r:id="rId181" xr:uid="{45B180AD-F8BA-432D-AB22-9CDF29E391D2}"/>
+    <hyperlink ref="I2140" r:id="rId182" xr:uid="{85D45EB1-2540-4933-9BF0-1FCF631745A4}"/>
+    <hyperlink ref="I2148" r:id="rId183" xr:uid="{6761FE65-112D-468B-98B6-F4FB857BC36F}"/>
+    <hyperlink ref="I2159" r:id="rId184" xr:uid="{4895F04F-50FE-455B-BA2D-D36B4C8A9CD4}"/>
+    <hyperlink ref="I2176" r:id="rId185" xr:uid="{E42E9D1E-E376-4567-AB7B-C2F4CBD442B4}"/>
+    <hyperlink ref="I2188" r:id="rId186" xr:uid="{B4B8498A-6777-4289-A17C-FB063DADA73E}"/>
+    <hyperlink ref="I2202" r:id="rId187" xr:uid="{ACAF771C-7A89-4BF8-BA92-811F7915EC7F}"/>
+    <hyperlink ref="I2215" r:id="rId188" xr:uid="{B50FC595-93A7-406E-AC45-19B85B1F68D9}"/>
+    <hyperlink ref="I2229" r:id="rId189" xr:uid="{1D687DFE-AB0C-44CB-99FE-35768DEAFD1D}"/>
+    <hyperlink ref="I2243" r:id="rId190" xr:uid="{37EA78AF-154D-49B1-B263-D1527373476D}"/>
+    <hyperlink ref="I2255" r:id="rId191" xr:uid="{7188BF1A-8ED0-4B71-A5A4-E9E95F25FCAC}"/>
+    <hyperlink ref="I2263" r:id="rId192" xr:uid="{71260FD6-D64A-4060-8408-6A5E62FE0D37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId173"/>
+  <pageSetup orientation="portrait" r:id="rId193"/>
 </worksheet>
 </file>
--- a/Test Case/Poornima/Test Case- Out Patient.xlsx
+++ b/Test Case/Poornima/Test Case- Out Patient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mediware\CentralRepository-Mediware\Test Case\Poornima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2CA414-712E-41CA-B93B-0B68538551E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC684D3E-A810-401C-83B8-4D482340EEC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5643" uniqueCount="1575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6161" uniqueCount="1698">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -5257,13 +5262,7 @@
     <t xml:space="preserve">Click on Advance Approval </t>
   </si>
   <si>
-    <t>A pop-up window should be displayed</t>
-  </si>
-  <si>
     <t>Click on add</t>
-  </si>
-  <si>
-    <t>Enter the fields and advance approval should be added</t>
   </si>
   <si>
     <t>Navigate to Investigation</t>
@@ -5401,6 +5400,395 @@
   </si>
   <si>
     <t>User should be able to uncheck Consultation fee</t>
+  </si>
+  <si>
+    <t>User should be able to add selected Procedure Item</t>
+  </si>
+  <si>
+    <t>A pop-up window should be displayed with procedure request lists</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0222</t>
+  </si>
+  <si>
+    <t>User can able to view Patient Information in Add policy</t>
+  </si>
+  <si>
+    <t>Hovering on MENU &gt;&gt;click on Registration&gt;Select Add Policy</t>
+  </si>
+  <si>
+    <t>Add policy  window should be displayed</t>
+  </si>
+  <si>
+    <t>Patient Id:NM00000047</t>
+  </si>
+  <si>
+    <t>Patient details should be listed with button Medical record/View policies/add policy etc</t>
+  </si>
+  <si>
+    <t>Hovering on patient Name &gt;&gt;select Patient Inforamtion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop-up should be display with patient details .And Patient Information page should be displayed with details of patient </t>
+  </si>
+  <si>
+    <t>User should be able to print the patient information report</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0223</t>
+  </si>
+  <si>
+    <t>User can able to view Lab Result in Add policy</t>
+  </si>
+  <si>
+    <t>Hovering on patient Name &gt;&gt;select Lab Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop-up should be display with patient details .And Lab Result page should be displayed with details </t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0224</t>
+  </si>
+  <si>
+    <t>User can able to view Lab Result by Type Wise in Add policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Group Wise </t>
+  </si>
+  <si>
+    <t>Group Wise Lab Result of a patient should be displayed</t>
+  </si>
+  <si>
+    <t>Select Date Wise</t>
+  </si>
+  <si>
+    <t>Date Wise Lab Result of a patient should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Procedure Wise </t>
+  </si>
+  <si>
+    <t>Procedure Wise Lab Result of a patient should be displayed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0225</t>
+  </si>
+  <si>
+    <t>User can able to view Radiology results in Add policy</t>
+  </si>
+  <si>
+    <t>Hovering on patient Name &gt;&gt;select Radiology Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop-up should be display with patient details .And Radiology Result page should be displayed with details </t>
+  </si>
+  <si>
+    <t>Hovering on patient Name &gt;&gt;select Patient Log details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop-up should be display with patient details .And Patient Log details page should be displayed with details </t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0226</t>
+  </si>
+  <si>
+    <t>To verify user can able to view Patient Log in Add policy</t>
+  </si>
+  <si>
+    <t>To verify user can able to view Letters &amp; Certificates in Add policy</t>
+  </si>
+  <si>
+    <t>Hovering on patient Name &gt;&gt;select Letters &amp; Certificates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop-up should be display with patient details .And Letters &amp; Certificates page should be displayed with details </t>
+  </si>
+  <si>
+    <t>Select certificate Purpose</t>
+  </si>
+  <si>
+    <t>User should be able to select the  category</t>
+  </si>
+  <si>
+    <t>Enter data in text area</t>
+  </si>
+  <si>
+    <t>User should be able to enter data in text area</t>
+  </si>
+  <si>
+    <t>Certificate should be saved</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop-up should be display with patient details .And Patient File page should be displayed with details </t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0228</t>
+  </si>
+  <si>
+    <t>To verify user can able to view Patient Files  in Add policy</t>
+  </si>
+  <si>
+    <t>Hovering on patient Name &gt;&gt;select Patient Files</t>
+  </si>
+  <si>
+    <t>Hovering on patient Name &gt;&gt;select Treatment Summary</t>
+  </si>
+  <si>
+    <t>To verify that patient has Multiple medical record in Treatment Summary</t>
+  </si>
+  <si>
+    <t>A pop-up should be display with patient details .And Treatment Summary page should be displayed with details . A pop-up should be display with a message 'Patient has Multiple medical record number please click on "Merged Records" to view  treatment summary'</t>
+  </si>
+  <si>
+    <t>User should be able to close the alert</t>
+  </si>
+  <si>
+    <t>Click on Merged Record and select any one from of the list</t>
+  </si>
+  <si>
+    <t>pop-up should be  displayed.User should be able to select one from the list and Treatment summary pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Navigate to Treatment Summary</t>
+  </si>
+  <si>
+    <t>Patient Treatment Summary report page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0229</t>
+  </si>
+  <si>
+    <t>To verify that patient Treatment Summary in Add policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop-up should be display with patient details .And Treatment Summary page should be displayed with details . </t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0230</t>
+  </si>
+  <si>
+    <t>To verify that patient External Treatment Summary in Add policy</t>
+  </si>
+  <si>
+    <t>Hovering on patient Name &gt;&gt;select External Treatment Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop-up should be display with patient details .And External Treatment Summary page should be displayed with details . </t>
+  </si>
+  <si>
+    <t>Alert should be closed.Navigate to Treatment Summary contains with patient details</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0231</t>
+  </si>
+  <si>
+    <t>To verify that patient Examination Summary in Add policy</t>
+  </si>
+  <si>
+    <t>Hovering on patient Name &gt;&gt;select Examination Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop-up should be display with patient details .And Examination Summary page should be displayed with details . </t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0232</t>
+  </si>
+  <si>
+    <t>To verify that patient Message in Add policy</t>
+  </si>
+  <si>
+    <t>Hovering on patient Name &gt;&gt;select Patient Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop-up should be display with patient details .Patient Message page should be displayed. </t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0233</t>
+  </si>
+  <si>
+    <t>To verify Insurance Approval Status in Insurance Approval</t>
+  </si>
+  <si>
+    <t>Hovering on MENU &gt;&gt;click on Insurance Approval&gt;Select Insurance Approval Status</t>
+  </si>
+  <si>
+    <t>surance Approval Status  window should be displayed</t>
+  </si>
+  <si>
+    <t>Patient Id:Nh000001096</t>
+  </si>
+  <si>
+    <t>Select date From and To</t>
+  </si>
+  <si>
+    <t>From:1/1/19
+To:14/6/19</t>
+  </si>
+  <si>
+    <t>User should be able to select the date.By default Status should be checked(pending/Approved/Rejected/sent)</t>
+  </si>
+  <si>
+    <t>Procedure Request should be listed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Export To Excel </t>
+  </si>
+  <si>
+    <t>download Patient Procedure Request in Excel Format</t>
+  </si>
+  <si>
+    <t>Click on Print Preview</t>
+  </si>
+  <si>
+    <t>User should be able to view the  patient Procedure Request</t>
+  </si>
+  <si>
+    <t>Navigate to Home Page</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0234</t>
+  </si>
+  <si>
+    <t>Click on Patient Search on right top header</t>
+  </si>
+  <si>
+    <t>Patient Search page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Patient Id </t>
+  </si>
+  <si>
+    <t>Patient Id:Nm00000109</t>
+  </si>
+  <si>
+    <t>Click on search</t>
+  </si>
+  <si>
+    <t>Patient detail should be displayed with cooresponding entered patient Id</t>
+  </si>
+  <si>
+    <t>Click on 'Click to add Visit' icon from searched patient list</t>
+  </si>
+  <si>
+    <t>Page should be navigate to  Patient Revisit with fields filled out</t>
+  </si>
+  <si>
+    <t>Page navigate to patient Search</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0235</t>
+  </si>
+  <si>
+    <t>To verify viewing medical record in OP</t>
+  </si>
+  <si>
+    <t>To verify Adding patient visit after search in OP</t>
+  </si>
+  <si>
+    <t>Click on View Medical Record icon</t>
+  </si>
+  <si>
+    <t>Medical Record page should be displayed with all the details of a patient</t>
+  </si>
+  <si>
+    <t>Page navigate to patient Home page</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0236</t>
+  </si>
+  <si>
+    <t>To verify Printing Wrist Band  in OP</t>
+  </si>
+  <si>
+    <t>Click on WristBand</t>
+  </si>
+  <si>
+    <t>A print Details pop-up should be displayed with 
+1.Pediatric's Wristbands
+2.Adult's Wristbands
+3.Neonatal Wristbands</t>
+  </si>
+  <si>
+    <t>Click on Pediatric's Wristbands</t>
+  </si>
+  <si>
+    <t>Pediatric's Wristbands report should be displayed</t>
+  </si>
+  <si>
+    <t>Navigate to Print Details pop-up</t>
+  </si>
+  <si>
+    <t>Click on Adult's Wristbands</t>
+  </si>
+  <si>
+    <t>Adult's Wristbands report should be displayed</t>
+  </si>
+  <si>
+    <t>Click on Neonatal Wristbands</t>
+  </si>
+  <si>
+    <t>Neonatal Wristbands report should be displayed</t>
+  </si>
+  <si>
+    <t>Navigate to Patient Search</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0237</t>
+  </si>
+  <si>
+    <t>User can able to Searching Bills</t>
+  </si>
+  <si>
+    <t>Click on Billing Search on right top header</t>
+  </si>
+  <si>
+    <t>User should be able to view Todays Bills</t>
+  </si>
+  <si>
+    <t>Entering data in search option by using 
+1.BillNo
+2.Patient ID
+3.patient name 
+4.Amount</t>
+  </si>
+  <si>
+    <t>User should be able to searching by using 1.BillNo
+2.Patient ID
+3.patient name 
+4.Amount</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0238</t>
+  </si>
+  <si>
+    <t>User can able to  Editing Bills</t>
+  </si>
+  <si>
+    <t>Click on Editing Bill by selecting any patient from todays bills</t>
+  </si>
+  <si>
+    <t>page should be navigate to OP Consolidated Bills</t>
+  </si>
+  <si>
+    <t>Page should be navigate to Billing Search OP</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0239</t>
+  </si>
+  <si>
+    <t>To verify Printing Bills in OP</t>
+  </si>
+  <si>
+    <t>Click on Print Bill by selecting any patient from todays bills</t>
+  </si>
+  <si>
+    <t>A Consolidate Bill &amp; Receipt  Print pop-up should be 1.displayed with
+2.Summary Print
+3.Detailed Print
+4.receipt Print</t>
   </si>
 </sst>
 </file>
@@ -5634,14 +6022,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5958,11 +6346,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9C3D31-C5E0-4697-A93F-78D6BCE0E40D}">
-  <dimension ref="A1:S2275"/>
+  <dimension ref="A1:S2487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2279" sqref="F2279"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2484" sqref="E2484:E2487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6024,14 +6412,14 @@
       <c r="M1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="R1" s="28" t="s">
+      <c r="P1" s="26"/>
+      <c r="R1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="28"/>
+      <c r="S1" s="27"/>
     </row>
     <row r="2" spans="1:19" s="12" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -6063,7 +6451,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -14870,7 +15258,7 @@
       <c r="C592" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D592" s="26" t="s">
+      <c r="D592" s="28" t="s">
         <v>444</v>
       </c>
       <c r="E592" s="10">
@@ -14890,7 +15278,7 @@
       <c r="L592" s="4"/>
     </row>
     <row r="593" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D593" s="26"/>
+      <c r="D593" s="28"/>
       <c r="E593" s="10">
         <v>2</v>
       </c>
@@ -14905,7 +15293,7 @@
       <c r="L593" s="4"/>
     </row>
     <row r="594" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D594" s="26"/>
+      <c r="D594" s="28"/>
       <c r="E594" s="10">
         <v>3</v>
       </c>
@@ -14920,7 +15308,7 @@
       <c r="L594" s="4"/>
     </row>
     <row r="595" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D595" s="26"/>
+      <c r="D595" s="28"/>
       <c r="E595" s="10">
         <v>4</v>
       </c>
@@ -14935,7 +15323,7 @@
       <c r="L595" s="4"/>
     </row>
     <row r="596" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D596" s="26"/>
+      <c r="D596" s="28"/>
       <c r="E596" s="10">
         <v>5</v>
       </c>
@@ -14953,7 +15341,7 @@
       <c r="L596" s="4"/>
     </row>
     <row r="597" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="D597" s="26"/>
+      <c r="D597" s="28"/>
       <c r="E597" s="10">
         <v>6</v>
       </c>
@@ -14968,7 +15356,7 @@
       <c r="L597" s="4"/>
     </row>
     <row r="598" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="D598" s="26"/>
+      <c r="D598" s="28"/>
       <c r="E598" s="10">
         <v>7</v>
       </c>
@@ -14983,7 +15371,7 @@
       <c r="L598" s="4"/>
     </row>
     <row r="599" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D599" s="26"/>
+      <c r="D599" s="28"/>
       <c r="E599" s="10">
         <v>8</v>
       </c>
@@ -14998,7 +15386,7 @@
       <c r="L599" s="4"/>
     </row>
     <row r="600" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D600" s="26"/>
+      <c r="D600" s="28"/>
       <c r="E600" s="10">
         <v>9</v>
       </c>
@@ -15027,7 +15415,7 @@
       <c r="C602" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D602" s="26" t="s">
+      <c r="D602" s="28" t="s">
         <v>453</v>
       </c>
       <c r="E602" s="10">
@@ -15047,7 +15435,7 @@
       <c r="L602" s="4"/>
     </row>
     <row r="603" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D603" s="26"/>
+      <c r="D603" s="28"/>
       <c r="E603" s="10">
         <v>2</v>
       </c>
@@ -15062,7 +15450,7 @@
       <c r="L603" s="4"/>
     </row>
     <row r="604" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D604" s="26"/>
+      <c r="D604" s="28"/>
       <c r="E604" s="10">
         <v>3</v>
       </c>
@@ -15077,7 +15465,7 @@
       <c r="L604" s="4"/>
     </row>
     <row r="605" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D605" s="26"/>
+      <c r="D605" s="28"/>
       <c r="E605" s="10">
         <v>4</v>
       </c>
@@ -15092,7 +15480,7 @@
       <c r="L605" s="4"/>
     </row>
     <row r="606" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D606" s="26"/>
+      <c r="D606" s="28"/>
       <c r="E606" s="10">
         <v>5</v>
       </c>
@@ -15110,7 +15498,7 @@
       <c r="L606" s="4"/>
     </row>
     <row r="607" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="D607" s="26"/>
+      <c r="D607" s="28"/>
       <c r="E607" s="10">
         <v>6</v>
       </c>
@@ -15125,7 +15513,7 @@
       <c r="L607" s="4"/>
     </row>
     <row r="608" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="D608" s="26"/>
+      <c r="D608" s="28"/>
       <c r="E608" s="10">
         <v>7</v>
       </c>
@@ -15140,7 +15528,7 @@
       <c r="L608" s="4"/>
     </row>
     <row r="609" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D609" s="26"/>
+      <c r="D609" s="28"/>
       <c r="E609" s="10">
         <v>8</v>
       </c>
@@ -15169,7 +15557,7 @@
       <c r="C611" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D611" s="26" t="s">
+      <c r="D611" s="28" t="s">
         <v>457</v>
       </c>
       <c r="E611" s="10">
@@ -15189,7 +15577,7 @@
       <c r="L611" s="4"/>
     </row>
     <row r="612" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D612" s="26"/>
+      <c r="D612" s="28"/>
       <c r="E612" s="10">
         <v>2</v>
       </c>
@@ -15204,7 +15592,7 @@
       <c r="L612" s="4"/>
     </row>
     <row r="613" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D613" s="26"/>
+      <c r="D613" s="28"/>
       <c r="E613" s="10">
         <v>3</v>
       </c>
@@ -15219,7 +15607,7 @@
       <c r="L613" s="4"/>
     </row>
     <row r="614" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D614" s="26"/>
+      <c r="D614" s="28"/>
       <c r="E614" s="10">
         <v>4</v>
       </c>
@@ -15234,7 +15622,7 @@
       <c r="L614" s="4"/>
     </row>
     <row r="615" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D615" s="26"/>
+      <c r="D615" s="28"/>
       <c r="E615" s="10">
         <v>5</v>
       </c>
@@ -15252,7 +15640,7 @@
       <c r="L615" s="4"/>
     </row>
     <row r="616" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="D616" s="26"/>
+      <c r="D616" s="28"/>
       <c r="E616" s="10">
         <v>6</v>
       </c>
@@ -15267,7 +15655,7 @@
       <c r="L616" s="4"/>
     </row>
     <row r="617" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D617" s="26"/>
+      <c r="D617" s="28"/>
       <c r="E617" s="10">
         <v>7</v>
       </c>
@@ -15282,7 +15670,7 @@
       <c r="L617" s="4"/>
     </row>
     <row r="618" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D618" s="26"/>
+      <c r="D618" s="28"/>
       <c r="E618" s="10">
         <v>8</v>
       </c>
@@ -15311,7 +15699,7 @@
       <c r="C620" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D620" s="26" t="s">
+      <c r="D620" s="28" t="s">
         <v>461</v>
       </c>
       <c r="E620" s="10">
@@ -15331,7 +15719,7 @@
       <c r="L620" s="4"/>
     </row>
     <row r="621" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D621" s="26"/>
+      <c r="D621" s="28"/>
       <c r="E621" s="10">
         <v>2</v>
       </c>
@@ -15346,7 +15734,7 @@
       <c r="L621" s="4"/>
     </row>
     <row r="622" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D622" s="26"/>
+      <c r="D622" s="28"/>
       <c r="E622" s="10">
         <v>3</v>
       </c>
@@ -15361,7 +15749,7 @@
       <c r="L622" s="4"/>
     </row>
     <row r="623" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D623" s="26"/>
+      <c r="D623" s="28"/>
       <c r="E623" s="10">
         <v>4</v>
       </c>
@@ -15376,7 +15764,7 @@
       <c r="L623" s="4"/>
     </row>
     <row r="624" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D624" s="26"/>
+      <c r="D624" s="28"/>
       <c r="E624" s="10">
         <v>5</v>
       </c>
@@ -15394,7 +15782,7 @@
       <c r="L624" s="4"/>
     </row>
     <row r="625" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D625" s="26"/>
+      <c r="D625" s="28"/>
       <c r="E625" s="10">
         <v>6</v>
       </c>
@@ -15409,7 +15797,7 @@
       <c r="L625" s="4"/>
     </row>
     <row r="626" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="D626" s="26"/>
+      <c r="D626" s="28"/>
       <c r="E626" s="10">
         <v>7</v>
       </c>
@@ -15424,7 +15812,7 @@
       <c r="L626" s="4"/>
     </row>
     <row r="627" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D627" s="26"/>
+      <c r="D627" s="28"/>
       <c r="E627" s="10">
         <v>8</v>
       </c>
@@ -15453,7 +15841,7 @@
       <c r="C629" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D629" s="26" t="s">
+      <c r="D629" s="28" t="s">
         <v>467</v>
       </c>
       <c r="E629" s="10">
@@ -15473,7 +15861,7 @@
       <c r="L629" s="4"/>
     </row>
     <row r="630" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D630" s="26"/>
+      <c r="D630" s="28"/>
       <c r="E630" s="10">
         <v>2</v>
       </c>
@@ -15488,7 +15876,7 @@
       <c r="L630" s="4"/>
     </row>
     <row r="631" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D631" s="26"/>
+      <c r="D631" s="28"/>
       <c r="E631" s="10">
         <v>3</v>
       </c>
@@ -15503,7 +15891,7 @@
       <c r="L631" s="4"/>
     </row>
     <row r="632" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D632" s="26"/>
+      <c r="D632" s="28"/>
       <c r="E632" s="10">
         <v>4</v>
       </c>
@@ -15518,7 +15906,7 @@
       <c r="L632" s="4"/>
     </row>
     <row r="633" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D633" s="26"/>
+      <c r="D633" s="28"/>
       <c r="E633" s="10">
         <v>5</v>
       </c>
@@ -15536,7 +15924,7 @@
       <c r="L633" s="4"/>
     </row>
     <row r="634" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D634" s="26"/>
+      <c r="D634" s="28"/>
       <c r="E634" s="10">
         <v>6</v>
       </c>
@@ -15554,7 +15942,7 @@
       <c r="L634" s="4"/>
     </row>
     <row r="635" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D635" s="26"/>
+      <c r="D635" s="28"/>
       <c r="E635" s="10">
         <v>7</v>
       </c>
@@ -15583,7 +15971,7 @@
       <c r="C637" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D637" s="26" t="s">
+      <c r="D637" s="28" t="s">
         <v>474</v>
       </c>
       <c r="E637" s="10">
@@ -15603,7 +15991,7 @@
       <c r="L637" s="4"/>
     </row>
     <row r="638" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D638" s="26"/>
+      <c r="D638" s="28"/>
       <c r="E638" s="10">
         <v>2</v>
       </c>
@@ -15618,7 +16006,7 @@
       <c r="L638" s="4"/>
     </row>
     <row r="639" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D639" s="26"/>
+      <c r="D639" s="28"/>
       <c r="E639" s="10">
         <v>3</v>
       </c>
@@ -15633,7 +16021,7 @@
       <c r="L639" s="4"/>
     </row>
     <row r="640" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D640" s="26"/>
+      <c r="D640" s="28"/>
       <c r="E640" s="10">
         <v>4</v>
       </c>
@@ -15648,7 +16036,7 @@
       <c r="L640" s="4"/>
     </row>
     <row r="641" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D641" s="26"/>
+      <c r="D641" s="28"/>
       <c r="E641" s="10">
         <v>5</v>
       </c>
@@ -15666,7 +16054,7 @@
       <c r="L641" s="4"/>
     </row>
     <row r="642" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D642" s="26"/>
+      <c r="D642" s="28"/>
       <c r="E642" s="10">
         <v>6</v>
       </c>
@@ -15684,7 +16072,7 @@
       <c r="L642" s="4"/>
     </row>
     <row r="643" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D643" s="26"/>
+      <c r="D643" s="28"/>
       <c r="E643" s="10">
         <v>7</v>
       </c>
@@ -15713,7 +16101,7 @@
       <c r="C645" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D645" s="26" t="s">
+      <c r="D645" s="28" t="s">
         <v>477</v>
       </c>
       <c r="E645" s="10">
@@ -15733,7 +16121,7 @@
       <c r="L645" s="4"/>
     </row>
     <row r="646" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D646" s="26"/>
+      <c r="D646" s="28"/>
       <c r="E646" s="10">
         <v>2</v>
       </c>
@@ -15748,7 +16136,7 @@
       <c r="L646" s="4"/>
     </row>
     <row r="647" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D647" s="26"/>
+      <c r="D647" s="28"/>
       <c r="E647" s="10">
         <v>3</v>
       </c>
@@ -15763,7 +16151,7 @@
       <c r="L647" s="4"/>
     </row>
     <row r="648" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D648" s="26"/>
+      <c r="D648" s="28"/>
       <c r="E648" s="10">
         <v>4</v>
       </c>
@@ -15778,7 +16166,7 @@
       <c r="L648" s="4"/>
     </row>
     <row r="649" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D649" s="26"/>
+      <c r="D649" s="28"/>
       <c r="E649" s="10">
         <v>5</v>
       </c>
@@ -15796,7 +16184,7 @@
       <c r="L649" s="4"/>
     </row>
     <row r="650" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D650" s="26"/>
+      <c r="D650" s="28"/>
       <c r="E650" s="10">
         <v>6</v>
       </c>
@@ -15814,7 +16202,7 @@
       <c r="L650" s="4"/>
     </row>
     <row r="651" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D651" s="26"/>
+      <c r="D651" s="28"/>
       <c r="E651" s="10">
         <v>7</v>
       </c>
@@ -15843,7 +16231,7 @@
       <c r="C653" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D653" s="26" t="s">
+      <c r="D653" s="28" t="s">
         <v>481</v>
       </c>
       <c r="E653" s="10">
@@ -15863,7 +16251,7 @@
       <c r="L653" s="4"/>
     </row>
     <row r="654" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D654" s="26"/>
+      <c r="D654" s="28"/>
       <c r="E654" s="10">
         <v>2</v>
       </c>
@@ -15878,7 +16266,7 @@
       <c r="L654" s="4"/>
     </row>
     <row r="655" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D655" s="26"/>
+      <c r="D655" s="28"/>
       <c r="E655" s="10">
         <v>3</v>
       </c>
@@ -15893,7 +16281,7 @@
       <c r="L655" s="4"/>
     </row>
     <row r="656" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D656" s="26"/>
+      <c r="D656" s="28"/>
       <c r="E656" s="10">
         <v>4</v>
       </c>
@@ -15908,7 +16296,7 @@
       <c r="L656" s="4"/>
     </row>
     <row r="657" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D657" s="26"/>
+      <c r="D657" s="28"/>
       <c r="E657" s="10">
         <v>5</v>
       </c>
@@ -15926,7 +16314,7 @@
       <c r="L657" s="4"/>
     </row>
     <row r="658" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D658" s="26"/>
+      <c r="D658" s="28"/>
       <c r="E658" s="10">
         <v>6</v>
       </c>
@@ -15944,7 +16332,7 @@
       <c r="L658" s="4"/>
     </row>
     <row r="659" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D659" s="26"/>
+      <c r="D659" s="28"/>
       <c r="E659" s="10">
         <v>7</v>
       </c>
@@ -15973,7 +16361,7 @@
       <c r="C661" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D661" s="26" t="s">
+      <c r="D661" s="28" t="s">
         <v>485</v>
       </c>
       <c r="E661" s="10">
@@ -15993,7 +16381,7 @@
       <c r="L661" s="4"/>
     </row>
     <row r="662" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D662" s="26"/>
+      <c r="D662" s="28"/>
       <c r="E662" s="10">
         <v>2</v>
       </c>
@@ -16008,7 +16396,7 @@
       <c r="L662" s="4"/>
     </row>
     <row r="663" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D663" s="26"/>
+      <c r="D663" s="28"/>
       <c r="E663" s="10">
         <v>3</v>
       </c>
@@ -16023,7 +16411,7 @@
       <c r="L663" s="4"/>
     </row>
     <row r="664" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D664" s="26"/>
+      <c r="D664" s="28"/>
       <c r="E664" s="10">
         <v>4</v>
       </c>
@@ -16038,7 +16426,7 @@
       <c r="L664" s="4"/>
     </row>
     <row r="665" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D665" s="26"/>
+      <c r="D665" s="28"/>
       <c r="E665" s="10">
         <v>5</v>
       </c>
@@ -16056,7 +16444,7 @@
       <c r="L665" s="4"/>
     </row>
     <row r="666" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D666" s="26"/>
+      <c r="D666" s="28"/>
       <c r="E666" s="10">
         <v>6</v>
       </c>
@@ -16074,7 +16462,7 @@
       <c r="L666" s="4"/>
     </row>
     <row r="667" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D667" s="26"/>
+      <c r="D667" s="28"/>
       <c r="E667" s="10">
         <v>7</v>
       </c>
@@ -16103,7 +16491,7 @@
       <c r="C669" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D669" s="26" t="s">
+      <c r="D669" s="28" t="s">
         <v>489</v>
       </c>
       <c r="E669" s="10">
@@ -16123,7 +16511,7 @@
       <c r="L669" s="4"/>
     </row>
     <row r="670" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D670" s="26"/>
+      <c r="D670" s="28"/>
       <c r="E670" s="10">
         <v>2</v>
       </c>
@@ -16138,7 +16526,7 @@
       <c r="L670" s="4"/>
     </row>
     <row r="671" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D671" s="26"/>
+      <c r="D671" s="28"/>
       <c r="E671" s="10">
         <v>3</v>
       </c>
@@ -16153,7 +16541,7 @@
       <c r="L671" s="4"/>
     </row>
     <row r="672" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D672" s="26"/>
+      <c r="D672" s="28"/>
       <c r="E672" s="10">
         <v>4</v>
       </c>
@@ -16168,7 +16556,7 @@
       <c r="L672" s="4"/>
     </row>
     <row r="673" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D673" s="26"/>
+      <c r="D673" s="28"/>
       <c r="E673" s="10">
         <v>5</v>
       </c>
@@ -16186,7 +16574,7 @@
       <c r="L673" s="4"/>
     </row>
     <row r="674" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D674" s="26"/>
+      <c r="D674" s="28"/>
       <c r="E674" s="10">
         <v>6</v>
       </c>
@@ -16204,7 +16592,7 @@
       <c r="L674" s="4"/>
     </row>
     <row r="675" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D675" s="26"/>
+      <c r="D675" s="28"/>
       <c r="E675" s="10">
         <v>7</v>
       </c>
@@ -16233,7 +16621,7 @@
       <c r="C677" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D677" s="26" t="s">
+      <c r="D677" s="28" t="s">
         <v>494</v>
       </c>
       <c r="E677" s="10">
@@ -16253,7 +16641,7 @@
       <c r="L677" s="4"/>
     </row>
     <row r="678" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D678" s="26"/>
+      <c r="D678" s="28"/>
       <c r="E678" s="10">
         <v>2</v>
       </c>
@@ -16268,7 +16656,7 @@
       <c r="L678" s="4"/>
     </row>
     <row r="679" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D679" s="26"/>
+      <c r="D679" s="28"/>
       <c r="E679" s="10">
         <v>3</v>
       </c>
@@ -16283,7 +16671,7 @@
       <c r="L679" s="4"/>
     </row>
     <row r="680" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D680" s="26"/>
+      <c r="D680" s="28"/>
       <c r="E680" s="10">
         <v>4</v>
       </c>
@@ -16298,7 +16686,7 @@
       <c r="L680" s="4"/>
     </row>
     <row r="681" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D681" s="26"/>
+      <c r="D681" s="28"/>
       <c r="E681" s="10">
         <v>5</v>
       </c>
@@ -16316,7 +16704,7 @@
       <c r="L681" s="4"/>
     </row>
     <row r="682" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D682" s="26"/>
+      <c r="D682" s="28"/>
       <c r="E682" s="10">
         <v>6</v>
       </c>
@@ -16334,7 +16722,7 @@
       <c r="L682" s="4"/>
     </row>
     <row r="683" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D683" s="26"/>
+      <c r="D683" s="28"/>
       <c r="E683" s="10">
         <v>7</v>
       </c>
@@ -16363,7 +16751,7 @@
       <c r="C685" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D685" s="26" t="s">
+      <c r="D685" s="28" t="s">
         <v>498</v>
       </c>
       <c r="E685" s="10">
@@ -16382,7 +16770,7 @@
       <c r="L685" s="4"/>
     </row>
     <row r="686" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D686" s="26"/>
+      <c r="D686" s="28"/>
       <c r="E686" s="10">
         <v>2</v>
       </c>
@@ -16396,7 +16784,7 @@
       <c r="L686" s="4"/>
     </row>
     <row r="687" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D687" s="26"/>
+      <c r="D687" s="28"/>
       <c r="E687" s="10">
         <v>3</v>
       </c>
@@ -16410,7 +16798,7 @@
       <c r="L687" s="4"/>
     </row>
     <row r="688" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D688" s="26"/>
+      <c r="D688" s="28"/>
       <c r="E688" s="10">
         <v>4</v>
       </c>
@@ -16424,7 +16812,7 @@
       <c r="L688" s="4"/>
     </row>
     <row r="689" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D689" s="26"/>
+      <c r="D689" s="28"/>
       <c r="E689" s="10">
         <v>5</v>
       </c>
@@ -16441,7 +16829,7 @@
       <c r="L689" s="4"/>
     </row>
     <row r="690" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D690" s="26"/>
+      <c r="D690" s="28"/>
       <c r="E690" s="10">
         <v>6</v>
       </c>
@@ -16458,7 +16846,7 @@
       <c r="L690" s="4"/>
     </row>
     <row r="691" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D691" s="26"/>
+      <c r="D691" s="28"/>
       <c r="E691" s="10">
         <v>7</v>
       </c>
@@ -16485,7 +16873,7 @@
       <c r="C693" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D693" s="26" t="s">
+      <c r="D693" s="28" t="s">
         <v>502</v>
       </c>
       <c r="E693" s="10">
@@ -16504,7 +16892,7 @@
       <c r="L693" s="4"/>
     </row>
     <row r="694" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D694" s="26"/>
+      <c r="D694" s="28"/>
       <c r="E694" s="10">
         <v>2</v>
       </c>
@@ -16518,7 +16906,7 @@
       <c r="L694" s="4"/>
     </row>
     <row r="695" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D695" s="26"/>
+      <c r="D695" s="28"/>
       <c r="E695" s="10">
         <v>3</v>
       </c>
@@ -16532,7 +16920,7 @@
       <c r="L695" s="4"/>
     </row>
     <row r="696" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D696" s="26"/>
+      <c r="D696" s="28"/>
       <c r="E696" s="10">
         <v>4</v>
       </c>
@@ -16546,7 +16934,7 @@
       <c r="L696" s="4"/>
     </row>
     <row r="697" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D697" s="26"/>
+      <c r="D697" s="28"/>
       <c r="E697" s="10">
         <v>5</v>
       </c>
@@ -16563,7 +16951,7 @@
       <c r="L697" s="4"/>
     </row>
     <row r="698" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D698" s="26"/>
+      <c r="D698" s="28"/>
       <c r="E698" s="10">
         <v>6</v>
       </c>
@@ -16580,7 +16968,7 @@
       <c r="L698" s="4"/>
     </row>
     <row r="699" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D699" s="26"/>
+      <c r="D699" s="28"/>
       <c r="E699" s="10">
         <v>7</v>
       </c>
@@ -16607,7 +16995,7 @@
       <c r="C701" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D701" s="26" t="s">
+      <c r="D701" s="28" t="s">
         <v>506</v>
       </c>
       <c r="E701" s="10">
@@ -16626,7 +17014,7 @@
       <c r="L701" s="4"/>
     </row>
     <row r="702" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D702" s="26"/>
+      <c r="D702" s="28"/>
       <c r="E702" s="10">
         <v>2</v>
       </c>
@@ -16640,7 +17028,7 @@
       <c r="L702" s="4"/>
     </row>
     <row r="703" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D703" s="26"/>
+      <c r="D703" s="28"/>
       <c r="E703" s="10">
         <v>3</v>
       </c>
@@ -16654,7 +17042,7 @@
       <c r="L703" s="4"/>
     </row>
     <row r="704" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D704" s="26"/>
+      <c r="D704" s="28"/>
       <c r="E704" s="10">
         <v>4</v>
       </c>
@@ -16668,7 +17056,7 @@
       <c r="L704" s="4"/>
     </row>
     <row r="705" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D705" s="26"/>
+      <c r="D705" s="28"/>
       <c r="E705" s="10">
         <v>5</v>
       </c>
@@ -16685,7 +17073,7 @@
       <c r="L705" s="4"/>
     </row>
     <row r="706" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D706" s="26"/>
+      <c r="D706" s="28"/>
       <c r="E706" s="10">
         <v>6</v>
       </c>
@@ -16702,7 +17090,7 @@
       <c r="L706" s="4"/>
     </row>
     <row r="707" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D707" s="26"/>
+      <c r="D707" s="28"/>
       <c r="E707" s="10">
         <v>7</v>
       </c>
@@ -36019,7 +36407,7 @@
         <v>1505</v>
       </c>
       <c r="I2169" s="10" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="2170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -36558,7 +36946,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="2211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2211" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D2211" s="23"/>
       <c r="E2211" s="10">
         <v>10</v>
@@ -36567,7 +36955,7 @@
         <v>1530</v>
       </c>
       <c r="G2211" s="10" t="s">
-        <v>1531</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="2212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -36576,10 +36964,10 @@
         <v>11</v>
       </c>
       <c r="F2212" s="10" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="G2212" s="10" t="s">
-        <v>1533</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="2213" spans="1:9" x14ac:dyDescent="0.25">
@@ -36591,12 +36979,12 @@
         <v>860</v>
       </c>
       <c r="G2213" s="10" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="2215" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2215" s="10" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B2215" s="10" t="s">
         <v>30</v>
@@ -36605,7 +36993,7 @@
         <v>79</v>
       </c>
       <c r="D2215" s="22" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E2215" s="10">
         <v>1</v>
@@ -36748,10 +37136,10 @@
         <v>1504</v>
       </c>
       <c r="G2225" s="10" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="I2225" s="10" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="2226" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -36760,10 +37148,10 @@
         <v>12</v>
       </c>
       <c r="F2226" s="10" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="G2226" s="10" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="2227" spans="1:9" x14ac:dyDescent="0.25">
@@ -36780,7 +37168,7 @@
     </row>
     <row r="2229" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2229" s="10" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B2229" s="10" t="s">
         <v>30</v>
@@ -36789,7 +37177,7 @@
         <v>79</v>
       </c>
       <c r="D2229" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E2229" s="10">
         <v>1</v>
@@ -36932,10 +37320,10 @@
         <v>1504</v>
       </c>
       <c r="G2239" s="10" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="I2239" s="10" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="2240" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -36944,10 +37332,10 @@
         <v>12</v>
       </c>
       <c r="F2240" s="10" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="G2240" s="10" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="2241" spans="1:9" x14ac:dyDescent="0.25">
@@ -36964,7 +37352,7 @@
     </row>
     <row r="2243" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2243" s="10" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B2243" s="10" t="s">
         <v>30</v>
@@ -36973,7 +37361,7 @@
         <v>79</v>
       </c>
       <c r="D2243" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="E2243" s="10">
         <v>1</v>
@@ -37107,7 +37495,7 @@
         <v>1512</v>
       </c>
       <c r="I2252" s="10" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2253" spans="1:9" x14ac:dyDescent="0.25">
@@ -37124,7 +37512,7 @@
     </row>
     <row r="2255" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2255" s="10" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B2255" s="10" t="s">
         <v>30</v>
@@ -37133,7 +37521,7 @@
         <v>79</v>
       </c>
       <c r="D2255" s="22" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="E2255" s="10">
         <v>1</v>
@@ -37197,10 +37585,10 @@
         <v>5</v>
       </c>
       <c r="F2259" s="10" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="G2259" s="10" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="H2259" s="5"/>
     </row>
@@ -37210,13 +37598,13 @@
         <v>6</v>
       </c>
       <c r="F2260" s="10" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="G2260" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="I2260" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="2261" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -37228,12 +37616,12 @@
         <v>356</v>
       </c>
       <c r="G2261" s="10" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="2263" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2263" s="10" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B2263" s="10" t="s">
         <v>30</v>
@@ -37242,7 +37630,7 @@
         <v>79</v>
       </c>
       <c r="D2263" s="22" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E2263" s="10">
         <v>1</v>
@@ -37306,10 +37694,10 @@
         <v>5</v>
       </c>
       <c r="F2267" s="10" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="G2267" s="10" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="H2267" s="5"/>
     </row>
@@ -37319,10 +37707,10 @@
         <v>6</v>
       </c>
       <c r="F2268" s="10" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="G2268" s="10" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="2269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -37331,10 +37719,10 @@
         <v>7</v>
       </c>
       <c r="F2269" s="10" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="G2269" s="10" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="2270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -37343,10 +37731,10 @@
         <v>8</v>
       </c>
       <c r="F2270" s="10" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G2270" s="10" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="2271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -37355,10 +37743,10 @@
         <v>9</v>
       </c>
       <c r="F2271" s="10" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="G2271" s="10" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="2272" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -37367,46 +37755,46 @@
         <v>10</v>
       </c>
       <c r="F2272" s="10" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G2272" s="10" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I2272" s="10" t="s">
         <v>1564</v>
       </c>
-      <c r="G2272" s="10" t="s">
-        <v>1565</v>
-      </c>
-      <c r="I2272" s="10" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="2273" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D2273" s="23"/>
       <c r="E2273" s="10">
         <v>11</v>
       </c>
       <c r="F2273" s="10" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G2273" s="10" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I2273" s="10" t="s">
         <v>1567</v>
       </c>
-      <c r="G2273" s="10" t="s">
-        <v>1568</v>
-      </c>
-      <c r="I2273" s="10" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="2274" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2274" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D2274" s="23"/>
       <c r="E2274" s="10">
         <v>12</v>
       </c>
       <c r="F2274" s="10" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G2274" s="10" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I2274" s="10" t="s">
         <v>1570</v>
       </c>
-      <c r="G2274" s="10" t="s">
-        <v>1571</v>
-      </c>
-      <c r="I2274" s="10" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="2275" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2275" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D2275" s="24"/>
       <c r="E2275" s="10">
         <v>13</v>
@@ -37415,33 +37803,2970 @@
         <v>356</v>
       </c>
       <c r="G2275" s="10" t="s">
-        <v>1555</v>
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2277" s="10" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B2277" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2277" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2277" s="22" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E2277" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2277" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2277" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2277" s="5"/>
+      <c r="I2277" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2278" s="23"/>
+      <c r="E2278" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2278" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2278" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2278" s="5"/>
+      <c r="I2278" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2279" s="23"/>
+      <c r="E2279" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2279" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2279" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2279" s="5"/>
+    </row>
+    <row r="2280" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2280" s="23"/>
+      <c r="E2280" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2280" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2280" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2280" s="5"/>
+    </row>
+    <row r="2281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2281" s="23"/>
+      <c r="E2281" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2281" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G2281" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H2281" s="5"/>
+    </row>
+    <row r="2282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2282" s="23"/>
+      <c r="E2282" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2282" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2282" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2282" s="10" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2283" s="23"/>
+      <c r="E2283" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2283" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G2283" s="10" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2284" s="23"/>
+      <c r="E2284" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2284" s="10" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G2284" s="10" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2285" s="23"/>
+      <c r="E2285" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2285" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G2285" s="10" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2286" s="24"/>
+      <c r="E2286" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2286" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2286" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2288" s="10" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B2288" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2288" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2288" s="22" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E2288" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2288" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2288" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2288" s="5"/>
+      <c r="I2288" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2289" s="23"/>
+      <c r="E2289" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2289" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2289" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2289" s="5"/>
+      <c r="I2289" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2290" s="23"/>
+      <c r="E2290" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2290" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2290" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2290" s="5"/>
+    </row>
+    <row r="2291" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2291" s="23"/>
+      <c r="E2291" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2291" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2291" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2291" s="5"/>
+    </row>
+    <row r="2292" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2292" s="23"/>
+      <c r="E2292" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2292" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G2292" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H2292" s="5"/>
+    </row>
+    <row r="2293" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2293" s="23"/>
+      <c r="E2293" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2293" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2293" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2293" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2294" s="23"/>
+      <c r="E2294" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2294" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G2294" s="10" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2295" s="23"/>
+      <c r="E2295" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2295" s="10" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G2295" s="10" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2296" s="23"/>
+      <c r="E2296" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2296" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G2296" s="10" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2297" s="24"/>
+      <c r="E2297" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2297" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2297" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2299" s="10" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B2299" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2299" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2299" s="22" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E2299" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2299" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2299" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2299" s="5"/>
+      <c r="I2299" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2300" s="23"/>
+      <c r="E2300" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2300" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2300" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2300" s="5"/>
+      <c r="I2300" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2301" s="23"/>
+      <c r="E2301" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2301" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2301" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2301" s="5"/>
+    </row>
+    <row r="2302" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2302" s="23"/>
+      <c r="E2302" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2302" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2302" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2302" s="5"/>
+    </row>
+    <row r="2303" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2303" s="23"/>
+      <c r="E2303" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2303" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G2303" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H2303" s="5"/>
+    </row>
+    <row r="2304" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2304" s="23"/>
+      <c r="E2304" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2304" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2304" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2304" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2305" s="23"/>
+      <c r="E2305" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2305" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G2305" s="10" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2306" s="23"/>
+      <c r="E2306" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2306" s="10" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G2306" s="10" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2307" s="23"/>
+      <c r="E2307" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2307" s="10" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G2307" s="10" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2308" s="23"/>
+      <c r="E2308" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2308" s="10" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G2308" s="10" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2309" s="23"/>
+      <c r="E2309" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2309" s="10" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G2309" s="10" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2310" s="24"/>
+      <c r="E2310" s="10">
+        <v>12</v>
+      </c>
+      <c r="F2310" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2310" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2312" s="10" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B2312" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2312" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2312" s="22" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E2312" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2312" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2312" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2312" s="5"/>
+      <c r="I2312" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2313" s="23"/>
+      <c r="E2313" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2313" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2313" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2313" s="5"/>
+      <c r="I2313" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2314" s="23"/>
+      <c r="E2314" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2314" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2314" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2314" s="5"/>
+    </row>
+    <row r="2315" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2315" s="23"/>
+      <c r="E2315" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2315" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2315" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2315" s="5"/>
+    </row>
+    <row r="2316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2316" s="23"/>
+      <c r="E2316" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2316" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G2316" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H2316" s="5"/>
+    </row>
+    <row r="2317" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2317" s="23"/>
+      <c r="E2317" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2317" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2317" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2317" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2318" s="23"/>
+      <c r="E2318" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2318" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G2318" s="10" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2319" s="23"/>
+      <c r="E2319" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2319" s="10" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G2319" s="10" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2320" s="23"/>
+      <c r="E2320" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2320" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G2320" s="10" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2321" s="23"/>
+      <c r="E2321" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2321" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2321" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2323" s="10" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B2323" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2323" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2323" s="22" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E2323" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2323" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2323" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2323" s="5"/>
+      <c r="I2323" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2324" s="23"/>
+      <c r="E2324" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2324" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2324" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2324" s="5"/>
+      <c r="I2324" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2325" s="23"/>
+      <c r="E2325" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2325" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2325" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2325" s="5"/>
+    </row>
+    <row r="2326" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2326" s="23"/>
+      <c r="E2326" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2326" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2326" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2326" s="5"/>
+    </row>
+    <row r="2327" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2327" s="23"/>
+      <c r="E2327" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2327" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G2327" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H2327" s="5"/>
+    </row>
+    <row r="2328" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2328" s="23"/>
+      <c r="E2328" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2328" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2328" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2328" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2329" s="23"/>
+      <c r="E2329" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2329" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G2329" s="10" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2330" s="23"/>
+      <c r="E2330" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2330" s="10" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G2330" s="10" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2331" s="24"/>
+      <c r="E2331" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2331" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2331" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2333" s="10" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B2333" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2333" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2333" s="22" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E2333" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2333" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2333" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2333" s="5"/>
+      <c r="I2333" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2334" s="23"/>
+      <c r="E2334" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2334" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2334" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2334" s="5"/>
+      <c r="I2334" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2335" s="23"/>
+      <c r="E2335" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2335" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2335" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2335" s="5"/>
+    </row>
+    <row r="2336" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2336" s="23"/>
+      <c r="E2336" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2336" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2336" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2336" s="5"/>
+    </row>
+    <row r="2337" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2337" s="23"/>
+      <c r="E2337" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2337" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G2337" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H2337" s="5"/>
+    </row>
+    <row r="2338" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2338" s="23"/>
+      <c r="E2338" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2338" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2338" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2338" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2339" s="23"/>
+      <c r="E2339" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2339" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G2339" s="10" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2340" s="23"/>
+      <c r="E2340" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2340" s="10" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G2340" s="10" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2341" s="23"/>
+      <c r="E2341" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2341" s="10" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G2341" s="10" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2342" s="23"/>
+      <c r="E2342" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2342" s="10" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G2342" s="10" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2343" s="24"/>
+      <c r="E2343" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2343" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2343" s="10" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2345" s="10" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B2345" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2345" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2345" s="22" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E2345" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2345" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2345" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2345" s="5"/>
+      <c r="I2345" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2346" s="23"/>
+      <c r="E2346" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2346" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2346" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2346" s="5"/>
+      <c r="I2346" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2347" s="23"/>
+      <c r="E2347" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2347" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2347" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2347" s="5"/>
+    </row>
+    <row r="2348" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2348" s="23"/>
+      <c r="E2348" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2348" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2348" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2348" s="5"/>
+    </row>
+    <row r="2349" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2349" s="23"/>
+      <c r="E2349" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2349" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G2349" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H2349" s="5"/>
+    </row>
+    <row r="2350" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2350" s="23"/>
+      <c r="E2350" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2350" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2350" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2350" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2351" s="23"/>
+      <c r="E2351" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2351" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G2351" s="10" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2352" s="23"/>
+      <c r="E2352" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2352" s="10" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G2352" s="10" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2353" s="23"/>
+      <c r="E2353" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2353" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G2353" s="10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H2353" s="5"/>
+    </row>
+    <row r="2354" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2354" s="23"/>
+      <c r="E2354" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2354" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G2354" s="10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H2354" s="5"/>
+    </row>
+    <row r="2355" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2355" s="23"/>
+      <c r="E2355" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2355" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2355" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H2355" s="5"/>
+    </row>
+    <row r="2356" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2356" s="23"/>
+      <c r="E2356" s="10">
+        <v>12</v>
+      </c>
+      <c r="F2356" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G2356" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I2356" s="10" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2357" s="24"/>
+      <c r="E2357" s="10">
+        <v>13</v>
+      </c>
+      <c r="F2357" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2357" s="10" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2359" s="10" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B2359" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2359" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2359" s="22" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E2359" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2359" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2359" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2359" s="5"/>
+      <c r="I2359" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2360" s="23"/>
+      <c r="E2360" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2360" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2360" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2360" s="5"/>
+      <c r="I2360" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2361" s="23"/>
+      <c r="E2361" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2361" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2361" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2361" s="5"/>
+    </row>
+    <row r="2362" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2362" s="23"/>
+      <c r="E2362" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2362" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2362" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2362" s="5"/>
+    </row>
+    <row r="2363" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2363" s="23"/>
+      <c r="E2363" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2363" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G2363" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H2363" s="5"/>
+    </row>
+    <row r="2364" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2364" s="23"/>
+      <c r="E2364" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2364" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2364" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2364" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2365" s="23"/>
+      <c r="E2365" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2365" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G2365" s="10" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="D2366" s="23"/>
+      <c r="E2366" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2366" s="10" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G2366" s="10" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2367" s="23"/>
+      <c r="E2367" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2367" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2367" s="10" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2368" s="23"/>
+      <c r="E2368" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2368" s="10" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G2368" s="10" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2369" s="23"/>
+      <c r="E2369" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2369" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2369" s="10" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2370" s="23"/>
+      <c r="E2370" s="10">
+        <v>12</v>
+      </c>
+      <c r="F2370" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G2370" s="10" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2371" s="24"/>
+      <c r="E2371" s="10">
+        <v>13</v>
+      </c>
+      <c r="F2371" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2371" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2373" s="10" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B2373" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2373" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2373" s="22" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E2373" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2373" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2373" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2373" s="5"/>
+      <c r="I2373" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2374" s="23"/>
+      <c r="E2374" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2374" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2374" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2374" s="5"/>
+      <c r="I2374" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2375" s="23"/>
+      <c r="E2375" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2375" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2375" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2375" s="5"/>
+    </row>
+    <row r="2376" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2376" s="23"/>
+      <c r="E2376" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2376" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2376" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2376" s="5"/>
+    </row>
+    <row r="2377" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2377" s="23"/>
+      <c r="E2377" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2377" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G2377" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H2377" s="5"/>
+    </row>
+    <row r="2378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2378" s="23"/>
+      <c r="E2378" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2378" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2378" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2378" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2379" s="23"/>
+      <c r="E2379" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2379" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G2379" s="10" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2380" s="23"/>
+      <c r="E2380" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2380" s="10" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G2380" s="10" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2381" s="23"/>
+      <c r="E2381" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2381" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G2381" s="10" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2382" s="23"/>
+      <c r="E2382" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2382" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2382" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2384" s="10" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B2384" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2384" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2384" s="22" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E2384" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2384" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2384" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2384" s="5"/>
+      <c r="I2384" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2385" s="23"/>
+      <c r="E2385" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2385" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2385" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2385" s="5"/>
+      <c r="I2385" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2386" s="23"/>
+      <c r="E2386" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2386" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2386" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2386" s="5"/>
+    </row>
+    <row r="2387" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2387" s="23"/>
+      <c r="E2387" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2387" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2387" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2387" s="5"/>
+    </row>
+    <row r="2388" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2388" s="23"/>
+      <c r="E2388" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2388" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G2388" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H2388" s="5"/>
+    </row>
+    <row r="2389" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2389" s="23"/>
+      <c r="E2389" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2389" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2389" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2389" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2390" s="23"/>
+      <c r="E2390" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2390" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G2390" s="10" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2391" s="23"/>
+      <c r="E2391" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2391" s="10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G2391" s="10" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2392" s="23"/>
+      <c r="E2392" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2392" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2392" s="10" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2393" s="23"/>
+      <c r="E2393" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2393" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2393" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2395" s="10" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B2395" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2395" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2395" s="22" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E2395" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2395" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2395" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2395" s="5"/>
+      <c r="I2395" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2396" s="23"/>
+      <c r="E2396" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2396" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2396" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2396" s="5"/>
+      <c r="I2396" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2397" s="23"/>
+      <c r="E2397" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2397" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2397" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2397" s="5"/>
+    </row>
+    <row r="2398" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2398" s="23"/>
+      <c r="E2398" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2398" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2398" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2398" s="5"/>
+    </row>
+    <row r="2399" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2399" s="23"/>
+      <c r="E2399" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2399" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G2399" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H2399" s="5"/>
+    </row>
+    <row r="2400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2400" s="23"/>
+      <c r="E2400" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2400" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2400" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2400" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2401" s="23"/>
+      <c r="E2401" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2401" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G2401" s="10" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2402" s="23"/>
+      <c r="E2402" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2402" s="10" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G2402" s="10" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2403" s="23"/>
+      <c r="E2403" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2403" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2403" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2405" s="10" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B2405" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2405" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2405" s="22" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E2405" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2405" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2405" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2405" s="5"/>
+      <c r="I2405" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2406" s="23"/>
+      <c r="E2406" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2406" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2406" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2406" s="5"/>
+      <c r="I2406" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2407" s="23"/>
+      <c r="E2407" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2407" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2407" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2407" s="5"/>
+    </row>
+    <row r="2408" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2408" s="23"/>
+      <c r="E2408" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2408" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2408" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2408" s="5"/>
+    </row>
+    <row r="2409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2409" s="23"/>
+      <c r="E2409" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2409" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G2409" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H2409" s="5"/>
+    </row>
+    <row r="2410" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2410" s="23"/>
+      <c r="E2410" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2410" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2410" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2410" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2411" s="23"/>
+      <c r="E2411" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2411" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G2411" s="10" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2412" s="23"/>
+      <c r="E2412" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2412" s="10" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G2412" s="10" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2413" s="23"/>
+      <c r="E2413" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2413" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2413" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2415" s="10" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B2415" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2415" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2415" s="22" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E2415" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2415" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2415" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2415" s="5"/>
+      <c r="I2415" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2416" s="23"/>
+      <c r="E2416" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2416" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2416" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2416" s="5"/>
+      <c r="I2416" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2417" s="23"/>
+      <c r="E2417" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2417" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2417" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2417" s="5"/>
+    </row>
+    <row r="2418" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2418" s="23"/>
+      <c r="E2418" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2418" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2418" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2418" s="5"/>
+    </row>
+    <row r="2419" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2419" s="23"/>
+      <c r="E2419" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2419" s="10" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G2419" s="10" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H2419" s="5"/>
+    </row>
+    <row r="2420" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2420" s="23"/>
+      <c r="E2420" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2420" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="G2420" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I2420" s="10" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2421" s="23"/>
+      <c r="E2421" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2421" s="10" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G2421" s="10" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I2421" s="10" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2422" s="23"/>
+      <c r="E2422" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2422" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2422" s="10" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2423" s="23"/>
+      <c r="E2423" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2423" s="10" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G2423" s="10" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2424" s="23"/>
+      <c r="E2424" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2424" s="10" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G2424" s="10" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2425" s="24"/>
+      <c r="E2425" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2425" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2425" s="10" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2427" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B2427" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2427" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2427" s="22" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E2427" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2427" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2427" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2427" s="5"/>
+      <c r="I2427" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2428" s="23"/>
+      <c r="E2428" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2428" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2428" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2428" s="5"/>
+      <c r="I2428" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2429" s="23"/>
+      <c r="E2429" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2429" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2429" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2429" s="5"/>
+    </row>
+    <row r="2430" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2430" s="23"/>
+      <c r="E2430" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2430" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2430" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2430" s="5"/>
+    </row>
+    <row r="2431" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2431" s="23"/>
+      <c r="E2431" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2431" s="10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G2431" s="10" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H2431" s="5"/>
+    </row>
+    <row r="2432" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2432" s="23"/>
+      <c r="E2432" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2432" s="10" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G2432" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2432" s="10" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2433" s="23"/>
+      <c r="E2433" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2433" s="10" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G2433" s="10" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2434" s="23"/>
+      <c r="E2434" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2434" s="10" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G2434" s="10" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2435" s="24"/>
+      <c r="E2435" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2435" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2435" s="10" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2437" s="10" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B2437" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2437" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2437" s="22" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E2437" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2437" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2437" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2437" s="5"/>
+      <c r="I2437" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2438" s="23"/>
+      <c r="E2438" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2438" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2438" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2438" s="5"/>
+      <c r="I2438" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2439" s="23"/>
+      <c r="E2439" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2439" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2439" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2439" s="5"/>
+    </row>
+    <row r="2440" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2440" s="23"/>
+      <c r="E2440" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2440" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2440" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2440" s="5"/>
+    </row>
+    <row r="2441" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2441" s="23"/>
+      <c r="E2441" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2441" s="10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G2441" s="10" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H2441" s="5"/>
+    </row>
+    <row r="2442" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2442" s="23"/>
+      <c r="E2442" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2442" s="10" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G2442" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2442" s="10" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2443" s="23"/>
+      <c r="E2443" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2443" s="10" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G2443" s="10" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2444" s="23"/>
+      <c r="E2444" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2444" s="10" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G2444" s="10" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2445" s="24"/>
+      <c r="E2445" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2445" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2445" s="10" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2447" s="10" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B2447" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2447" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2447" s="22" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E2447" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2447" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2447" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2447" s="5"/>
+      <c r="I2447" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2448" s="23"/>
+      <c r="E2448" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2448" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2448" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2448" s="5"/>
+      <c r="I2448" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2449" s="23"/>
+      <c r="E2449" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2449" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2449" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2449" s="5"/>
+    </row>
+    <row r="2450" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2450" s="23"/>
+      <c r="E2450" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2450" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2450" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2450" s="5"/>
+    </row>
+    <row r="2451" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2451" s="23"/>
+      <c r="E2451" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2451" s="10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G2451" s="10" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H2451" s="5"/>
+    </row>
+    <row r="2452" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2452" s="23"/>
+      <c r="E2452" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2452" s="10" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G2452" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2452" s="10" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2453" s="23"/>
+      <c r="E2453" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2453" s="10" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G2453" s="10" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2454" s="23"/>
+      <c r="E2454" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2454" s="10" t="s">
+        <v>1673</v>
+      </c>
+      <c r="G2454" s="10" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2455" s="23"/>
+      <c r="E2455" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2455" s="10" t="s">
+        <v>1675</v>
+      </c>
+      <c r="G2455" s="10" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2456" s="23"/>
+      <c r="E2456" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2456" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G2456" s="10" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2457" s="23"/>
+      <c r="E2457" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2457" s="10" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G2457" s="10" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2458" s="23"/>
+      <c r="E2458" s="10">
+        <v>12</v>
+      </c>
+      <c r="F2458" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G2458" s="10" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2459" s="23"/>
+      <c r="E2459" s="10">
+        <v>13</v>
+      </c>
+      <c r="F2459" s="10" t="s">
+        <v>1680</v>
+      </c>
+      <c r="G2459" s="10" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2460" s="23"/>
+      <c r="E2460" s="10">
+        <v>14</v>
+      </c>
+      <c r="F2460" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G2460" s="10" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2461" s="24"/>
+      <c r="E2461" s="10">
+        <v>15</v>
+      </c>
+      <c r="F2461" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G2461" s="10" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2463" s="10" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B2463" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2463" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2463" s="22" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E2463" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2463" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2463" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2463" s="5"/>
+      <c r="I2463" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2464" s="23"/>
+      <c r="E2464" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2464" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2464" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2464" s="5"/>
+      <c r="I2464" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2465" s="23"/>
+      <c r="E2465" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2465" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2465" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2465" s="5"/>
+    </row>
+    <row r="2466" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2466" s="23"/>
+      <c r="E2466" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2466" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2466" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2466" s="5"/>
+    </row>
+    <row r="2467" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2467" s="23"/>
+      <c r="E2467" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2467" s="10" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G2467" s="10" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="D2468" s="24"/>
+      <c r="E2468" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2468" s="10" t="s">
+        <v>1687</v>
+      </c>
+      <c r="G2468" s="10" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2470" s="10" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B2470" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2470" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2470" s="22" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E2470" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2470" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2470" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2470" s="5"/>
+      <c r="I2470" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2471" s="23"/>
+      <c r="E2471" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2471" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2471" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2471" s="5"/>
+      <c r="I2471" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2472" s="23"/>
+      <c r="E2472" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2472" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2472" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2472" s="5"/>
+    </row>
+    <row r="2473" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2473" s="23"/>
+      <c r="E2473" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2473" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2473" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2473" s="5"/>
+    </row>
+    <row r="2474" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2474" s="23"/>
+      <c r="E2474" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2474" s="10" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G2474" s="10" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2475" s="23"/>
+      <c r="E2475" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2475" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="G2475" s="10" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2476" s="24"/>
+      <c r="E2476" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2476" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2476" s="10" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2478" s="10" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B2478" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2478" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2478" s="22" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E2478" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2478" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G2478" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2478" s="5"/>
+      <c r="I2478" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2479" s="23"/>
+      <c r="E2479" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2479" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G2479" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2479" s="5"/>
+      <c r="I2479" s="13" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2480" s="23"/>
+      <c r="E2480" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2480" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2480" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2480" s="5"/>
+    </row>
+    <row r="2481" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2481" s="23"/>
+      <c r="E2481" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2481" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2481" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2481" s="5"/>
+    </row>
+    <row r="2482" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2482" s="23"/>
+      <c r="E2482" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2482" s="10" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G2482" s="10" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="2483" spans="4:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D2483" s="23"/>
+      <c r="E2483" s="10">
+        <v>6</v>
+      </c>
+      <c r="F2483" s="10" t="s">
+        <v>1696</v>
+      </c>
+      <c r="G2483" s="10" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="2484" spans="4:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2484" s="23"/>
+      <c r="E2484" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2484" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="G2484" s="10" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2485" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2485" s="23"/>
+      <c r="E2485" s="10">
+        <v>8</v>
+      </c>
+      <c r="F2485" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2485" s="10" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="2486" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2486" s="23"/>
+      <c r="E2486" s="10">
+        <v>9</v>
+      </c>
+      <c r="F2486" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="G2486" s="10" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2487" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2487" s="24"/>
+      <c r="E2487" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2487" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2487" s="10" t="s">
+        <v>1693</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="213">
-    <mergeCell ref="D2215:D2227"/>
-    <mergeCell ref="D2229:D2241"/>
-    <mergeCell ref="D2243:D2253"/>
-    <mergeCell ref="D2255:D2261"/>
-    <mergeCell ref="D2263:D2275"/>
-    <mergeCell ref="D1986:D1997"/>
-    <mergeCell ref="D1999:D2010"/>
-    <mergeCell ref="D2012:D2022"/>
-    <mergeCell ref="D2024:D2034"/>
-    <mergeCell ref="D1934:D1940"/>
-    <mergeCell ref="D1942:D1951"/>
-    <mergeCell ref="D1953:D1961"/>
-    <mergeCell ref="D1963:D1972"/>
-    <mergeCell ref="D1974:D1976"/>
-    <mergeCell ref="D1978:D1980"/>
-    <mergeCell ref="D1982:D1984"/>
-    <mergeCell ref="D1868:D1877"/>
-    <mergeCell ref="D1879:D1891"/>
-    <mergeCell ref="D1893:D1901"/>
-    <mergeCell ref="D1903:D1911"/>
-    <mergeCell ref="D1913:D1921"/>
-    <mergeCell ref="D1923:D1932"/>
+  <mergeCells count="232">
+    <mergeCell ref="D2470:D2476"/>
+    <mergeCell ref="D2478:D2487"/>
+    <mergeCell ref="D2395:D2403"/>
+    <mergeCell ref="D2405:D2413"/>
+    <mergeCell ref="D2415:D2425"/>
+    <mergeCell ref="D2427:D2435"/>
+    <mergeCell ref="D2437:D2445"/>
+    <mergeCell ref="D2447:D2461"/>
+    <mergeCell ref="D2463:D2468"/>
+    <mergeCell ref="D2333:D2343"/>
+    <mergeCell ref="D2345:D2357"/>
+    <mergeCell ref="D2359:D2371"/>
+    <mergeCell ref="D2373:D2382"/>
+    <mergeCell ref="D2384:D2393"/>
+    <mergeCell ref="D2120:D2128"/>
+    <mergeCell ref="D2277:D2286"/>
+    <mergeCell ref="D2288:D2297"/>
+    <mergeCell ref="D2299:D2310"/>
+    <mergeCell ref="D2312:D2321"/>
+    <mergeCell ref="D2323:D2331"/>
+    <mergeCell ref="D1796:D1804"/>
+    <mergeCell ref="D1806:D1812"/>
+    <mergeCell ref="D1721:D1732"/>
+    <mergeCell ref="D1734:D1745"/>
+    <mergeCell ref="D1747:D1758"/>
+    <mergeCell ref="D1760:D1766"/>
+    <mergeCell ref="D1768:D1776"/>
+    <mergeCell ref="D1779:D1785"/>
+    <mergeCell ref="D1787:D1794"/>
+    <mergeCell ref="D1680:D1687"/>
+    <mergeCell ref="D1689:D1698"/>
+    <mergeCell ref="D1700:D1706"/>
+    <mergeCell ref="D1708:D1719"/>
+    <mergeCell ref="D1634:D1647"/>
+    <mergeCell ref="D1649:D1650"/>
+    <mergeCell ref="D1652:D1654"/>
+    <mergeCell ref="D1656:D1664"/>
+    <mergeCell ref="D1666:D1671"/>
+    <mergeCell ref="D1673:D1678"/>
+    <mergeCell ref="D1604:D1616"/>
+    <mergeCell ref="D1618:D1632"/>
+    <mergeCell ref="D1354:D1357"/>
+    <mergeCell ref="D842:D854"/>
+    <mergeCell ref="D857:D864"/>
+    <mergeCell ref="D866:D873"/>
+    <mergeCell ref="D875:D885"/>
+    <mergeCell ref="D812:D824"/>
+    <mergeCell ref="D826:D830"/>
+    <mergeCell ref="D832:D840"/>
+    <mergeCell ref="D1062:D1071"/>
+    <mergeCell ref="D1073:D1075"/>
+    <mergeCell ref="D1030:D1037"/>
+    <mergeCell ref="D1039:D1048"/>
+    <mergeCell ref="D1050:D1060"/>
+    <mergeCell ref="D992:D1004"/>
+    <mergeCell ref="D1006:D1015"/>
+    <mergeCell ref="D1017:D1028"/>
+    <mergeCell ref="D928:D936"/>
+    <mergeCell ref="D938:D946"/>
+    <mergeCell ref="D948:D955"/>
+    <mergeCell ref="D887:D894"/>
+    <mergeCell ref="D1423:D1435"/>
+    <mergeCell ref="D1437:D1443"/>
+    <mergeCell ref="D896:D907"/>
+    <mergeCell ref="D909:D917"/>
+    <mergeCell ref="D919:D926"/>
+    <mergeCell ref="D1199:D1213"/>
+    <mergeCell ref="D957:D966"/>
+    <mergeCell ref="D968:D976"/>
+    <mergeCell ref="D978:D990"/>
+    <mergeCell ref="D1077:D1087"/>
+    <mergeCell ref="D1175:D1177"/>
+    <mergeCell ref="D1179:D1193"/>
+    <mergeCell ref="D1195:D1197"/>
+    <mergeCell ref="D1125:D1137"/>
+    <mergeCell ref="D1139:D1141"/>
+    <mergeCell ref="D1143:D1155"/>
+    <mergeCell ref="D1157:D1159"/>
+    <mergeCell ref="D1161:D1173"/>
+    <mergeCell ref="D1089:D1099"/>
+    <mergeCell ref="D1101:D1111"/>
+    <mergeCell ref="D1113:D1123"/>
+    <mergeCell ref="D661:D667"/>
+    <mergeCell ref="D669:D675"/>
+    <mergeCell ref="D677:D683"/>
+    <mergeCell ref="D685:D691"/>
+    <mergeCell ref="D693:D699"/>
+    <mergeCell ref="D772:D785"/>
+    <mergeCell ref="D788:D806"/>
+    <mergeCell ref="D808:D810"/>
+    <mergeCell ref="D709:D714"/>
+    <mergeCell ref="D716:D728"/>
+    <mergeCell ref="D730:D742"/>
+    <mergeCell ref="D744:D756"/>
+    <mergeCell ref="D758:D770"/>
+    <mergeCell ref="D701:D707"/>
+    <mergeCell ref="D620:D627"/>
+    <mergeCell ref="D629:D635"/>
+    <mergeCell ref="D637:D643"/>
+    <mergeCell ref="D645:D651"/>
+    <mergeCell ref="D653:D659"/>
+    <mergeCell ref="D562:D575"/>
+    <mergeCell ref="D577:D590"/>
+    <mergeCell ref="D592:D600"/>
+    <mergeCell ref="D602:D609"/>
+    <mergeCell ref="D611:D618"/>
+    <mergeCell ref="D516:D530"/>
+    <mergeCell ref="D532:D544"/>
+    <mergeCell ref="D546:D560"/>
+    <mergeCell ref="D484:D491"/>
+    <mergeCell ref="D494:D502"/>
+    <mergeCell ref="D505:D514"/>
+    <mergeCell ref="D455:D464"/>
+    <mergeCell ref="D467:D476"/>
+    <mergeCell ref="D479:D482"/>
+    <mergeCell ref="D347:D353"/>
+    <mergeCell ref="D356:D364"/>
+    <mergeCell ref="D292:D301"/>
+    <mergeCell ref="D180:D190"/>
+    <mergeCell ref="D192:D200"/>
+    <mergeCell ref="D202:D210"/>
+    <mergeCell ref="D212:D220"/>
+    <mergeCell ref="D222:D228"/>
+    <mergeCell ref="D230:D237"/>
+    <mergeCell ref="D239:D248"/>
+    <mergeCell ref="D250:D256"/>
+    <mergeCell ref="D258:D262"/>
+    <mergeCell ref="D264:D268"/>
+    <mergeCell ref="D270:D280"/>
+    <mergeCell ref="D282:D289"/>
+    <mergeCell ref="D330:D337"/>
+    <mergeCell ref="D339:D345"/>
+    <mergeCell ref="D304:D314"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="D65:D71"/>
+    <mergeCell ref="D73:D81"/>
+    <mergeCell ref="D316:D328"/>
+    <mergeCell ref="D422:D430"/>
+    <mergeCell ref="D432:D441"/>
+    <mergeCell ref="D443:D453"/>
+    <mergeCell ref="D366:D374"/>
+    <mergeCell ref="D376:D381"/>
+    <mergeCell ref="D383:D395"/>
+    <mergeCell ref="D397:D407"/>
+    <mergeCell ref="D409:D420"/>
+    <mergeCell ref="D135:D143"/>
+    <mergeCell ref="D145:D149"/>
+    <mergeCell ref="D151:D158"/>
+    <mergeCell ref="D160:D167"/>
+    <mergeCell ref="D169:D177"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="D94:D103"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="D116:D123"/>
+    <mergeCell ref="D125:D133"/>
+    <mergeCell ref="D1511:D1517"/>
+    <mergeCell ref="D1519:D1526"/>
+    <mergeCell ref="D1445:D1451"/>
+    <mergeCell ref="D1453:D1463"/>
+    <mergeCell ref="D1231:D1244"/>
+    <mergeCell ref="D1246:D1259"/>
+    <mergeCell ref="D1261:D1274"/>
+    <mergeCell ref="D1276:D1290"/>
+    <mergeCell ref="D1215:D1229"/>
+    <mergeCell ref="D1292:D1307"/>
+    <mergeCell ref="D1309:D1324"/>
+    <mergeCell ref="D1326:D1342"/>
+    <mergeCell ref="D1344:D1347"/>
+    <mergeCell ref="D1349:D1352"/>
     <mergeCell ref="D1814:D1821"/>
     <mergeCell ref="D1823:D1833"/>
     <mergeCell ref="D1835:D1845"/>
@@ -37466,157 +40791,28 @@
     <mergeCell ref="D1480:D1489"/>
     <mergeCell ref="D1491:D1497"/>
     <mergeCell ref="D1499:D1509"/>
-    <mergeCell ref="D1511:D1517"/>
-    <mergeCell ref="D1519:D1526"/>
-    <mergeCell ref="D1445:D1451"/>
-    <mergeCell ref="D1453:D1463"/>
-    <mergeCell ref="D1231:D1244"/>
-    <mergeCell ref="D1246:D1259"/>
-    <mergeCell ref="D1261:D1274"/>
-    <mergeCell ref="D1276:D1290"/>
-    <mergeCell ref="D1215:D1229"/>
-    <mergeCell ref="D1292:D1307"/>
-    <mergeCell ref="D1309:D1324"/>
-    <mergeCell ref="D1326:D1342"/>
-    <mergeCell ref="D1344:D1347"/>
-    <mergeCell ref="D1349:D1352"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="D65:D71"/>
-    <mergeCell ref="D73:D81"/>
-    <mergeCell ref="D316:D328"/>
-    <mergeCell ref="D422:D430"/>
-    <mergeCell ref="D432:D441"/>
-    <mergeCell ref="D443:D453"/>
-    <mergeCell ref="D366:D374"/>
-    <mergeCell ref="D376:D381"/>
-    <mergeCell ref="D383:D395"/>
-    <mergeCell ref="D397:D407"/>
-    <mergeCell ref="D409:D420"/>
-    <mergeCell ref="D135:D143"/>
-    <mergeCell ref="D145:D149"/>
-    <mergeCell ref="D151:D158"/>
-    <mergeCell ref="D160:D167"/>
-    <mergeCell ref="D169:D177"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="D94:D103"/>
-    <mergeCell ref="D105:D114"/>
-    <mergeCell ref="D116:D123"/>
-    <mergeCell ref="D125:D133"/>
-    <mergeCell ref="D347:D353"/>
-    <mergeCell ref="D356:D364"/>
-    <mergeCell ref="D292:D301"/>
-    <mergeCell ref="D180:D190"/>
-    <mergeCell ref="D192:D200"/>
-    <mergeCell ref="D202:D210"/>
-    <mergeCell ref="D212:D220"/>
-    <mergeCell ref="D222:D228"/>
-    <mergeCell ref="D230:D237"/>
-    <mergeCell ref="D239:D248"/>
-    <mergeCell ref="D250:D256"/>
-    <mergeCell ref="D258:D262"/>
-    <mergeCell ref="D264:D268"/>
-    <mergeCell ref="D270:D280"/>
-    <mergeCell ref="D282:D289"/>
-    <mergeCell ref="D330:D337"/>
-    <mergeCell ref="D339:D345"/>
-    <mergeCell ref="D304:D314"/>
-    <mergeCell ref="D516:D530"/>
-    <mergeCell ref="D532:D544"/>
-    <mergeCell ref="D546:D560"/>
-    <mergeCell ref="D484:D491"/>
-    <mergeCell ref="D494:D502"/>
-    <mergeCell ref="D505:D514"/>
-    <mergeCell ref="D455:D464"/>
-    <mergeCell ref="D467:D476"/>
-    <mergeCell ref="D479:D482"/>
-    <mergeCell ref="D620:D627"/>
-    <mergeCell ref="D629:D635"/>
-    <mergeCell ref="D637:D643"/>
-    <mergeCell ref="D645:D651"/>
-    <mergeCell ref="D653:D659"/>
-    <mergeCell ref="D562:D575"/>
-    <mergeCell ref="D577:D590"/>
-    <mergeCell ref="D592:D600"/>
-    <mergeCell ref="D602:D609"/>
-    <mergeCell ref="D611:D618"/>
-    <mergeCell ref="D661:D667"/>
-    <mergeCell ref="D669:D675"/>
-    <mergeCell ref="D677:D683"/>
-    <mergeCell ref="D685:D691"/>
-    <mergeCell ref="D693:D699"/>
-    <mergeCell ref="D772:D785"/>
-    <mergeCell ref="D788:D806"/>
-    <mergeCell ref="D808:D810"/>
-    <mergeCell ref="D709:D714"/>
-    <mergeCell ref="D716:D728"/>
-    <mergeCell ref="D730:D742"/>
-    <mergeCell ref="D744:D756"/>
-    <mergeCell ref="D758:D770"/>
-    <mergeCell ref="D701:D707"/>
-    <mergeCell ref="D896:D907"/>
-    <mergeCell ref="D909:D917"/>
-    <mergeCell ref="D919:D926"/>
-    <mergeCell ref="D1199:D1213"/>
-    <mergeCell ref="D957:D966"/>
-    <mergeCell ref="D968:D976"/>
-    <mergeCell ref="D978:D990"/>
-    <mergeCell ref="D1077:D1087"/>
-    <mergeCell ref="D1175:D1177"/>
-    <mergeCell ref="D1179:D1193"/>
-    <mergeCell ref="D1195:D1197"/>
-    <mergeCell ref="D1125:D1137"/>
-    <mergeCell ref="D1139:D1141"/>
-    <mergeCell ref="D1143:D1155"/>
-    <mergeCell ref="D1157:D1159"/>
-    <mergeCell ref="D1161:D1173"/>
-    <mergeCell ref="D1089:D1099"/>
-    <mergeCell ref="D1101:D1111"/>
-    <mergeCell ref="D1113:D1123"/>
-    <mergeCell ref="D1604:D1616"/>
-    <mergeCell ref="D1618:D1632"/>
-    <mergeCell ref="D1354:D1357"/>
-    <mergeCell ref="D842:D854"/>
-    <mergeCell ref="D857:D864"/>
-    <mergeCell ref="D866:D873"/>
-    <mergeCell ref="D875:D885"/>
-    <mergeCell ref="D812:D824"/>
-    <mergeCell ref="D826:D830"/>
-    <mergeCell ref="D832:D840"/>
-    <mergeCell ref="D1062:D1071"/>
-    <mergeCell ref="D1073:D1075"/>
-    <mergeCell ref="D1030:D1037"/>
-    <mergeCell ref="D1039:D1048"/>
-    <mergeCell ref="D1050:D1060"/>
-    <mergeCell ref="D992:D1004"/>
-    <mergeCell ref="D1006:D1015"/>
-    <mergeCell ref="D1017:D1028"/>
-    <mergeCell ref="D928:D936"/>
-    <mergeCell ref="D938:D946"/>
-    <mergeCell ref="D948:D955"/>
-    <mergeCell ref="D887:D894"/>
-    <mergeCell ref="D1423:D1435"/>
-    <mergeCell ref="D1437:D1443"/>
-    <mergeCell ref="D1680:D1687"/>
-    <mergeCell ref="D1689:D1698"/>
-    <mergeCell ref="D1700:D1706"/>
-    <mergeCell ref="D1708:D1719"/>
-    <mergeCell ref="D1634:D1647"/>
-    <mergeCell ref="D1649:D1650"/>
-    <mergeCell ref="D1652:D1654"/>
-    <mergeCell ref="D1656:D1664"/>
-    <mergeCell ref="D1666:D1671"/>
-    <mergeCell ref="D1673:D1678"/>
-    <mergeCell ref="D1796:D1804"/>
-    <mergeCell ref="D1806:D1812"/>
-    <mergeCell ref="D1721:D1732"/>
-    <mergeCell ref="D1734:D1745"/>
-    <mergeCell ref="D1747:D1758"/>
-    <mergeCell ref="D1760:D1766"/>
-    <mergeCell ref="D1768:D1776"/>
-    <mergeCell ref="D1779:D1785"/>
-    <mergeCell ref="D1787:D1794"/>
+    <mergeCell ref="D1934:D1940"/>
+    <mergeCell ref="D1942:D1951"/>
+    <mergeCell ref="D1953:D1961"/>
+    <mergeCell ref="D1963:D1972"/>
+    <mergeCell ref="D1974:D1976"/>
+    <mergeCell ref="D1978:D1980"/>
+    <mergeCell ref="D1982:D1984"/>
+    <mergeCell ref="D1868:D1877"/>
+    <mergeCell ref="D1879:D1891"/>
+    <mergeCell ref="D1893:D1901"/>
+    <mergeCell ref="D1903:D1911"/>
+    <mergeCell ref="D1913:D1921"/>
+    <mergeCell ref="D1923:D1932"/>
+    <mergeCell ref="D2215:D2227"/>
+    <mergeCell ref="D2229:D2241"/>
+    <mergeCell ref="D2243:D2253"/>
+    <mergeCell ref="D2255:D2261"/>
+    <mergeCell ref="D2263:D2275"/>
+    <mergeCell ref="D1986:D1997"/>
+    <mergeCell ref="D1999:D2010"/>
+    <mergeCell ref="D2012:D2022"/>
+    <mergeCell ref="D2024:D2034"/>
     <mergeCell ref="D2130:D2138"/>
     <mergeCell ref="D2140:D2146"/>
     <mergeCell ref="D2148:D2157"/>
@@ -37632,16 +40828,15 @@
     <mergeCell ref="D2084:D2094"/>
     <mergeCell ref="D2096:D2106"/>
     <mergeCell ref="D2108:D2118"/>
-    <mergeCell ref="D2120:D2128"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C656:C660 C662:C668 C670:C676 C678:C684 C686:C692 C694:C700 C702:C708 C710:C715 C717:C725" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B7 B14 B21 B28 B35 B40 B45 B48 B51 B55 B58:B59 B65 B73 B83 B94 B105 B116 B125 B135 B145 B151 B160 B169 B180 B192 B202 B212 B222 B230 B239 B250 B258 B264 B270 B282 B292 B304 B316 B330 B339 B347 B356 B366 B376 B383 B397 B409 B422 B432 B443 B455 B467 B479 B484 B494 B505 B516 B532 B546 B562 B577 B592 B602 B611 B620 B629 B637 B645 B653 B661 B669 B677 B685 B693 B701 B709 B716 B730 B744 B758 B772 B788 B808 B812 B826 B832 B842 B857 B866 B875 B887 B896 B909 B919 B928 B938 B948 B957 B968 B978 B992 B1006 B1017 B1030 B1039 B1050 B1062 B1073 B1077 B1089 B1101 B1113 B1125 B1139 B1143 B1157 B1161 B1175 B1179 B1195 B1199 B1215 B1231 B1246 B1261 B1276 B1292 B1309 B1326 B1344 B1349 B1354 B1359 B1367 B1378 B1383 B1397 B1409 B1423 B1437 B1445 B1453 B1465 B1471 B1480 B1491 B1499 B1511 B1519 B1528 B1537 B1548 B1557 B1574 B1584 B1596 B1604 B1618 B1634 B1649 B1652 B1656 B1666 B1673 B1680 B1689 B1700 B1708 B1721 B1734 B1747 B1760 B1768 B1779 B1787 B1796 B1806 B1814:B1815 B1823 B1835 B1847 B1852 B1857 B1868 B1879 B1893 B1903 B1913 B1923 B1934 B1942 B1953 B1963 B1974 B1978 B1982 B1986 B1999 B2012 B2024 B2036 B2048 B2060 B2072 B2084 B2096 B2108 B2120 B2130 B2140 B2148 B2159 B2172 B2176 B2188 B2202 B2215 B2229 B2243 B2255 B2263" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B7 B14 B21 B28 B35 B40 B45 B48 B51 B55 B58:B59 B65 B73 B83 B94 B105 B116 B125 B135 B145 B151 B160 B169 B180 B192 B202 B212 B222 B230 B239 B250 B258 B264 B270 B282 B292 B304 B316 B330 B339 B347 B356 B366 B376 B383 B397 B409 B422 B432 B443 B455 B467 B479 B484 B494 B505 B516 B532 B546 B562 B577 B592 B602 B611 B620 B629 B637 B645 B653 B661 B669 B677 B685 B693 B701 B709 B716 B730 B744 B758 B772 B788 B808 B812 B826 B832 B842 B857 B866 B875 B887 B896 B909 B919 B928 B938 B948 B957 B968 B978 B992 B1006 B1017 B1030 B1039 B1050 B1062 B1073 B1077 B1089 B1101 B1113 B1125 B1139 B1143 B1157 B1161 B1175 B1179 B1195 B1199 B1215 B1231 B1246 B1261 B1276 B1292 B1309 B1326 B1344 B1349 B1354 B1359 B1367 B1378 B1383 B1397 B1409 B1423 B1437 B1445 B1453 B1465 B1471 B1480 B1491 B1499 B1511 B1519 B1528 B1537 B1548 B1557 B1574 B1584 B1596 B1604 B1618 B1634 B1649 B1652 B1656 B1666 B1673 B1680 B1689 B1700 B1708 B1721 B1734 B1747 B1760 B1768 B1779 B1787 B1796 B1806 B1814:B1815 B1823 B1835 B1847 B1852 B1857 B1868 B1879 B1893 B1903 B1913 B1923 B1934 B1942 B1953 B1963 B1974 B1978 B1982 B1986 B1999 B2012 B2024 B2036 B2048 B2060 B2072 B2084 B2096 B2108 B2120 B2130 B2140 B2148 B2159 B2172 B2176 B2188 B2202 B2215 B2229 B2243 B2255 B2263 B2277 B2288 B2299 B2312 B2323 B2333 B2345 B2359 B2373 B2384 B2395 B2405 B2415 B2427 B2437 B2447 B2463 B2470 B2478" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K478 C2:C655 C661 C669 C677 C685 C693 C701 C709 C716 C730 C744 C758 C772 C788 C808 C812 C826 C832 C842 C857 C866 C875 C887 C896 C909 C919 C928 C938 C948 C957 C968 C978 C992 C1006 C1017 C1030 C1039 C1050 C1062 C1073 C1077 C1089 C1101 C1113 C1125 C1139 C1143 C1157 C1161 C1175 C1179 C1195 C1199 C1215 C1231 C1246 C1261 C1276 C1292 C1309 C1326 C1344 C1349 C1354 C1359 C1367 C1378 C1383 C1397 C1409 C1423 C1437 C1445 C1453 C1465 C1471 C1480 C1491 C1499 C1511 C1519 C1528 C1537 C1548 C1557 C1574 C1584 C1596 C1604 C1618 C1634 C1649 C1652 C1656 C1666 C1673 C1680 C1689 C1700 C1708 C1721 C1734 C1747 C1760 C1768 C1779 C1787 C1796 C1806 C1814:C1815 C1823 C1835 C1847 C1852 C1857 C1868 C1879 C1893 C1903 C1913 C1923 C1934 C1942 C1953 C1963 C1974 C1978 C1982 C1986 C1999 C2012 C2024 C2036 C2048 C2060 C2072 C2084 C2096 C2108 C2120 C2130 C2140 C2148 C2159 C2172 C2176 C2188 C2202 C2215 C2229 C2243 C2255 C2263" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K478 C2:C655 C661 C669 C677 C685 C693 C701 C709 C716 C730 C744 C758 C772 C788 C808 C812 C826 C832 C842 C857 C866 C875 C887 C896 C909 C919 C928 C938 C948 C957 C968 C978 C992 C1006 C1017 C1030 C1039 C1050 C1062 C1073 C1077 C1089 C1101 C1113 C1125 C1139 C1143 C1157 C1161 C1175 C1179 C1195 C1199 C1215 C1231 C1246 C1261 C1276 C1292 C1309 C1326 C1344 C1349 C1354 C1359 C1367 C1378 C1383 C1397 C1409 C1423 C1437 C1445 C1453 C1465 C1471 C1480 C1491 C1499 C1511 C1519 C1528 C1537 C1548 C1557 C1574 C1584 C1596 C1604 C1618 C1634 C1649 C1652 C1656 C1666 C1673 C1680 C1689 C1700 C1708 C1721 C1734 C1747 C1760 C1768 C1779 C1787 C1796 C1806 C1814:C1815 C1823 C1835 C1847 C1852 C1857 C1868 C1879 C1893 C1903 C1913 C1923 C1934 C1942 C1953 C1963 C1974 C1978 C1982 C1986 C1999 C2012 C2024 C2036 C2048 C2060 C2072 C2084 C2096 C2108 C2120 C2130 C2140 C2148 C2159 C2172 C2176 C2188 C2202 C2215 C2229 C2243 C2255 C2263 C2277 C2288 C2299 C2312 C2323 C2333 C2345 C2359 C2373 C2384 C2395 C2405 C2415 C2427 C2437 C2447 C2463 C2470 C2478" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K479:K684" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
@@ -37844,8 +41039,27 @@
     <hyperlink ref="I2243" r:id="rId190" xr:uid="{37EA78AF-154D-49B1-B263-D1527373476D}"/>
     <hyperlink ref="I2255" r:id="rId191" xr:uid="{7188BF1A-8ED0-4B71-A5A4-E9E95F25FCAC}"/>
     <hyperlink ref="I2263" r:id="rId192" xr:uid="{71260FD6-D64A-4060-8408-6A5E62FE0D37}"/>
+    <hyperlink ref="I2277" r:id="rId193" xr:uid="{1C56F294-2E79-48FF-B9DA-2AACAB2E48E2}"/>
+    <hyperlink ref="I2288" r:id="rId194" xr:uid="{E49D00D5-51F9-47A7-98A6-EE896A2543E1}"/>
+    <hyperlink ref="I2299" r:id="rId195" xr:uid="{3AC97032-D8DD-4409-B186-04065F137260}"/>
+    <hyperlink ref="I2312" r:id="rId196" xr:uid="{D582D76C-8560-48E7-BBE4-9C39510180A8}"/>
+    <hyperlink ref="I2323" r:id="rId197" xr:uid="{37A86DB9-E3C8-44CD-AC87-E5C4C2237632}"/>
+    <hyperlink ref="I2333" r:id="rId198" xr:uid="{998F6355-6489-4CD9-BA6F-586347487B2E}"/>
+    <hyperlink ref="I2345" r:id="rId199" xr:uid="{0DB0BC2B-BDBE-4727-8116-21C5C0D7FCE8}"/>
+    <hyperlink ref="I2359" r:id="rId200" xr:uid="{AA5A225B-7CEA-4843-A5E3-69A7ABE7BFA5}"/>
+    <hyperlink ref="I2373" r:id="rId201" xr:uid="{63F22703-0A61-4A39-8B9A-6C8936C66460}"/>
+    <hyperlink ref="I2384" r:id="rId202" xr:uid="{86EBDB29-0176-4B8B-A12F-ABEF9ED33D70}"/>
+    <hyperlink ref="I2395" r:id="rId203" xr:uid="{11C1AD8A-8AB1-44F9-BC67-16DE54A84338}"/>
+    <hyperlink ref="I2405" r:id="rId204" xr:uid="{51010E63-B25E-4740-9B5B-CA9BAEADF959}"/>
+    <hyperlink ref="I2415" r:id="rId205" xr:uid="{FF012F3D-DDE3-4AD0-AC1F-01C517494FC2}"/>
+    <hyperlink ref="I2427" r:id="rId206" xr:uid="{7DA79527-505E-446F-BE88-9C12E20C1753}"/>
+    <hyperlink ref="I2437" r:id="rId207" xr:uid="{726C61FF-C415-4B86-813C-884976F4CB8E}"/>
+    <hyperlink ref="I2447" r:id="rId208" xr:uid="{A476A747-CFE7-402D-A7FC-29E705828160}"/>
+    <hyperlink ref="I2463" r:id="rId209" xr:uid="{641B37EA-BEAA-4675-8B10-077F72A84FE1}"/>
+    <hyperlink ref="I2470" r:id="rId210" xr:uid="{757B738A-97AF-4117-AA6F-01651876921A}"/>
+    <hyperlink ref="I2478" r:id="rId211" xr:uid="{71D915A2-0ED5-4547-B7A9-0AA1D0EE503D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId193"/>
+  <pageSetup orientation="portrait" r:id="rId212"/>
 </worksheet>
 </file>